--- a/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
@@ -15,12 +15,12 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1211</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8762" uniqueCount="2729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8841" uniqueCount="2756">
   <si>
     <t>Req ID</t>
   </si>
@@ -9949,6 +9949,87 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does not support the ErrorCalendarInvalidDayForWeeklyRecurrence to specify that invalid values of Day, WeekDay, and WeekendDay were used to specify the weekly recurrence. (Exchange 2016 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OXWSMTGS_R3541</t>
+  </si>
+  <si>
+    <t>MS-OXWSMTGS_R3542</t>
+  </si>
+  <si>
+    <t>MS-OXWSMTGS_R354:i</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support ConferenceType in MeetingRequestMessageType. (Exchange 2007, Exchange 2010 and Exchange 2013 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support ConferenceType in MeetingRequestMessageType. (Exchange 2016 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSMTGS_R3541.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMTGS_R3311</t>
+  </si>
+  <si>
+    <t>MS-OXWSMTGS_R3312</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support TimeZone in MeetingRequestMessageType. (Exchange 2016 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OXWSMTGS_R331:i</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support TimeZone in MeetingRequestMessageType. (Exchange 2007, Exchange 2010 and Exchange 2013 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSMTGS_R3311.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R885</t>
+  </si>
+  <si>
+    <t>2.2.3.25</t>
+  </si>
+  <si>
+    <t>[In t:UnindexedFieldURIType Simple Type] The value "calendar:ConflictingMeetingCount" specifies the ConflictingMeetingCount property.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R8851</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support value "calendar:ConflictingMeetingCount" specifies the ConflictingMeetingCount property. (Exchange 2007 follows this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support value "calendar:ConflictingMeetingCount" specifies the ConflictingMeetingCount property. (Exchange 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R885:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R8852</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCDATA_R8852.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMTGS_R7511</t>
+  </si>
+  <si>
+    <t>MS-OXWSMTGS_R7512</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support PrincipalWantsCopy which indicates that the meeting request belongs to a principal who has forwarded meeting messages to a delegate. (Exchange 2007 follows this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support PrincipalWantsCopy which indicates that the meeting request belongs to a principal who has forwarded meeting messages to a delegate. (Exchange 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OXWSMTGS_R75:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSMTGS_R7512.</t>
   </si>
 </sst>
 </file>
@@ -14677,8 +14758,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1202" tableType="xml" totalsRowShown="0" headerRowDxfId="758" dataDxfId="757" connectionId="1">
-  <autoFilter ref="A19:I1202"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1211" tableType="xml" totalsRowShown="0" headerRowDxfId="758" dataDxfId="757" connectionId="1">
+  <autoFilter ref="A19:I1211"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="756">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -15046,7 +15127,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1204"/>
+  <dimension ref="A1:M1213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -26490,7 +26571,7 @@
       </c>
       <c r="I455" s="42"/>
     </row>
-    <row r="456" spans="1:9" ht="30">
+    <row r="456" spans="1:9" ht="45">
       <c r="A456" s="40" t="s">
         <v>377</v>
       </c>
@@ -26511,9 +26592,11 @@
         <v>15</v>
       </c>
       <c r="H456" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I456" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="I456" s="42" t="s">
+        <v>2740</v>
+      </c>
     </row>
     <row r="457" spans="1:9" ht="30">
       <c r="A457" s="40" t="s">
@@ -27046,7 +27129,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" ht="45">
       <c r="A478" s="40" t="s">
         <v>398</v>
       </c>
@@ -27067,9 +27150,11 @@
         <v>15</v>
       </c>
       <c r="H478" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I478" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="I478" s="42" t="s">
+        <v>2734</v>
+      </c>
     </row>
     <row r="479" spans="1:9" ht="75">
       <c r="A479" s="40" t="s">
@@ -34568,9 +34653,11 @@
         <v>15</v>
       </c>
       <c r="H775" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I775" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="I775" s="42" t="s">
+        <v>2755</v>
+      </c>
     </row>
     <row r="776" spans="1:9" ht="150">
       <c r="A776" s="40" t="s">
@@ -42903,182 +42990,184 @@
     </row>
     <row r="1093" spans="1:9" ht="45">
       <c r="A1093" s="40" t="s">
-        <v>785</v>
+        <v>2750</v>
       </c>
       <c r="B1093" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1093" s="42" t="s">
-        <v>2095</v>
+        <v>2752</v>
       </c>
       <c r="D1093" s="40" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E1093" s="40" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E1093" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F1093" s="40" t="s">
+      <c r="F1093" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1093" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1093" s="40" t="s">
+      <c r="G1093" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1093" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I1093" s="42"/>
+      <c r="I1093" s="49"/>
     </row>
     <row r="1094" spans="1:9" ht="45">
       <c r="A1094" s="40" t="s">
-        <v>786</v>
+        <v>2751</v>
       </c>
       <c r="B1094" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1094" s="42" t="s">
-        <v>1561</v>
+        <v>2753</v>
       </c>
       <c r="D1094" s="40" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E1094" s="40" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E1094" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F1094" s="40" t="s">
+      <c r="F1094" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1094" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1094" s="40" t="s">
+      <c r="G1094" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1094" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="I1094" s="41" t="s">
+      <c r="I1094" s="42" t="s">
         <v>1735</v>
       </c>
     </row>
     <row r="1095" spans="1:9" ht="45">
       <c r="A1095" s="40" t="s">
-        <v>787</v>
+        <v>2729</v>
       </c>
       <c r="B1095" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1095" s="42" t="s">
-        <v>2096</v>
+        <v>2732</v>
       </c>
       <c r="D1095" s="40" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E1095" s="40" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E1095" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F1095" s="40" t="s">
+      <c r="F1095" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1095" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1095" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1095" s="42"/>
-    </row>
-    <row r="1096" spans="1:9" ht="45">
+      <c r="G1095" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1095" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1095" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:9" ht="30">
       <c r="A1096" s="40" t="s">
-        <v>788</v>
+        <v>2730</v>
       </c>
       <c r="B1096" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1096" s="42" t="s">
-        <v>1549</v>
+        <v>2733</v>
       </c>
       <c r="D1096" s="40" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E1096" s="40" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E1096" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F1096" s="40" t="s">
+      <c r="F1096" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1096" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1096" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1096" s="42" t="s">
-        <v>1735</v>
-      </c>
+      <c r="G1096" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1096" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1096" s="49"/>
     </row>
     <row r="1097" spans="1:9" ht="45">
       <c r="A1097" s="40" t="s">
-        <v>789</v>
+        <v>2735</v>
       </c>
       <c r="B1097" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1097" s="42" t="s">
-        <v>2097</v>
+        <v>2739</v>
       </c>
       <c r="D1097" s="40" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E1097" s="40" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E1097" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F1097" s="40" t="s">
+      <c r="F1097" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1097" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1097" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1097" s="42"/>
-    </row>
-    <row r="1098" spans="1:9" ht="45">
+      <c r="G1097" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1097" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1097" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:9" ht="30">
       <c r="A1098" s="40" t="s">
-        <v>790</v>
+        <v>2736</v>
       </c>
       <c r="B1098" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1098" s="42" t="s">
-        <v>1562</v>
+        <v>2737</v>
       </c>
       <c r="D1098" s="40" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E1098" s="40" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E1098" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F1098" s="40" t="s">
+      <c r="F1098" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1098" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1098" s="40" t="s">
+      <c r="G1098" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1098" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I1098" s="42"/>
+      <c r="I1098" s="49"/>
     </row>
     <row r="1099" spans="1:9" ht="45">
       <c r="A1099" s="40" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B1099" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1099" s="42" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="D1099" s="40" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="E1099" s="40" t="s">
         <v>22</v>
@@ -43096,16 +43185,16 @@
     </row>
     <row r="1100" spans="1:9" ht="45">
       <c r="A1100" s="40" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B1100" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1100" s="42" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D1100" s="40" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="E1100" s="40" t="s">
         <v>22</v>
@@ -43117,22 +43206,24 @@
         <v>15</v>
       </c>
       <c r="H1100" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1100" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="I1100" s="41" t="s">
+        <v>1735</v>
+      </c>
     </row>
     <row r="1101" spans="1:9" ht="45">
       <c r="A1101" s="40" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B1101" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1101" s="42" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="D1101" s="40" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="E1101" s="40" t="s">
         <v>22</v>
@@ -43148,18 +43239,18 @@
       </c>
       <c r="I1101" s="42"/>
     </row>
-    <row r="1102" spans="1:9" s="38" customFormat="1" ht="60">
+    <row r="1102" spans="1:9" ht="45">
       <c r="A1102" s="40" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B1102" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1102" s="42" t="s">
-        <v>1564</v>
+        <v>1549</v>
       </c>
       <c r="D1102" s="40" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="E1102" s="40" t="s">
         <v>22</v>
@@ -43177,24 +43268,24 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="1103" spans="1:9" ht="60">
+    <row r="1103" spans="1:9" ht="45">
       <c r="A1103" s="40" t="s">
-        <v>2425</v>
+        <v>789</v>
       </c>
       <c r="B1103" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1103" s="42" t="s">
-        <v>2611</v>
+        <v>2097</v>
       </c>
       <c r="D1103" s="40" t="s">
-        <v>2503</v>
+        <v>1686</v>
       </c>
       <c r="E1103" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F1103" s="40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1103" s="40" t="s">
         <v>15</v>
@@ -43204,53 +43295,51 @@
       </c>
       <c r="I1103" s="42"/>
     </row>
-    <row r="1104" spans="1:9" ht="135">
+    <row r="1104" spans="1:9" ht="45">
       <c r="A1104" s="40" t="s">
-        <v>2426</v>
+        <v>790</v>
       </c>
       <c r="B1104" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1104" s="42" t="s">
-        <v>2128</v>
+        <v>1562</v>
       </c>
       <c r="D1104" s="40" t="s">
-        <v>2503</v>
+        <v>1686</v>
       </c>
       <c r="E1104" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F1104" s="40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1104" s="40" t="s">
         <v>15</v>
       </c>
       <c r="H1104" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1104" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1104" s="42"/>
     </row>
     <row r="1105" spans="1:9" ht="45">
       <c r="A1105" s="40" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B1105" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1105" s="42" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="D1105" s="40" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="E1105" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F1105" s="40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1105" s="40" t="s">
         <v>15</v>
@@ -43260,24 +43349,24 @@
       </c>
       <c r="I1105" s="42"/>
     </row>
-    <row r="1106" spans="1:9" ht="150">
+    <row r="1106" spans="1:9" ht="45">
       <c r="A1106" s="40" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B1106" s="40" t="s">
+        <v>792</v>
+      </c>
+      <c r="B1106" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1106" s="42" t="s">
-        <v>1753</v>
+        <v>1563</v>
       </c>
       <c r="D1106" s="40" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="E1106" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F1106" s="40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1106" s="40" t="s">
         <v>15</v>
@@ -43287,24 +43376,24 @@
       </c>
       <c r="I1106" s="42"/>
     </row>
-    <row r="1107" spans="1:9" ht="60">
+    <row r="1107" spans="1:9" ht="45">
       <c r="A1107" s="40" t="s">
-        <v>2427</v>
+        <v>793</v>
       </c>
       <c r="B1107" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1107" s="42" t="s">
-        <v>2610</v>
+        <v>2099</v>
       </c>
       <c r="D1107" s="40" t="s">
-        <v>2504</v>
+        <v>1688</v>
       </c>
       <c r="E1107" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F1107" s="40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1107" s="40" t="s">
         <v>15</v>
@@ -43314,24 +43403,24 @@
       </c>
       <c r="I1107" s="42"/>
     </row>
-    <row r="1108" spans="1:9" ht="45">
+    <row r="1108" spans="1:9" s="38" customFormat="1" ht="60">
       <c r="A1108" s="40" t="s">
-        <v>2428</v>
+        <v>794</v>
       </c>
       <c r="B1108" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1108" s="42" t="s">
-        <v>2129</v>
+        <v>1564</v>
       </c>
       <c r="D1108" s="40" t="s">
-        <v>2504</v>
+        <v>1688</v>
       </c>
       <c r="E1108" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F1108" s="40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1108" s="40" t="s">
         <v>15</v>
@@ -43343,22 +43432,24 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="1109" spans="1:9" ht="45">
+    <row r="1109" spans="1:9" ht="60">
       <c r="A1109" s="40" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="B1109" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1109" s="42" t="s">
-        <v>2609</v>
-      </c>
-      <c r="D1109" s="40"/>
+        <v>2611</v>
+      </c>
+      <c r="D1109" s="40" t="s">
+        <v>2503</v>
+      </c>
       <c r="E1109" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F1109" s="40" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1109" s="40" t="s">
         <v>15</v>
@@ -43368,18 +43459,18 @@
       </c>
       <c r="I1109" s="42"/>
     </row>
-    <row r="1110" spans="1:9" ht="60">
+    <row r="1110" spans="1:9" ht="135">
       <c r="A1110" s="40" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="B1110" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1110" s="42" t="s">
-        <v>2608</v>
+        <v>2128</v>
       </c>
       <c r="D1110" s="40" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="E1110" s="40" t="s">
         <v>22</v>
@@ -43391,22 +43482,24 @@
         <v>15</v>
       </c>
       <c r="H1110" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1110" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="I1110" s="42" t="s">
+        <v>1735</v>
+      </c>
     </row>
     <row r="1111" spans="1:9" ht="45">
       <c r="A1111" s="40" t="s">
-        <v>2431</v>
+        <v>795</v>
       </c>
       <c r="B1111" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1111" s="42" t="s">
-        <v>2130</v>
+        <v>2100</v>
       </c>
       <c r="D1111" s="40" t="s">
-        <v>2505</v>
+        <v>1689</v>
       </c>
       <c r="E1111" s="40" t="s">
         <v>22</v>
@@ -43418,24 +43511,22 @@
         <v>15</v>
       </c>
       <c r="H1111" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1111" s="42" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I1111" s="42"/>
+    </row>
+    <row r="1112" spans="1:9" ht="150">
       <c r="A1112" s="40" t="s">
-        <v>2432</v>
-      </c>
-      <c r="B1112" s="41" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1112" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1112" s="42" t="s">
-        <v>2607</v>
+        <v>1753</v>
       </c>
       <c r="D1112" s="40" t="s">
-        <v>2506</v>
+        <v>1689</v>
       </c>
       <c r="E1112" s="40" t="s">
         <v>22</v>
@@ -43451,18 +43542,18 @@
       </c>
       <c r="I1112" s="42"/>
     </row>
-    <row r="1113" spans="1:9" ht="180">
+    <row r="1113" spans="1:9" ht="60">
       <c r="A1113" s="40" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="B1113" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1113" s="42" t="s">
-        <v>2131</v>
+        <v>2610</v>
       </c>
       <c r="D1113" s="40" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="E1113" s="40" t="s">
         <v>22</v>
@@ -43474,24 +43565,22 @@
         <v>15</v>
       </c>
       <c r="H1113" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1113" s="42" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I1113" s="42"/>
+    </row>
+    <row r="1114" spans="1:9" ht="45">
       <c r="A1114" s="40" t="s">
-        <v>2434</v>
-      </c>
-      <c r="B1114" s="40" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1114" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1114" s="42" t="s">
-        <v>2606</v>
+        <v>2129</v>
       </c>
       <c r="D1114" s="40" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="E1114" s="40" t="s">
         <v>22</v>
@@ -43503,51 +43592,49 @@
         <v>15</v>
       </c>
       <c r="H1114" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1114" s="42"/>
-    </row>
-    <row r="1115" spans="1:9" ht="165">
+        <v>20</v>
+      </c>
+      <c r="I1114" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9" ht="45">
       <c r="A1115" s="40" t="s">
-        <v>2435</v>
-      </c>
-      <c r="B1115" s="40" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B1115" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1115" s="42" t="s">
-        <v>2132</v>
-      </c>
-      <c r="D1115" s="40" t="s">
-        <v>2507</v>
-      </c>
+        <v>2609</v>
+      </c>
+      <c r="D1115" s="40"/>
       <c r="E1115" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F1115" s="40" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1115" s="40" t="s">
         <v>15</v>
       </c>
       <c r="H1115" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1115" s="42" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I1115" s="42"/>
+    </row>
+    <row r="1116" spans="1:9" ht="60">
       <c r="A1116" s="40" t="s">
-        <v>2436</v>
-      </c>
-      <c r="B1116" s="40" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B1116" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1116" s="42" t="s">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="D1116" s="40" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="E1116" s="40" t="s">
         <v>22</v>
@@ -43563,18 +43650,18 @@
       </c>
       <c r="I1116" s="42"/>
     </row>
-    <row r="1117" spans="1:9" ht="255">
+    <row r="1117" spans="1:9" ht="45">
       <c r="A1117" s="40" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B1117" s="40" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1117" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1117" s="42" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="D1117" s="40" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="E1117" s="40" t="s">
         <v>22</v>
@@ -43586,24 +43673,24 @@
         <v>15</v>
       </c>
       <c r="H1117" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1117" s="42" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="1118" spans="1:9" ht="405">
+    <row r="1118" spans="1:9" ht="60">
       <c r="A1118" s="40" t="s">
-        <v>796</v>
+        <v>2432</v>
       </c>
       <c r="B1118" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1118" s="42" t="s">
-        <v>2134</v>
+        <v>2607</v>
       </c>
       <c r="D1118" s="40" t="s">
-        <v>1690</v>
+        <v>2506</v>
       </c>
       <c r="E1118" s="40" t="s">
         <v>22</v>
@@ -43615,24 +43702,22 @@
         <v>15</v>
       </c>
       <c r="H1118" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1118" s="42" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I1118" s="42"/>
+    </row>
+    <row r="1119" spans="1:9" ht="180">
       <c r="A1119" s="40" t="s">
-        <v>2438</v>
-      </c>
-      <c r="B1119" s="40" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B1119" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1119" s="42" t="s">
-        <v>2603</v>
+        <v>2131</v>
       </c>
       <c r="D1119" s="40" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="E1119" s="40" t="s">
         <v>22</v>
@@ -43644,22 +43729,24 @@
         <v>15</v>
       </c>
       <c r="H1119" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1119" s="42"/>
-    </row>
-    <row r="1120" spans="1:9" ht="150">
+        <v>21</v>
+      </c>
+      <c r="I1119" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9" ht="60">
       <c r="A1120" s="40" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="B1120" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1120" s="42" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="D1120" s="40" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="E1120" s="40" t="s">
         <v>22</v>
@@ -43671,24 +43758,22 @@
         <v>15</v>
       </c>
       <c r="H1120" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1120" s="42" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I1120" s="42"/>
+    </row>
+    <row r="1121" spans="1:9" ht="165">
       <c r="A1121" s="40" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
       <c r="B1121" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1121" s="42" t="s">
-        <v>2602</v>
+        <v>2132</v>
       </c>
       <c r="D1121" s="40" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="E1121" s="40" t="s">
         <v>22</v>
@@ -43700,22 +43785,24 @@
         <v>15</v>
       </c>
       <c r="H1121" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1121" s="42"/>
-    </row>
-    <row r="1122" spans="1:9" ht="135">
+        <v>21</v>
+      </c>
+      <c r="I1121" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9" ht="45">
       <c r="A1122" s="40" t="s">
-        <v>2441</v>
+        <v>2436</v>
       </c>
       <c r="B1122" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1122" s="42" t="s">
-        <v>2601</v>
+        <v>2605</v>
       </c>
       <c r="D1122" s="40" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="E1122" s="40" t="s">
         <v>22</v>
@@ -43727,24 +43814,22 @@
         <v>15</v>
       </c>
       <c r="H1122" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1122" s="42" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I1122" s="42"/>
+    </row>
+    <row r="1123" spans="1:9" ht="255">
       <c r="A1123" s="40" t="s">
-        <v>797</v>
-      </c>
-      <c r="B1123" s="41" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1123" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1123" s="42" t="s">
-        <v>2101</v>
+        <v>2133</v>
       </c>
       <c r="D1123" s="40" t="s">
-        <v>1691</v>
+        <v>2508</v>
       </c>
       <c r="E1123" s="40" t="s">
         <v>22</v>
@@ -43756,22 +43841,24 @@
         <v>15</v>
       </c>
       <c r="H1123" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1123" s="42"/>
-    </row>
-    <row r="1124" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I1123" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:9" ht="405">
       <c r="A1124" s="40" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B1124" s="40" t="s">
+        <v>796</v>
+      </c>
+      <c r="B1124" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1124" s="42" t="s">
-        <v>1755</v>
+        <v>2134</v>
       </c>
       <c r="D1124" s="40" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E1124" s="40" t="s">
         <v>22</v>
@@ -43783,22 +43870,24 @@
         <v>15</v>
       </c>
       <c r="H1124" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1124" s="42"/>
-    </row>
-    <row r="1125" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I1124" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:9" ht="60">
       <c r="A1125" s="40" t="s">
-        <v>798</v>
-      </c>
-      <c r="B1125" s="41" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B1125" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1125" s="42" t="s">
-        <v>2102</v>
+        <v>2603</v>
       </c>
       <c r="D1125" s="40" t="s">
-        <v>1692</v>
+        <v>2509</v>
       </c>
       <c r="E1125" s="40" t="s">
         <v>22</v>
@@ -43814,18 +43903,18 @@
       </c>
       <c r="I1125" s="42"/>
     </row>
-    <row r="1126" spans="1:9" ht="45">
+    <row r="1126" spans="1:9" ht="150">
       <c r="A1126" s="40" t="s">
-        <v>1756</v>
+        <v>2439</v>
       </c>
       <c r="B1126" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1126" s="42" t="s">
-        <v>1757</v>
+        <v>2604</v>
       </c>
       <c r="D1126" s="40" t="s">
-        <v>1692</v>
+        <v>2509</v>
       </c>
       <c r="E1126" s="40" t="s">
         <v>22</v>
@@ -43837,22 +43926,24 @@
         <v>15</v>
       </c>
       <c r="H1126" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1126" s="42"/>
-    </row>
-    <row r="1127" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I1126" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:9" ht="60">
       <c r="A1127" s="40" t="s">
-        <v>799</v>
-      </c>
-      <c r="B1127" s="41" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B1127" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1127" s="42" t="s">
-        <v>2103</v>
+        <v>2602</v>
       </c>
       <c r="D1127" s="40" t="s">
-        <v>1693</v>
+        <v>2510</v>
       </c>
       <c r="E1127" s="40" t="s">
         <v>22</v>
@@ -43868,18 +43959,18 @@
       </c>
       <c r="I1127" s="42"/>
     </row>
-    <row r="1128" spans="1:9" ht="45">
+    <row r="1128" spans="1:9" ht="135">
       <c r="A1128" s="40" t="s">
-        <v>1758</v>
+        <v>2441</v>
       </c>
       <c r="B1128" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1128" s="42" t="s">
-        <v>1759</v>
+        <v>2601</v>
       </c>
       <c r="D1128" s="40" t="s">
-        <v>1693</v>
+        <v>2510</v>
       </c>
       <c r="E1128" s="40" t="s">
         <v>22</v>
@@ -43891,22 +43982,24 @@
         <v>15</v>
       </c>
       <c r="H1128" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1128" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="I1128" s="42" t="s">
+        <v>1735</v>
+      </c>
     </row>
     <row r="1129" spans="1:9" ht="45">
       <c r="A1129" s="40" t="s">
-        <v>2442</v>
-      </c>
-      <c r="B1129" s="40" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1129" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1129" s="42" t="s">
-        <v>2137</v>
+        <v>2101</v>
       </c>
       <c r="D1129" s="40" t="s">
-        <v>2511</v>
+        <v>1691</v>
       </c>
       <c r="E1129" s="40" t="s">
         <v>22</v>
@@ -43924,16 +44017,16 @@
     </row>
     <row r="1130" spans="1:9" ht="45">
       <c r="A1130" s="40" t="s">
-        <v>2443</v>
+        <v>1754</v>
       </c>
       <c r="B1130" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1130" s="42" t="s">
-        <v>2139</v>
+        <v>1755</v>
       </c>
       <c r="D1130" s="40" t="s">
-        <v>2511</v>
+        <v>1691</v>
       </c>
       <c r="E1130" s="40" t="s">
         <v>22</v>
@@ -43945,24 +44038,22 @@
         <v>15</v>
       </c>
       <c r="H1130" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1130" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1130" s="42"/>
     </row>
     <row r="1131" spans="1:9" ht="45">
       <c r="A1131" s="40" t="s">
-        <v>2444</v>
-      </c>
-      <c r="B1131" s="40" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1131" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1131" s="42" t="s">
-        <v>2138</v>
+        <v>2102</v>
       </c>
       <c r="D1131" s="40" t="s">
-        <v>2512</v>
+        <v>1692</v>
       </c>
       <c r="E1131" s="40" t="s">
         <v>22</v>
@@ -43980,16 +44071,16 @@
     </row>
     <row r="1132" spans="1:9" ht="45">
       <c r="A1132" s="40" t="s">
-        <v>2445</v>
+        <v>1756</v>
       </c>
       <c r="B1132" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1132" s="42" t="s">
-        <v>2140</v>
+        <v>1757</v>
       </c>
       <c r="D1132" s="40" t="s">
-        <v>2512</v>
+        <v>1692</v>
       </c>
       <c r="E1132" s="40" t="s">
         <v>22</v>
@@ -44001,24 +44092,22 @@
         <v>15</v>
       </c>
       <c r="H1132" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1132" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1132" s="42"/>
     </row>
     <row r="1133" spans="1:9" ht="45">
       <c r="A1133" s="40" t="s">
-        <v>2446</v>
-      </c>
-      <c r="B1133" s="40" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1133" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1133" s="42" t="s">
-        <v>2141</v>
+        <v>2103</v>
       </c>
       <c r="D1133" s="40" t="s">
-        <v>2513</v>
+        <v>1693</v>
       </c>
       <c r="E1133" s="40" t="s">
         <v>22</v>
@@ -44036,16 +44125,16 @@
     </row>
     <row r="1134" spans="1:9" ht="45">
       <c r="A1134" s="40" t="s">
-        <v>2447</v>
+        <v>1758</v>
       </c>
       <c r="B1134" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1134" s="42" t="s">
-        <v>2144</v>
+        <v>1759</v>
       </c>
       <c r="D1134" s="40" t="s">
-        <v>2513</v>
+        <v>1693</v>
       </c>
       <c r="E1134" s="40" t="s">
         <v>22</v>
@@ -44057,24 +44146,22 @@
         <v>15</v>
       </c>
       <c r="H1134" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1134" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1134" s="42"/>
     </row>
     <row r="1135" spans="1:9" ht="45">
       <c r="A1135" s="40" t="s">
-        <v>2448</v>
+        <v>2442</v>
       </c>
       <c r="B1135" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1135" s="42" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="D1135" s="40" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="E1135" s="40" t="s">
         <v>22</v>
@@ -44090,18 +44177,18 @@
       </c>
       <c r="I1135" s="42"/>
     </row>
-    <row r="1136" spans="1:9" ht="165">
+    <row r="1136" spans="1:9" ht="45">
       <c r="A1136" s="40" t="s">
-        <v>2449</v>
+        <v>2443</v>
       </c>
       <c r="B1136" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1136" s="42" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="D1136" s="40" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="E1136" s="40" t="s">
         <v>22</v>
@@ -44113,7 +44200,7 @@
         <v>15</v>
       </c>
       <c r="H1136" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1136" s="42" t="s">
         <v>1735</v>
@@ -44121,16 +44208,16 @@
     </row>
     <row r="1137" spans="1:9" ht="45">
       <c r="A1137" s="40" t="s">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="B1137" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1137" s="42" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="D1137" s="40" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="E1137" s="40" t="s">
         <v>22</v>
@@ -44146,18 +44233,18 @@
       </c>
       <c r="I1137" s="42"/>
     </row>
-    <row r="1138" spans="1:9" ht="195">
+    <row r="1138" spans="1:9" ht="45">
       <c r="A1138" s="40" t="s">
-        <v>2451</v>
+        <v>2445</v>
       </c>
       <c r="B1138" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1138" s="42" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="D1138" s="40" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="E1138" s="40" t="s">
         <v>22</v>
@@ -44169,7 +44256,7 @@
         <v>15</v>
       </c>
       <c r="H1138" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1138" s="42" t="s">
         <v>1735</v>
@@ -44177,16 +44264,16 @@
     </row>
     <row r="1139" spans="1:9" ht="45">
       <c r="A1139" s="40" t="s">
-        <v>800</v>
-      </c>
-      <c r="B1139" s="41" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B1139" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1139" s="42" t="s">
-        <v>2104</v>
+        <v>2141</v>
       </c>
       <c r="D1139" s="40" t="s">
-        <v>1694</v>
+        <v>2513</v>
       </c>
       <c r="E1139" s="40" t="s">
         <v>22</v>
@@ -44202,18 +44289,18 @@
       </c>
       <c r="I1139" s="42"/>
     </row>
-    <row r="1140" spans="1:9" ht="135">
+    <row r="1140" spans="1:9" ht="45">
       <c r="A1140" s="40" t="s">
-        <v>1760</v>
+        <v>2447</v>
       </c>
       <c r="B1140" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1140" s="42" t="s">
-        <v>1761</v>
+        <v>2144</v>
       </c>
       <c r="D1140" s="40" t="s">
-        <v>1694</v>
+        <v>2513</v>
       </c>
       <c r="E1140" s="40" t="s">
         <v>22</v>
@@ -44225,22 +44312,24 @@
         <v>15</v>
       </c>
       <c r="H1140" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1140" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="I1140" s="42" t="s">
+        <v>1735</v>
+      </c>
     </row>
     <row r="1141" spans="1:9" ht="45">
       <c r="A1141" s="40" t="s">
-        <v>801</v>
-      </c>
-      <c r="B1141" s="41" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1141" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1141" s="42" t="s">
-        <v>2105</v>
+        <v>2142</v>
       </c>
       <c r="D1141" s="40" t="s">
-        <v>1695</v>
+        <v>2514</v>
       </c>
       <c r="E1141" s="40" t="s">
         <v>22</v>
@@ -44256,18 +44345,18 @@
       </c>
       <c r="I1141" s="42"/>
     </row>
-    <row r="1142" spans="1:9" ht="180">
+    <row r="1142" spans="1:9" ht="165">
       <c r="A1142" s="40" t="s">
-        <v>1762</v>
+        <v>2449</v>
       </c>
       <c r="B1142" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1142" s="42" t="s">
-        <v>1763</v>
+        <v>2145</v>
       </c>
       <c r="D1142" s="40" t="s">
-        <v>1695</v>
+        <v>2514</v>
       </c>
       <c r="E1142" s="40" t="s">
         <v>22</v>
@@ -44279,22 +44368,24 @@
         <v>15</v>
       </c>
       <c r="H1142" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1142" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="I1142" s="42" t="s">
+        <v>1735</v>
+      </c>
     </row>
     <row r="1143" spans="1:9" ht="45">
       <c r="A1143" s="40" t="s">
-        <v>802</v>
-      </c>
-      <c r="B1143" s="41" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B1143" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1143" s="42" t="s">
-        <v>2106</v>
+        <v>2143</v>
       </c>
       <c r="D1143" s="40" t="s">
-        <v>1696</v>
+        <v>2515</v>
       </c>
       <c r="E1143" s="40" t="s">
         <v>22</v>
@@ -44310,18 +44401,18 @@
       </c>
       <c r="I1143" s="42"/>
     </row>
-    <row r="1144" spans="1:9" ht="165">
+    <row r="1144" spans="1:9" ht="195">
       <c r="A1144" s="40" t="s">
-        <v>1764</v>
+        <v>2451</v>
       </c>
       <c r="B1144" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1144" s="42" t="s">
-        <v>1765</v>
+        <v>2146</v>
       </c>
       <c r="D1144" s="40" t="s">
-        <v>1696</v>
+        <v>2515</v>
       </c>
       <c r="E1144" s="40" t="s">
         <v>22</v>
@@ -44333,22 +44424,24 @@
         <v>15</v>
       </c>
       <c r="H1144" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1144" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="I1144" s="42" t="s">
+        <v>1735</v>
+      </c>
     </row>
     <row r="1145" spans="1:9" ht="45">
       <c r="A1145" s="40" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B1145" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1145" s="42" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="D1145" s="40" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="E1145" s="40" t="s">
         <v>22</v>
@@ -44364,18 +44457,18 @@
       </c>
       <c r="I1145" s="42"/>
     </row>
-    <row r="1146" spans="1:9" ht="45">
+    <row r="1146" spans="1:9" ht="135">
       <c r="A1146" s="40" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="B1146" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1146" s="42" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="D1146" s="40" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="E1146" s="40" t="s">
         <v>22</v>
@@ -44393,16 +44486,16 @@
     </row>
     <row r="1147" spans="1:9" ht="45">
       <c r="A1147" s="40" t="s">
-        <v>2452</v>
-      </c>
-      <c r="B1147" s="40" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1147" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1147" s="42" t="s">
-        <v>2147</v>
+        <v>2105</v>
       </c>
       <c r="D1147" s="40" t="s">
-        <v>2516</v>
+        <v>1695</v>
       </c>
       <c r="E1147" s="40" t="s">
         <v>22</v>
@@ -44418,18 +44511,18 @@
       </c>
       <c r="I1147" s="42"/>
     </row>
-    <row r="1148" spans="1:9" ht="135">
+    <row r="1148" spans="1:9" ht="180">
       <c r="A1148" s="40" t="s">
-        <v>2453</v>
+        <v>1762</v>
       </c>
       <c r="B1148" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1148" s="42" t="s">
-        <v>2600</v>
+        <v>1763</v>
       </c>
       <c r="D1148" s="40" t="s">
-        <v>2516</v>
+        <v>1695</v>
       </c>
       <c r="E1148" s="40" t="s">
         <v>22</v>
@@ -44441,24 +44534,22 @@
         <v>15</v>
       </c>
       <c r="H1148" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1148" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1148" s="42"/>
     </row>
     <row r="1149" spans="1:9" ht="45">
       <c r="A1149" s="40" t="s">
-        <v>2454</v>
-      </c>
-      <c r="B1149" s="40" t="s">
+        <v>802</v>
+      </c>
+      <c r="B1149" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1149" s="42" t="s">
-        <v>2148</v>
+        <v>2106</v>
       </c>
       <c r="D1149" s="40" t="s">
-        <v>2517</v>
+        <v>1696</v>
       </c>
       <c r="E1149" s="40" t="s">
         <v>22</v>
@@ -44474,18 +44565,18 @@
       </c>
       <c r="I1149" s="42"/>
     </row>
-    <row r="1150" spans="1:9" ht="135">
+    <row r="1150" spans="1:9" ht="165">
       <c r="A1150" s="40" t="s">
-        <v>2455</v>
+        <v>1764</v>
       </c>
       <c r="B1150" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1150" s="42" t="s">
-        <v>2599</v>
+        <v>1765</v>
       </c>
       <c r="D1150" s="40" t="s">
-        <v>2517</v>
+        <v>1696</v>
       </c>
       <c r="E1150" s="40" t="s">
         <v>22</v>
@@ -44497,24 +44588,22 @@
         <v>15</v>
       </c>
       <c r="H1150" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1150" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1150" s="42"/>
     </row>
     <row r="1151" spans="1:9" ht="45">
       <c r="A1151" s="40" t="s">
-        <v>2456</v>
-      </c>
-      <c r="B1151" s="40" t="s">
+        <v>803</v>
+      </c>
+      <c r="B1151" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1151" s="42" t="s">
-        <v>2149</v>
+        <v>2107</v>
       </c>
       <c r="D1151" s="40" t="s">
-        <v>2597</v>
+        <v>1697</v>
       </c>
       <c r="E1151" s="40" t="s">
         <v>22</v>
@@ -44530,18 +44619,18 @@
       </c>
       <c r="I1151" s="42"/>
     </row>
-    <row r="1152" spans="1:9" ht="150">
+    <row r="1152" spans="1:9" ht="45">
       <c r="A1152" s="40" t="s">
-        <v>2457</v>
+        <v>1766</v>
       </c>
       <c r="B1152" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1152" s="42" t="s">
-        <v>2598</v>
+        <v>1767</v>
       </c>
       <c r="D1152" s="40" t="s">
-        <v>2597</v>
+        <v>1697</v>
       </c>
       <c r="E1152" s="40" t="s">
         <v>22</v>
@@ -44553,24 +44642,22 @@
         <v>15</v>
       </c>
       <c r="H1152" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1152" s="42" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I1152" s="42"/>
+    </row>
+    <row r="1153" spans="1:9" ht="45">
       <c r="A1153" s="40" t="s">
-        <v>804</v>
-      </c>
-      <c r="B1153" s="41" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1153" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1153" s="42" t="s">
-        <v>2108</v>
+        <v>2147</v>
       </c>
       <c r="D1153" s="40" t="s">
-        <v>1698</v>
+        <v>2516</v>
       </c>
       <c r="E1153" s="40" t="s">
         <v>22</v>
@@ -44586,18 +44673,18 @@
       </c>
       <c r="I1153" s="42"/>
     </row>
-    <row r="1154" spans="1:9" ht="270">
+    <row r="1154" spans="1:9" ht="135">
       <c r="A1154" s="40" t="s">
-        <v>805</v>
-      </c>
-      <c r="B1154" s="41" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1154" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1154" s="42" t="s">
-        <v>1565</v>
+        <v>2600</v>
       </c>
       <c r="D1154" s="40" t="s">
-        <v>1698</v>
+        <v>2516</v>
       </c>
       <c r="E1154" s="40" t="s">
         <v>22</v>
@@ -44615,18 +44702,18 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="1155" spans="1:9" ht="270">
+    <row r="1155" spans="1:9" ht="45">
       <c r="A1155" s="40" t="s">
-        <v>806</v>
-      </c>
-      <c r="B1155" s="41" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B1155" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1155" s="42" t="s">
-        <v>1566</v>
+        <v>2148</v>
       </c>
       <c r="D1155" s="40" t="s">
-        <v>1698</v>
+        <v>2517</v>
       </c>
       <c r="E1155" s="40" t="s">
         <v>22</v>
@@ -44638,26 +44725,24 @@
         <v>15</v>
       </c>
       <c r="H1155" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1155" s="42" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I1155" s="42"/>
+    </row>
+    <row r="1156" spans="1:9" ht="135">
       <c r="A1156" s="40" t="s">
-        <v>2109</v>
+        <v>2455</v>
       </c>
       <c r="B1156" s="40" t="s">
         <v>907</v>
       </c>
-      <c r="C1156" s="45" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D1156" s="46" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E1156" s="43" t="s">
+      <c r="C1156" s="42" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1156" s="40" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E1156" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F1156" s="40" t="s">
@@ -44667,26 +44752,26 @@
         <v>15</v>
       </c>
       <c r="H1156" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1156" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1156" s="42" t="s">
         <v>1735</v>
       </c>
     </row>
     <row r="1157" spans="1:9" ht="45">
       <c r="A1157" s="40" t="s">
-        <v>319</v>
+        <v>2456</v>
       </c>
       <c r="B1157" s="40" t="s">
         <v>907</v>
       </c>
-      <c r="C1157" s="45" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D1157" s="46" t="s">
-        <v>1633</v>
-      </c>
-      <c r="E1157" s="43" t="s">
+      <c r="C1157" s="42" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1157" s="40" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E1157" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F1157" s="40" t="s">
@@ -44696,26 +44781,24 @@
         <v>15</v>
       </c>
       <c r="H1157" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1157" s="41" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I1157" s="42"/>
+    </row>
+    <row r="1158" spans="1:9" ht="150">
       <c r="A1158" s="40" t="s">
-        <v>333</v>
+        <v>2457</v>
       </c>
       <c r="B1158" s="40" t="s">
         <v>907</v>
       </c>
-      <c r="C1158" s="45" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D1158" s="46" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E1158" s="43" t="s">
+      <c r="C1158" s="42" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D1158" s="40" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E1158" s="40" t="s">
         <v>22</v>
       </c>
       <c r="F1158" s="40" t="s">
@@ -44725,48 +44808,54 @@
         <v>15</v>
       </c>
       <c r="H1158" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1158" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:9" ht="60">
+      <c r="A1159" s="40" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1159" s="41" t="s">
+        <v>907</v>
+      </c>
+      <c r="C1159" s="42" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D1159" s="40" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E1159" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1159" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1159" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1159" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I1158" s="41"/>
-    </row>
-    <row r="1159" spans="1:9" ht="165">
-      <c r="A1159" s="40" t="s">
-        <v>807</v>
-      </c>
-      <c r="B1159" s="41" t="s">
-        <v>908</v>
-      </c>
-      <c r="C1159" s="42" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D1159" s="40"/>
-      <c r="E1159" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1159" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1159" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1159" s="40" t="s">
-        <v>21</v>
-      </c>
       <c r="I1159" s="42"/>
     </row>
-    <row r="1160" spans="1:9" ht="225">
+    <row r="1160" spans="1:9" ht="270">
       <c r="A1160" s="40" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B1160" s="41" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C1160" s="42" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D1160" s="40"/>
+        <v>1565</v>
+      </c>
+      <c r="D1160" s="40" t="s">
+        <v>1698</v>
+      </c>
       <c r="E1160" s="40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1160" s="40" t="s">
         <v>3</v>
@@ -44777,21 +44866,25 @@
       <c r="H1160" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I1160" s="42"/>
-    </row>
-    <row r="1161" spans="1:9" ht="90">
+      <c r="I1160" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:9" ht="270">
       <c r="A1161" s="40" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B1161" s="41" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C1161" s="42" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D1161" s="40"/>
+        <v>1566</v>
+      </c>
+      <c r="D1161" s="40" t="s">
+        <v>1698</v>
+      </c>
       <c r="E1161" s="40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1161" s="40" t="s">
         <v>3</v>
@@ -44802,21 +44895,25 @@
       <c r="H1161" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I1161" s="42"/>
-    </row>
-    <row r="1162" spans="1:9" ht="60">
+      <c r="I1161" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:9" ht="45">
       <c r="A1162" s="40" t="s">
-        <v>810</v>
-      </c>
-      <c r="B1162" s="41" t="s">
-        <v>910</v>
-      </c>
-      <c r="C1162" s="42" t="s">
-        <v>1570</v>
-      </c>
-      <c r="D1162" s="40"/>
-      <c r="E1162" s="40" t="s">
-        <v>19</v>
+        <v>2109</v>
+      </c>
+      <c r="B1162" s="40" t="s">
+        <v>907</v>
+      </c>
+      <c r="C1162" s="45" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D1162" s="46" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E1162" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="F1162" s="40" t="s">
         <v>3</v>
@@ -44825,23 +44922,27 @@
         <v>15</v>
       </c>
       <c r="H1162" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1162" s="42"/>
-    </row>
-    <row r="1163" spans="1:9" ht="165">
+        <v>20</v>
+      </c>
+      <c r="I1162" s="41" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:9" ht="45">
       <c r="A1163" s="40" t="s">
-        <v>811</v>
-      </c>
-      <c r="B1163" s="41" t="s">
-        <v>911</v>
-      </c>
-      <c r="C1163" s="42" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1163" s="40"/>
-      <c r="E1163" s="40" t="s">
-        <v>19</v>
+        <v>319</v>
+      </c>
+      <c r="B1163" s="40" t="s">
+        <v>907</v>
+      </c>
+      <c r="C1163" s="45" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D1163" s="46" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E1163" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="F1163" s="40" t="s">
         <v>3</v>
@@ -44850,23 +44951,27 @@
         <v>15</v>
       </c>
       <c r="H1163" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1163" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="I1163" s="41" t="s">
+        <v>1735</v>
+      </c>
     </row>
     <row r="1164" spans="1:9" ht="60">
       <c r="A1164" s="40" t="s">
-        <v>812</v>
-      </c>
-      <c r="B1164" s="41" t="s">
-        <v>911</v>
-      </c>
-      <c r="C1164" s="42" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D1164" s="40"/>
-      <c r="E1164" s="40" t="s">
-        <v>19</v>
+        <v>333</v>
+      </c>
+      <c r="B1164" s="40" t="s">
+        <v>907</v>
+      </c>
+      <c r="C1164" s="45" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1164" s="46" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E1164" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="F1164" s="40" t="s">
         <v>3</v>
@@ -44875,21 +44980,19 @@
         <v>15</v>
       </c>
       <c r="H1164" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1164" s="42" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I1164" s="41"/>
+    </row>
+    <row r="1165" spans="1:9" ht="165">
       <c r="A1165" s="40" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B1165" s="41" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C1165" s="42" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="D1165" s="40"/>
       <c r="E1165" s="40" t="s">
@@ -44902,21 +45005,19 @@
         <v>15</v>
       </c>
       <c r="H1165" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1165" s="42" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:9" ht="60">
+        <v>21</v>
+      </c>
+      <c r="I1165" s="42"/>
+    </row>
+    <row r="1166" spans="1:9" ht="225">
       <c r="A1166" s="40" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B1166" s="41" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C1166" s="42" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="D1166" s="40"/>
       <c r="E1166" s="40" t="s">
@@ -44929,21 +45030,19 @@
         <v>15</v>
       </c>
       <c r="H1166" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1166" s="42" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:9" ht="60">
+        <v>21</v>
+      </c>
+      <c r="I1166" s="42"/>
+    </row>
+    <row r="1167" spans="1:9" ht="90">
       <c r="A1167" s="40" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B1167" s="41" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C1167" s="42" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="D1167" s="40"/>
       <c r="E1167" s="40" t="s">
@@ -44956,21 +45055,19 @@
         <v>15</v>
       </c>
       <c r="H1167" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1167" s="42" t="s">
-        <v>1740</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I1167" s="42"/>
     </row>
     <row r="1168" spans="1:9" ht="60">
       <c r="A1168" s="40" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B1168" s="41" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C1168" s="42" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="D1168" s="40"/>
       <c r="E1168" s="40" t="s">
@@ -44983,21 +45080,19 @@
         <v>15</v>
       </c>
       <c r="H1168" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1168" s="42" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:9" ht="30">
+        <v>21</v>
+      </c>
+      <c r="I1168" s="42"/>
+    </row>
+    <row r="1169" spans="1:9" ht="165">
       <c r="A1169" s="40" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B1169" s="41" t="s">
         <v>911</v>
       </c>
       <c r="C1169" s="42" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="D1169" s="40"/>
       <c r="E1169" s="40" t="s">
@@ -45010,19 +45105,19 @@
         <v>15</v>
       </c>
       <c r="H1169" s="40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1169" s="42"/>
     </row>
-    <row r="1170" spans="1:9" ht="180">
+    <row r="1170" spans="1:9" ht="60">
       <c r="A1170" s="40" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B1170" s="41" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C1170" s="42" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="D1170" s="40"/>
       <c r="E1170" s="40" t="s">
@@ -45035,19 +45130,21 @@
         <v>15</v>
       </c>
       <c r="H1170" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1170" s="42"/>
-    </row>
-    <row r="1171" spans="1:9" ht="409.5">
+        <v>17</v>
+      </c>
+      <c r="I1170" s="42" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:9" ht="60">
       <c r="A1171" s="40" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B1171" s="41" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C1171" s="42" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="D1171" s="40"/>
       <c r="E1171" s="40" t="s">
@@ -45060,19 +45157,21 @@
         <v>15</v>
       </c>
       <c r="H1171" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1171" s="42"/>
-    </row>
-    <row r="1172" spans="1:9" ht="45">
+        <v>17</v>
+      </c>
+      <c r="I1171" s="42" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:9" ht="60">
       <c r="A1172" s="40" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B1172" s="41" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C1172" s="42" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="D1172" s="40"/>
       <c r="E1172" s="40" t="s">
@@ -45088,18 +45187,18 @@
         <v>17</v>
       </c>
       <c r="I1172" s="42" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:9" ht="105">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:9" ht="60">
       <c r="A1173" s="40" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B1173" s="41" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C1173" s="42" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="D1173" s="40"/>
       <c r="E1173" s="40" t="s">
@@ -45112,19 +45211,21 @@
         <v>15</v>
       </c>
       <c r="H1173" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1173" s="42"/>
-    </row>
-    <row r="1174" spans="1:9" ht="225">
+        <v>17</v>
+      </c>
+      <c r="I1173" s="42" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:9" ht="60">
       <c r="A1174" s="40" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B1174" s="41" t="s">
-        <v>31</v>
+        <v>911</v>
       </c>
       <c r="C1174" s="42" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="D1174" s="40"/>
       <c r="E1174" s="40" t="s">
@@ -45137,19 +45238,21 @@
         <v>15</v>
       </c>
       <c r="H1174" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1174" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="I1174" s="42" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="1175" spans="1:9" ht="30">
       <c r="A1175" s="40" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B1175" s="41" t="s">
-        <v>31</v>
+        <v>911</v>
       </c>
       <c r="C1175" s="42" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="D1175" s="40"/>
       <c r="E1175" s="40" t="s">
@@ -45162,19 +45265,19 @@
         <v>15</v>
       </c>
       <c r="H1175" s="40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I1175" s="42"/>
     </row>
-    <row r="1176" spans="1:9" ht="270">
+    <row r="1176" spans="1:9" ht="180">
       <c r="A1176" s="40" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B1176" s="41" t="s">
-        <v>859</v>
+        <v>912</v>
       </c>
       <c r="C1176" s="42" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="D1176" s="40"/>
       <c r="E1176" s="40" t="s">
@@ -45191,15 +45294,15 @@
       </c>
       <c r="I1176" s="42"/>
     </row>
-    <row r="1177" spans="1:9" ht="30">
+    <row r="1177" spans="1:9" ht="409.5">
       <c r="A1177" s="40" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B1177" s="41" t="s">
-        <v>859</v>
+        <v>913</v>
       </c>
       <c r="C1177" s="42" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="D1177" s="40"/>
       <c r="E1177" s="40" t="s">
@@ -45212,19 +45315,19 @@
         <v>15</v>
       </c>
       <c r="H1177" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1177" s="42"/>
     </row>
-    <row r="1178" spans="1:9" ht="30">
+    <row r="1178" spans="1:9" ht="45">
       <c r="A1178" s="40" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B1178" s="41" t="s">
-        <v>859</v>
+        <v>914</v>
       </c>
       <c r="C1178" s="42" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="D1178" s="40"/>
       <c r="E1178" s="40" t="s">
@@ -45237,19 +45340,21 @@
         <v>15</v>
       </c>
       <c r="H1178" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1178" s="42"/>
-    </row>
-    <row r="1179" spans="1:9" ht="180">
+        <v>17</v>
+      </c>
+      <c r="I1178" s="42" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:9" ht="105">
       <c r="A1179" s="40" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B1179" s="41" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="C1179" s="42" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="D1179" s="40"/>
       <c r="E1179" s="40" t="s">
@@ -45262,44 +45367,46 @@
         <v>15</v>
       </c>
       <c r="H1179" s="40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1179" s="42"/>
     </row>
-    <row r="1180" spans="1:9" ht="30">
+    <row r="1180" spans="1:9" ht="45">
       <c r="A1180" s="40" t="s">
-        <v>828</v>
+        <v>2741</v>
       </c>
       <c r="B1180" s="41" t="s">
-        <v>875</v>
+        <v>2742</v>
       </c>
       <c r="C1180" s="42" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D1180" s="40"/>
-      <c r="E1180" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1180" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1180" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1180" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1180" s="42"/>
-    </row>
-    <row r="1181" spans="1:9" ht="30">
+        <v>2743</v>
+      </c>
+      <c r="D1180" s="47"/>
+      <c r="E1180" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1180" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1180" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1180" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1180" s="42" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:9" ht="225">
       <c r="A1181" s="40" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B1181" s="41" t="s">
-        <v>875</v>
+        <v>31</v>
       </c>
       <c r="C1181" s="42" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="D1181" s="40"/>
       <c r="E1181" s="40" t="s">
@@ -45312,19 +45419,19 @@
         <v>15</v>
       </c>
       <c r="H1181" s="40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1181" s="42"/>
     </row>
     <row r="1182" spans="1:9" ht="30">
       <c r="A1182" s="40" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B1182" s="41" t="s">
-        <v>875</v>
+        <v>31</v>
       </c>
       <c r="C1182" s="42" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="D1182" s="40"/>
       <c r="E1182" s="40" t="s">
@@ -45337,19 +45444,19 @@
         <v>15</v>
       </c>
       <c r="H1182" s="40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I1182" s="42"/>
     </row>
-    <row r="1183" spans="1:9" ht="135">
+    <row r="1183" spans="1:9" ht="270">
       <c r="A1183" s="40" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B1183" s="41" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="C1183" s="42" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="D1183" s="40"/>
       <c r="E1183" s="40" t="s">
@@ -45366,15 +45473,15 @@
       </c>
       <c r="I1183" s="42"/>
     </row>
-    <row r="1184" spans="1:9" ht="135">
+    <row r="1184" spans="1:9" ht="30">
       <c r="A1184" s="40" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B1184" s="41" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="C1184" s="42" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="D1184" s="40"/>
       <c r="E1184" s="40" t="s">
@@ -45387,19 +45494,19 @@
         <v>15</v>
       </c>
       <c r="H1184" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1184" s="42"/>
     </row>
-    <row r="1185" spans="1:9" ht="409.5">
+    <row r="1185" spans="1:9" ht="30">
       <c r="A1185" s="40" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="B1185" s="41" t="s">
-        <v>915</v>
+        <v>859</v>
       </c>
       <c r="C1185" s="42" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="D1185" s="40"/>
       <c r="E1185" s="40" t="s">
@@ -45412,19 +45519,19 @@
         <v>15</v>
       </c>
       <c r="H1185" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1185" s="42"/>
     </row>
-    <row r="1186" spans="1:9" ht="225">
+    <row r="1186" spans="1:9" ht="180">
       <c r="A1186" s="40" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B1186" s="41" t="s">
-        <v>916</v>
+        <v>875</v>
       </c>
       <c r="C1186" s="42" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="D1186" s="40"/>
       <c r="E1186" s="40" t="s">
@@ -45437,19 +45544,19 @@
         <v>15</v>
       </c>
       <c r="H1186" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1186" s="42"/>
     </row>
-    <row r="1187" spans="1:9" ht="135">
+    <row r="1187" spans="1:9" ht="30">
       <c r="A1187" s="40" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B1187" s="41" t="s">
-        <v>917</v>
+        <v>875</v>
       </c>
       <c r="C1187" s="42" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="D1187" s="40"/>
       <c r="E1187" s="40" t="s">
@@ -45462,19 +45569,19 @@
         <v>15</v>
       </c>
       <c r="H1187" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1187" s="42"/>
     </row>
-    <row r="1188" spans="1:9" ht="409.5">
+    <row r="1188" spans="1:9" ht="30">
       <c r="A1188" s="40" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B1188" s="41" t="s">
-        <v>918</v>
+        <v>875</v>
       </c>
       <c r="C1188" s="42" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="D1188" s="40"/>
       <c r="E1188" s="40" t="s">
@@ -45487,19 +45594,19 @@
         <v>15</v>
       </c>
       <c r="H1188" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1188" s="42"/>
     </row>
-    <row r="1189" spans="1:9" ht="225">
+    <row r="1189" spans="1:9" ht="30">
       <c r="A1189" s="40" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B1189" s="41" t="s">
-        <v>919</v>
+        <v>875</v>
       </c>
       <c r="C1189" s="42" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="D1189" s="40"/>
       <c r="E1189" s="40" t="s">
@@ -45512,19 +45619,19 @@
         <v>15</v>
       </c>
       <c r="H1189" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1189" s="42"/>
     </row>
-    <row r="1190" spans="1:9" ht="270">
+    <row r="1190" spans="1:9" ht="135">
       <c r="A1190" s="40" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B1190" s="41" t="s">
-        <v>920</v>
+        <v>878</v>
       </c>
       <c r="C1190" s="42" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="D1190" s="40"/>
       <c r="E1190" s="40" t="s">
@@ -45541,15 +45648,15 @@
       </c>
       <c r="I1190" s="42"/>
     </row>
-    <row r="1191" spans="1:9" ht="315">
+    <row r="1191" spans="1:9" ht="135">
       <c r="A1191" s="40" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B1191" s="41" t="s">
-        <v>921</v>
+        <v>879</v>
       </c>
       <c r="C1191" s="42" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="D1191" s="40"/>
       <c r="E1191" s="40" t="s">
@@ -45566,15 +45673,15 @@
       </c>
       <c r="I1191" s="42"/>
     </row>
-    <row r="1192" spans="1:9" ht="30">
+    <row r="1192" spans="1:9" ht="409.5">
       <c r="A1192" s="40" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B1192" s="41" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C1192" s="42" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="D1192" s="40"/>
       <c r="E1192" s="40" t="s">
@@ -45587,19 +45694,19 @@
         <v>15</v>
       </c>
       <c r="H1192" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1192" s="42"/>
     </row>
-    <row r="1193" spans="1:9" ht="30">
+    <row r="1193" spans="1:9" ht="225">
       <c r="A1193" s="40" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B1193" s="41" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C1193" s="42" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="D1193" s="40"/>
       <c r="E1193" s="40" t="s">
@@ -45612,19 +45719,19 @@
         <v>15</v>
       </c>
       <c r="H1193" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1193" s="42"/>
     </row>
-    <row r="1194" spans="1:9" ht="30">
+    <row r="1194" spans="1:9" ht="135">
       <c r="A1194" s="40" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B1194" s="41" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C1194" s="42" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="D1194" s="40"/>
       <c r="E1194" s="40" t="s">
@@ -45637,19 +45744,19 @@
         <v>15</v>
       </c>
       <c r="H1194" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1194" s="42"/>
     </row>
-    <row r="1195" spans="1:9" ht="135">
+    <row r="1195" spans="1:9" ht="409.5">
       <c r="A1195" s="40" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B1195" s="41" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C1195" s="42" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="D1195" s="40"/>
       <c r="E1195" s="40" t="s">
@@ -45666,15 +45773,15 @@
       </c>
       <c r="I1195" s="42"/>
     </row>
-    <row r="1196" spans="1:9" ht="285">
+    <row r="1196" spans="1:9" ht="225">
       <c r="A1196" s="40" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B1196" s="41" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C1196" s="42" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="D1196" s="40"/>
       <c r="E1196" s="40" t="s">
@@ -45691,15 +45798,15 @@
       </c>
       <c r="I1196" s="42"/>
     </row>
-    <row r="1197" spans="1:9" ht="390">
+    <row r="1197" spans="1:9" ht="270">
       <c r="A1197" s="40" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B1197" s="41" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C1197" s="42" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="D1197" s="40"/>
       <c r="E1197" s="40" t="s">
@@ -45716,15 +45823,15 @@
       </c>
       <c r="I1197" s="42"/>
     </row>
-    <row r="1198" spans="1:9" ht="255">
+    <row r="1198" spans="1:9" ht="315">
       <c r="A1198" s="40" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B1198" s="41" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C1198" s="42" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="D1198" s="40"/>
       <c r="E1198" s="40" t="s">
@@ -45741,121 +45848,352 @@
       </c>
       <c r="I1198" s="42"/>
     </row>
-    <row r="1199" spans="1:9" ht="45">
+    <row r="1199" spans="1:9" ht="30">
       <c r="A1199" s="40" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1199" s="41" t="s">
+        <v>921</v>
+      </c>
+      <c r="C1199" s="42" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D1199" s="40"/>
+      <c r="E1199" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1199" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1199" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1199" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1199" s="42"/>
+    </row>
+    <row r="1200" spans="1:9" ht="30">
+      <c r="A1200" s="40" t="s">
+        <v>841</v>
+      </c>
+      <c r="B1200" s="41" t="s">
+        <v>921</v>
+      </c>
+      <c r="C1200" s="42" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D1200" s="40"/>
+      <c r="E1200" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1200" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1200" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1200" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1200" s="42"/>
+    </row>
+    <row r="1201" spans="1:9" ht="30">
+      <c r="A1201" s="40" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1201" s="41" t="s">
+        <v>921</v>
+      </c>
+      <c r="C1201" s="42" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D1201" s="40"/>
+      <c r="E1201" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1201" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1201" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1201" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1201" s="42"/>
+    </row>
+    <row r="1202" spans="1:9" ht="135">
+      <c r="A1202" s="40" t="s">
+        <v>843</v>
+      </c>
+      <c r="B1202" s="41" t="s">
+        <v>922</v>
+      </c>
+      <c r="C1202" s="42" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D1202" s="40"/>
+      <c r="E1202" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1202" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1202" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1202" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1202" s="42"/>
+    </row>
+    <row r="1203" spans="1:9" ht="285">
+      <c r="A1203" s="40" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1203" s="41" t="s">
+        <v>923</v>
+      </c>
+      <c r="C1203" s="42" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D1203" s="40"/>
+      <c r="E1203" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1203" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1203" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1203" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1203" s="42"/>
+    </row>
+    <row r="1204" spans="1:9" ht="390">
+      <c r="A1204" s="40" t="s">
+        <v>845</v>
+      </c>
+      <c r="B1204" s="41" t="s">
+        <v>924</v>
+      </c>
+      <c r="C1204" s="42" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D1204" s="40"/>
+      <c r="E1204" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1204" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1204" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1204" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1204" s="42"/>
+    </row>
+    <row r="1205" spans="1:9" ht="255">
+      <c r="A1205" s="40" t="s">
+        <v>846</v>
+      </c>
+      <c r="B1205" s="41" t="s">
+        <v>925</v>
+      </c>
+      <c r="C1205" s="42" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D1205" s="40"/>
+      <c r="E1205" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1205" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1205" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1205" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1205" s="42"/>
+    </row>
+    <row r="1206" spans="1:9" ht="45">
+      <c r="A1206" s="40" t="s">
         <v>847</v>
       </c>
-      <c r="B1199" s="41" t="s">
+      <c r="B1206" s="41" t="s">
         <v>907</v>
       </c>
-      <c r="C1199" s="42" t="s">
+      <c r="C1206" s="42" t="s">
         <v>1607</v>
       </c>
-      <c r="D1199" s="40" t="s">
+      <c r="D1206" s="40" t="s">
         <v>1699</v>
       </c>
-      <c r="E1199" s="40" t="s">
+      <c r="E1206" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F1199" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1199" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1199" s="40" t="s">
+      <c r="F1206" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1206" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1206" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I1199" s="42"/>
-    </row>
-    <row r="1200" spans="1:9" ht="45">
-      <c r="A1200" s="40" t="s">
+      <c r="I1206" s="42"/>
+    </row>
+    <row r="1207" spans="1:9" ht="45">
+      <c r="A1207" s="40" t="s">
         <v>848</v>
       </c>
-      <c r="B1200" s="41" t="s">
+      <c r="B1207" s="41" t="s">
         <v>907</v>
       </c>
-      <c r="C1200" s="42" t="s">
+      <c r="C1207" s="42" t="s">
         <v>1608</v>
       </c>
-      <c r="D1200" s="40" t="s">
+      <c r="D1207" s="40" t="s">
         <v>1699</v>
       </c>
-      <c r="E1200" s="40" t="s">
+      <c r="E1207" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F1200" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1200" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1200" s="40" t="s">
+      <c r="F1207" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1207" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1207" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I1200" s="42"/>
-    </row>
-    <row r="1201" spans="1:9" ht="45">
-      <c r="A1201" s="40" t="s">
+      <c r="I1207" s="42"/>
+    </row>
+    <row r="1208" spans="1:9" ht="45">
+      <c r="A1208" s="40" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B1208" s="41" t="s">
+        <v>907</v>
+      </c>
+      <c r="C1208" s="42" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D1208" s="40" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E1208" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1208" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1208" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1208" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1208" s="49"/>
+    </row>
+    <row r="1209" spans="1:9" ht="45">
+      <c r="A1209" s="40" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B1209" s="41" t="s">
+        <v>907</v>
+      </c>
+      <c r="C1209" s="42" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D1209" s="40" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E1209" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1209" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1209" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1209" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1209" s="42" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9" ht="45">
+      <c r="A1210" s="40" t="s">
         <v>849</v>
       </c>
-      <c r="B1201" s="41" t="s">
+      <c r="B1210" s="41" t="s">
         <v>907</v>
       </c>
-      <c r="C1201" s="42" t="s">
+      <c r="C1210" s="42" t="s">
         <v>1609</v>
       </c>
-      <c r="D1201" s="40" t="s">
+      <c r="D1210" s="40" t="s">
         <v>1700</v>
       </c>
-      <c r="E1201" s="40" t="s">
+      <c r="E1210" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F1201" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1201" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1201" s="40" t="s">
+      <c r="F1210" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1210" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1210" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I1201" s="42"/>
-    </row>
-    <row r="1202" spans="1:9" ht="195">
-      <c r="A1202" s="40" t="s">
+      <c r="I1210" s="42"/>
+    </row>
+    <row r="1211" spans="1:9" ht="195">
+      <c r="A1211" s="40" t="s">
         <v>850</v>
       </c>
-      <c r="B1202" s="41" t="s">
+      <c r="B1211" s="41" t="s">
         <v>907</v>
       </c>
-      <c r="C1202" s="42" t="s">
+      <c r="C1211" s="42" t="s">
         <v>1610</v>
       </c>
-      <c r="D1202" s="40" t="s">
+      <c r="D1211" s="40" t="s">
         <v>1700</v>
       </c>
-      <c r="E1202" s="40" t="s">
+      <c r="E1211" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F1202" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1202" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1202" s="40" t="s">
+      <c r="F1211" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1211" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1211" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I1202" s="42"/>
-    </row>
-    <row r="1203" spans="1:9">
-      <c r="A1203" s="3"/>
-      <c r="B1203" s="9"/>
-    </row>
-    <row r="1204" spans="1:9">
-      <c r="A1204" s="3"/>
-      <c r="B1204" s="9"/>
+      <c r="I1211" s="42"/>
+    </row>
+    <row r="1212" spans="1:9">
+      <c r="A1212" s="3"/>
+      <c r="B1212" s="9"/>
+    </row>
+    <row r="1213" spans="1:9">
+      <c r="A1213" s="3"/>
+      <c r="B1213" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -45872,7 +46210,7 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1159:D1202 A1038:I1038 A1125:I1125 A1127:I1127 A1139:I1139 A1141:I1141 A1143:I1143 A1145:I1145 A1153:I1155 H1156:H1157 E166:H166 E180:H180 E234:H234 E397:H397 E1022:I1022 E1024:I1036 E1073:I1073 E1075:I1083 E1085:I1085 E1087:I1093 E164:I165 E163:H163 E395:I396 E394:H394 E247:H248 E387:I393 E478:I505 E476:H477 E508:I514 E506:H507 E515:H515 E1170:I1202 E1169:H1169 E1159:I1168 E1021:H1021 E1023:H1023 E1072:H1072 E1074:H1074 E1084:H1084 E1086:H1086 E1094:H1094 C1158:I1158 C988:G988 C1037:E1037 C1039:E1039 C1124:E1124 C1126:E1126 C1128:E1128 C1140:E1140 C1142:E1142 C1144:E1144 E181:I233 E378:H380 E398:I473 A1118:H1118 A1123:I1123 E167:I179 C1146:E1146 A1114:A1117 A1119:A1122 A1129:A1138 A1147:A1152 B1011:D1015 A1007:B1009 A1018:D1036 A1010:C1010 D1006:D1017 E997:H997 A997:D1004 B1005:D1005 B1006 B1016:B1017 A1005:A1017 E235:I244 E1020:I1020 E1018:H1019 E246:I246 E245:H245 E371:I377 E370:H370 E475:I475 E474:H474 E1095:I1105 F1107:G1108 D1119:I1122 D1129:G1138 F1147:G1150 E516:I530 E249:I310 E1040:I1063 E998:I1017 A1107:B1113 C1106:E1109 C1110:G1117 H1106:H1117 D1147:E1152 E140:I162 E139:H139 A20:I91 A92 A93:I93 I92 H94:I94 A113:I116 A118:D310 E118:I138 A312:I315 I311 H316:I316 A317:I332 A334:D380 E334:I369 I333 A382:D530 E382:H386 H531:I531 H112:I112 H117:I117 A94 A95:I111 A112 A117 A311 A316 A333 A381 A531 A532:I987 A989:B996 D989:G996 F988:F996 H988:H996 C992:C994 A1071:D1105 E1071:I1071 E1064:H1068 A1040:D1068 A1069:I1070 I1066:I1068">
+  <conditionalFormatting sqref="A1038:I1038 A1131:I1131 A1133:I1133 A1145:I1145 A1147:I1147 A1149:I1149 A1151:I1151 A1159:I1161 H1162:H1163 E166:H166 E180:H180 E234:H234 E397:H397 E1022:I1022 E1024:I1036 E1073:I1073 E1075:I1083 E1085:I1085 E1087:I1099 E164:I165 E163:H163 E395:I396 E394:H394 E247:H248 E387:I393 E478:I505 E476:H477 E508:I514 E506:H507 E515:H515 E1176:I1211 E1175:H1175 E1165:I1174 E1021:H1021 E1023:H1023 E1072:H1072 E1074:H1074 E1084:H1084 E1086:H1086 E1100:H1100 C1164:I1164 C988:G988 C1037:E1037 C1039:E1039 C1130:E1130 C1132:E1132 C1134:E1134 C1146:E1146 C1148:E1148 C1150:E1150 E181:I233 E378:H380 E398:I473 A1124:H1124 A1129:I1129 E167:I179 C1152:E1152 A1120:A1123 A1125:A1128 A1135:A1144 A1153:A1158 B1011:D1015 A1007:B1009 A1018:D1036 A1010:C1010 D1006:D1017 E997:H997 A997:D1004 B1005:D1005 B1006 B1016:B1017 A1005:A1017 E235:I244 E1020:I1020 E1018:H1019 E246:I246 E245:H245 E371:I377 E370:H370 E475:I475 E474:H474 E1101:I1111 F1113:G1114 D1125:I1128 D1135:G1144 F1153:G1156 E516:I530 E249:I310 E1040:I1063 E998:I1017 A1113:B1119 C1112:E1115 C1116:G1123 H1112:H1123 D1153:E1158 E140:I162 E139:H139 A20:I91 A92 A93:I93 I92 H94:I94 A113:I116 A118:D310 E118:I138 A312:I315 I311 H316:I316 A317:I332 A334:D380 E334:I369 I333 A382:D530 E382:H386 H531:I531 H112:I112 H117:I117 A94 A95:I111 A112 A117 A311 A316 A333 A381 A531 A532:I987 A989:B996 D989:G996 F988:F996 H988:H996 C992:C994 E1071:I1071 E1064:H1068 A1040:D1068 A1069:I1070 I1066:I1068 A1165:D1211 A1071:D1111">
     <cfRule type="expression" dxfId="741" priority="1161">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -45883,7 +46221,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1159:D1202 A1038:I1038 A1125:I1125 A1127:I1127 A1139:I1139 A1141:I1141 A1143:I1143 A1145:I1145 A1153:I1155 H1156:H1157 E166:H166 E180:H180 E234:H234 E397:H397 E1022:I1022 E1024:I1036 E1073:I1073 E1075:I1083 E1085:I1085 E1087:I1093 E164:I165 E163:H163 E395:I396 E394:H394 E247:H248 E387:I393 E478:I505 E476:H477 E508:I514 E506:H507 E515:H515 E1170:I1202 E1169:H1169 E1159:I1168 E1021:H1021 E1023:H1023 E1072:H1072 E1074:H1074 E1084:H1084 E1086:H1086 E1094:H1094 C1158:I1158 C988:G988 C1037:E1037 C1039:E1039 C1124:E1124 C1126:E1126 C1128:E1128 C1140:E1140 C1142:E1142 C1144:E1144 E181:I233 E378:H380 E398:I473 A1118:H1118 A1123:I1123 E167:I179 C1146:E1146 A1114:A1117 A1119:A1122 A1129:A1138 A1147:A1152 B1011:D1015 A1007:B1009 A1018:D1036 A1010:C1010 D1006:D1017 E997:H997 A997:D1004 B1005:D1005 B1006 B1016:B1017 A1005:A1017 E235:I244 E1020:I1020 E1018:H1019 E246:I246 E245:H245 E371:I377 E370:H370 E475:I475 E474:H474 E1095:I1105 F1107:G1108 D1119:I1122 D1129:G1138 F1147:G1150 E516:I530 E249:I310 E1040:I1063 E998:I1017 A1107:B1113 C1106:E1109 C1110:G1117 H1106:H1117 D1147:E1152 E140:I162 E139:H139 A20:I91 A92 A93:I93 I92 H94:I94 A113:I116 A118:D310 E118:I138 A312:I315 I311 H316:I316 A317:I332 A334:D380 E334:I369 I333 A382:D530 E382:H386 H531:I531 H112:I112 H117:I117 A94 A95:I111 A112 A117 A311 A316 A333 A381 A531 A532:I987 A989:B996 D989:G996 F988:F996 H988:H996 C992:C994 A1071:D1105 E1071:I1071 E1064:H1068 A1040:D1068 A1069:I1070 I1066:I1068">
+  <conditionalFormatting sqref="A1038:I1038 A1131:I1131 A1133:I1133 A1145:I1145 A1147:I1147 A1149:I1149 A1151:I1151 A1159:I1161 H1162:H1163 E166:H166 E180:H180 E234:H234 E397:H397 E1022:I1022 E1024:I1036 E1073:I1073 E1075:I1083 E1085:I1085 E1087:I1099 E164:I165 E163:H163 E395:I396 E394:H394 E247:H248 E387:I393 E478:I505 E476:H477 E508:I514 E506:H507 E515:H515 E1176:I1211 E1175:H1175 E1165:I1174 E1021:H1021 E1023:H1023 E1072:H1072 E1074:H1074 E1084:H1084 E1086:H1086 E1100:H1100 C1164:I1164 C988:G988 C1037:E1037 C1039:E1039 C1130:E1130 C1132:E1132 C1134:E1134 C1146:E1146 C1148:E1148 C1150:E1150 E181:I233 E378:H380 E398:I473 A1124:H1124 A1129:I1129 E167:I179 C1152:E1152 A1120:A1123 A1125:A1128 A1135:A1144 A1153:A1158 B1011:D1015 A1007:B1009 A1018:D1036 A1010:C1010 D1006:D1017 E997:H997 A997:D1004 B1005:D1005 B1006 B1016:B1017 A1005:A1017 E235:I244 E1020:I1020 E1018:H1019 E246:I246 E245:H245 E371:I377 E370:H370 E475:I475 E474:H474 E1101:I1111 F1113:G1114 D1125:I1128 D1135:G1144 F1153:G1156 E516:I530 E249:I310 E1040:I1063 E998:I1017 A1113:B1119 C1112:E1115 C1116:G1123 H1112:H1123 D1153:E1158 E140:I162 E139:H139 A20:I91 A92 A93:I93 I92 H94:I94 A113:I116 A118:D310 E118:I138 A312:I315 I311 H316:I316 A317:I332 A334:D380 E334:I369 I333 A382:D530 E382:H386 H531:I531 H112:I112 H117:I117 A94 A95:I111 A112 A117 A311 A316 A333 A381 A531 A532:I987 A989:B996 D989:G996 F988:F996 H988:H996 C992:C994 E1071:I1071 E1064:H1068 A1040:D1068 A1069:I1070 I1066:I1068 A1165:D1211 A1071:D1111">
     <cfRule type="expression" dxfId="738" priority="1115">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -45894,7 +46232,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1170:I1202 I1159:I1168">
+  <conditionalFormatting sqref="I1176:I1211 I1165:I1174">
     <cfRule type="expression" dxfId="735" priority="1112">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -45905,7 +46243,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1170:I1202 I1159:I1168">
+  <conditionalFormatting sqref="I1176:I1211 I1165:I1174">
     <cfRule type="expression" dxfId="732" priority="1109">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -45916,7 +46254,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1156:B1158">
+  <conditionalFormatting sqref="B1162:B1164">
     <cfRule type="expression" dxfId="729" priority="794">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -45927,7 +46265,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1156:B1158">
+  <conditionalFormatting sqref="B1162:B1164">
     <cfRule type="expression" dxfId="726" priority="791">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -45938,7 +46276,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1156 C1156:G1156">
+  <conditionalFormatting sqref="A1162 C1162:G1162">
     <cfRule type="expression" dxfId="723" priority="788">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -45949,7 +46287,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1156 C1156:G1156">
+  <conditionalFormatting sqref="A1162 C1162:G1162">
     <cfRule type="expression" dxfId="720" priority="785">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -45960,10 +46298,10 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1156">
+  <conditionalFormatting sqref="A1162">
     <cfRule type="duplicateValues" dxfId="717" priority="784"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1156">
+  <conditionalFormatting sqref="F1162">
     <cfRule type="expression" dxfId="716" priority="781">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -45974,7 +46312,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1156">
+  <conditionalFormatting sqref="F1162">
     <cfRule type="expression" dxfId="713" priority="776">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -45985,7 +46323,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1157 C1157:G1157">
+  <conditionalFormatting sqref="A1163 C1163:G1163">
     <cfRule type="expression" dxfId="710" priority="773">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -45996,7 +46334,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1157 C1157:G1157">
+  <conditionalFormatting sqref="A1163 C1163:G1163">
     <cfRule type="expression" dxfId="707" priority="770">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46007,10 +46345,10 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1157">
+  <conditionalFormatting sqref="A1163">
     <cfRule type="duplicateValues" dxfId="704" priority="769"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1158">
+  <conditionalFormatting sqref="A1164">
     <cfRule type="expression" dxfId="703" priority="764">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46021,7 +46359,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1158">
+  <conditionalFormatting sqref="A1164">
     <cfRule type="expression" dxfId="700" priority="761">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46032,7 +46370,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1158">
+  <conditionalFormatting sqref="A1164">
     <cfRule type="duplicateValues" dxfId="697" priority="760"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B988">
@@ -46057,7 +46395,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F998:F1017 F1046:F1050 F1061:F1062 F1103:F1104 F1107:F1108 F1119:F1122 F1129:F1138 F1147:F1150">
+  <conditionalFormatting sqref="F998:F1017 F1046:F1050 F1061:F1062 F1109:F1110 F1113:F1114 F1125:F1128 F1135:F1144 F1153:F1156">
     <cfRule type="expression" dxfId="690" priority="738">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46090,7 +46428,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F998:F1017 F1046:F1050 F1061:F1062 F1103:F1104 F1107:F1108 F1119:F1122 F1129:F1138 F1147:F1150">
+  <conditionalFormatting sqref="F998:F1017 F1046:F1050 F1061:F1062 F1109:F1110 F1113:F1114 F1125:F1128 F1135:F1144 F1153:F1156">
     <cfRule type="expression" dxfId="681" priority="743">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46343,7 +46681,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1106 B1114:B1117 B1119:B1122 B1129:B1134">
+  <conditionalFormatting sqref="B1112 B1120:B1123 B1125:B1128 B1135:B1140">
     <cfRule type="expression" dxfId="612" priority="665">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46354,7 +46692,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1106 B1114:B1117 B1119:B1122 B1129:B1134">
+  <conditionalFormatting sqref="B1112 B1120:B1123 B1125:B1128 B1135:B1140">
     <cfRule type="expression" dxfId="609" priority="662">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46365,7 +46703,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1106 F1109">
+  <conditionalFormatting sqref="F1112 F1115">
     <cfRule type="expression" dxfId="606" priority="659">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46376,7 +46714,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1106 F1109">
+  <conditionalFormatting sqref="F1112 F1115">
     <cfRule type="expression" dxfId="603" priority="656">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46387,7 +46725,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1106 F1109">
+  <conditionalFormatting sqref="F1112 F1115">
     <cfRule type="expression" dxfId="600" priority="653">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46398,7 +46736,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1106 F1109">
+  <conditionalFormatting sqref="F1112 F1115">
     <cfRule type="expression" dxfId="597" priority="648">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46409,7 +46747,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1106 G1106 G1109">
+  <conditionalFormatting sqref="A1112 G1112 G1115">
     <cfRule type="expression" dxfId="594" priority="645">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46420,7 +46758,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1106 G1106 G1109">
+  <conditionalFormatting sqref="A1112 G1112 G1115">
     <cfRule type="expression" dxfId="591" priority="642">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46431,7 +46769,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1106:I1107 I1109:I1110 I1112 I1114 I1116">
+  <conditionalFormatting sqref="I1112:I1113 I1115:I1116 I1118 I1120 I1122">
     <cfRule type="expression" dxfId="588" priority="639">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46442,7 +46780,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1106:I1107 I1109:I1110 I1112 I1114 I1116">
+  <conditionalFormatting sqref="I1112:I1113 I1115:I1116 I1118 I1120 I1122">
     <cfRule type="expression" dxfId="585" priority="636">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46453,7 +46791,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1124 H1124">
+  <conditionalFormatting sqref="B1130 H1130">
     <cfRule type="expression" dxfId="582" priority="633">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46464,7 +46802,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1124 H1124">
+  <conditionalFormatting sqref="B1130 H1130">
     <cfRule type="expression" dxfId="579" priority="630">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46475,7 +46813,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1124">
+  <conditionalFormatting sqref="F1130">
     <cfRule type="expression" dxfId="576" priority="627">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46486,7 +46824,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1124">
+  <conditionalFormatting sqref="F1130">
     <cfRule type="expression" dxfId="573" priority="624">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46497,7 +46835,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1124">
+  <conditionalFormatting sqref="F1130">
     <cfRule type="expression" dxfId="570" priority="621">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46508,7 +46846,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1124">
+  <conditionalFormatting sqref="F1130">
     <cfRule type="expression" dxfId="567" priority="616">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46519,7 +46857,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1124 G1124">
+  <conditionalFormatting sqref="A1130 G1130">
     <cfRule type="expression" dxfId="564" priority="613">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46530,7 +46868,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1124 G1124">
+  <conditionalFormatting sqref="A1130 G1130">
     <cfRule type="expression" dxfId="561" priority="610">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46541,7 +46879,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1124">
+  <conditionalFormatting sqref="I1130">
     <cfRule type="expression" dxfId="558" priority="607">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46552,7 +46890,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1124">
+  <conditionalFormatting sqref="I1130">
     <cfRule type="expression" dxfId="555" priority="604">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46563,7 +46901,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1126 H1126">
+  <conditionalFormatting sqref="B1132 H1132">
     <cfRule type="expression" dxfId="552" priority="601">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46574,7 +46912,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1126 H1126">
+  <conditionalFormatting sqref="B1132 H1132">
     <cfRule type="expression" dxfId="549" priority="598">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46585,7 +46923,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1126">
+  <conditionalFormatting sqref="F1132">
     <cfRule type="expression" dxfId="546" priority="595">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46596,7 +46934,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1126">
+  <conditionalFormatting sqref="F1132">
     <cfRule type="expression" dxfId="543" priority="592">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46607,7 +46945,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1126">
+  <conditionalFormatting sqref="F1132">
     <cfRule type="expression" dxfId="540" priority="589">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46618,7 +46956,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1126">
+  <conditionalFormatting sqref="F1132">
     <cfRule type="expression" dxfId="537" priority="584">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46629,7 +46967,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1126 G1126">
+  <conditionalFormatting sqref="A1132 G1132">
     <cfRule type="expression" dxfId="534" priority="581">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46640,7 +46978,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1126 G1126">
+  <conditionalFormatting sqref="A1132 G1132">
     <cfRule type="expression" dxfId="531" priority="578">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46651,7 +46989,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1126">
+  <conditionalFormatting sqref="I1132">
     <cfRule type="expression" dxfId="528" priority="575">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46662,7 +47000,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1126">
+  <conditionalFormatting sqref="I1132">
     <cfRule type="expression" dxfId="525" priority="572">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46673,7 +47011,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1128 B1135:B1138 B1147:B1152 H1128:H1138">
+  <conditionalFormatting sqref="B1134 B1141:B1144 B1153:B1158 H1134:H1144">
     <cfRule type="expression" dxfId="522" priority="569">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46684,7 +47022,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1128 B1135:B1138 B1147:B1152 H1128:H1138">
+  <conditionalFormatting sqref="B1134 B1141:B1144 B1153:B1158 H1134:H1144">
     <cfRule type="expression" dxfId="519" priority="566">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46695,7 +47033,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1128">
+  <conditionalFormatting sqref="F1134">
     <cfRule type="expression" dxfId="516" priority="563">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46706,7 +47044,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1128">
+  <conditionalFormatting sqref="F1134">
     <cfRule type="expression" dxfId="513" priority="560">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46717,7 +47055,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1128">
+  <conditionalFormatting sqref="F1134">
     <cfRule type="expression" dxfId="510" priority="557">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46728,7 +47066,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1128">
+  <conditionalFormatting sqref="F1134">
     <cfRule type="expression" dxfId="507" priority="552">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46739,7 +47077,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1128 G1128">
+  <conditionalFormatting sqref="A1134 G1134">
     <cfRule type="expression" dxfId="504" priority="549">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46750,7 +47088,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1128 G1128">
+  <conditionalFormatting sqref="A1134 G1134">
     <cfRule type="expression" dxfId="501" priority="546">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46761,7 +47099,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1128:I1129 I1131 I1133 I1135 I1137">
+  <conditionalFormatting sqref="I1134:I1135 I1137 I1139 I1141 I1143">
     <cfRule type="expression" dxfId="498" priority="543">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46772,7 +47110,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1128:I1129 I1131 I1133 I1135 I1137">
+  <conditionalFormatting sqref="I1134:I1135 I1137 I1139 I1141 I1143">
     <cfRule type="expression" dxfId="495" priority="540">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46783,7 +47121,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1140 H1140">
+  <conditionalFormatting sqref="B1146 H1146">
     <cfRule type="expression" dxfId="492" priority="537">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46794,7 +47132,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1140 H1140">
+  <conditionalFormatting sqref="B1146 H1146">
     <cfRule type="expression" dxfId="489" priority="534">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46805,7 +47143,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1140">
+  <conditionalFormatting sqref="F1146">
     <cfRule type="expression" dxfId="486" priority="531">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46816,7 +47154,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1140">
+  <conditionalFormatting sqref="F1146">
     <cfRule type="expression" dxfId="483" priority="528">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46827,7 +47165,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1140">
+  <conditionalFormatting sqref="F1146">
     <cfRule type="expression" dxfId="480" priority="525">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46838,7 +47176,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1140">
+  <conditionalFormatting sqref="F1146">
     <cfRule type="expression" dxfId="477" priority="520">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46849,7 +47187,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1140 G1140">
+  <conditionalFormatting sqref="A1146 G1146">
     <cfRule type="expression" dxfId="474" priority="517">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46860,7 +47198,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1140 G1140">
+  <conditionalFormatting sqref="A1146 G1146">
     <cfRule type="expression" dxfId="471" priority="514">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46871,7 +47209,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1140">
+  <conditionalFormatting sqref="I1146">
     <cfRule type="expression" dxfId="468" priority="511">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46882,7 +47220,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1140">
+  <conditionalFormatting sqref="I1146">
     <cfRule type="expression" dxfId="465" priority="508">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46893,7 +47231,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1142 H1142">
+  <conditionalFormatting sqref="B1148 H1148">
     <cfRule type="expression" dxfId="462" priority="505">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46904,7 +47242,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1142 H1142">
+  <conditionalFormatting sqref="B1148 H1148">
     <cfRule type="expression" dxfId="459" priority="502">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46915,7 +47253,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1142">
+  <conditionalFormatting sqref="F1148">
     <cfRule type="expression" dxfId="456" priority="499">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46926,7 +47264,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1142">
+  <conditionalFormatting sqref="F1148">
     <cfRule type="expression" dxfId="453" priority="496">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46937,7 +47275,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1142">
+  <conditionalFormatting sqref="F1148">
     <cfRule type="expression" dxfId="450" priority="493">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46948,7 +47286,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1142">
+  <conditionalFormatting sqref="F1148">
     <cfRule type="expression" dxfId="447" priority="488">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46959,7 +47297,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1142 G1142">
+  <conditionalFormatting sqref="A1148 G1148">
     <cfRule type="expression" dxfId="444" priority="485">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46970,7 +47308,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1142 G1142">
+  <conditionalFormatting sqref="A1148 G1148">
     <cfRule type="expression" dxfId="441" priority="482">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -46981,7 +47319,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1142">
+  <conditionalFormatting sqref="I1148">
     <cfRule type="expression" dxfId="438" priority="479">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46992,7 +47330,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1142">
+  <conditionalFormatting sqref="I1148">
     <cfRule type="expression" dxfId="435" priority="476">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47003,7 +47341,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1144 H1144">
+  <conditionalFormatting sqref="B1150 H1150">
     <cfRule type="expression" dxfId="432" priority="473">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47014,7 +47352,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1144 H1144">
+  <conditionalFormatting sqref="B1150 H1150">
     <cfRule type="expression" dxfId="429" priority="470">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47025,7 +47363,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1144">
+  <conditionalFormatting sqref="F1150">
     <cfRule type="expression" dxfId="426" priority="467">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47036,7 +47374,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1144">
+  <conditionalFormatting sqref="F1150">
     <cfRule type="expression" dxfId="423" priority="464">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47047,7 +47385,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1144">
+  <conditionalFormatting sqref="F1150">
     <cfRule type="expression" dxfId="420" priority="461">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47058,7 +47396,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1144">
+  <conditionalFormatting sqref="F1150">
     <cfRule type="expression" dxfId="417" priority="456">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47069,7 +47407,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1144 G1144">
+  <conditionalFormatting sqref="A1150 G1150">
     <cfRule type="expression" dxfId="414" priority="453">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47080,7 +47418,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1144 G1144">
+  <conditionalFormatting sqref="A1150 G1150">
     <cfRule type="expression" dxfId="411" priority="450">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47091,7 +47429,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1144">
+  <conditionalFormatting sqref="I1150">
     <cfRule type="expression" dxfId="408" priority="447">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47102,7 +47440,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1144">
+  <conditionalFormatting sqref="I1150">
     <cfRule type="expression" dxfId="405" priority="444">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47113,7 +47451,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1146 H1146:H1152">
+  <conditionalFormatting sqref="B1152 H1152:H1158">
     <cfRule type="expression" dxfId="402" priority="441">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47124,7 +47462,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1146 H1146:H1152">
+  <conditionalFormatting sqref="B1152 H1152:H1158">
     <cfRule type="expression" dxfId="399" priority="438">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47135,7 +47473,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1146 F1151:F1152">
+  <conditionalFormatting sqref="F1152 F1157:F1158">
     <cfRule type="expression" dxfId="396" priority="435">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47146,7 +47484,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1146 F1151:F1152">
+  <conditionalFormatting sqref="F1152 F1157:F1158">
     <cfRule type="expression" dxfId="393" priority="432">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47157,7 +47495,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1146 F1151:F1152">
+  <conditionalFormatting sqref="F1152 F1157:F1158">
     <cfRule type="expression" dxfId="390" priority="429">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47168,7 +47506,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1146 F1151:F1152">
+  <conditionalFormatting sqref="F1152 F1157:F1158">
     <cfRule type="expression" dxfId="387" priority="424">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47179,7 +47517,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1146 G1146 G1151:G1152">
+  <conditionalFormatting sqref="A1152 G1152 G1157:G1158">
     <cfRule type="expression" dxfId="384" priority="421">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47190,7 +47528,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1146 G1146 G1151:G1152">
+  <conditionalFormatting sqref="A1152 G1152 G1157:G1158">
     <cfRule type="expression" dxfId="381" priority="418">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47201,7 +47539,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1146:I1147 I1149 I1151">
+  <conditionalFormatting sqref="I1152:I1153 I1155 I1157">
     <cfRule type="expression" dxfId="378" priority="415">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47212,7 +47550,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1146:I1147 I1149 I1151">
+  <conditionalFormatting sqref="I1152:I1153 I1155 I1157">
     <cfRule type="expression" dxfId="375" priority="412">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47223,7 +47561,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I166 I180 I234 I397 I1021 I1023 I1072 I1074 I1084 I1086 I1094 I1156:I1157 I1064">
+  <conditionalFormatting sqref="I166 I180 I234 I397 I1021 I1023 I1072 I1074 I1084 I1086 I1100 I1162:I1163 I1064">
     <cfRule type="expression" dxfId="372" priority="409">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47234,7 +47572,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I166 I180 I234 I397 I1021 I1023 I1072 I1074 I1084 I1086 I1094 I1156:I1157 I1064">
+  <conditionalFormatting sqref="I166 I180 I234 I397 I1021 I1023 I1072 I1074 I1084 I1086 I1100 I1162:I1163 I1064">
     <cfRule type="expression" dxfId="369" priority="406">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47465,7 +47803,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1169">
+  <conditionalFormatting sqref="I1175">
     <cfRule type="expression" dxfId="306" priority="343">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47476,7 +47814,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1169">
+  <conditionalFormatting sqref="I1175">
     <cfRule type="expression" dxfId="303" priority="340">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47531,7 +47869,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1119:C1120">
+  <conditionalFormatting sqref="C1125:C1126">
     <cfRule type="expression" dxfId="288" priority="319">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47542,7 +47880,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1119:C1120">
+  <conditionalFormatting sqref="C1125:C1126">
     <cfRule type="expression" dxfId="285" priority="316">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47553,7 +47891,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1121:C1122">
+  <conditionalFormatting sqref="C1127:C1128">
     <cfRule type="expression" dxfId="282" priority="313">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47564,7 +47902,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1121:C1122">
+  <conditionalFormatting sqref="C1127:C1128">
     <cfRule type="expression" dxfId="279" priority="310">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47575,7 +47913,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1129:C1130">
+  <conditionalFormatting sqref="C1135:C1136">
     <cfRule type="expression" dxfId="276" priority="307">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47586,7 +47924,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1129:C1130">
+  <conditionalFormatting sqref="C1135:C1136">
     <cfRule type="expression" dxfId="273" priority="304">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47597,7 +47935,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1131:C1138">
+  <conditionalFormatting sqref="C1137:C1144">
     <cfRule type="expression" dxfId="270" priority="301">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47608,7 +47946,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1131:C1138">
+  <conditionalFormatting sqref="C1137:C1144">
     <cfRule type="expression" dxfId="267" priority="298">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47619,7 +47957,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1147 C1149:C1150">
+  <conditionalFormatting sqref="C1153 C1155:C1156">
     <cfRule type="expression" dxfId="264" priority="295">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47630,7 +47968,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1147 C1149:C1150">
+  <conditionalFormatting sqref="C1153 C1155:C1156">
     <cfRule type="expression" dxfId="261" priority="292">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47641,7 +47979,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1151:C1152">
+  <conditionalFormatting sqref="C1157:C1158">
     <cfRule type="expression" dxfId="258" priority="289">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47652,7 +47990,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1151:C1152">
+  <conditionalFormatting sqref="C1157:C1158">
     <cfRule type="expression" dxfId="255" priority="286">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47663,7 +48001,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1148">
+  <conditionalFormatting sqref="C1154">
     <cfRule type="expression" dxfId="252" priority="283">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47674,7 +48012,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1148">
+  <conditionalFormatting sqref="C1154">
     <cfRule type="expression" dxfId="249" priority="280">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47795,7 +48133,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1108">
+  <conditionalFormatting sqref="I1114">
     <cfRule type="expression" dxfId="216" priority="223">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47806,7 +48144,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1108">
+  <conditionalFormatting sqref="I1114">
     <cfRule type="expression" dxfId="213" priority="220">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47817,7 +48155,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1111">
+  <conditionalFormatting sqref="I1117">
     <cfRule type="expression" dxfId="210" priority="211">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47828,7 +48166,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1111">
+  <conditionalFormatting sqref="I1117">
     <cfRule type="expression" dxfId="207" priority="208">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47839,7 +48177,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1113">
+  <conditionalFormatting sqref="I1119">
     <cfRule type="expression" dxfId="204" priority="205">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47850,7 +48188,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1113">
+  <conditionalFormatting sqref="I1119">
     <cfRule type="expression" dxfId="201" priority="202">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47861,7 +48199,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1115">
+  <conditionalFormatting sqref="I1121">
     <cfRule type="expression" dxfId="198" priority="199">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47872,7 +48210,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1115">
+  <conditionalFormatting sqref="I1121">
     <cfRule type="expression" dxfId="195" priority="196">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47883,7 +48221,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1117">
+  <conditionalFormatting sqref="I1123">
     <cfRule type="expression" dxfId="192" priority="193">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47894,7 +48232,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1117">
+  <conditionalFormatting sqref="I1123">
     <cfRule type="expression" dxfId="189" priority="190">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47905,7 +48243,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1130">
+  <conditionalFormatting sqref="I1136">
     <cfRule type="expression" dxfId="186" priority="187">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47916,7 +48254,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1130">
+  <conditionalFormatting sqref="I1136">
     <cfRule type="expression" dxfId="183" priority="184">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47927,7 +48265,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1132">
+  <conditionalFormatting sqref="I1138">
     <cfRule type="expression" dxfId="180" priority="181">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47938,7 +48276,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1132">
+  <conditionalFormatting sqref="I1138">
     <cfRule type="expression" dxfId="177" priority="178">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47949,7 +48287,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1134">
+  <conditionalFormatting sqref="I1140">
     <cfRule type="expression" dxfId="174" priority="175">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47960,7 +48298,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1134">
+  <conditionalFormatting sqref="I1140">
     <cfRule type="expression" dxfId="171" priority="172">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47971,7 +48309,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1136">
+  <conditionalFormatting sqref="I1142">
     <cfRule type="expression" dxfId="168" priority="169">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -47982,7 +48320,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1136">
+  <conditionalFormatting sqref="I1142">
     <cfRule type="expression" dxfId="165" priority="166">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -47993,7 +48331,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1138">
+  <conditionalFormatting sqref="I1144">
     <cfRule type="expression" dxfId="162" priority="163">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -48004,7 +48342,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1138">
+  <conditionalFormatting sqref="I1144">
     <cfRule type="expression" dxfId="159" priority="160">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -48015,7 +48353,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1148">
+  <conditionalFormatting sqref="I1154">
     <cfRule type="expression" dxfId="156" priority="157">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -48026,7 +48364,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1148">
+  <conditionalFormatting sqref="I1154">
     <cfRule type="expression" dxfId="153" priority="154">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -48037,7 +48375,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1150">
+  <conditionalFormatting sqref="I1156">
     <cfRule type="expression" dxfId="150" priority="151">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -48048,7 +48386,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1150">
+  <conditionalFormatting sqref="I1156">
     <cfRule type="expression" dxfId="147" priority="148">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -48059,7 +48397,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1152">
+  <conditionalFormatting sqref="I1158">
     <cfRule type="expression" dxfId="144" priority="145">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -48070,7 +48408,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1152">
+  <conditionalFormatting sqref="I1158">
     <cfRule type="expression" dxfId="141" priority="142">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -48235,27 +48573,27 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F91 F93 F95:F111 F113:F116 F118:F310 F312:F315 F317:F332 F334:F380 F382:F530 F532:F1202">
+  <conditionalFormatting sqref="F20:F91 F93 F95:F111 F113:F116 F118:F310 F312:F315 F317:F332 F334:F380 F382:F530 F532:F1211">
     <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="Both">
       <formula>NOT(ISERROR(SEARCH("Both",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F91 F93 F95:F111 F113:F116 F118:F310 F312:F315 F317:F332 F334:F380 F382:F530 F532:F1102">
+  <conditionalFormatting sqref="F67:F91 F93 F95:F111 F113:F116 F118:F310 F312:F315 F317:F332 F334:F380 F382:F530 F532:F1108">
     <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="Server">
       <formula>NOT(ISERROR(SEARCH("Server",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F91 F93 F95:F111 F113:F116 F118:F310 F312:F315 F317:F332 F334:F380 F382:F530 F532:F1152">
+  <conditionalFormatting sqref="F57:F91 F93 F95:F111 F113:F116 F118:F310 F312:F315 F317:F332 F334:F380 F382:F530 F532:F1158">
     <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="Client">
       <formula>NOT(ISERROR(SEARCH("Client",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1151:F1152 F1109 F948:F950 F927:F929 F906:F908 F884:F886 F863:F867 F835:F837 F815:F816 F704:F706 F675:F677 F668 F664 F662 F619:F624 F296:F304 F565:F570 F806:F811">
+  <conditionalFormatting sqref="F1157:F1158 F1115 F948:F950 F927:F929 F906:F908 F884:F886 F863:F867 F835:F837 F815:F816 F704:F706 F675:F677 F668 F664 F662 F619:F624 F296:F304 F565:F570 F806:F811">
     <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Client">
       <formula>NOT(ISERROR(SEARCH("Client",F296)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1151:F1152 F1109">
+  <conditionalFormatting sqref="F1157:F1158 F1115">
     <cfRule type="expression" dxfId="92" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -48266,7 +48604,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1151:F1152 F1109">
+  <conditionalFormatting sqref="F1157:F1158 F1115">
     <cfRule type="expression" dxfId="89" priority="90">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -48277,7 +48615,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1118">
+  <conditionalFormatting sqref="I1124">
     <cfRule type="expression" dxfId="86" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -48288,7 +48626,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1118">
+  <conditionalFormatting sqref="I1124">
     <cfRule type="expression" dxfId="83" priority="82">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -48633,23 +48971,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F1068 F1069:F1202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F1211">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E1068 E1069:E1202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E1211">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G1068 G1069:G1202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G1211">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1159:H1202 H1153:H1157 H1038 H1125 H1127 H1139 H1141 H1143 H1145 H1118:H1123 H1006:H1036 H997 H20:H987 H1040:H1068 H1069:H1105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1165:H1211 H1159:H1163 H1038 H1131 H1133 H1145 H1147 H1149 H1151 H1124:H1129 H1006:H1036 H997 H20:H987 H1040:H1111">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1146:H1152 H1037 H1039 H1124 H1126 H998:H1005 H1140 H1142 H1144 H1158 H1128:H1138 H1106:H1117 H988:H996">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1152:H1158 H1037 H1039 H1130 H1132 H998:H1005 H1146 H1148 H1150 H1164 H1134:H1144 H1112:H1123 H988:H996">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -48659,7 +48997,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B11:B85 C3 B986:B1204 B86:B985" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B11:B85 C3 B1094:B1179 B1181:B1213 B86:B1093" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Interop-TestSuites\ExchangeWebServices\Docs\MS-OXWSMTGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc review\EWS\MTGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8842" uniqueCount="2757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8818" uniqueCount="2742">
   <si>
     <t>Req ID</t>
   </si>
@@ -7797,33 +7797,10 @@
     <t>[In Appendix C: Product Behavior] Implementation does support GetRemindersResponseMessageType which specifies a response to a request to return reminders. (Exchange 2013 and above follow this behavior.)</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support InboxReminderType which specifies an inbox reminder. (Exchange 2013 and above follow this behavior.)
- &lt;xs:complexType name="InboxReminderType"&gt;
-   &lt;xs:sequence&gt;
-     &lt;xs:element name="Id" type="t:GuidType" minOccurs="0" maxOccurs="1"/&gt;
-     &lt;xs:element name="ReminderOffset" type="xs:int" minOccurs="0" maxOccurs="1"/&gt;
-  &lt;xs:element name="Message" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
-  &lt;xs:element name="IsOrganizerReminder" type="xs:boolean" minOccurs="0" maxOccurs="1"/&gt;
-  &lt;xs:element name="OccurrenceChange" 
-         type="t:EmailReminderChangeType" minOccurs="0" maxOccurs="1"/&gt;
-   &lt;xs:element name="SendOption" 
-         type="t:EmailReminderSendOption" minOccurs="0" maxOccurs="1"/&gt;
-   &lt;/xs:sequence&gt;
- &lt;/xs:complexType&gt;</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does not support the ResponseType element. (&lt;49&gt; Section 2.2.4.20:  Exchange 2010 does not return the ResponseType element if the recipient has not yet responded to the meeting request.)</t>
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does support the MeetingRegistrationResponseObjectType complex type which specifies a response to a meeting registration request. (This type was introduced in Exchange 2013 SP1.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the NonEmptyArrayOfReminderItemActionType which specifies an array of reminder actions and new reminder times for items. (Exchange 2013 and above follow this behavior.)
- &lt;xs:complexType name="NonEmptyArrayOfReminderItemActionType"&gt;
-   &lt;xs:sequence&gt;
-     &lt;xs:element name="ReminderItemAction" type="t:ReminderItemActionType" minOccurs="1" maxOccurs="unbounded"/&gt;
-   &lt;/xs:sequence&gt;
- &lt;/xs:complexType</t>
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does support the PerformReminderActionResponseMessageType which represents a response to a request to perform a reminder action. (Exchange 2013 and above follow this behavior.)</t>
@@ -7838,33 +7815,6 @@
      &lt;xs:element name="ActionType" type="t:ReminderActionType" minOccurs="1" maxOccurs="1"/&gt;
      &lt;xs:element name="ItemId" type="t:ItemIdType" minOccurs="1" maxOccurs="1"/&gt;
      &lt;xs:element name="NewReminderTime" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
-   &lt;/xs:sequence&gt;
- &lt;/xs:complexType&gt;</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the ReminderMessageDataType which specifies a reminder message. (This type was introduced in Exchange 2013 SP1.)
- &lt;xs:complexType name="ReminderMessageDataType"&gt;
-   &lt;xs:sequence&gt;
-     &lt;xs:element name="ReminderText" type="xs:string" minOccurs="0"/&gt;
-     &lt;xs:element name="Location" type="xs:string" minOccurs="0"/&gt;
-     &lt;xs:element name="StartTime" type="xs:dateTime" minOccurs="0"/&gt;
-     &lt;xs:element name="EndTime" type="xs:dateTime" minOccurs="0"/&gt;
-   &lt;/xs:sequence&gt;
- &lt;/xs:complexType&gt;</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the ReminderType which specifies a reminder object.  (Exchange 2013 and above follow this behavior.)
- &lt;xs:complexType name="ReminderType"&gt;
-   &lt;xs:sequence&gt;
-     &lt;xs:element name="Subject" type="xs:string" minOccurs="1" maxOccurs="1"/&gt;
-     xs:element name="Location" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
-     &lt;xs:element name="ReminderTime" type="xs:dateTime" minOccurs="1" maxOccurs="1"/&gt;
-     &lt;xs:element name="StartDate" type="xs:dateTime" minOccurs="1" maxOccurs="1"/&gt;
-     &lt;xs:element name="EndDate" type="xs:dateTime" minOccurs="1" maxOccurs="1"/&gt;
-     &lt;xs:element name="ItemId" type="t:ItemIdType" minOccurs="1" maxOccurs="1"/&gt;
-     &lt;xs:element name="RecurringMasterItemId" type="t:ItemIdType" minOccurs="0" maxOccurs="1"/&gt;
-     &lt;xs:element name="ReminderGroup" type="t:ReminderGroupType" minOccurs="0" maxOccurs="1"/&gt;
-     &lt;xs:element name="UID" type="xs:string" minOccurs="1" maxOccurs="1"/&gt;
    &lt;/xs:sequence&gt;
  &lt;/xs:complexType&gt;</t>
   </si>
@@ -7926,29 +7876,6 @@
     <t>[In Appendix C: Product Behavior] Implementation does support the SendPromptType simple type, which specifies the prompt behavior associated with a voting option. (This type was introduced in Exchange 2013 SP1.)</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the EmailReminderChangeType simple type, which specifies the type of the change. (Exchange 2016 and above follow this behavior.)
- &lt;xs:simpleType name="EmailReminderChangeType"&gt;
-   &lt;xs:restriction base="xs:string"&gt;
-    &lt;xs:enumeration value="None"/&gt;
-    &lt;xs:enumeration value="Added"/&gt;
-    &lt;xs:enumeration value="Override"/&gt;
-    &lt;xs:enumeration value="Deleted"/&gt;
-   &lt;/xs:restriction&gt;
-  &lt;/xs:simpleType&gt;</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the EmailReminderSendOption simple type, which specifies the send options for the reminder. (Exchange 2016 and above follow this behavior.)
- &lt;xs:simpleType name="EmailReminderSendOption"&gt;
-   &lt;xs:restriction base="xs:string"&gt;
-     &lt;xs:enumeration value="NotSet"/&gt;
-     &lt;xs:enumeration value="User"/&gt;
-     &lt;xs:enumeration value="AllAttendees"/&gt;
-     &lt;xs:enumeration value="Staff"/&gt;
-     &lt;xs:enumeration value="Customer"/&gt;
-   &lt;/xs:restriction&gt;
- &lt;/xs:simpleType&gt;</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does not support the ReminderActionType simple type. (&lt;91&gt; Section 2.2.5.12:  Exchange 2007 and Exchange 2010 do not support the ReminderActionType simple type.)</t>
   </si>
   <si>
@@ -8958,23 +8885,6 @@
      &lt;xs:element name="ApprovalDecision" type="xs:int" minOccurs="0"/&gt;
      &lt;xs:element name="ApprovalDecisionMaker" type="xs:string" minOccurs="0"/&gt;
      xs:element name="ApprovalDecisionTime" type="xs:dateTime" minOccurs="0"/&gt;
-   &lt;/xs:sequence&gt;
- &lt;/xs:complexType&gt;</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the ArrayOfInboxReminderType complex type which specifies an array of inbox reminders. (Exchange 2016 and above follow this behavior.)
- &lt;xs:complexType name="ArrayOfInboxReminderType"&gt;
-  &lt;xs:sequence&gt;
-       &lt;xs:element name="InboxReminder" 
-            type="t:InboxReminderType" minOccurs="0" maxOccurs="unbounded"/&gt;
-  &lt;/xs:sequence&gt;
- &lt;/xs:complexType&gt;</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the ArrayOfRemindersType complex type which specifies an array of reminders. (Exchange 2013 and above follow this behavior.)
- &lt;xs:complexType name="ArrayOfRemindersType"&gt;
-   &lt;xs:sequence&gt;
-     &lt;xs:element name="Reminder" type="t:ReminderType" minOccurs="0" maxOccurs="unbounded"/&gt;
    &lt;/xs:sequence&gt;
  &lt;/xs:complexType&gt;</t>
   </si>
@@ -9206,12 +9116,6 @@
     <t>Verified by derived requirement: MS-OXWSMTGS_R1326.</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1328.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1330.</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-OXWSMTGS_R1332.</t>
   </si>
   <si>
@@ -9230,12 +9134,6 @@
     <t>Verified by derived requirement: MS-OXWSMTGS_R715.</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1276.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1278.</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-OXWSMTGS_R1282.</t>
   </si>
   <si>
@@ -9245,24 +9143,12 @@
     <t>Verified by derived requirement: MS-OXWSMTGS_R706.</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1286.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1288.</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-OXWSMTGS_R1292.</t>
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXWSMTGS_R1294.</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1296.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1298.</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-OXWSMTGS_R911.</t>
   </si>
   <si>
@@ -9279,18 +9165,6 @@
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXWSMTGS_R1308.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1310.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1312.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1314.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSMTGS_R1316.</t>
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXWSMTGS_R1318.</t>
@@ -9347,24 +9221,6 @@
      &lt;xs:enumeration value="None"/&gt;
      &lt;xs:enumeration value="Send"/&gt;
      &lt;xs:enumeration value="VotingOption"/&gt;
-   &lt;/xs:restriction&gt;
- &lt;/xs:simpleType&gt;</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the ReminderGroupType simple type, which specifies who specifies whether the reminder is for a calendar item or a task. (Exchange 2013 and above follow this behavior.)
-&lt;xs:simpleType name="ReminderGroupType"&gt;
-   &lt;xs:restriction base="xs:string"&gt;
-     &lt;xs:enumeration value="Calendar"/&gt;
-     &lt;xs:enumeration value="Task"/&gt;
- &lt;/xs:restriction&gt;
- &lt;/xs:simpleType&gt;</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the ReminderActionType simple type, which specifies the reminder action. (Exchange 2013 and above follow this behavior.)
- &lt;xs:simpleType name="ReminderActionType"&gt;
-   &lt;xs:restriction base="xs:string"&gt;
-     &lt;xs:enumeration value="Dismiss"/&gt;
-     &lt;xs:enumeration value="Snooze"/&gt;
    &lt;/xs:restriction&gt;
  &lt;/xs:simpleType&gt;</t>
   </si>
@@ -10033,6 +9889,27 @@
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXWSMTGS_R12052.</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the ReminderMessageDataType which specifies a reminder message. (This type was introduced in Exchange 2013 SP1.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the ArrayOfInboxReminderType complex type which specifies an array of inbox reminders. (Exchange 2016 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support InboxReminderType which specifies an inbox reminder. (Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the NonEmptyArrayOfReminderItemActionType which specifies an array of reminder actions and new reminder times for items. (Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the ReminderType which specifies a reminder object.  (Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the EmailReminderChangeType simple type, which specifies the type of the change. (Exchange 2016 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the EmailReminderSendOption simple type, which specifies the send options for the reminder. (Exchange 2016 and above follow this behavior.)</t>
   </si>
 </sst>
 </file>
@@ -10097,6 +9974,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -10408,30 +10286,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10464,6 +10318,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14884,23 +14762,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -14936,23 +14797,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15181,7 +15025,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>2619</v>
+        <v>2597</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="27" t="s">
@@ -15197,16 +15041,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="25"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -15218,13 +15062,13 @@
       <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -15232,16 +15076,16 @@
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -15249,16 +15093,16 @@
       <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -15266,16 +15110,16 @@
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -15283,16 +15127,16 @@
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -15300,16 +15144,16 @@
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="54" t="s">
         <v>1781</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -15317,16 +15161,16 @@
       <c r="A11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="57" t="s">
         <v>1782</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -15410,16 +15254,16 @@
       <c r="A16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -15427,16 +15271,16 @@
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -15444,16 +15288,16 @@
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="51" t="s">
         <v>1783</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="61"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -16192,7 +16036,7 @@
     </row>
     <row r="48" spans="1:9" ht="45">
       <c r="A48" s="40" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="B48" s="41" t="s">
         <v>858</v>
@@ -16214,12 +16058,12 @@
         <v>17</v>
       </c>
       <c r="I48" s="42" t="s">
-        <v>2519</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="45">
       <c r="A49" s="40" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="B49" s="41" t="s">
         <v>858</v>
@@ -16241,12 +16085,12 @@
         <v>17</v>
       </c>
       <c r="I49" s="42" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="45">
       <c r="A50" s="40" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>858</v>
@@ -16268,12 +16112,12 @@
         <v>17</v>
       </c>
       <c r="I50" s="42" t="s">
-        <v>2521</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="45">
       <c r="A51" s="40" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>858</v>
@@ -16295,7 +16139,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="42" t="s">
-        <v>2522</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30">
@@ -16500,7 +16344,7 @@
     </row>
     <row r="60" spans="1:9" ht="30">
       <c r="A60" s="40" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="B60" s="41" t="s">
         <v>858</v>
@@ -16522,12 +16366,12 @@
         <v>17</v>
       </c>
       <c r="I60" s="42" t="s">
-        <v>2700</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="45">
       <c r="A61" s="40" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="B61" s="41" t="s">
         <v>858</v>
@@ -16549,12 +16393,12 @@
         <v>17</v>
       </c>
       <c r="I61" s="42" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="30">
       <c r="A62" s="40" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="B62" s="41" t="s">
         <v>858</v>
@@ -16629,7 +16473,7 @@
     </row>
     <row r="65" spans="1:9" ht="30">
       <c r="A65" s="40" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="B65" s="41" t="s">
         <v>858</v>
@@ -16754,7 +16598,7 @@
     </row>
     <row r="70" spans="1:9" ht="45">
       <c r="A70" s="40" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="B70" s="41" t="s">
         <v>858</v>
@@ -16776,7 +16620,7 @@
         <v>17</v>
       </c>
       <c r="I70" s="42" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="30">
@@ -16856,7 +16700,7 @@
     </row>
     <row r="74" spans="1:9" ht="45">
       <c r="A74" s="40" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="B74" s="41" t="s">
         <v>858</v>
@@ -16878,12 +16722,12 @@
         <v>17</v>
       </c>
       <c r="I74" s="42" t="s">
-        <v>2525</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="30">
       <c r="A75" s="40" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="B75" s="41" t="s">
         <v>858</v>
@@ -16908,7 +16752,7 @@
     </row>
     <row r="76" spans="1:9" ht="30">
       <c r="A76" s="40" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="B76" s="41" t="s">
         <v>858</v>
@@ -16930,7 +16774,7 @@
         <v>17</v>
       </c>
       <c r="I76" s="42" t="s">
-        <v>2705</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="30">
@@ -16960,7 +16804,7 @@
     </row>
     <row r="78" spans="1:9" ht="45">
       <c r="A78" s="40" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="B78" s="41" t="s">
         <v>858</v>
@@ -16982,12 +16826,12 @@
         <v>17</v>
       </c>
       <c r="I78" s="42" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="45">
       <c r="A79" s="40" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="B79" s="41" t="s">
         <v>858</v>
@@ -17009,12 +16853,12 @@
         <v>17</v>
       </c>
       <c r="I79" s="42" t="s">
-        <v>2527</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="45">
       <c r="A80" s="40" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="B80" s="41" t="s">
         <v>858</v>
@@ -17036,7 +16880,7 @@
         <v>17</v>
       </c>
       <c r="I80" s="42" t="s">
-        <v>2528</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="30">
@@ -17138,12 +16982,12 @@
         <v>17</v>
       </c>
       <c r="I84" s="42" t="s">
-        <v>2549</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="45">
       <c r="A85" s="40" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="B85" s="41" t="s">
         <v>858</v>
@@ -17165,12 +17009,12 @@
         <v>17</v>
       </c>
       <c r="I85" s="42" t="s">
-        <v>2550</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="45">
       <c r="A86" s="40" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="B86" s="41" t="s">
         <v>858</v>
@@ -17192,7 +17036,7 @@
         <v>17</v>
       </c>
       <c r="I86" s="42" t="s">
-        <v>2559</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="30">
@@ -17228,7 +17072,7 @@
         <v>31</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>2583</v>
+        <v>2563</v>
       </c>
       <c r="D88" s="40"/>
       <c r="E88" s="40" t="s">
@@ -17272,7 +17116,7 @@
     </row>
     <row r="90" spans="1:9" ht="45">
       <c r="A90" s="40" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="B90" s="41" t="s">
         <v>859</v>
@@ -17294,18 +17138,18 @@
         <v>17</v>
       </c>
       <c r="I90" s="42" t="s">
-        <v>2551</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="45">
       <c r="A91" s="40" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="B91" s="41" t="s">
         <v>859</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>2628</v>
+        <v>2606</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="40" t="s">
@@ -17324,13 +17168,13 @@
     </row>
     <row r="92" spans="1:9" ht="105">
       <c r="A92" s="40" t="s">
-        <v>2674</v>
+        <v>2652</v>
       </c>
       <c r="B92" s="41" t="s">
         <v>859</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>2629</v>
+        <v>2607</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="40" t="s">
@@ -17349,13 +17193,13 @@
     </row>
     <row r="93" spans="1:9" ht="45">
       <c r="A93" s="40" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="B93" s="41" t="s">
         <v>860</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>2631</v>
+        <v>2609</v>
       </c>
       <c r="D93" s="40"/>
       <c r="E93" s="40" t="s">
@@ -17371,18 +17215,18 @@
         <v>17</v>
       </c>
       <c r="I93" s="42" t="s">
-        <v>2552</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="135">
       <c r="A94" s="40" t="s">
-        <v>2675</v>
+        <v>2653</v>
       </c>
       <c r="B94" s="41" t="s">
         <v>860</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>2630</v>
+        <v>2608</v>
       </c>
       <c r="D94" s="40"/>
       <c r="E94" s="40" t="s">
@@ -17401,7 +17245,7 @@
     </row>
     <row r="95" spans="1:9" ht="45">
       <c r="A95" s="40" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="B95" s="41" t="s">
         <v>860</v>
@@ -17426,7 +17270,7 @@
     </row>
     <row r="96" spans="1:9" ht="30">
       <c r="A96" s="40" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="B96" s="41" t="s">
         <v>860</v>
@@ -17451,7 +17295,7 @@
     </row>
     <row r="97" spans="1:9" ht="60">
       <c r="A97" s="40" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="B97" s="41" t="s">
         <v>860</v>
@@ -17473,21 +17317,21 @@
         <v>17</v>
       </c>
       <c r="I97" s="42" t="s">
-        <v>2622</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="30">
       <c r="A98" s="40" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="B98" s="41" t="s">
         <v>860</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>2621</v>
+        <v>2599</v>
       </c>
       <c r="E98" s="40" t="s">
         <v>19</v>
@@ -17505,16 +17349,16 @@
     </row>
     <row r="99" spans="1:9" ht="45">
       <c r="A99" s="40" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="B99" s="41" t="s">
         <v>860</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>2621</v>
+        <v>2599</v>
       </c>
       <c r="E99" s="40" t="s">
         <v>19</v>
@@ -17532,7 +17376,7 @@
     </row>
     <row r="100" spans="1:9" ht="30">
       <c r="A100" s="40" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="B100" s="41" t="s">
         <v>860</v>
@@ -17557,7 +17401,7 @@
     </row>
     <row r="101" spans="1:9" ht="30">
       <c r="A101" s="40" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="B101" s="41" t="s">
         <v>860</v>
@@ -17582,7 +17426,7 @@
     </row>
     <row r="102" spans="1:9" ht="30">
       <c r="A102" s="40" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="B102" s="41" t="s">
         <v>860</v>
@@ -17607,7 +17451,7 @@
     </row>
     <row r="103" spans="1:9" ht="30">
       <c r="A103" s="40" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="B103" s="41" t="s">
         <v>860</v>
@@ -17632,7 +17476,7 @@
     </row>
     <row r="104" spans="1:9" ht="30">
       <c r="A104" s="40" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="B104" s="41" t="s">
         <v>860</v>
@@ -17657,7 +17501,7 @@
     </row>
     <row r="105" spans="1:9" ht="30">
       <c r="A105" s="40" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="B105" s="41" t="s">
         <v>860</v>
@@ -17680,15 +17524,15 @@
       </c>
       <c r="I105" s="42"/>
     </row>
-    <row r="106" spans="1:9" ht="45">
+    <row r="106" spans="1:9" ht="30">
       <c r="A106" s="40" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="B106" s="41" t="s">
         <v>861</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>2632</v>
+        <v>2610</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="40" t="s">
@@ -17701,21 +17545,19 @@
         <v>15</v>
       </c>
       <c r="H106" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I106" s="42" t="s">
-        <v>2553</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I106" s="42"/>
     </row>
     <row r="107" spans="1:9" ht="105">
       <c r="A107" s="40" t="s">
-        <v>2676</v>
+        <v>2654</v>
       </c>
       <c r="B107" s="41" t="s">
         <v>861</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>2633</v>
+        <v>2611</v>
       </c>
       <c r="D107" s="40"/>
       <c r="E107" s="40" t="s">
@@ -17728,13 +17570,13 @@
         <v>15</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I107" s="42"/>
     </row>
     <row r="108" spans="1:9" ht="30">
       <c r="A108" s="40" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="B108" s="41" t="s">
         <v>861</v>
@@ -17759,7 +17601,7 @@
     </row>
     <row r="109" spans="1:9" ht="30">
       <c r="A109" s="40" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="B109" s="41" t="s">
         <v>861</v>
@@ -17778,13 +17620,13 @@
         <v>15</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I109" s="42"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="40" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="B110" s="41" t="s">
         <v>861</v>
@@ -17803,19 +17645,19 @@
         <v>15</v>
       </c>
       <c r="H110" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I110" s="42"/>
     </row>
-    <row r="111" spans="1:9" ht="45">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="40" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="B111" s="41" t="s">
         <v>862</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>2634</v>
+        <v>2612</v>
       </c>
       <c r="D111" s="40"/>
       <c r="E111" s="40" t="s">
@@ -17828,21 +17670,19 @@
         <v>15</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I111" s="42" t="s">
-        <v>2554</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I111" s="42"/>
     </row>
     <row r="112" spans="1:9" ht="105">
       <c r="A112" s="40" t="s">
-        <v>2677</v>
+        <v>2655</v>
       </c>
       <c r="B112" s="41" t="s">
         <v>862</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>2635</v>
+        <v>2613</v>
       </c>
       <c r="D112" s="40"/>
       <c r="E112" s="40" t="s">
@@ -17855,19 +17695,19 @@
         <v>15</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I112" s="42"/>
     </row>
     <row r="113" spans="1:9" ht="30">
       <c r="A113" s="40" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="B113" s="41" t="s">
         <v>862</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>2620</v>
+        <v>2598</v>
       </c>
       <c r="D113" s="40"/>
       <c r="E113" s="40" t="s">
@@ -17886,13 +17726,13 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="40" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="B114" s="41" t="s">
         <v>862</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>2697</v>
+        <v>2675</v>
       </c>
       <c r="D114" s="40"/>
       <c r="E114" s="40" t="s">
@@ -17905,19 +17745,19 @@
         <v>15</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I114" s="42"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="40" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="B115" s="41" t="s">
         <v>862</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>2698</v>
+        <v>2676</v>
       </c>
       <c r="D115" s="40"/>
       <c r="E115" s="40" t="s">
@@ -17930,19 +17770,19 @@
         <v>15</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I115" s="42"/>
     </row>
     <row r="116" spans="1:9" ht="45">
       <c r="A116" s="40" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="B116" s="41" t="s">
         <v>863</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>2637</v>
+        <v>2615</v>
       </c>
       <c r="D116" s="40"/>
       <c r="E116" s="40" t="s">
@@ -17958,18 +17798,18 @@
         <v>17</v>
       </c>
       <c r="I116" s="42" t="s">
-        <v>2555</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="105">
       <c r="A117" s="40" t="s">
-        <v>2678</v>
+        <v>2656</v>
       </c>
       <c r="B117" s="41" t="s">
         <v>863</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>2636</v>
+        <v>2614</v>
       </c>
       <c r="D117" s="40"/>
       <c r="E117" s="40" t="s">
@@ -17988,7 +17828,7 @@
     </row>
     <row r="118" spans="1:9" ht="30">
       <c r="A118" s="40" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="B118" s="41" t="s">
         <v>863</v>
@@ -18013,7 +17853,7 @@
     </row>
     <row r="119" spans="1:9" ht="30">
       <c r="A119" s="40" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="B119" s="41" t="s">
         <v>863</v>
@@ -18263,7 +18103,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="40" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="B129" s="41" t="s">
         <v>864</v>
@@ -18288,13 +18128,13 @@
     </row>
     <row r="130" spans="1:9" ht="45">
       <c r="A130" s="40" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="B130" s="41" t="s">
         <v>864</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
       <c r="D130" s="40"/>
       <c r="E130" s="40" t="s">
@@ -18310,12 +18150,12 @@
         <v>17</v>
       </c>
       <c r="I130" s="42" t="s">
-        <v>2556</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="40" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="B131" s="41" t="s">
         <v>864</v>
@@ -18340,13 +18180,13 @@
     </row>
     <row r="132" spans="1:9" ht="45">
       <c r="A132" s="40" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="B132" s="41" t="s">
         <v>864</v>
       </c>
       <c r="C132" s="42" t="s">
-        <v>2486</v>
+        <v>2478</v>
       </c>
       <c r="D132" s="40"/>
       <c r="E132" s="40" t="s">
@@ -18362,7 +18202,7 @@
         <v>17</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>2557</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="38" customFormat="1" ht="30">
@@ -18498,7 +18338,7 @@
         <v>865</v>
       </c>
       <c r="C138" s="42" t="s">
-        <v>2626</v>
+        <v>2604</v>
       </c>
       <c r="D138" s="40"/>
       <c r="E138" s="40" t="s">
@@ -18514,18 +18354,18 @@
         <v>17</v>
       </c>
       <c r="I138" s="42" t="s">
-        <v>2558</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="38" customFormat="1">
       <c r="A139" s="40" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="B139" s="41" t="s">
         <v>865</v>
       </c>
       <c r="C139" s="42" t="s">
-        <v>2627</v>
+        <v>2605</v>
       </c>
       <c r="D139" s="40"/>
       <c r="E139" s="40" t="s">
@@ -19385,13 +19225,13 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="40" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="B173" s="41" t="s">
         <v>866</v>
       </c>
       <c r="C173" s="42" t="s">
-        <v>2707</v>
+        <v>2685</v>
       </c>
       <c r="D173" s="40"/>
       <c r="E173" s="40" t="s">
@@ -19826,7 +19666,7 @@
     </row>
     <row r="190" spans="1:9" ht="30">
       <c r="A190" s="40" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="B190" s="41" t="s">
         <v>866</v>
@@ -19851,7 +19691,7 @@
     </row>
     <row r="191" spans="1:9" ht="30">
       <c r="A191" s="40" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="B191" s="41" t="s">
         <v>866</v>
@@ -20288,7 +20128,7 @@
         <v>866</v>
       </c>
       <c r="C208" s="42" t="s">
-        <v>2708</v>
+        <v>2686</v>
       </c>
       <c r="D208" s="40"/>
       <c r="E208" s="40" t="s">
@@ -20307,7 +20147,7 @@
     </row>
     <row r="209" spans="1:9" ht="30">
       <c r="A209" s="40" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="B209" s="41" t="s">
         <v>866</v>
@@ -20326,13 +20166,13 @@
         <v>15</v>
       </c>
       <c r="H209" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I209" s="42"/>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="40" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="B210" s="41" t="s">
         <v>866</v>
@@ -20907,7 +20747,7 @@
     </row>
     <row r="233" spans="1:9" ht="30">
       <c r="A233" s="40" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="B233" s="41" t="s">
         <v>866</v>
@@ -21229,12 +21069,12 @@
         <v>17</v>
       </c>
       <c r="I245" s="42" t="s">
-        <v>2560</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="30">
       <c r="A246" s="40" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="B246" s="41" t="s">
         <v>866</v>
@@ -21564,7 +21404,7 @@
         <v>17</v>
       </c>
       <c r="I258" s="42" t="s">
-        <v>2717</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="30">
@@ -21770,7 +21610,7 @@
         <v>17</v>
       </c>
       <c r="I266" s="42" t="s">
-        <v>2699</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="45">
@@ -22035,7 +21875,7 @@
       </c>
       <c r="I276" s="42"/>
     </row>
-    <row r="277" spans="1:9" s="38" customFormat="1" ht="45">
+    <row r="277" spans="1:9" s="38" customFormat="1" ht="30">
       <c r="A277" s="40" t="s">
         <v>239</v>
       </c>
@@ -22759,7 +22599,7 @@
         <v>17</v>
       </c>
       <c r="I305" s="42" t="s">
-        <v>2701</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="38" customFormat="1" ht="45">
@@ -22839,7 +22679,7 @@
     </row>
     <row r="309" spans="1:9" ht="45">
       <c r="A309" s="40" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="B309" s="41" t="s">
         <v>873</v>
@@ -22858,21 +22698,19 @@
         <v>15</v>
       </c>
       <c r="H309" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I309" s="42" t="s">
-        <v>2561</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I309" s="42"/>
     </row>
     <row r="310" spans="1:9" ht="60">
       <c r="A310" s="40" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="B310" s="41" t="s">
         <v>873</v>
       </c>
       <c r="C310" s="42" t="s">
-        <v>2638</v>
+        <v>2616</v>
       </c>
       <c r="D310" s="40"/>
       <c r="E310" s="40" t="s">
@@ -22885,19 +22723,19 @@
         <v>15</v>
       </c>
       <c r="H310" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I310" s="42"/>
     </row>
     <row r="311" spans="1:9" ht="165">
       <c r="A311" s="40" t="s">
-        <v>2679</v>
+        <v>2657</v>
       </c>
       <c r="B311" s="41" t="s">
         <v>873</v>
       </c>
       <c r="C311" s="42" t="s">
-        <v>2639</v>
+        <v>2617</v>
       </c>
       <c r="D311" s="40"/>
       <c r="E311" s="40" t="s">
@@ -22910,13 +22748,13 @@
         <v>15</v>
       </c>
       <c r="H311" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I311" s="42"/>
     </row>
     <row r="312" spans="1:9" ht="30">
       <c r="A312" s="40" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="B312" s="41" t="s">
         <v>873</v>
@@ -22941,7 +22779,7 @@
     </row>
     <row r="313" spans="1:9" ht="30">
       <c r="A313" s="40" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="B313" s="41" t="s">
         <v>873</v>
@@ -22960,13 +22798,13 @@
         <v>15</v>
       </c>
       <c r="H313" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I313" s="42"/>
     </row>
     <row r="314" spans="1:9" ht="30">
       <c r="A314" s="40" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="B314" s="41" t="s">
         <v>873</v>
@@ -22985,19 +22823,19 @@
         <v>15</v>
       </c>
       <c r="H314" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I314" s="42"/>
     </row>
-    <row r="315" spans="1:9" ht="45">
+    <row r="315" spans="1:9" ht="30">
       <c r="A315" s="40" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="B315" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C315" s="42" t="s">
-        <v>2640</v>
+        <v>2618</v>
       </c>
       <c r="D315" s="40"/>
       <c r="E315" s="40" t="s">
@@ -23010,21 +22848,19 @@
         <v>15</v>
       </c>
       <c r="H315" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I315" s="42" t="s">
-        <v>2562</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I315" s="42"/>
     </row>
     <row r="316" spans="1:9" ht="195">
       <c r="A316" s="40" t="s">
-        <v>2680</v>
+        <v>2658</v>
       </c>
       <c r="B316" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C316" s="42" t="s">
-        <v>2641</v>
+        <v>2619</v>
       </c>
       <c r="D316" s="40"/>
       <c r="E316" s="40" t="s">
@@ -23037,13 +22873,13 @@
         <v>15</v>
       </c>
       <c r="H316" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I316" s="42"/>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="40" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="B317" s="41" t="s">
         <v>874</v>
@@ -23062,19 +22898,19 @@
         <v>15</v>
       </c>
       <c r="H317" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I317" s="42"/>
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="40" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="B318" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C318" s="42" t="s">
-        <v>2584</v>
+        <v>2564</v>
       </c>
       <c r="D318" s="40"/>
       <c r="E318" s="40" t="s">
@@ -23087,13 +22923,13 @@
         <v>15</v>
       </c>
       <c r="H318" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I318" s="42"/>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="40" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="B319" s="41" t="s">
         <v>874</v>
@@ -23112,19 +22948,19 @@
         <v>15</v>
       </c>
       <c r="H319" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I319" s="42"/>
     </row>
     <row r="320" spans="1:9" ht="30">
       <c r="A320" s="40" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="B320" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C320" s="42" t="s">
-        <v>2585</v>
+        <v>2565</v>
       </c>
       <c r="D320" s="40"/>
       <c r="E320" s="40" t="s">
@@ -23137,13 +22973,13 @@
         <v>15</v>
       </c>
       <c r="H320" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I320" s="42"/>
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="40" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="B321" s="41" t="s">
         <v>874</v>
@@ -23162,19 +22998,19 @@
         <v>15</v>
       </c>
       <c r="H321" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I321" s="42"/>
     </row>
     <row r="322" spans="1:9" ht="30">
       <c r="A322" s="40" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="B322" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C322" s="42" t="s">
-        <v>2586</v>
+        <v>2566</v>
       </c>
       <c r="D322" s="40"/>
       <c r="E322" s="40" t="s">
@@ -23187,13 +23023,13 @@
         <v>15</v>
       </c>
       <c r="H322" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I322" s="42"/>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="40" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="B323" s="41" t="s">
         <v>874</v>
@@ -23212,19 +23048,19 @@
         <v>15</v>
       </c>
       <c r="H323" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I323" s="42"/>
     </row>
     <row r="324" spans="1:9" ht="30">
       <c r="A324" s="40" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="B324" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C324" s="42" t="s">
-        <v>2587</v>
+        <v>2567</v>
       </c>
       <c r="D324" s="40"/>
       <c r="E324" s="40" t="s">
@@ -23243,16 +23079,16 @@
     </row>
     <row r="325" spans="1:9" ht="30">
       <c r="A325" s="40" t="s">
-        <v>2594</v>
+        <v>2574</v>
       </c>
       <c r="B325" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C325" s="42" t="s">
-        <v>2591</v>
+        <v>2571</v>
       </c>
       <c r="D325" s="40" t="s">
-        <v>2593</v>
+        <v>2573</v>
       </c>
       <c r="E325" s="40" t="s">
         <v>19</v>
@@ -23264,22 +23100,22 @@
         <v>15</v>
       </c>
       <c r="H325" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I325" s="42"/>
     </row>
     <row r="326" spans="1:9" ht="30">
       <c r="A326" s="40" t="s">
-        <v>2595</v>
+        <v>2575</v>
       </c>
       <c r="B326" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C326" s="42" t="s">
-        <v>2592</v>
+        <v>2572</v>
       </c>
       <c r="D326" s="40" t="s">
-        <v>2593</v>
+        <v>2573</v>
       </c>
       <c r="E326" s="40" t="s">
         <v>19</v>
@@ -23291,19 +23127,19 @@
         <v>15</v>
       </c>
       <c r="H326" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I326" s="42"/>
     </row>
     <row r="327" spans="1:9" ht="30">
       <c r="A327" s="40" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="B327" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C327" s="42" t="s">
-        <v>2588</v>
+        <v>2568</v>
       </c>
       <c r="D327" s="40"/>
       <c r="E327" s="40" t="s">
@@ -23316,19 +23152,19 @@
         <v>15</v>
       </c>
       <c r="H327" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I327" s="42"/>
     </row>
     <row r="328" spans="1:9" ht="30">
       <c r="A328" s="40" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="B328" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C328" s="42" t="s">
-        <v>2589</v>
+        <v>2569</v>
       </c>
       <c r="D328" s="40"/>
       <c r="E328" s="40" t="s">
@@ -23341,13 +23177,13 @@
         <v>15</v>
       </c>
       <c r="H328" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I328" s="42"/>
     </row>
     <row r="329" spans="1:9" ht="30">
       <c r="A329" s="40" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="B329" s="41" t="s">
         <v>874</v>
@@ -23366,19 +23202,19 @@
         <v>15</v>
       </c>
       <c r="H329" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I329" s="42"/>
     </row>
     <row r="330" spans="1:9">
       <c r="A330" s="40" t="s">
-        <v>2596</v>
+        <v>2576</v>
       </c>
       <c r="B330" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C330" s="42" t="s">
-        <v>2590</v>
+        <v>2570</v>
       </c>
       <c r="D330" s="40"/>
       <c r="E330" s="40" t="s">
@@ -23391,13 +23227,13 @@
         <v>15</v>
       </c>
       <c r="H330" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I330" s="42"/>
     </row>
     <row r="331" spans="1:9" ht="30">
       <c r="A331" s="40" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="B331" s="41" t="s">
         <v>875</v>
@@ -23422,13 +23258,13 @@
     </row>
     <row r="332" spans="1:9" ht="45">
       <c r="A332" s="40" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="B332" s="41" t="s">
         <v>875</v>
       </c>
       <c r="C332" s="42" t="s">
-        <v>2642</v>
+        <v>2620</v>
       </c>
       <c r="D332" s="40"/>
       <c r="E332" s="40" t="s">
@@ -23447,13 +23283,13 @@
     </row>
     <row r="333" spans="1:9" ht="409.5">
       <c r="A333" s="40" t="s">
-        <v>2681</v>
+        <v>2659</v>
       </c>
       <c r="B333" s="41" t="s">
         <v>875</v>
       </c>
       <c r="C333" s="42" t="s">
-        <v>2643</v>
+        <v>2621</v>
       </c>
       <c r="D333" s="40"/>
       <c r="E333" s="40" t="s">
@@ -23472,7 +23308,7 @@
     </row>
     <row r="334" spans="1:9" ht="30">
       <c r="A334" s="40" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="B334" s="41" t="s">
         <v>875</v>
@@ -23491,13 +23327,13 @@
         <v>15</v>
       </c>
       <c r="H334" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I334" s="42"/>
     </row>
     <row r="335" spans="1:9" ht="30">
       <c r="A335" s="40" t="s">
-        <v>2224</v>
+        <v>2218</v>
       </c>
       <c r="B335" s="41" t="s">
         <v>875</v>
@@ -23516,13 +23352,13 @@
         <v>15</v>
       </c>
       <c r="H335" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I335" s="42"/>
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="40" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
       <c r="B336" s="41" t="s">
         <v>875</v>
@@ -23541,13 +23377,13 @@
         <v>15</v>
       </c>
       <c r="H336" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I336" s="42"/>
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="40" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="B337" s="41" t="s">
         <v>875</v>
@@ -23566,13 +23402,13 @@
         <v>15</v>
       </c>
       <c r="H337" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I337" s="42"/>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="40" t="s">
-        <v>2227</v>
+        <v>2221</v>
       </c>
       <c r="B338" s="41" t="s">
         <v>875</v>
@@ -23591,13 +23427,13 @@
         <v>15</v>
       </c>
       <c r="H338" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I338" s="42"/>
     </row>
     <row r="339" spans="1:9" ht="30">
       <c r="A339" s="40" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="B339" s="41" t="s">
         <v>875</v>
@@ -23616,13 +23452,13 @@
         <v>15</v>
       </c>
       <c r="H339" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I339" s="42"/>
     </row>
     <row r="340" spans="1:9" ht="30">
       <c r="A340" s="40" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
       <c r="B340" s="41" t="s">
         <v>875</v>
@@ -23641,13 +23477,13 @@
         <v>15</v>
       </c>
       <c r="H340" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I340" s="42"/>
     </row>
     <row r="341" spans="1:9" ht="30">
       <c r="A341" s="40" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="B341" s="41" t="s">
         <v>875</v>
@@ -23666,13 +23502,13 @@
         <v>15</v>
       </c>
       <c r="H341" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I341" s="42"/>
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="40" t="s">
-        <v>2231</v>
+        <v>2225</v>
       </c>
       <c r="B342" s="41" t="s">
         <v>875</v>
@@ -23691,13 +23527,13 @@
         <v>15</v>
       </c>
       <c r="H342" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I342" s="42"/>
     </row>
     <row r="343" spans="1:9" ht="75">
       <c r="A343" s="40" t="s">
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="B343" s="41" t="s">
         <v>875</v>
@@ -23716,7 +23552,7 @@
         <v>15</v>
       </c>
       <c r="H343" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I343" s="42"/>
     </row>
@@ -24412,7 +24248,7 @@
         <v>17</v>
       </c>
       <c r="I370" s="42" t="s">
-        <v>2563</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -24619,7 +24455,7 @@
     </row>
     <row r="379" spans="1:9" ht="45">
       <c r="A379" s="40" t="s">
-        <v>2233</v>
+        <v>2227</v>
       </c>
       <c r="B379" s="41" t="s">
         <v>878</v>
@@ -24641,18 +24477,18 @@
         <v>17</v>
       </c>
       <c r="I379" s="42" t="s">
-        <v>2564</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="45">
       <c r="A380" s="40" t="s">
-        <v>2234</v>
+        <v>2228</v>
       </c>
       <c r="B380" s="41" t="s">
         <v>878</v>
       </c>
       <c r="C380" s="42" t="s">
-        <v>2644</v>
+        <v>2622</v>
       </c>
       <c r="D380" s="40"/>
       <c r="E380" s="40" t="s">
@@ -24671,13 +24507,13 @@
     </row>
     <row r="381" spans="1:9" ht="165">
       <c r="A381" s="40" t="s">
-        <v>2682</v>
+        <v>2660</v>
       </c>
       <c r="B381" s="41" t="s">
         <v>878</v>
       </c>
       <c r="C381" s="42" t="s">
-        <v>2645</v>
+        <v>2623</v>
       </c>
       <c r="D381" s="40"/>
       <c r="E381" s="40" t="s">
@@ -24696,7 +24532,7 @@
     </row>
     <row r="382" spans="1:9" ht="30">
       <c r="A382" s="40" t="s">
-        <v>2235</v>
+        <v>2229</v>
       </c>
       <c r="B382" s="41" t="s">
         <v>878</v>
@@ -24721,7 +24557,7 @@
     </row>
     <row r="383" spans="1:9" ht="30">
       <c r="A383" s="40" t="s">
-        <v>2236</v>
+        <v>2230</v>
       </c>
       <c r="B383" s="41" t="s">
         <v>878</v>
@@ -24746,7 +24582,7 @@
     </row>
     <row r="384" spans="1:9" ht="30">
       <c r="A384" s="40" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="B384" s="41" t="s">
         <v>878</v>
@@ -24771,7 +24607,7 @@
     </row>
     <row r="385" spans="1:9" ht="30">
       <c r="A385" s="40" t="s">
-        <v>2238</v>
+        <v>2232</v>
       </c>
       <c r="B385" s="41" t="s">
         <v>878</v>
@@ -24796,7 +24632,7 @@
     </row>
     <row r="386" spans="1:9" ht="30">
       <c r="A386" s="40" t="s">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="B386" s="41" t="s">
         <v>878</v>
@@ -25568,7 +25404,7 @@
         <v>879</v>
       </c>
       <c r="C416" s="42" t="s">
-        <v>2710</v>
+        <v>2688</v>
       </c>
       <c r="D416" s="40"/>
       <c r="E416" s="40" t="s">
@@ -26282,7 +26118,7 @@
         <v>879</v>
       </c>
       <c r="C444" s="42" t="s">
-        <v>2711</v>
+        <v>2689</v>
       </c>
       <c r="D444" s="40"/>
       <c r="E444" s="40" t="s">
@@ -26598,7 +26434,7 @@
         <v>17</v>
       </c>
       <c r="I456" s="42" t="s">
-        <v>2740</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="457" spans="1:9" ht="30">
@@ -27050,12 +26886,12 @@
         <v>17</v>
       </c>
       <c r="I474" s="42" t="s">
-        <v>2565</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="475" spans="1:9" ht="30">
       <c r="A475" s="40" t="s">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="B475" s="41" t="s">
         <v>879</v>
@@ -27156,7 +26992,7 @@
         <v>17</v>
       </c>
       <c r="I478" s="42" t="s">
-        <v>2734</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="479" spans="1:9" ht="75">
@@ -27597,7 +27433,7 @@
         <v>17</v>
       </c>
       <c r="I495" s="42" t="s">
-        <v>2702</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="30">
@@ -27947,7 +27783,7 @@
     </row>
     <row r="509" spans="1:9" ht="60">
       <c r="A509" s="40" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="B509" s="41" t="s">
         <v>880</v>
@@ -28229,10 +28065,10 @@
         <v>17</v>
       </c>
       <c r="I519" s="42" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" ht="45">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" ht="30">
       <c r="A520" s="40" t="s">
         <v>439</v>
       </c>
@@ -28484,13 +28320,13 @@
     </row>
     <row r="530" spans="1:9" ht="45">
       <c r="A530" s="40" t="s">
-        <v>2242</v>
+        <v>2236</v>
       </c>
       <c r="B530" s="41" t="s">
         <v>1892</v>
       </c>
       <c r="C530" s="42" t="s">
-        <v>2646</v>
+        <v>2624</v>
       </c>
       <c r="D530" s="40"/>
       <c r="E530" s="40" t="s">
@@ -28503,21 +28339,19 @@
         <v>15</v>
       </c>
       <c r="H530" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I530" s="42" t="s">
-        <v>2566</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I530" s="42"/>
     </row>
     <row r="531" spans="1:9" ht="105">
       <c r="A531" s="40" t="s">
-        <v>2683</v>
+        <v>2661</v>
       </c>
       <c r="B531" s="41" t="s">
         <v>1892</v>
       </c>
       <c r="C531" s="42" t="s">
-        <v>2647</v>
+        <v>2625</v>
       </c>
       <c r="D531" s="40"/>
       <c r="E531" s="40" t="s">
@@ -28530,13 +28364,13 @@
         <v>15</v>
       </c>
       <c r="H531" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I531" s="42"/>
     </row>
     <row r="532" spans="1:9" ht="45">
       <c r="A532" s="40" t="s">
-        <v>2243</v>
+        <v>2237</v>
       </c>
       <c r="B532" s="41" t="s">
         <v>1892</v>
@@ -28561,7 +28395,7 @@
     </row>
     <row r="533" spans="1:9" ht="30">
       <c r="A533" s="40" t="s">
-        <v>2244</v>
+        <v>2238</v>
       </c>
       <c r="B533" s="41" t="s">
         <v>1892</v>
@@ -28580,13 +28414,13 @@
         <v>15</v>
       </c>
       <c r="H533" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I533" s="42"/>
     </row>
     <row r="534" spans="1:9" ht="30">
       <c r="A534" s="40" t="s">
-        <v>2245</v>
+        <v>2239</v>
       </c>
       <c r="B534" s="41" t="s">
         <v>1892</v>
@@ -28605,7 +28439,7 @@
         <v>15</v>
       </c>
       <c r="H534" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I534" s="42"/>
     </row>
@@ -29211,7 +29045,7 @@
     </row>
     <row r="559" spans="1:9" ht="45">
       <c r="A559" s="40" t="s">
-        <v>2246</v>
+        <v>2240</v>
       </c>
       <c r="B559" s="41" t="s">
         <v>1903</v>
@@ -29230,21 +29064,19 @@
         <v>15</v>
       </c>
       <c r="H559" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I559" s="42" t="s">
-        <v>2567</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I559" s="42"/>
     </row>
     <row r="560" spans="1:9" ht="60">
       <c r="A560" s="40" t="s">
-        <v>2247</v>
+        <v>2241</v>
       </c>
       <c r="B560" s="41" t="s">
         <v>1903</v>
       </c>
       <c r="C560" s="42" t="s">
-        <v>2648</v>
+        <v>2626</v>
       </c>
       <c r="D560" s="40"/>
       <c r="E560" s="40" t="s">
@@ -29257,19 +29089,19 @@
         <v>15</v>
       </c>
       <c r="H560" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I560" s="42"/>
     </row>
     <row r="561" spans="1:9" ht="165">
       <c r="A561" s="40" t="s">
-        <v>2684</v>
+        <v>2662</v>
       </c>
       <c r="B561" s="41" t="s">
         <v>1903</v>
       </c>
       <c r="C561" s="42" t="s">
-        <v>2649</v>
+        <v>2627</v>
       </c>
       <c r="D561" s="40"/>
       <c r="E561" s="40" t="s">
@@ -29282,13 +29114,13 @@
         <v>15</v>
       </c>
       <c r="H561" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I561" s="42"/>
     </row>
     <row r="562" spans="1:9" ht="45">
       <c r="A562" s="40" t="s">
-        <v>2248</v>
+        <v>2242</v>
       </c>
       <c r="B562" s="41" t="s">
         <v>1903</v>
@@ -29313,7 +29145,7 @@
     </row>
     <row r="563" spans="1:9" ht="30">
       <c r="A563" s="40" t="s">
-        <v>2249</v>
+        <v>2243</v>
       </c>
       <c r="B563" s="41" t="s">
         <v>1903</v>
@@ -29332,13 +29164,13 @@
         <v>15</v>
       </c>
       <c r="H563" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I563" s="42"/>
     </row>
     <row r="564" spans="1:9" ht="30">
       <c r="A564" s="40" t="s">
-        <v>2250</v>
+        <v>2244</v>
       </c>
       <c r="B564" s="41" t="s">
         <v>1903</v>
@@ -29357,13 +29189,13 @@
         <v>15</v>
       </c>
       <c r="H564" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I564" s="42"/>
     </row>
     <row r="565" spans="1:9" ht="30">
       <c r="A565" s="40" t="s">
-        <v>2251</v>
+        <v>2245</v>
       </c>
       <c r="B565" s="41" t="s">
         <v>1904</v>
@@ -29386,15 +29218,15 @@
       </c>
       <c r="I565" s="42"/>
     </row>
-    <row r="566" spans="1:9" ht="45">
+    <row r="566" spans="1:9" ht="30">
       <c r="A566" s="40" t="s">
-        <v>2252</v>
+        <v>2246</v>
       </c>
       <c r="B566" s="41" t="s">
         <v>1904</v>
       </c>
       <c r="C566" s="42" t="s">
-        <v>2651</v>
+        <v>2629</v>
       </c>
       <c r="D566" s="40"/>
       <c r="E566" s="40" t="s">
@@ -29413,13 +29245,13 @@
     </row>
     <row r="567" spans="1:9" ht="165">
       <c r="A567" s="40" t="s">
-        <v>2685</v>
+        <v>2663</v>
       </c>
       <c r="B567" s="41" t="s">
         <v>1904</v>
       </c>
       <c r="C567" s="42" t="s">
-        <v>2650</v>
+        <v>2628</v>
       </c>
       <c r="D567" s="40"/>
       <c r="E567" s="40" t="s">
@@ -29438,7 +29270,7 @@
     </row>
     <row r="568" spans="1:9" ht="30">
       <c r="A568" s="40" t="s">
-        <v>2253</v>
+        <v>2247</v>
       </c>
       <c r="B568" s="41" t="s">
         <v>1904</v>
@@ -29463,7 +29295,7 @@
     </row>
     <row r="569" spans="1:9" ht="30">
       <c r="A569" s="40" t="s">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="B569" s="41" t="s">
         <v>1904</v>
@@ -29482,13 +29314,13 @@
         <v>15</v>
       </c>
       <c r="H569" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I569" s="42"/>
     </row>
     <row r="570" spans="1:9" ht="30">
       <c r="A570" s="40" t="s">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="B570" s="41" t="s">
         <v>1904</v>
@@ -29507,13 +29339,13 @@
         <v>15</v>
       </c>
       <c r="H570" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I570" s="42"/>
     </row>
     <row r="571" spans="1:9" s="38" customFormat="1" ht="45">
       <c r="A571" s="40" t="s">
-        <v>2256</v>
+        <v>2250</v>
       </c>
       <c r="B571" s="41" t="s">
         <v>1908</v>
@@ -29535,18 +29367,18 @@
         <v>17</v>
       </c>
       <c r="I571" s="42" t="s">
-        <v>2568</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="572" spans="1:9" s="38" customFormat="1" ht="30">
       <c r="A572" s="40" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="B572" s="41" t="s">
         <v>1908</v>
       </c>
       <c r="C572" s="42" t="s">
-        <v>2653</v>
+        <v>2631</v>
       </c>
       <c r="D572" s="40"/>
       <c r="E572" s="40" t="s">
@@ -29565,13 +29397,13 @@
     </row>
     <row r="573" spans="1:9" s="38" customFormat="1" ht="90">
       <c r="A573" s="40" t="s">
-        <v>2686</v>
+        <v>2664</v>
       </c>
       <c r="B573" s="41" t="s">
         <v>1908</v>
       </c>
       <c r="C573" s="42" t="s">
-        <v>2652</v>
+        <v>2630</v>
       </c>
       <c r="D573" s="40"/>
       <c r="E573" s="40" t="s">
@@ -29690,13 +29522,13 @@
     </row>
     <row r="578" spans="1:9" ht="45">
       <c r="A578" s="40" t="s">
-        <v>2258</v>
+        <v>2252</v>
       </c>
       <c r="B578" s="41" t="s">
         <v>1911</v>
       </c>
       <c r="C578" s="42" t="s">
-        <v>2654</v>
+        <v>2632</v>
       </c>
       <c r="D578" s="40"/>
       <c r="E578" s="40" t="s">
@@ -29712,18 +29544,18 @@
         <v>17</v>
       </c>
       <c r="I578" s="42" t="s">
-        <v>2569</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="579" spans="1:9" ht="150">
       <c r="A579" s="40" t="s">
-        <v>2687</v>
+        <v>2665</v>
       </c>
       <c r="B579" s="41" t="s">
         <v>1911</v>
       </c>
       <c r="C579" s="42" t="s">
-        <v>2655</v>
+        <v>2633</v>
       </c>
       <c r="D579" s="40"/>
       <c r="E579" s="40" t="s">
@@ -29742,7 +29574,7 @@
     </row>
     <row r="580" spans="1:9" ht="30">
       <c r="A580" s="40" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="B580" s="41" t="s">
         <v>1911</v>
@@ -29767,7 +29599,7 @@
     </row>
     <row r="581" spans="1:9" ht="30">
       <c r="A581" s="40" t="s">
-        <v>2260</v>
+        <v>2254</v>
       </c>
       <c r="B581" s="41" t="s">
         <v>1911</v>
@@ -29792,7 +29624,7 @@
     </row>
     <row r="582" spans="1:9">
       <c r="A582" s="40" t="s">
-        <v>2261</v>
+        <v>2255</v>
       </c>
       <c r="B582" s="41" t="s">
         <v>1911</v>
@@ -29817,7 +29649,7 @@
     </row>
     <row r="583" spans="1:9" ht="30">
       <c r="A583" s="40" t="s">
-        <v>2262</v>
+        <v>2256</v>
       </c>
       <c r="B583" s="41" t="s">
         <v>1911</v>
@@ -29842,7 +29674,7 @@
     </row>
     <row r="584" spans="1:9">
       <c r="A584" s="40" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="B584" s="41" t="s">
         <v>1911</v>
@@ -29867,7 +29699,7 @@
     </row>
     <row r="585" spans="1:9" ht="30">
       <c r="A585" s="40" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="B585" s="41" t="s">
         <v>1911</v>
@@ -29892,7 +29724,7 @@
     </row>
     <row r="586" spans="1:9" ht="30">
       <c r="A586" s="40" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="B586" s="41" t="s">
         <v>1911</v>
@@ -29915,15 +29747,15 @@
       </c>
       <c r="I586" s="42"/>
     </row>
-    <row r="587" spans="1:9" ht="45">
+    <row r="587" spans="1:9" ht="30">
       <c r="A587" s="40" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="B587" s="41" t="s">
         <v>2037</v>
       </c>
       <c r="C587" s="42" t="s">
-        <v>2656</v>
+        <v>2634</v>
       </c>
       <c r="D587" s="40"/>
       <c r="E587" s="40" t="s">
@@ -29936,21 +29768,19 @@
         <v>15</v>
       </c>
       <c r="H587" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I587" s="42" t="s">
-        <v>2570</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I587" s="42"/>
     </row>
     <row r="588" spans="1:9" ht="135">
       <c r="A588" s="40" t="s">
-        <v>2688</v>
+        <v>2666</v>
       </c>
       <c r="B588" s="41" t="s">
         <v>2037</v>
       </c>
       <c r="C588" s="42" t="s">
-        <v>2657</v>
+        <v>2635</v>
       </c>
       <c r="D588" s="40"/>
       <c r="E588" s="40" t="s">
@@ -29963,13 +29793,13 @@
         <v>15</v>
       </c>
       <c r="H588" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I588" s="42"/>
     </row>
     <row r="589" spans="1:9" ht="45">
       <c r="A589" s="40" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="B589" s="41" t="s">
         <v>2037</v>
@@ -29994,7 +29824,7 @@
     </row>
     <row r="590" spans="1:9" ht="30">
       <c r="A590" s="40" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="B590" s="41" t="s">
         <v>2037</v>
@@ -30013,13 +29843,13 @@
         <v>15</v>
       </c>
       <c r="H590" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I590" s="42"/>
     </row>
     <row r="591" spans="1:9" ht="30">
       <c r="A591" s="40" t="s">
-        <v>2269</v>
+        <v>2263</v>
       </c>
       <c r="B591" s="41" t="s">
         <v>2037</v>
@@ -30038,13 +29868,13 @@
         <v>15</v>
       </c>
       <c r="H591" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I591" s="42"/>
     </row>
     <row r="592" spans="1:9">
       <c r="A592" s="40" t="s">
-        <v>2270</v>
+        <v>2264</v>
       </c>
       <c r="B592" s="41" t="s">
         <v>2037</v>
@@ -30063,13 +29893,13 @@
         <v>15</v>
       </c>
       <c r="H592" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I592" s="42"/>
     </row>
     <row r="593" spans="1:9" ht="30">
       <c r="A593" s="40" t="s">
-        <v>2271</v>
+        <v>2265</v>
       </c>
       <c r="B593" s="41" t="s">
         <v>2037</v>
@@ -30088,13 +29918,13 @@
         <v>15</v>
       </c>
       <c r="H593" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I593" s="42"/>
     </row>
     <row r="594" spans="1:9" ht="30">
       <c r="A594" s="40" t="s">
-        <v>2272</v>
+        <v>2266</v>
       </c>
       <c r="B594" s="41" t="s">
         <v>2037</v>
@@ -30113,13 +29943,13 @@
         <v>15</v>
       </c>
       <c r="H594" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I594" s="42"/>
     </row>
     <row r="595" spans="1:9" ht="30">
       <c r="A595" s="40" t="s">
-        <v>2273</v>
+        <v>2267</v>
       </c>
       <c r="B595" s="41" t="s">
         <v>2037</v>
@@ -30138,13 +29968,13 @@
         <v>15</v>
       </c>
       <c r="H595" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I595" s="42"/>
     </row>
     <row r="596" spans="1:9">
       <c r="A596" s="40" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="B596" s="41" t="s">
         <v>2037</v>
@@ -30163,13 +29993,13 @@
         <v>15</v>
       </c>
       <c r="H596" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I596" s="42"/>
     </row>
     <row r="597" spans="1:9" ht="30">
       <c r="A597" s="40" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="B597" s="41" t="s">
         <v>2037</v>
@@ -30188,19 +30018,19 @@
         <v>15</v>
       </c>
       <c r="H597" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I597" s="42"/>
     </row>
-    <row r="598" spans="1:9" ht="45">
+    <row r="598" spans="1:9" ht="30">
       <c r="A598" s="40" t="s">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="B598" s="41" t="s">
         <v>1912</v>
       </c>
       <c r="C598" s="42" t="s">
-        <v>2658</v>
+        <v>2636</v>
       </c>
       <c r="D598" s="40"/>
       <c r="E598" s="40" t="s">
@@ -30213,21 +30043,19 @@
         <v>15</v>
       </c>
       <c r="H598" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I598" s="42" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="599" spans="1:9" ht="255">
+        <v>18</v>
+      </c>
+      <c r="I598" s="42"/>
+    </row>
+    <row r="599" spans="1:9" ht="240">
       <c r="A599" s="40" t="s">
-        <v>2689</v>
+        <v>2667</v>
       </c>
       <c r="B599" s="41" t="s">
         <v>1912</v>
       </c>
       <c r="C599" s="42" t="s">
-        <v>2659</v>
+        <v>2637</v>
       </c>
       <c r="D599" s="40"/>
       <c r="E599" s="40" t="s">
@@ -30240,13 +30068,13 @@
         <v>15</v>
       </c>
       <c r="H599" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I599" s="42"/>
     </row>
     <row r="600" spans="1:9" ht="30">
       <c r="A600" s="40" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="B600" s="41" t="s">
         <v>1912</v>
@@ -30271,7 +30099,7 @@
     </row>
     <row r="601" spans="1:9">
       <c r="A601" s="40" t="s">
-        <v>2278</v>
+        <v>2272</v>
       </c>
       <c r="B601" s="41" t="s">
         <v>1912</v>
@@ -30290,13 +30118,13 @@
         <v>15</v>
       </c>
       <c r="H601" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I601" s="42"/>
     </row>
     <row r="602" spans="1:9">
       <c r="A602" s="40" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
       <c r="B602" s="41" t="s">
         <v>1912</v>
@@ -30315,13 +30143,13 @@
         <v>15</v>
       </c>
       <c r="H602" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I602" s="42"/>
     </row>
     <row r="603" spans="1:9">
       <c r="A603" s="40" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="B603" s="41" t="s">
         <v>1912</v>
@@ -30340,13 +30168,13 @@
         <v>15</v>
       </c>
       <c r="H603" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I603" s="42"/>
     </row>
     <row r="604" spans="1:9">
       <c r="A604" s="40" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="B604" s="41" t="s">
         <v>1912</v>
@@ -30365,13 +30193,13 @@
         <v>15</v>
       </c>
       <c r="H604" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I604" s="42"/>
     </row>
     <row r="605" spans="1:9" ht="30">
       <c r="A605" s="40" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="B605" s="41" t="s">
         <v>1912</v>
@@ -30390,13 +30218,13 @@
         <v>15</v>
       </c>
       <c r="H605" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I605" s="42"/>
     </row>
     <row r="606" spans="1:9">
       <c r="A606" s="40" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="B606" s="41" t="s">
         <v>1912</v>
@@ -30415,13 +30243,13 @@
         <v>15</v>
       </c>
       <c r="H606" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I606" s="42"/>
     </row>
     <row r="607" spans="1:9">
       <c r="A607" s="40" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
       <c r="B607" s="41" t="s">
         <v>1912</v>
@@ -30440,13 +30268,13 @@
         <v>15</v>
       </c>
       <c r="H607" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I607" s="42"/>
     </row>
     <row r="608" spans="1:9">
       <c r="A608" s="40" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="B608" s="41" t="s">
         <v>1912</v>
@@ -30465,13 +30293,13 @@
         <v>15</v>
       </c>
       <c r="H608" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I608" s="42"/>
     </row>
     <row r="609" spans="1:9">
       <c r="A609" s="40" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="B609" s="41" t="s">
         <v>1912</v>
@@ -30490,13 +30318,13 @@
         <v>15</v>
       </c>
       <c r="H609" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I609" s="42"/>
     </row>
     <row r="610" spans="1:9">
       <c r="A610" s="40" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="B610" s="41" t="s">
         <v>1912</v>
@@ -30515,13 +30343,13 @@
         <v>15</v>
       </c>
       <c r="H610" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I610" s="42"/>
     </row>
     <row r="611" spans="1:9" ht="30">
       <c r="A611" s="40" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="B611" s="41" t="s">
         <v>1912</v>
@@ -30540,13 +30368,13 @@
         <v>15</v>
       </c>
       <c r="H611" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I611" s="42"/>
     </row>
     <row r="612" spans="1:9">
       <c r="A612" s="40" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="B612" s="41" t="s">
         <v>1912</v>
@@ -30565,13 +30393,13 @@
         <v>15</v>
       </c>
       <c r="H612" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I612" s="42"/>
     </row>
     <row r="613" spans="1:9">
       <c r="A613" s="40" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="B613" s="41" t="s">
         <v>1912</v>
@@ -30590,13 +30418,13 @@
         <v>15</v>
       </c>
       <c r="H613" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I613" s="42"/>
     </row>
     <row r="614" spans="1:9" ht="30">
       <c r="A614" s="40" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="B614" s="41" t="s">
         <v>1912</v>
@@ -30615,13 +30443,13 @@
         <v>15</v>
       </c>
       <c r="H614" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I614" s="42"/>
     </row>
     <row r="615" spans="1:9" ht="30">
       <c r="A615" s="40" t="s">
-        <v>2292</v>
+        <v>2286</v>
       </c>
       <c r="B615" s="41" t="s">
         <v>1912</v>
@@ -30640,13 +30468,13 @@
         <v>15</v>
       </c>
       <c r="H615" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I615" s="42"/>
     </row>
     <row r="616" spans="1:9" ht="30">
       <c r="A616" s="40" t="s">
-        <v>2293</v>
+        <v>2287</v>
       </c>
       <c r="B616" s="41" t="s">
         <v>1912</v>
@@ -30665,13 +30493,13 @@
         <v>15</v>
       </c>
       <c r="H616" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I616" s="42"/>
     </row>
     <row r="617" spans="1:9">
       <c r="A617" s="40" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="B617" s="41" t="s">
         <v>1912</v>
@@ -30690,13 +30518,13 @@
         <v>15</v>
       </c>
       <c r="H617" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I617" s="42"/>
     </row>
     <row r="618" spans="1:9">
       <c r="A618" s="40" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="B618" s="41" t="s">
         <v>1912</v>
@@ -30715,7 +30543,7 @@
         <v>15</v>
       </c>
       <c r="H618" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I618" s="42"/>
     </row>
@@ -31143,7 +30971,7 @@
         <v>17</v>
       </c>
       <c r="I635" s="42" t="s">
-        <v>2572</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="636" spans="1:9" ht="30">
@@ -31398,13 +31226,13 @@
     </row>
     <row r="646" spans="1:9" ht="45">
       <c r="A646" s="40" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="B646" s="41" t="s">
         <v>917</v>
       </c>
       <c r="C646" s="42" t="s">
-        <v>2660</v>
+        <v>2638</v>
       </c>
       <c r="D646" s="40"/>
       <c r="E646" s="40" t="s">
@@ -31420,18 +31248,18 @@
         <v>17</v>
       </c>
       <c r="I646" s="42" t="s">
-        <v>2573</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="647" spans="1:9" ht="120">
       <c r="A647" s="40" t="s">
-        <v>2690</v>
+        <v>2668</v>
       </c>
       <c r="B647" s="41" t="s">
         <v>917</v>
       </c>
       <c r="C647" s="42" t="s">
-        <v>2661</v>
+        <v>2639</v>
       </c>
       <c r="D647" s="40"/>
       <c r="E647" s="40" t="s">
@@ -31450,7 +31278,7 @@
     </row>
     <row r="648" spans="1:9" ht="30">
       <c r="A648" s="40" t="s">
-        <v>2297</v>
+        <v>2291</v>
       </c>
       <c r="B648" s="41" t="s">
         <v>917</v>
@@ -31475,7 +31303,7 @@
     </row>
     <row r="649" spans="1:9" ht="30">
       <c r="A649" s="40" t="s">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="B649" s="41" t="s">
         <v>917</v>
@@ -31500,7 +31328,7 @@
     </row>
     <row r="650" spans="1:9">
       <c r="A650" s="40" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="B650" s="41" t="s">
         <v>917</v>
@@ -31525,7 +31353,7 @@
     </row>
     <row r="651" spans="1:9" ht="30">
       <c r="A651" s="40" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="B651" s="41" t="s">
         <v>917</v>
@@ -31550,7 +31378,7 @@
     </row>
     <row r="652" spans="1:9">
       <c r="A652" s="40" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="B652" s="41" t="s">
         <v>917</v>
@@ -31575,13 +31403,13 @@
     </row>
     <row r="653" spans="1:9" ht="45">
       <c r="A653" s="40" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="B653" s="41" t="s">
         <v>918</v>
       </c>
       <c r="C653" s="42" t="s">
-        <v>2662</v>
+        <v>2640</v>
       </c>
       <c r="D653" s="40"/>
       <c r="E653" s="40" t="s">
@@ -31597,18 +31425,18 @@
         <v>17</v>
       </c>
       <c r="I653" s="42" t="s">
-        <v>2574</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="654" spans="1:9" ht="105">
       <c r="A654" s="40" t="s">
-        <v>2691</v>
+        <v>2669</v>
       </c>
       <c r="B654" s="41" t="s">
         <v>918</v>
       </c>
       <c r="C654" s="42" t="s">
-        <v>2663</v>
+        <v>2641</v>
       </c>
       <c r="D654" s="40"/>
       <c r="E654" s="40" t="s">
@@ -31627,7 +31455,7 @@
     </row>
     <row r="655" spans="1:9" ht="30">
       <c r="A655" s="40" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="B655" s="41" t="s">
         <v>918</v>
@@ -31652,7 +31480,7 @@
     </row>
     <row r="656" spans="1:9" ht="30">
       <c r="A656" s="40" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
       <c r="B656" s="41" t="s">
         <v>918</v>
@@ -31677,7 +31505,7 @@
     </row>
     <row r="657" spans="1:9" ht="30">
       <c r="A657" s="40" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="B657" s="41" t="s">
         <v>918</v>
@@ -31702,7 +31530,7 @@
     </row>
     <row r="658" spans="1:9" ht="30">
       <c r="A658" s="40" t="s">
-        <v>2306</v>
+        <v>2300</v>
       </c>
       <c r="B658" s="41" t="s">
         <v>918</v>
@@ -31727,7 +31555,7 @@
     </row>
     <row r="659" spans="1:9" ht="30">
       <c r="A659" s="40" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="B659" s="41" t="s">
         <v>918</v>
@@ -32027,7 +31855,7 @@
     </row>
     <row r="671" spans="1:9" ht="45">
       <c r="A671" s="40" t="s">
-        <v>2308</v>
+        <v>2302</v>
       </c>
       <c r="B671" s="41" t="s">
         <v>882</v>
@@ -32049,12 +31877,12 @@
         <v>17</v>
       </c>
       <c r="I671" s="42" t="s">
-        <v>2575</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="672" spans="1:9" ht="45">
       <c r="A672" s="40" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="B672" s="41" t="s">
         <v>882</v>
@@ -32076,7 +31904,7 @@
         <v>17</v>
       </c>
       <c r="I672" s="42" t="s">
-        <v>2576</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="673" spans="1:9" ht="30">
@@ -32106,7 +31934,7 @@
     </row>
     <row r="674" spans="1:9" ht="45">
       <c r="A674" s="40" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
       <c r="B674" s="41" t="s">
         <v>882</v>
@@ -32128,7 +31956,7 @@
         <v>17</v>
       </c>
       <c r="I674" s="42" t="s">
-        <v>2577</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="675" spans="1:9" ht="45">
@@ -33856,15 +33684,15 @@
       </c>
       <c r="I743" s="42"/>
     </row>
-    <row r="744" spans="1:9" s="38" customFormat="1" ht="45">
+    <row r="744" spans="1:9" s="38" customFormat="1" ht="30">
       <c r="A744" s="40" t="s">
-        <v>2311</v>
+        <v>2305</v>
       </c>
       <c r="B744" s="41" t="s">
         <v>888</v>
       </c>
       <c r="C744" s="42" t="s">
-        <v>2664</v>
+        <v>2642</v>
       </c>
       <c r="D744" s="40"/>
       <c r="E744" s="40" t="s">
@@ -33877,21 +33705,19 @@
         <v>15</v>
       </c>
       <c r="H744" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I744" s="42" t="s">
-        <v>2578</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I744" s="42"/>
     </row>
     <row r="745" spans="1:9" ht="135">
       <c r="A745" s="40" t="s">
-        <v>2692</v>
+        <v>2670</v>
       </c>
       <c r="B745" s="41" t="s">
         <v>888</v>
       </c>
       <c r="C745" s="42" t="s">
-        <v>2665</v>
+        <v>2643</v>
       </c>
       <c r="D745" s="40"/>
       <c r="E745" s="40" t="s">
@@ -33904,13 +33730,13 @@
         <v>15</v>
       </c>
       <c r="H745" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I745" s="42"/>
     </row>
     <row r="746" spans="1:9" ht="45">
       <c r="A746" s="40" t="s">
-        <v>2312</v>
+        <v>2306</v>
       </c>
       <c r="B746" s="41" t="s">
         <v>888</v>
@@ -33935,7 +33761,7 @@
     </row>
     <row r="747" spans="1:9">
       <c r="A747" s="40" t="s">
-        <v>2313</v>
+        <v>2307</v>
       </c>
       <c r="B747" s="41" t="s">
         <v>888</v>
@@ -33954,13 +33780,13 @@
         <v>15</v>
       </c>
       <c r="H747" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I747" s="42"/>
     </row>
     <row r="748" spans="1:9">
       <c r="A748" s="40" t="s">
-        <v>2314</v>
+        <v>2308</v>
       </c>
       <c r="B748" s="41" t="s">
         <v>888</v>
@@ -33979,13 +33805,13 @@
         <v>15</v>
       </c>
       <c r="H748" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I748" s="42"/>
     </row>
     <row r="749" spans="1:9">
       <c r="A749" s="40" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
       <c r="B749" s="41" t="s">
         <v>888</v>
@@ -34004,13 +33830,13 @@
         <v>15</v>
       </c>
       <c r="H749" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I749" s="42"/>
     </row>
     <row r="750" spans="1:9">
       <c r="A750" s="40" t="s">
-        <v>2316</v>
+        <v>2310</v>
       </c>
       <c r="B750" s="41" t="s">
         <v>888</v>
@@ -34029,19 +33855,19 @@
         <v>15</v>
       </c>
       <c r="H750" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I750" s="42"/>
     </row>
-    <row r="751" spans="1:9" ht="45">
+    <row r="751" spans="1:9" ht="30">
       <c r="A751" s="40" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="B751" s="41" t="s">
         <v>889</v>
       </c>
       <c r="C751" s="42" t="s">
-        <v>2666</v>
+        <v>2644</v>
       </c>
       <c r="D751" s="40"/>
       <c r="E751" s="40" t="s">
@@ -34054,21 +33880,19 @@
         <v>15</v>
       </c>
       <c r="H751" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I751" s="42" t="s">
-        <v>2579</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I751" s="42"/>
     </row>
     <row r="752" spans="1:9" ht="150">
       <c r="A752" s="40" t="s">
-        <v>2693</v>
+        <v>2671</v>
       </c>
       <c r="B752" s="41" t="s">
         <v>889</v>
       </c>
       <c r="C752" s="42" t="s">
-        <v>2667</v>
+        <v>2645</v>
       </c>
       <c r="D752" s="40"/>
       <c r="E752" s="40" t="s">
@@ -34081,13 +33905,13 @@
         <v>15</v>
       </c>
       <c r="H752" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I752" s="42"/>
     </row>
     <row r="753" spans="1:9" ht="45">
       <c r="A753" s="40" t="s">
-        <v>2318</v>
+        <v>2312</v>
       </c>
       <c r="B753" s="41" t="s">
         <v>889</v>
@@ -34112,7 +33936,7 @@
     </row>
     <row r="754" spans="1:9" ht="30">
       <c r="A754" s="40" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="B754" s="41" t="s">
         <v>889</v>
@@ -34131,13 +33955,13 @@
         <v>15</v>
       </c>
       <c r="H754" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I754" s="42"/>
     </row>
     <row r="755" spans="1:9">
       <c r="A755" s="40" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="B755" s="41" t="s">
         <v>889</v>
@@ -34156,13 +33980,13 @@
         <v>15</v>
       </c>
       <c r="H755" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I755" s="42"/>
     </row>
     <row r="756" spans="1:9">
       <c r="A756" s="40" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="B756" s="41" t="s">
         <v>889</v>
@@ -34181,13 +34005,13 @@
         <v>15</v>
       </c>
       <c r="H756" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I756" s="42"/>
     </row>
     <row r="757" spans="1:9">
       <c r="A757" s="40" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="B757" s="41" t="s">
         <v>889</v>
@@ -34206,13 +34030,13 @@
         <v>15</v>
       </c>
       <c r="H757" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I757" s="42"/>
     </row>
     <row r="758" spans="1:9">
       <c r="A758" s="40" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="B758" s="41" t="s">
         <v>889</v>
@@ -34231,7 +34055,7 @@
         <v>15</v>
       </c>
       <c r="H758" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I758" s="42"/>
     </row>
@@ -34437,7 +34261,7 @@
     </row>
     <row r="767" spans="1:9" ht="30">
       <c r="A767" s="40" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="B767" s="41" t="s">
         <v>891</v>
@@ -34659,7 +34483,7 @@
         <v>17</v>
       </c>
       <c r="I775" s="42" t="s">
-        <v>2755</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="776" spans="1:9" ht="150">
@@ -34937,15 +34761,15 @@
       </c>
       <c r="I786" s="42"/>
     </row>
-    <row r="787" spans="1:9" ht="45">
+    <row r="787" spans="1:9" ht="30">
       <c r="A787" s="40" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="B787" s="41" t="s">
         <v>1979</v>
       </c>
       <c r="C787" s="42" t="s">
-        <v>2668</v>
+        <v>2646</v>
       </c>
       <c r="D787" s="40"/>
       <c r="E787" s="40" t="s">
@@ -34958,21 +34782,19 @@
         <v>15</v>
       </c>
       <c r="H787" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I787" s="42" t="s">
-        <v>2580</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I787" s="42"/>
     </row>
     <row r="788" spans="1:9" ht="105">
       <c r="A788" s="40" t="s">
-        <v>2694</v>
+        <v>2672</v>
       </c>
       <c r="B788" s="41" t="s">
         <v>1979</v>
       </c>
       <c r="C788" s="42" t="s">
-        <v>2669</v>
+        <v>2647</v>
       </c>
       <c r="D788" s="40"/>
       <c r="E788" s="40" t="s">
@@ -34985,13 +34807,13 @@
         <v>15</v>
       </c>
       <c r="H788" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I788" s="42"/>
     </row>
     <row r="789" spans="1:9" ht="30">
       <c r="A789" s="40" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="B789" s="41" t="s">
         <v>1979</v>
@@ -35016,7 +34838,7 @@
     </row>
     <row r="790" spans="1:9">
       <c r="A790" s="40" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="B790" s="41" t="s">
         <v>1979</v>
@@ -35035,13 +34857,13 @@
         <v>15</v>
       </c>
       <c r="H790" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I790" s="42"/>
     </row>
     <row r="791" spans="1:9" ht="30">
       <c r="A791" s="40" t="s">
-        <v>2328</v>
+        <v>2322</v>
       </c>
       <c r="B791" s="41" t="s">
         <v>1979</v>
@@ -35060,19 +34882,19 @@
         <v>15</v>
       </c>
       <c r="H791" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I791" s="42"/>
     </row>
-    <row r="792" spans="1:9" ht="45">
+    <row r="792" spans="1:9" ht="30">
       <c r="A792" s="40" t="s">
-        <v>2329</v>
+        <v>2323</v>
       </c>
       <c r="B792" s="41" t="s">
         <v>1980</v>
       </c>
       <c r="C792" s="42" t="s">
-        <v>2670</v>
+        <v>2648</v>
       </c>
       <c r="D792" s="40"/>
       <c r="E792" s="40" t="s">
@@ -35085,21 +34907,19 @@
         <v>15</v>
       </c>
       <c r="H792" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I792" s="42" t="s">
-        <v>2581</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I792" s="42"/>
     </row>
     <row r="793" spans="1:9" ht="105">
       <c r="A793" s="40" t="s">
-        <v>2695</v>
+        <v>2673</v>
       </c>
       <c r="B793" s="41" t="s">
         <v>1980</v>
       </c>
       <c r="C793" s="42" t="s">
-        <v>2671</v>
+        <v>2649</v>
       </c>
       <c r="D793" s="40"/>
       <c r="E793" s="40" t="s">
@@ -35112,13 +34932,13 @@
         <v>15</v>
       </c>
       <c r="H793" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I793" s="42"/>
     </row>
     <row r="794" spans="1:9" ht="30">
       <c r="A794" s="40" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="B794" s="41" t="s">
         <v>1980</v>
@@ -35143,7 +34963,7 @@
     </row>
     <row r="795" spans="1:9">
       <c r="A795" s="40" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="B795" s="41" t="s">
         <v>1980</v>
@@ -35162,13 +34982,13 @@
         <v>15</v>
       </c>
       <c r="H795" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I795" s="42"/>
     </row>
     <row r="796" spans="1:9">
       <c r="A796" s="40" t="s">
-        <v>2332</v>
+        <v>2326</v>
       </c>
       <c r="B796" s="41" t="s">
         <v>1980</v>
@@ -35187,7 +35007,7 @@
         <v>15</v>
       </c>
       <c r="H796" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I796" s="42"/>
     </row>
@@ -35418,13 +35238,13 @@
     </row>
     <row r="806" spans="1:9" ht="45">
       <c r="A806" s="40" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="B806" s="41" t="s">
         <v>2055</v>
       </c>
       <c r="C806" s="42" t="s">
-        <v>2672</v>
+        <v>2650</v>
       </c>
       <c r="D806" s="40"/>
       <c r="E806" s="40" t="s">
@@ -35440,18 +35260,18 @@
         <v>17</v>
       </c>
       <c r="I806" s="42" t="s">
-        <v>2582</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="807" spans="1:9" ht="120">
       <c r="A807" s="40" t="s">
-        <v>2696</v>
+        <v>2674</v>
       </c>
       <c r="B807" s="41" t="s">
         <v>2055</v>
       </c>
       <c r="C807" s="42" t="s">
-        <v>2673</v>
+        <v>2651</v>
       </c>
       <c r="D807" s="40"/>
       <c r="E807" s="40" t="s">
@@ -35470,7 +35290,7 @@
     </row>
     <row r="808" spans="1:9" ht="30">
       <c r="A808" s="40" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="B808" s="41" t="s">
         <v>2055</v>
@@ -35495,7 +35315,7 @@
     </row>
     <row r="809" spans="1:9">
       <c r="A809" s="40" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
       <c r="B809" s="41" t="s">
         <v>2055</v>
@@ -35520,7 +35340,7 @@
     </row>
     <row r="810" spans="1:9" ht="30">
       <c r="A810" s="40" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
       <c r="B810" s="41" t="s">
         <v>2055</v>
@@ -35545,7 +35365,7 @@
     </row>
     <row r="811" spans="1:9" ht="30">
       <c r="A811" s="40" t="s">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="B811" s="41" t="s">
         <v>2055</v>
@@ -36326,7 +36146,7 @@
     </row>
     <row r="842" spans="1:9" ht="60">
       <c r="A842" s="40" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="B842" s="41" t="s">
         <v>899</v>
@@ -36351,7 +36171,7 @@
     </row>
     <row r="843" spans="1:9" ht="30">
       <c r="A843" s="40" t="s">
-        <v>2339</v>
+        <v>2333</v>
       </c>
       <c r="B843" s="41" t="s">
         <v>899</v>
@@ -36376,7 +36196,7 @@
     </row>
     <row r="844" spans="1:9" ht="45">
       <c r="A844" s="40" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="B844" s="41" t="s">
         <v>899</v>
@@ -36401,7 +36221,7 @@
     </row>
     <row r="845" spans="1:9" ht="45">
       <c r="A845" s="40" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
       <c r="B845" s="41" t="s">
         <v>899</v>
@@ -36426,7 +36246,7 @@
     </row>
     <row r="846" spans="1:9">
       <c r="A846" s="40" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
       <c r="B846" s="41" t="s">
         <v>899</v>
@@ -36451,7 +36271,7 @@
     </row>
     <row r="847" spans="1:9" ht="30">
       <c r="A847" s="40" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
       <c r="B847" s="41" t="s">
         <v>899</v>
@@ -36476,7 +36296,7 @@
     </row>
     <row r="848" spans="1:9" ht="30">
       <c r="A848" s="40" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
       <c r="B848" s="41" t="s">
         <v>899</v>
@@ -36501,7 +36321,7 @@
     </row>
     <row r="849" spans="1:9" ht="30">
       <c r="A849" s="40" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="B849" s="41" t="s">
         <v>899</v>
@@ -36526,7 +36346,7 @@
     </row>
     <row r="850" spans="1:9" ht="30">
       <c r="A850" s="40" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
       <c r="B850" s="41" t="s">
         <v>899</v>
@@ -36928,7 +36748,7 @@
     </row>
     <row r="866" spans="1:9" ht="75">
       <c r="A866" s="40" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="B866" s="41" t="s">
         <v>900</v>
@@ -37030,7 +36850,7 @@
     </row>
     <row r="870" spans="1:9" ht="60">
       <c r="A870" s="40" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="B870" s="41" t="s">
         <v>900</v>
@@ -37055,7 +36875,7 @@
     </row>
     <row r="871" spans="1:9" ht="30">
       <c r="A871" s="40" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
       <c r="B871" s="41" t="s">
         <v>900</v>
@@ -37080,7 +36900,7 @@
     </row>
     <row r="872" spans="1:9" ht="45">
       <c r="A872" s="40" t="s">
-        <v>2350</v>
+        <v>2344</v>
       </c>
       <c r="B872" s="41" t="s">
         <v>900</v>
@@ -37105,7 +36925,7 @@
     </row>
     <row r="873" spans="1:9" ht="45">
       <c r="A873" s="40" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="B873" s="41" t="s">
         <v>900</v>
@@ -37130,7 +36950,7 @@
     </row>
     <row r="874" spans="1:9">
       <c r="A874" s="40" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="B874" s="41" t="s">
         <v>900</v>
@@ -37155,7 +36975,7 @@
     </row>
     <row r="875" spans="1:9" ht="30">
       <c r="A875" s="40" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="B875" s="41" t="s">
         <v>900</v>
@@ -37180,7 +37000,7 @@
     </row>
     <row r="876" spans="1:9" ht="30">
       <c r="A876" s="40" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="B876" s="41" t="s">
         <v>900</v>
@@ -37205,7 +37025,7 @@
     </row>
     <row r="877" spans="1:9" ht="45">
       <c r="A877" s="40" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="B877" s="41" t="s">
         <v>900</v>
@@ -37227,12 +37047,12 @@
         <v>17</v>
       </c>
       <c r="I877" s="42" t="s">
-        <v>2756</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="878" spans="1:9" ht="30">
       <c r="A878" s="40" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
       <c r="B878" s="41" t="s">
         <v>900</v>
@@ -37561,7 +37381,7 @@
     </row>
     <row r="891" spans="1:9" ht="60">
       <c r="A891" s="40" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="B891" s="41" t="s">
         <v>902</v>
@@ -37586,7 +37406,7 @@
     </row>
     <row r="892" spans="1:9" ht="30">
       <c r="A892" s="40" t="s">
-        <v>2358</v>
+        <v>2352</v>
       </c>
       <c r="B892" s="41" t="s">
         <v>902</v>
@@ -37611,7 +37431,7 @@
     </row>
     <row r="893" spans="1:9" ht="45">
       <c r="A893" s="40" t="s">
-        <v>2359</v>
+        <v>2353</v>
       </c>
       <c r="B893" s="41" t="s">
         <v>902</v>
@@ -37636,7 +37456,7 @@
     </row>
     <row r="894" spans="1:9" ht="45">
       <c r="A894" s="40" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="B894" s="41" t="s">
         <v>902</v>
@@ -37661,7 +37481,7 @@
     </row>
     <row r="895" spans="1:9">
       <c r="A895" s="40" t="s">
-        <v>2361</v>
+        <v>2355</v>
       </c>
       <c r="B895" s="41" t="s">
         <v>902</v>
@@ -37686,7 +37506,7 @@
     </row>
     <row r="896" spans="1:9" ht="30">
       <c r="A896" s="40" t="s">
-        <v>2362</v>
+        <v>2356</v>
       </c>
       <c r="B896" s="41" t="s">
         <v>902</v>
@@ -37711,7 +37531,7 @@
     </row>
     <row r="897" spans="1:9" ht="45">
       <c r="A897" s="40" t="s">
-        <v>2363</v>
+        <v>2357</v>
       </c>
       <c r="B897" s="41" t="s">
         <v>902</v>
@@ -37736,7 +37556,7 @@
     </row>
     <row r="898" spans="1:9" ht="30">
       <c r="A898" s="40" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="B898" s="41" t="s">
         <v>902</v>
@@ -37761,7 +37581,7 @@
     </row>
     <row r="899" spans="1:9" ht="30">
       <c r="A899" s="40" t="s">
-        <v>2365</v>
+        <v>2359</v>
       </c>
       <c r="B899" s="41" t="s">
         <v>902</v>
@@ -37786,7 +37606,7 @@
     </row>
     <row r="900" spans="1:9" ht="30">
       <c r="A900" s="40" t="s">
-        <v>2366</v>
+        <v>2360</v>
       </c>
       <c r="B900" s="41" t="s">
         <v>902</v>
@@ -37894,7 +37714,7 @@
         <v>903</v>
       </c>
       <c r="C904" s="42" t="s">
-        <v>2518</v>
+        <v>2510</v>
       </c>
       <c r="D904" s="40"/>
       <c r="E904" s="40" t="s">
@@ -38119,7 +37939,7 @@
     </row>
     <row r="913" spans="1:9" ht="60">
       <c r="A913" s="40" t="s">
-        <v>2367</v>
+        <v>2361</v>
       </c>
       <c r="B913" s="41" t="s">
         <v>904</v>
@@ -38144,7 +37964,7 @@
     </row>
     <row r="914" spans="1:9" ht="30">
       <c r="A914" s="40" t="s">
-        <v>2368</v>
+        <v>2362</v>
       </c>
       <c r="B914" s="41" t="s">
         <v>904</v>
@@ -38169,7 +37989,7 @@
     </row>
     <row r="915" spans="1:9" ht="45">
       <c r="A915" s="40" t="s">
-        <v>2369</v>
+        <v>2363</v>
       </c>
       <c r="B915" s="41" t="s">
         <v>904</v>
@@ -38194,7 +38014,7 @@
     </row>
     <row r="916" spans="1:9" ht="45">
       <c r="A916" s="40" t="s">
-        <v>2370</v>
+        <v>2364</v>
       </c>
       <c r="B916" s="41" t="s">
         <v>904</v>
@@ -38219,7 +38039,7 @@
     </row>
     <row r="917" spans="1:9">
       <c r="A917" s="40" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
       <c r="B917" s="41" t="s">
         <v>904</v>
@@ -38244,7 +38064,7 @@
     </row>
     <row r="918" spans="1:9" ht="30">
       <c r="A918" s="40" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="B918" s="41" t="s">
         <v>904</v>
@@ -38269,7 +38089,7 @@
     </row>
     <row r="919" spans="1:9" ht="30">
       <c r="A919" s="40" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
       <c r="B919" s="41" t="s">
         <v>904</v>
@@ -38294,7 +38114,7 @@
     </row>
     <row r="920" spans="1:9" ht="30">
       <c r="A920" s="40" t="s">
-        <v>2374</v>
+        <v>2368</v>
       </c>
       <c r="B920" s="41" t="s">
         <v>904</v>
@@ -38319,7 +38139,7 @@
     </row>
     <row r="921" spans="1:9" ht="30">
       <c r="A921" s="40" t="s">
-        <v>2375</v>
+        <v>2369</v>
       </c>
       <c r="B921" s="41" t="s">
         <v>904</v>
@@ -38650,7 +38470,7 @@
     </row>
     <row r="934" spans="1:9" ht="60">
       <c r="A934" s="40" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="B934" s="41" t="s">
         <v>906</v>
@@ -38675,7 +38495,7 @@
     </row>
     <row r="935" spans="1:9" ht="30">
       <c r="A935" s="40" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="B935" s="41" t="s">
         <v>906</v>
@@ -38700,7 +38520,7 @@
     </row>
     <row r="936" spans="1:9" ht="45">
       <c r="A936" s="40" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
       <c r="B936" s="41" t="s">
         <v>906</v>
@@ -38725,7 +38545,7 @@
     </row>
     <row r="937" spans="1:9" ht="45">
       <c r="A937" s="40" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="B937" s="41" t="s">
         <v>906</v>
@@ -38750,7 +38570,7 @@
     </row>
     <row r="938" spans="1:9">
       <c r="A938" s="40" t="s">
-        <v>2380</v>
+        <v>2374</v>
       </c>
       <c r="B938" s="41" t="s">
         <v>906</v>
@@ -38775,7 +38595,7 @@
     </row>
     <row r="939" spans="1:9" ht="30">
       <c r="A939" s="40" t="s">
-        <v>2381</v>
+        <v>2375</v>
       </c>
       <c r="B939" s="41" t="s">
         <v>906</v>
@@ -38800,7 +38620,7 @@
     </row>
     <row r="940" spans="1:9" ht="30">
       <c r="A940" s="40" t="s">
-        <v>2382</v>
+        <v>2376</v>
       </c>
       <c r="B940" s="41" t="s">
         <v>906</v>
@@ -38825,7 +38645,7 @@
     </row>
     <row r="941" spans="1:9" ht="30">
       <c r="A941" s="40" t="s">
-        <v>2383</v>
+        <v>2377</v>
       </c>
       <c r="B941" s="41" t="s">
         <v>906</v>
@@ -38850,7 +38670,7 @@
     </row>
     <row r="942" spans="1:9" ht="30">
       <c r="A942" s="40" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="B942" s="41" t="s">
         <v>906</v>
@@ -38950,7 +38770,7 @@
       </c>
       <c r="I945" s="42"/>
     </row>
-    <row r="946" spans="1:9" ht="285">
+    <row r="946" spans="1:9" ht="270">
       <c r="A946" s="40" t="s">
         <v>708</v>
       </c>
@@ -39179,7 +38999,7 @@
     </row>
     <row r="955" spans="1:9" ht="75">
       <c r="A955" s="40" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="B955" s="41" t="s">
         <v>2057</v>
@@ -39204,7 +39024,7 @@
     </row>
     <row r="956" spans="1:9" ht="30">
       <c r="A956" s="40" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="B956" s="41" t="s">
         <v>2057</v>
@@ -39229,7 +39049,7 @@
     </row>
     <row r="957" spans="1:9" ht="45">
       <c r="A957" s="40" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="B957" s="41" t="s">
         <v>2057</v>
@@ -39254,7 +39074,7 @@
     </row>
     <row r="958" spans="1:9" ht="45">
       <c r="A958" s="40" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="B958" s="41" t="s">
         <v>2057</v>
@@ -39279,7 +39099,7 @@
     </row>
     <row r="959" spans="1:9">
       <c r="A959" s="40" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="B959" s="41" t="s">
         <v>2057</v>
@@ -39304,7 +39124,7 @@
     </row>
     <row r="960" spans="1:9" ht="30">
       <c r="A960" s="40" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="B960" s="41" t="s">
         <v>2057</v>
@@ -39329,13 +39149,13 @@
     </row>
     <row r="961" spans="1:9" ht="75">
       <c r="A961" s="40" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="B961" s="41" t="s">
         <v>2057</v>
       </c>
       <c r="C961" s="42" t="s">
-        <v>2624</v>
+        <v>2602</v>
       </c>
       <c r="D961" s="40"/>
       <c r="E961" s="40" t="s">
@@ -39354,13 +39174,13 @@
     </row>
     <row r="962" spans="1:9" ht="75">
       <c r="A962" s="40" t="s">
-        <v>2625</v>
+        <v>2603</v>
       </c>
       <c r="B962" s="41" t="s">
         <v>2057</v>
       </c>
       <c r="C962" s="42" t="s">
-        <v>2623</v>
+        <v>2601</v>
       </c>
       <c r="D962" s="40"/>
       <c r="E962" s="40" t="s">
@@ -39379,7 +39199,7 @@
     </row>
     <row r="963" spans="1:9" ht="30">
       <c r="A963" s="40" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="B963" s="41" t="s">
         <v>2057</v>
@@ -39404,7 +39224,7 @@
     </row>
     <row r="964" spans="1:9" ht="30">
       <c r="A964" s="40" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="B964" s="41" t="s">
         <v>2057</v>
@@ -39429,7 +39249,7 @@
     </row>
     <row r="965" spans="1:9" ht="30">
       <c r="A965" s="40" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="B965" s="41" t="s">
         <v>2057</v>
@@ -39620,7 +39440,7 @@
     </row>
     <row r="972" spans="1:9" ht="60">
       <c r="A972" s="40" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="B972" s="41" t="s">
         <v>907</v>
@@ -39629,7 +39449,7 @@
         <v>2059</v>
       </c>
       <c r="D972" s="40" t="s">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="E972" s="40" t="s">
         <v>22</v>
@@ -39647,7 +39467,7 @@
     </row>
     <row r="973" spans="1:9" ht="60">
       <c r="A973" s="40" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="B973" s="41" t="s">
         <v>907</v>
@@ -39656,7 +39476,7 @@
         <v>2115</v>
       </c>
       <c r="D973" s="40" t="s">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="E973" s="40" t="s">
         <v>22</v>
@@ -39674,7 +39494,7 @@
     </row>
     <row r="974" spans="1:9" ht="60">
       <c r="A974" s="40" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="B974" s="41" t="s">
         <v>907</v>
@@ -39683,7 +39503,7 @@
         <v>2060</v>
       </c>
       <c r="D974" s="40" t="s">
-        <v>2459</v>
+        <v>2453</v>
       </c>
       <c r="E974" s="40" t="s">
         <v>22</v>
@@ -39701,7 +39521,7 @@
     </row>
     <row r="975" spans="1:9" ht="45">
       <c r="A975" s="40" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="B975" s="41" t="s">
         <v>907</v>
@@ -39710,7 +39530,7 @@
         <v>2116</v>
       </c>
       <c r="D975" s="40" t="s">
-        <v>2459</v>
+        <v>2453</v>
       </c>
       <c r="E975" s="40" t="s">
         <v>22</v>
@@ -39728,7 +39548,7 @@
     </row>
     <row r="976" spans="1:9" ht="45">
       <c r="A976" s="40" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="B976" s="41" t="s">
         <v>907</v>
@@ -39737,7 +39557,7 @@
         <v>2061</v>
       </c>
       <c r="D976" s="40" t="s">
-        <v>2460</v>
+        <v>2454</v>
       </c>
       <c r="E976" s="40" t="s">
         <v>22</v>
@@ -39755,7 +39575,7 @@
     </row>
     <row r="977" spans="1:9" ht="45">
       <c r="A977" s="40" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="B977" s="41" t="s">
         <v>907</v>
@@ -39764,7 +39584,7 @@
         <v>2114</v>
       </c>
       <c r="D977" s="40" t="s">
-        <v>2460</v>
+        <v>2454</v>
       </c>
       <c r="E977" s="40" t="s">
         <v>22</v>
@@ -39784,7 +39604,7 @@
     </row>
     <row r="978" spans="1:9" ht="60">
       <c r="A978" s="40" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="B978" s="41" t="s">
         <v>907</v>
@@ -39793,7 +39613,7 @@
         <v>2062</v>
       </c>
       <c r="D978" s="40" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="E978" s="40" t="s">
         <v>22</v>
@@ -39811,7 +39631,7 @@
     </row>
     <row r="979" spans="1:9" ht="45">
       <c r="A979" s="40" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
       <c r="B979" s="41" t="s">
         <v>907</v>
@@ -39820,7 +39640,7 @@
         <v>2117</v>
       </c>
       <c r="D979" s="40" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="E979" s="40" t="s">
         <v>22</v>
@@ -39840,7 +39660,7 @@
     </row>
     <row r="980" spans="1:9" ht="45">
       <c r="A980" s="40" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
       <c r="B980" s="41" t="s">
         <v>907</v>
@@ -39849,7 +39669,7 @@
         <v>2058</v>
       </c>
       <c r="D980" s="40" t="s">
-        <v>2462</v>
+        <v>2456</v>
       </c>
       <c r="E980" s="40" t="s">
         <v>22</v>
@@ -39867,7 +39687,7 @@
     </row>
     <row r="981" spans="1:9" ht="45">
       <c r="A981" s="40" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="B981" s="41" t="s">
         <v>907</v>
@@ -39876,7 +39696,7 @@
         <v>2118</v>
       </c>
       <c r="D981" s="40" t="s">
-        <v>2462</v>
+        <v>2456</v>
       </c>
       <c r="E981" s="40" t="s">
         <v>22</v>
@@ -39896,7 +39716,7 @@
     </row>
     <row r="982" spans="1:9" ht="45">
       <c r="A982" s="40" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="B982" s="41" t="s">
         <v>907</v>
@@ -39905,7 +39725,7 @@
         <v>2063</v>
       </c>
       <c r="D982" s="40" t="s">
-        <v>2463</v>
+        <v>2457</v>
       </c>
       <c r="E982" s="40" t="s">
         <v>22</v>
@@ -39923,7 +39743,7 @@
     </row>
     <row r="983" spans="1:9" ht="60">
       <c r="A983" s="40" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="B983" s="41" t="s">
         <v>907</v>
@@ -39932,7 +39752,7 @@
         <v>2064</v>
       </c>
       <c r="D983" s="40" t="s">
-        <v>2464</v>
+        <v>2458</v>
       </c>
       <c r="E983" s="40" t="s">
         <v>22</v>
@@ -39950,7 +39770,7 @@
     </row>
     <row r="984" spans="1:9" ht="60">
       <c r="A984" s="40" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="B984" s="41" t="s">
         <v>907</v>
@@ -39959,7 +39779,7 @@
         <v>2119</v>
       </c>
       <c r="D984" s="40" t="s">
-        <v>2464</v>
+        <v>2458</v>
       </c>
       <c r="E984" s="40" t="s">
         <v>22</v>
@@ -39979,16 +39799,16 @@
     </row>
     <row r="985" spans="1:9" ht="60">
       <c r="A985" s="40" t="s">
-        <v>2724</v>
+        <v>2702</v>
       </c>
       <c r="B985" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C985" s="42" t="s">
-        <v>2728</v>
+        <v>2706</v>
       </c>
       <c r="D985" s="40" t="s">
-        <v>2726</v>
+        <v>2704</v>
       </c>
       <c r="E985" s="47" t="s">
         <v>22</v>
@@ -40006,16 +39826,16 @@
     </row>
     <row r="986" spans="1:9" ht="60">
       <c r="A986" s="40" t="s">
-        <v>2725</v>
+        <v>2703</v>
       </c>
       <c r="B986" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C986" s="42" t="s">
-        <v>2727</v>
+        <v>2705</v>
       </c>
       <c r="D986" s="40" t="s">
-        <v>2726</v>
+        <v>2704</v>
       </c>
       <c r="E986" s="47" t="s">
         <v>22</v>
@@ -40089,7 +39909,7 @@
     </row>
     <row r="989" spans="1:9" ht="60">
       <c r="A989" s="40" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="B989" s="41" t="s">
         <v>907</v>
@@ -40098,7 +39918,7 @@
         <v>2110</v>
       </c>
       <c r="D989" s="40" t="s">
-        <v>2465</v>
+        <v>2459</v>
       </c>
       <c r="E989" s="40" t="s">
         <v>22</v>
@@ -40116,7 +39936,7 @@
     </row>
     <row r="990" spans="1:9" ht="45">
       <c r="A990" s="40" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="B990" s="41" t="s">
         <v>907</v>
@@ -40125,7 +39945,7 @@
         <v>2120</v>
       </c>
       <c r="D990" s="40" t="s">
-        <v>2465</v>
+        <v>2459</v>
       </c>
       <c r="E990" s="40" t="s">
         <v>22</v>
@@ -40145,7 +39965,7 @@
     </row>
     <row r="991" spans="1:9" ht="45">
       <c r="A991" s="40" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="B991" s="41" t="s">
         <v>907</v>
@@ -40154,7 +39974,7 @@
         <v>2111</v>
       </c>
       <c r="D991" s="40" t="s">
-        <v>2466</v>
+        <v>2460</v>
       </c>
       <c r="E991" s="40" t="s">
         <v>22</v>
@@ -40172,7 +39992,7 @@
     </row>
     <row r="992" spans="1:9" ht="45">
       <c r="A992" s="40" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
       <c r="B992" s="41" t="s">
         <v>907</v>
@@ -40181,7 +40001,7 @@
         <v>2121</v>
       </c>
       <c r="D992" s="40" t="s">
-        <v>2467</v>
+        <v>2461</v>
       </c>
       <c r="E992" s="40" t="s">
         <v>22</v>
@@ -40201,7 +40021,7 @@
     </row>
     <row r="993" spans="1:9" ht="60">
       <c r="A993" s="40" t="s">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="B993" s="41" t="s">
         <v>907</v>
@@ -40210,7 +40030,7 @@
         <v>2112</v>
       </c>
       <c r="D993" s="40" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="E993" s="40" t="s">
         <v>22</v>
@@ -40228,7 +40048,7 @@
     </row>
     <row r="994" spans="1:9" ht="45">
       <c r="A994" s="40" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="B994" s="41" t="s">
         <v>907</v>
@@ -40237,7 +40057,7 @@
         <v>2122</v>
       </c>
       <c r="D994" s="40" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="E994" s="40" t="s">
         <v>22</v>
@@ -40257,7 +40077,7 @@
     </row>
     <row r="995" spans="1:9" ht="45">
       <c r="A995" s="40" t="s">
-        <v>2414</v>
+        <v>2408</v>
       </c>
       <c r="B995" s="41" t="s">
         <v>907</v>
@@ -40266,7 +40086,7 @@
         <v>2113</v>
       </c>
       <c r="D995" s="40" t="s">
-        <v>2469</v>
+        <v>2463</v>
       </c>
       <c r="E995" s="40" t="s">
         <v>22</v>
@@ -40284,7 +40104,7 @@
     </row>
     <row r="996" spans="1:9" ht="45">
       <c r="A996" s="40" t="s">
-        <v>2415</v>
+        <v>2409</v>
       </c>
       <c r="B996" s="41" t="s">
         <v>907</v>
@@ -40293,7 +40113,7 @@
         <v>2123</v>
       </c>
       <c r="D996" s="40" t="s">
-        <v>2469</v>
+        <v>2463</v>
       </c>
       <c r="E996" s="40" t="s">
         <v>22</v>
@@ -40342,16 +40162,16 @@
     </row>
     <row r="998" spans="1:9" ht="60">
       <c r="A998" s="40" t="s">
-        <v>2529</v>
+        <v>2521</v>
       </c>
       <c r="B998" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C998" s="42" t="s">
-        <v>2470</v>
+        <v>2464</v>
       </c>
       <c r="D998" s="40" t="s">
-        <v>2488</v>
+        <v>2480</v>
       </c>
       <c r="E998" s="40" t="s">
         <v>22</v>
@@ -40369,16 +40189,16 @@
     </row>
     <row r="999" spans="1:9" ht="45">
       <c r="A999" s="40" t="s">
-        <v>2530</v>
+        <v>2522</v>
       </c>
       <c r="B999" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C999" s="42" t="s">
-        <v>2478</v>
+        <v>2472</v>
       </c>
       <c r="D999" s="40" t="s">
-        <v>2488</v>
+        <v>2480</v>
       </c>
       <c r="E999" s="40" t="s">
         <v>22</v>
@@ -40398,16 +40218,16 @@
     </row>
     <row r="1000" spans="1:9" ht="60">
       <c r="A1000" s="40" t="s">
-        <v>2531</v>
+        <v>2523</v>
       </c>
       <c r="B1000" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1000" s="42" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
       <c r="D1000" s="40" t="s">
-        <v>2489</v>
+        <v>2481</v>
       </c>
       <c r="E1000" s="40" t="s">
         <v>22</v>
@@ -40425,16 +40245,16 @@
     </row>
     <row r="1001" spans="1:9" ht="45">
       <c r="A1001" s="40" t="s">
-        <v>2532</v>
+        <v>2524</v>
       </c>
       <c r="B1001" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1001" s="42" t="s">
-        <v>2479</v>
+        <v>2473</v>
       </c>
       <c r="D1001" s="40" t="s">
-        <v>2489</v>
+        <v>2481</v>
       </c>
       <c r="E1001" s="40" t="s">
         <v>22</v>
@@ -40454,16 +40274,16 @@
     </row>
     <row r="1002" spans="1:9" ht="60">
       <c r="A1002" s="40" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="B1002" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1002" s="42" t="s">
-        <v>2472</v>
+        <v>2466</v>
       </c>
       <c r="D1002" s="40" t="s">
-        <v>2490</v>
+        <v>2482</v>
       </c>
       <c r="E1002" s="40" t="s">
         <v>22</v>
@@ -40481,16 +40301,16 @@
     </row>
     <row r="1003" spans="1:9" ht="45">
       <c r="A1003" s="40" t="s">
-        <v>2534</v>
+        <v>2526</v>
       </c>
       <c r="B1003" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1003" s="42" t="s">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="D1003" s="40" t="s">
-        <v>2490</v>
+        <v>2482</v>
       </c>
       <c r="E1003" s="40" t="s">
         <v>22</v>
@@ -40508,16 +40328,16 @@
     </row>
     <row r="1004" spans="1:9" ht="60">
       <c r="A1004" s="40" t="s">
-        <v>2535</v>
+        <v>2527</v>
       </c>
       <c r="B1004" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1004" s="42" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
       <c r="D1004" s="40" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="E1004" s="40" t="s">
         <v>22</v>
@@ -40535,16 +40355,16 @@
     </row>
     <row r="1005" spans="1:9" ht="165">
       <c r="A1005" s="40" t="s">
-        <v>2536</v>
+        <v>2528</v>
       </c>
       <c r="B1005" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1005" s="42" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
       <c r="D1005" s="40" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="E1005" s="40" t="s">
         <v>22</v>
@@ -40562,16 +40382,16 @@
     </row>
     <row r="1006" spans="1:9" ht="45">
       <c r="A1006" s="40" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B1006" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1006" s="42" t="s">
-        <v>2475</v>
+        <v>2469</v>
       </c>
       <c r="D1006" s="40" t="s">
-        <v>2492</v>
+        <v>2484</v>
       </c>
       <c r="E1006" s="40" t="s">
         <v>22</v>
@@ -40587,18 +40407,18 @@
       </c>
       <c r="I1006" s="42"/>
     </row>
-    <row r="1007" spans="1:9" ht="135">
+    <row r="1007" spans="1:9" ht="45">
       <c r="A1007" s="40" t="s">
-        <v>2538</v>
+        <v>2530</v>
       </c>
       <c r="B1007" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1007" s="42" t="s">
-        <v>2482</v>
+        <v>2736</v>
       </c>
       <c r="D1007" s="40" t="s">
-        <v>2492</v>
+        <v>2484</v>
       </c>
       <c r="E1007" s="40" t="s">
         <v>22</v>
@@ -40610,24 +40430,22 @@
         <v>15</v>
       </c>
       <c r="H1007" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1007" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1007" s="42"/>
     </row>
     <row r="1008" spans="1:9" ht="45">
       <c r="A1008" s="40" t="s">
-        <v>2539</v>
+        <v>2531</v>
       </c>
       <c r="B1008" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1008" s="42" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
       <c r="D1008" s="40" t="s">
-        <v>2493</v>
+        <v>2485</v>
       </c>
       <c r="E1008" s="40" t="s">
         <v>22</v>
@@ -40643,18 +40461,18 @@
       </c>
       <c r="I1008" s="42"/>
     </row>
-    <row r="1009" spans="1:9" ht="135">
+    <row r="1009" spans="1:9" ht="45">
       <c r="A1009" s="40" t="s">
-        <v>2540</v>
+        <v>2532</v>
       </c>
       <c r="B1009" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1009" s="42" t="s">
-        <v>2483</v>
+        <v>2114</v>
       </c>
       <c r="D1009" s="40" t="s">
-        <v>2493</v>
+        <v>2485</v>
       </c>
       <c r="E1009" s="40" t="s">
         <v>22</v>
@@ -40666,24 +40484,22 @@
         <v>15</v>
       </c>
       <c r="H1009" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1009" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1009" s="42"/>
     </row>
     <row r="1010" spans="1:9" ht="60">
       <c r="A1010" s="40" t="s">
-        <v>2541</v>
+        <v>2533</v>
       </c>
       <c r="B1010" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1010" s="42" t="s">
-        <v>2473</v>
+        <v>2467</v>
       </c>
       <c r="D1010" s="40" t="s">
-        <v>2494</v>
+        <v>2486</v>
       </c>
       <c r="E1010" s="40" t="s">
         <v>22</v>
@@ -40701,16 +40517,16 @@
     </row>
     <row r="1011" spans="1:9" ht="135">
       <c r="A1011" s="40" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
       <c r="B1011" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1011" s="42" t="s">
-        <v>2484</v>
+        <v>2476</v>
       </c>
       <c r="D1011" s="40" t="s">
-        <v>2494</v>
+        <v>2486</v>
       </c>
       <c r="E1011" s="40" t="s">
         <v>22</v>
@@ -40730,16 +40546,16 @@
     </row>
     <row r="1012" spans="1:9" ht="45">
       <c r="A1012" s="40" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
       <c r="B1012" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1012" s="42" t="s">
-        <v>2617</v>
+        <v>2595</v>
       </c>
       <c r="D1012" s="40" t="s">
-        <v>2495</v>
+        <v>2487</v>
       </c>
       <c r="E1012" s="40" t="s">
         <v>22</v>
@@ -40757,16 +40573,16 @@
     </row>
     <row r="1013" spans="1:9" ht="45">
       <c r="A1013" s="40" t="s">
-        <v>2544</v>
+        <v>2536</v>
       </c>
       <c r="B1013" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1013" s="42" t="s">
-        <v>2618</v>
+        <v>2596</v>
       </c>
       <c r="D1013" s="40" t="s">
-        <v>2495</v>
+        <v>2487</v>
       </c>
       <c r="E1013" s="40" t="s">
         <v>22</v>
@@ -40786,16 +40602,16 @@
     </row>
     <row r="1014" spans="1:9" ht="45">
       <c r="A1014" s="40" t="s">
-        <v>2545</v>
+        <v>2537</v>
       </c>
       <c r="B1014" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1014" s="42" t="s">
-        <v>2615</v>
+        <v>2593</v>
       </c>
       <c r="D1014" s="40" t="s">
-        <v>2496</v>
+        <v>2488</v>
       </c>
       <c r="E1014" s="40" t="s">
         <v>22</v>
@@ -40813,16 +40629,16 @@
     </row>
     <row r="1015" spans="1:9" ht="45">
       <c r="A1015" s="40" t="s">
-        <v>2546</v>
+        <v>2538</v>
       </c>
       <c r="B1015" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1015" s="42" t="s">
-        <v>2616</v>
+        <v>2594</v>
       </c>
       <c r="D1015" s="40" t="s">
-        <v>2496</v>
+        <v>2488</v>
       </c>
       <c r="E1015" s="40" t="s">
         <v>22</v>
@@ -40842,16 +40658,16 @@
     </row>
     <row r="1016" spans="1:9" ht="45">
       <c r="A1016" s="40" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B1016" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1016" s="42" t="s">
-        <v>2477</v>
+        <v>2471</v>
       </c>
       <c r="D1016" s="40" t="s">
-        <v>2497</v>
+        <v>2489</v>
       </c>
       <c r="E1016" s="40" t="s">
         <v>22</v>
@@ -40869,16 +40685,16 @@
     </row>
     <row r="1017" spans="1:9" ht="30">
       <c r="A1017" s="40" t="s">
-        <v>2548</v>
+        <v>2540</v>
       </c>
       <c r="B1017" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1017" s="42" t="s">
-        <v>2487</v>
+        <v>2479</v>
       </c>
       <c r="D1017" s="40" t="s">
-        <v>2497</v>
+        <v>2489</v>
       </c>
       <c r="E1017" s="40" t="s">
         <v>22</v>
@@ -40902,7 +40718,7 @@
         <v>907</v>
       </c>
       <c r="C1018" s="42" t="s">
-        <v>2722</v>
+        <v>2700</v>
       </c>
       <c r="D1018" s="40" t="s">
         <v>1652</v>
@@ -40925,13 +40741,13 @@
     </row>
     <row r="1019" spans="1:9" ht="60">
       <c r="A1019" s="40" t="s">
-        <v>2721</v>
+        <v>2699</v>
       </c>
       <c r="B1019" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1019" s="42" t="s">
-        <v>2723</v>
+        <v>2701</v>
       </c>
       <c r="D1019" s="40" t="s">
         <v>1652</v>
@@ -41006,7 +40822,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="1022" spans="1:9" ht="45">
+    <row r="1022" spans="1:9" ht="30">
       <c r="A1022" s="40" t="s">
         <v>728</v>
       </c>
@@ -41533,7 +41349,7 @@
       </c>
       <c r="I1040" s="42"/>
     </row>
-    <row r="1041" spans="1:9" ht="60">
+    <row r="1041" spans="1:9" ht="45">
       <c r="A1041" s="40" t="s">
         <v>745</v>
       </c>
@@ -41562,7 +41378,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="1042" spans="1:9" ht="60">
+    <row r="1042" spans="1:9" ht="45">
       <c r="A1042" s="40" t="s">
         <v>746</v>
       </c>
@@ -41591,7 +41407,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="1043" spans="1:9" ht="60">
+    <row r="1043" spans="1:9" ht="45">
       <c r="A1043" s="40" t="s">
         <v>747</v>
       </c>
@@ -41655,7 +41471,7 @@
         <v>907</v>
       </c>
       <c r="C1045" s="42" t="s">
-        <v>2704</v>
+        <v>2682</v>
       </c>
       <c r="D1045" s="40" t="s">
         <v>1665</v>
@@ -41678,16 +41494,16 @@
     </row>
     <row r="1046" spans="1:9" ht="45">
       <c r="A1046" s="40" t="s">
-        <v>2416</v>
+        <v>2410</v>
       </c>
       <c r="B1046" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1046" s="42" t="s">
-        <v>2614</v>
+        <v>2592</v>
       </c>
       <c r="D1046" s="40" t="s">
-        <v>2498</v>
+        <v>2490</v>
       </c>
       <c r="E1046" s="40" t="s">
         <v>22</v>
@@ -41705,7 +41521,7 @@
     </row>
     <row r="1047" spans="1:9" ht="45">
       <c r="A1047" s="40" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
       <c r="B1047" s="41" t="s">
         <v>907</v>
@@ -41714,7 +41530,7 @@
         <v>2124</v>
       </c>
       <c r="D1047" s="40" t="s">
-        <v>2498</v>
+        <v>2490</v>
       </c>
       <c r="E1047" s="40" t="s">
         <v>22</v>
@@ -41726,24 +41542,22 @@
         <v>15</v>
       </c>
       <c r="H1047" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1047" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1047" s="42"/>
     </row>
     <row r="1048" spans="1:9" ht="45">
       <c r="A1048" s="40" t="s">
-        <v>2418</v>
+        <v>2412</v>
       </c>
       <c r="B1048" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1048" s="42" t="s">
-        <v>2613</v>
+        <v>2591</v>
       </c>
       <c r="D1048" s="40" t="s">
-        <v>2499</v>
+        <v>2491</v>
       </c>
       <c r="E1048" s="40" t="s">
         <v>22</v>
@@ -41759,18 +41573,18 @@
       </c>
       <c r="I1048" s="42"/>
     </row>
-    <row r="1049" spans="1:9" ht="225">
+    <row r="1049" spans="1:9" ht="30">
       <c r="A1049" s="40" t="s">
-        <v>2419</v>
+        <v>2413</v>
       </c>
       <c r="B1049" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1049" s="42" t="s">
-        <v>2125</v>
+        <v>2737</v>
       </c>
       <c r="D1049" s="40" t="s">
-        <v>2499</v>
+        <v>2491</v>
       </c>
       <c r="E1049" s="40" t="s">
         <v>22</v>
@@ -41782,24 +41596,22 @@
         <v>15</v>
       </c>
       <c r="H1049" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1049" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1049" s="42"/>
     </row>
     <row r="1050" spans="1:9" ht="45">
       <c r="A1050" s="40" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
       <c r="B1050" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1050" s="42" t="s">
-        <v>2612</v>
+        <v>2590</v>
       </c>
       <c r="D1050" s="40" t="s">
-        <v>2500</v>
+        <v>2492</v>
       </c>
       <c r="E1050" s="40" t="s">
         <v>22</v>
@@ -42097,16 +41909,16 @@
     </row>
     <row r="1061" spans="1:9" ht="45">
       <c r="A1061" s="40" t="s">
-        <v>2421</v>
+        <v>2415</v>
       </c>
       <c r="B1061" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1061" s="42" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D1061" s="40" t="s">
-        <v>2501</v>
+        <v>2493</v>
       </c>
       <c r="E1061" s="40" t="s">
         <v>22</v>
@@ -42124,16 +41936,16 @@
     </row>
     <row r="1062" spans="1:9" ht="45">
       <c r="A1062" s="40" t="s">
-        <v>2422</v>
+        <v>2416</v>
       </c>
       <c r="B1062" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1062" s="42" t="s">
-        <v>2709</v>
+        <v>2687</v>
       </c>
       <c r="D1062" s="40" t="s">
-        <v>2501</v>
+        <v>2493</v>
       </c>
       <c r="E1062" s="40" t="s">
         <v>22</v>
@@ -42267,16 +42079,16 @@
     </row>
     <row r="1067" spans="1:9" ht="60">
       <c r="A1067" s="40" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="B1067" s="44">
         <v>8</v>
       </c>
       <c r="C1067" s="42" t="s">
-        <v>2706</v>
+        <v>2684</v>
       </c>
       <c r="D1067" s="40" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
       <c r="E1067" s="40" t="s">
         <v>22</v>
@@ -42294,16 +42106,16 @@
     </row>
     <row r="1068" spans="1:9" ht="45">
       <c r="A1068" s="40" t="s">
-        <v>2424</v>
+        <v>2418</v>
       </c>
       <c r="B1068" s="44">
         <v>8</v>
       </c>
       <c r="C1068" s="42" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D1068" s="40" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
       <c r="E1068" s="40" t="s">
         <v>22</v>
@@ -42329,7 +42141,7 @@
         <v>907</v>
       </c>
       <c r="C1069" s="42" t="s">
-        <v>2719</v>
+        <v>2697</v>
       </c>
       <c r="D1069" s="40" t="s">
         <v>1673</v>
@@ -42352,13 +42164,13 @@
     </row>
     <row r="1070" spans="1:9" ht="60">
       <c r="A1070" s="40" t="s">
-        <v>2718</v>
+        <v>2696</v>
       </c>
       <c r="B1070" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1070" s="42" t="s">
-        <v>2720</v>
+        <v>2698</v>
       </c>
       <c r="D1070" s="40" t="s">
         <v>1673</v>
@@ -42659,16 +42471,16 @@
     </row>
     <row r="1081" spans="1:9" ht="45">
       <c r="A1081" s="40" t="s">
-        <v>2713</v>
+        <v>2691</v>
       </c>
       <c r="B1081" s="48" t="s">
         <v>907</v>
       </c>
       <c r="C1081" s="49" t="s">
-        <v>2714</v>
+        <v>2692</v>
       </c>
       <c r="D1081" s="47" t="s">
-        <v>2716</v>
+        <v>2694</v>
       </c>
       <c r="E1081" s="47" t="s">
         <v>22</v>
@@ -42688,16 +42500,16 @@
     </row>
     <row r="1082" spans="1:9" ht="30">
       <c r="A1082" s="47" t="s">
-        <v>2712</v>
+        <v>2690</v>
       </c>
       <c r="B1082" s="48" t="s">
         <v>907</v>
       </c>
       <c r="C1082" s="49" t="s">
-        <v>2715</v>
+        <v>2693</v>
       </c>
       <c r="D1082" s="47" t="s">
-        <v>2716</v>
+        <v>2694</v>
       </c>
       <c r="E1082" s="47" t="s">
         <v>22</v>
@@ -42995,16 +42807,16 @@
     </row>
     <row r="1093" spans="1:9" ht="45">
       <c r="A1093" s="40" t="s">
-        <v>2750</v>
+        <v>2728</v>
       </c>
       <c r="B1093" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1093" s="42" t="s">
-        <v>2752</v>
+        <v>2730</v>
       </c>
       <c r="D1093" s="40" t="s">
-        <v>2754</v>
+        <v>2732</v>
       </c>
       <c r="E1093" s="47" t="s">
         <v>22</v>
@@ -43022,16 +42834,16 @@
     </row>
     <row r="1094" spans="1:9" ht="45">
       <c r="A1094" s="40" t="s">
-        <v>2751</v>
+        <v>2729</v>
       </c>
       <c r="B1094" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1094" s="42" t="s">
-        <v>2753</v>
+        <v>2731</v>
       </c>
       <c r="D1094" s="40" t="s">
-        <v>2754</v>
+        <v>2732</v>
       </c>
       <c r="E1094" s="47" t="s">
         <v>22</v>
@@ -43051,16 +42863,16 @@
     </row>
     <row r="1095" spans="1:9" ht="45">
       <c r="A1095" s="40" t="s">
-        <v>2729</v>
+        <v>2707</v>
       </c>
       <c r="B1095" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1095" s="42" t="s">
-        <v>2732</v>
+        <v>2710</v>
       </c>
       <c r="D1095" s="40" t="s">
-        <v>2731</v>
+        <v>2709</v>
       </c>
       <c r="E1095" s="47" t="s">
         <v>22</v>
@@ -43080,16 +42892,16 @@
     </row>
     <row r="1096" spans="1:9" ht="30">
       <c r="A1096" s="40" t="s">
-        <v>2730</v>
+        <v>2708</v>
       </c>
       <c r="B1096" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1096" s="42" t="s">
-        <v>2733</v>
+        <v>2711</v>
       </c>
       <c r="D1096" s="40" t="s">
-        <v>2731</v>
+        <v>2709</v>
       </c>
       <c r="E1096" s="47" t="s">
         <v>22</v>
@@ -43107,16 +42919,16 @@
     </row>
     <row r="1097" spans="1:9" ht="45">
       <c r="A1097" s="40" t="s">
-        <v>2735</v>
+        <v>2713</v>
       </c>
       <c r="B1097" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1097" s="42" t="s">
-        <v>2739</v>
+        <v>2717</v>
       </c>
       <c r="D1097" s="40" t="s">
-        <v>2738</v>
+        <v>2716</v>
       </c>
       <c r="E1097" s="47" t="s">
         <v>22</v>
@@ -43136,16 +42948,16 @@
     </row>
     <row r="1098" spans="1:9" ht="30">
       <c r="A1098" s="40" t="s">
-        <v>2736</v>
+        <v>2714</v>
       </c>
       <c r="B1098" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1098" s="42" t="s">
-        <v>2737</v>
+        <v>2715</v>
       </c>
       <c r="D1098" s="40" t="s">
-        <v>2738</v>
+        <v>2716</v>
       </c>
       <c r="E1098" s="47" t="s">
         <v>22</v>
@@ -43439,16 +43251,16 @@
     </row>
     <row r="1109" spans="1:9" ht="60">
       <c r="A1109" s="40" t="s">
-        <v>2425</v>
+        <v>2419</v>
       </c>
       <c r="B1109" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1109" s="42" t="s">
-        <v>2611</v>
+        <v>2589</v>
       </c>
       <c r="D1109" s="40" t="s">
-        <v>2503</v>
+        <v>2495</v>
       </c>
       <c r="E1109" s="40" t="s">
         <v>22</v>
@@ -43464,18 +43276,18 @@
       </c>
       <c r="I1109" s="42"/>
     </row>
-    <row r="1110" spans="1:9" ht="135">
+    <row r="1110" spans="1:9" ht="45">
       <c r="A1110" s="40" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="B1110" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1110" s="42" t="s">
-        <v>2128</v>
+        <v>2738</v>
       </c>
       <c r="D1110" s="40" t="s">
-        <v>2503</v>
+        <v>2495</v>
       </c>
       <c r="E1110" s="40" t="s">
         <v>22</v>
@@ -43487,11 +43299,9 @@
         <v>15</v>
       </c>
       <c r="H1110" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1110" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1110" s="42"/>
     </row>
     <row r="1111" spans="1:9" ht="45">
       <c r="A1111" s="40" t="s">
@@ -43549,16 +43359,16 @@
     </row>
     <row r="1113" spans="1:9" ht="60">
       <c r="A1113" s="40" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="B1113" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1113" s="42" t="s">
-        <v>2610</v>
+        <v>2588</v>
       </c>
       <c r="D1113" s="40" t="s">
-        <v>2504</v>
+        <v>2496</v>
       </c>
       <c r="E1113" s="40" t="s">
         <v>22</v>
@@ -43576,16 +43386,16 @@
     </row>
     <row r="1114" spans="1:9" ht="45">
       <c r="A1114" s="40" t="s">
-        <v>2428</v>
+        <v>2422</v>
       </c>
       <c r="B1114" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1114" s="42" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D1114" s="40" t="s">
-        <v>2504</v>
+        <v>2496</v>
       </c>
       <c r="E1114" s="40" t="s">
         <v>22</v>
@@ -43597,21 +43407,19 @@
         <v>15</v>
       </c>
       <c r="H1114" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1114" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1114" s="42"/>
     </row>
     <row r="1115" spans="1:9" ht="45">
       <c r="A1115" s="40" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
       <c r="B1115" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1115" s="42" t="s">
-        <v>2609</v>
+        <v>2587</v>
       </c>
       <c r="D1115" s="40"/>
       <c r="E1115" s="40" t="s">
@@ -43630,16 +43438,16 @@
     </row>
     <row r="1116" spans="1:9" ht="60">
       <c r="A1116" s="40" t="s">
-        <v>2430</v>
+        <v>2424</v>
       </c>
       <c r="B1116" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1116" s="42" t="s">
-        <v>2608</v>
+        <v>2586</v>
       </c>
       <c r="D1116" s="40" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
       <c r="E1116" s="40" t="s">
         <v>22</v>
@@ -43657,16 +43465,16 @@
     </row>
     <row r="1117" spans="1:9" ht="45">
       <c r="A1117" s="40" t="s">
-        <v>2431</v>
+        <v>2425</v>
       </c>
       <c r="B1117" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1117" s="42" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D1117" s="40" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
       <c r="E1117" s="40" t="s">
         <v>22</v>
@@ -43686,16 +43494,16 @@
     </row>
     <row r="1118" spans="1:9" ht="60">
       <c r="A1118" s="40" t="s">
-        <v>2432</v>
+        <v>2426</v>
       </c>
       <c r="B1118" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1118" s="42" t="s">
-        <v>2607</v>
+        <v>2585</v>
       </c>
       <c r="D1118" s="40" t="s">
-        <v>2506</v>
+        <v>2498</v>
       </c>
       <c r="E1118" s="40" t="s">
         <v>22</v>
@@ -43713,16 +43521,16 @@
     </row>
     <row r="1119" spans="1:9" ht="180">
       <c r="A1119" s="40" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="B1119" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1119" s="42" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="D1119" s="40" t="s">
-        <v>2506</v>
+        <v>2498</v>
       </c>
       <c r="E1119" s="40" t="s">
         <v>22</v>
@@ -43742,16 +43550,16 @@
     </row>
     <row r="1120" spans="1:9" ht="60">
       <c r="A1120" s="40" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
       <c r="B1120" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1120" s="42" t="s">
-        <v>2606</v>
+        <v>2584</v>
       </c>
       <c r="D1120" s="40" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
       <c r="E1120" s="40" t="s">
         <v>22</v>
@@ -43767,18 +43575,18 @@
       </c>
       <c r="I1120" s="42"/>
     </row>
-    <row r="1121" spans="1:9" ht="165">
+    <row r="1121" spans="1:9" ht="45">
       <c r="A1121" s="40" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="B1121" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1121" s="42" t="s">
-        <v>2132</v>
+        <v>2735</v>
       </c>
       <c r="D1121" s="40" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
       <c r="E1121" s="40" t="s">
         <v>22</v>
@@ -43790,24 +43598,22 @@
         <v>15</v>
       </c>
       <c r="H1121" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1121" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1121" s="42"/>
     </row>
     <row r="1122" spans="1:9" ht="45">
       <c r="A1122" s="40" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="B1122" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1122" s="42" t="s">
-        <v>2605</v>
+        <v>2583</v>
       </c>
       <c r="D1122" s="40" t="s">
-        <v>2508</v>
+        <v>2500</v>
       </c>
       <c r="E1122" s="40" t="s">
         <v>22</v>
@@ -43823,18 +43629,18 @@
       </c>
       <c r="I1122" s="42"/>
     </row>
-    <row r="1123" spans="1:9" ht="270">
+    <row r="1123" spans="1:9" ht="30">
       <c r="A1123" s="40" t="s">
-        <v>2437</v>
+        <v>2431</v>
       </c>
       <c r="B1123" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1123" s="42" t="s">
-        <v>2133</v>
+        <v>2739</v>
       </c>
       <c r="D1123" s="40" t="s">
-        <v>2508</v>
+        <v>2500</v>
       </c>
       <c r="E1123" s="40" t="s">
         <v>22</v>
@@ -43846,11 +43652,9 @@
         <v>15</v>
       </c>
       <c r="H1123" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1123" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1123" s="42"/>
     </row>
     <row r="1124" spans="1:9" ht="405">
       <c r="A1124" s="40" t="s">
@@ -43860,7 +43664,7 @@
         <v>907</v>
       </c>
       <c r="C1124" s="42" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="D1124" s="40" t="s">
         <v>1690</v>
@@ -43883,16 +43687,16 @@
     </row>
     <row r="1125" spans="1:9" ht="60">
       <c r="A1125" s="40" t="s">
-        <v>2438</v>
+        <v>2432</v>
       </c>
       <c r="B1125" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1125" s="42" t="s">
-        <v>2603</v>
+        <v>2581</v>
       </c>
       <c r="D1125" s="40" t="s">
-        <v>2509</v>
+        <v>2501</v>
       </c>
       <c r="E1125" s="40" t="s">
         <v>22</v>
@@ -43910,16 +43714,16 @@
     </row>
     <row r="1126" spans="1:9" ht="150">
       <c r="A1126" s="40" t="s">
-        <v>2439</v>
+        <v>2433</v>
       </c>
       <c r="B1126" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1126" s="42" t="s">
-        <v>2604</v>
+        <v>2582</v>
       </c>
       <c r="D1126" s="40" t="s">
-        <v>2509</v>
+        <v>2501</v>
       </c>
       <c r="E1126" s="40" t="s">
         <v>22</v>
@@ -43939,16 +43743,16 @@
     </row>
     <row r="1127" spans="1:9" ht="60">
       <c r="A1127" s="40" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="B1127" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1127" s="42" t="s">
-        <v>2602</v>
+        <v>2580</v>
       </c>
       <c r="D1127" s="40" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
       <c r="E1127" s="40" t="s">
         <v>22</v>
@@ -43966,16 +43770,16 @@
     </row>
     <row r="1128" spans="1:9" ht="135">
       <c r="A1128" s="40" t="s">
-        <v>2441</v>
+        <v>2435</v>
       </c>
       <c r="B1128" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1128" s="42" t="s">
-        <v>2601</v>
+        <v>2579</v>
       </c>
       <c r="D1128" s="40" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
       <c r="E1128" s="40" t="s">
         <v>22</v>
@@ -44157,16 +43961,16 @@
     </row>
     <row r="1135" spans="1:9" ht="45">
       <c r="A1135" s="40" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
       <c r="B1135" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1135" s="42" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="D1135" s="40" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
       <c r="E1135" s="40" t="s">
         <v>22</v>
@@ -44184,16 +43988,16 @@
     </row>
     <row r="1136" spans="1:9" ht="45">
       <c r="A1136" s="40" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="B1136" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1136" s="42" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="D1136" s="40" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
       <c r="E1136" s="40" t="s">
         <v>22</v>
@@ -44213,16 +44017,16 @@
     </row>
     <row r="1137" spans="1:9" ht="45">
       <c r="A1137" s="40" t="s">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="B1137" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1137" s="42" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="D1137" s="40" t="s">
-        <v>2512</v>
+        <v>2504</v>
       </c>
       <c r="E1137" s="40" t="s">
         <v>22</v>
@@ -44240,16 +44044,16 @@
     </row>
     <row r="1138" spans="1:9" ht="45">
       <c r="A1138" s="40" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="B1138" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1138" s="42" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="D1138" s="40" t="s">
-        <v>2512</v>
+        <v>2504</v>
       </c>
       <c r="E1138" s="40" t="s">
         <v>22</v>
@@ -44269,16 +44073,16 @@
     </row>
     <row r="1139" spans="1:9" ht="45">
       <c r="A1139" s="40" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
       <c r="B1139" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1139" s="42" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="D1139" s="40" t="s">
-        <v>2513</v>
+        <v>2505</v>
       </c>
       <c r="E1139" s="40" t="s">
         <v>22</v>
@@ -44296,16 +44100,16 @@
     </row>
     <row r="1140" spans="1:9" ht="45">
       <c r="A1140" s="40" t="s">
-        <v>2447</v>
+        <v>2441</v>
       </c>
       <c r="B1140" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1140" s="42" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="D1140" s="40" t="s">
-        <v>2513</v>
+        <v>2505</v>
       </c>
       <c r="E1140" s="40" t="s">
         <v>22</v>
@@ -44325,16 +44129,16 @@
     </row>
     <row r="1141" spans="1:9" ht="45">
       <c r="A1141" s="40" t="s">
-        <v>2448</v>
+        <v>2442</v>
       </c>
       <c r="B1141" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1141" s="42" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="D1141" s="40" t="s">
-        <v>2514</v>
+        <v>2506</v>
       </c>
       <c r="E1141" s="40" t="s">
         <v>22</v>
@@ -44350,18 +44154,18 @@
       </c>
       <c r="I1141" s="42"/>
     </row>
-    <row r="1142" spans="1:9" ht="165">
+    <row r="1142" spans="1:9" ht="45">
       <c r="A1142" s="40" t="s">
-        <v>2449</v>
+        <v>2443</v>
       </c>
       <c r="B1142" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1142" s="42" t="s">
-        <v>2145</v>
+        <v>2740</v>
       </c>
       <c r="D1142" s="40" t="s">
-        <v>2514</v>
+        <v>2506</v>
       </c>
       <c r="E1142" s="40" t="s">
         <v>22</v>
@@ -44373,24 +44177,22 @@
         <v>15</v>
       </c>
       <c r="H1142" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1142" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1142" s="42"/>
     </row>
     <row r="1143" spans="1:9" ht="45">
       <c r="A1143" s="40" t="s">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="B1143" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1143" s="42" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="D1143" s="40" t="s">
-        <v>2515</v>
+        <v>2507</v>
       </c>
       <c r="E1143" s="40" t="s">
         <v>22</v>
@@ -44406,18 +44208,18 @@
       </c>
       <c r="I1143" s="42"/>
     </row>
-    <row r="1144" spans="1:9" ht="195">
+    <row r="1144" spans="1:9" ht="45">
       <c r="A1144" s="40" t="s">
-        <v>2451</v>
+        <v>2445</v>
       </c>
       <c r="B1144" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1144" s="42" t="s">
-        <v>2146</v>
+        <v>2741</v>
       </c>
       <c r="D1144" s="40" t="s">
-        <v>2515</v>
+        <v>2507</v>
       </c>
       <c r="E1144" s="40" t="s">
         <v>22</v>
@@ -44429,11 +44231,9 @@
         <v>15</v>
       </c>
       <c r="H1144" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1144" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1144" s="42"/>
     </row>
     <row r="1145" spans="1:9" ht="45">
       <c r="A1145" s="40" t="s">
@@ -44653,16 +44453,16 @@
     </row>
     <row r="1153" spans="1:9" ht="45">
       <c r="A1153" s="40" t="s">
-        <v>2452</v>
+        <v>2446</v>
       </c>
       <c r="B1153" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1153" s="42" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="D1153" s="40" t="s">
-        <v>2516</v>
+        <v>2508</v>
       </c>
       <c r="E1153" s="40" t="s">
         <v>22</v>
@@ -44678,18 +44478,18 @@
       </c>
       <c r="I1153" s="42"/>
     </row>
-    <row r="1154" spans="1:9" ht="135">
+    <row r="1154" spans="1:9" ht="45">
       <c r="A1154" s="40" t="s">
-        <v>2453</v>
+        <v>2447</v>
       </c>
       <c r="B1154" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1154" s="42" t="s">
-        <v>2600</v>
+        <v>2135</v>
       </c>
       <c r="D1154" s="40" t="s">
-        <v>2516</v>
+        <v>2508</v>
       </c>
       <c r="E1154" s="40" t="s">
         <v>22</v>
@@ -44701,24 +44501,22 @@
         <v>15</v>
       </c>
       <c r="H1154" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1154" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1154" s="42"/>
     </row>
     <row r="1155" spans="1:9" ht="45">
       <c r="A1155" s="40" t="s">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="B1155" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1155" s="42" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="D1155" s="40" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
       <c r="E1155" s="40" t="s">
         <v>22</v>
@@ -44734,18 +44532,18 @@
       </c>
       <c r="I1155" s="42"/>
     </row>
-    <row r="1156" spans="1:9" ht="135">
+    <row r="1156" spans="1:9" ht="45">
       <c r="A1156" s="40" t="s">
-        <v>2455</v>
+        <v>2449</v>
       </c>
       <c r="B1156" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1156" s="42" t="s">
-        <v>2599</v>
+        <v>2136</v>
       </c>
       <c r="D1156" s="40" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
       <c r="E1156" s="40" t="s">
         <v>22</v>
@@ -44757,24 +44555,22 @@
         <v>15</v>
       </c>
       <c r="H1156" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1156" s="42" t="s">
-        <v>1735</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I1156" s="42"/>
     </row>
     <row r="1157" spans="1:9" ht="45">
       <c r="A1157" s="40" t="s">
-        <v>2456</v>
+        <v>2450</v>
       </c>
       <c r="B1157" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1157" s="42" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="D1157" s="40" t="s">
-        <v>2597</v>
+        <v>2577</v>
       </c>
       <c r="E1157" s="40" t="s">
         <v>22</v>
@@ -44792,16 +44588,16 @@
     </row>
     <row r="1158" spans="1:9" ht="150">
       <c r="A1158" s="40" t="s">
-        <v>2457</v>
+        <v>2451</v>
       </c>
       <c r="B1158" s="40" t="s">
         <v>907</v>
       </c>
       <c r="C1158" s="42" t="s">
-        <v>2598</v>
+        <v>2578</v>
       </c>
       <c r="D1158" s="40" t="s">
-        <v>2597</v>
+        <v>2577</v>
       </c>
       <c r="E1158" s="40" t="s">
         <v>22</v>
@@ -45378,13 +45174,13 @@
     </row>
     <row r="1180" spans="1:9" ht="45">
       <c r="A1180" s="40" t="s">
-        <v>2741</v>
+        <v>2719</v>
       </c>
       <c r="B1180" s="41" t="s">
-        <v>2742</v>
+        <v>2720</v>
       </c>
       <c r="C1180" s="42" t="s">
-        <v>2743</v>
+        <v>2721</v>
       </c>
       <c r="D1180" s="47"/>
       <c r="E1180" s="47" t="s">
@@ -45400,7 +45196,7 @@
         <v>20</v>
       </c>
       <c r="I1180" s="42" t="s">
-        <v>2749</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="1181" spans="1:9" ht="225">
@@ -46084,16 +45880,16 @@
     </row>
     <row r="1208" spans="1:9" ht="45">
       <c r="A1208" s="40" t="s">
-        <v>2744</v>
+        <v>2722</v>
       </c>
       <c r="B1208" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1208" s="42" t="s">
-        <v>2745</v>
+        <v>2723</v>
       </c>
       <c r="D1208" s="40" t="s">
-        <v>2747</v>
+        <v>2725</v>
       </c>
       <c r="E1208" s="47" t="s">
         <v>22</v>
@@ -46111,16 +45907,16 @@
     </row>
     <row r="1209" spans="1:9" ht="45">
       <c r="A1209" s="40" t="s">
-        <v>2748</v>
+        <v>2726</v>
       </c>
       <c r="B1209" s="41" t="s">
         <v>907</v>
       </c>
       <c r="C1209" s="42" t="s">
-        <v>2746</v>
+        <v>2724</v>
       </c>
       <c r="D1209" s="40" t="s">
-        <v>2747</v>
+        <v>2725</v>
       </c>
       <c r="E1209" s="47" t="s">
         <v>22</v>
@@ -46202,20 +45998,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1038:I1038 A1131:I1131 A1133:I1133 A1145:I1145 A1147:I1147 A1149:I1149 A1151:I1151 A1159:I1161 H1162:H1163 E166:H166 E180:H180 E234:H234 E397:H397 E1022:I1022 E1024:I1036 E1073:I1073 E1075:I1083 E1085:I1085 E1087:I1099 E164:I165 E163:H163 E395:I396 E394:H394 E247:H248 E387:I393 E478:I505 E476:H477 E508:I514 E506:H507 E515:H515 E1176:I1211 E1175:H1175 E1165:I1174 E1021:H1021 E1023:H1023 E1072:H1072 E1074:H1074 E1084:H1084 E1086:H1086 E1100:H1100 C1164:I1164 C988:G988 C1037:E1037 C1039:E1039 C1130:E1130 C1132:E1132 C1134:E1134 C1146:E1146 C1148:E1148 C1150:E1150 E181:I233 E378:H380 E398:I473 A1124:H1124 A1129:I1129 E167:I179 C1152:E1152 A1120:A1123 A1125:A1128 A1135:A1144 A1153:A1158 B1011:D1015 A1007:B1009 A1018:D1036 A1010:C1010 D1006:D1017 E997:H997 A997:D1004 B1005:D1005 B1006 B1016:B1017 A1005:A1017 E235:I244 E1020:I1020 E1018:H1019 E246:I246 E245:H245 E371:I377 E370:H370 E475:I475 E474:H474 E1101:I1111 F1113:G1114 D1125:I1128 D1135:G1144 F1153:G1156 E516:I530 E249:I310 E1040:I1063 E998:I1017 A1113:B1119 C1112:E1115 C1116:G1123 H1112:H1123 D1153:E1158 E140:I162 E139:H139 A20:I91 A92 A93:I93 I92 H94:I94 A113:I116 A118:D310 E118:I138 A312:I315 I311 H316:I316 A317:I332 A334:D380 E334:I369 I333 A382:D530 E382:H386 H531:I531 H112:I112 H117:I117 A94 A95:I111 A112 A117 A311 A316 A333 A381 A531 A532:I987 A989:B996 D989:G996 F988:F996 H988:H996 C992:C994 E1071:I1071 E1064:H1068 A1040:D1068 A1069:I1070 I1066:I1068 A1165:D1211 A1071:D1111">
+  <conditionalFormatting sqref="A1038:I1038 A1131:I1131 A1133:I1133 A1145:I1145 A1147:I1147 A1149:I1149 A1151:I1151 A1159:I1161 H1162:H1163 E166:H166 E180:H180 E234:H234 E397:H397 E1022:I1022 E1024:I1036 E1073:I1073 E1075:I1083 E1085:I1085 E1087:I1099 E164:I165 E163:H163 E395:I396 E394:H394 E247:H248 E387:I393 E478:I505 E476:H477 E508:I514 E506:H507 E515:H515 E1176:I1211 E1175:H1175 E1165:I1174 E1021:H1021 E1023:H1023 E1072:H1072 E1074:H1074 E1084:H1084 E1086:H1086 E1100:H1100 C1164:I1164 C988:G988 C1037:E1037 C1039:E1039 C1130:E1130 C1132:E1132 C1134:E1134 C1146:E1146 C1148:E1148 C1150:E1150 E181:I233 E378:H380 E398:I473 A1124:H1124 A1129:I1129 E167:I179 C1152:E1152 A1120:A1123 A1125:A1128 A1135:A1144 A1153:A1158 B1011:D1015 A1007:B1009 A1018:D1036 A1010:C1010 D1006:D1017 E997:H997 A997:D1004 B1005:D1005 B1006 B1016:B1017 A1005:A1017 E235:I244 E1020:I1020 E1018:H1019 E246:I246 E245:H245 E371:I377 E370:H370 E475:I475 E474:H474 E1101:I1111 F1113:G1114 D1125:I1128 D1135:G1144 F1153:G1156 E516:I530 E249:I309 E1040:I1063 E998:I1017 A1113:B1119 C1112:E1115 C1116:G1123 H1112:H1123 D1153:E1158 E140:I162 E139:H139 A20:I91 A92 A93:I93 I92 H94:I94 A113:I116 A118:D310 E118:I138 A315:I315 H316:I316 A334:D380 I333 A382:D530 E382:H386 H531:I531 H112:I112 H117:I117 A94 A95:I111 A112 A117 A311 A316 A333 A381 A531 A989:B996 D989:G996 F988:F996 H988:H996 C992:C994 E1071:I1071 E1064:H1068 A1040:D1068 A1069:I1070 I1066:I1068 A1165:D1211 A1071:D1111 A317:I332 A312:G314 E310:G310 H310:I314 E334:I369 A532:I987">
     <cfRule type="expression" dxfId="758" priority="1161">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -46226,7 +46022,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1038:I1038 A1131:I1131 A1133:I1133 A1145:I1145 A1147:I1147 A1149:I1149 A1151:I1151 A1159:I1161 H1162:H1163 E166:H166 E180:H180 E234:H234 E397:H397 E1022:I1022 E1024:I1036 E1073:I1073 E1075:I1083 E1085:I1085 E1087:I1099 E164:I165 E163:H163 E395:I396 E394:H394 E247:H248 E387:I393 E478:I505 E476:H477 E508:I514 E506:H507 E515:H515 E1176:I1211 E1175:H1175 E1165:I1174 E1021:H1021 E1023:H1023 E1072:H1072 E1074:H1074 E1084:H1084 E1086:H1086 E1100:H1100 C1164:I1164 C988:G988 C1037:E1037 C1039:E1039 C1130:E1130 C1132:E1132 C1134:E1134 C1146:E1146 C1148:E1148 C1150:E1150 E181:I233 E378:H380 E398:I473 A1124:H1124 A1129:I1129 E167:I179 C1152:E1152 A1120:A1123 A1125:A1128 A1135:A1144 A1153:A1158 B1011:D1015 A1007:B1009 A1018:D1036 A1010:C1010 D1006:D1017 E997:H997 A997:D1004 B1005:D1005 B1006 B1016:B1017 A1005:A1017 E235:I244 E1020:I1020 E1018:H1019 E246:I246 E245:H245 E371:I377 E370:H370 E475:I475 E474:H474 E1101:I1111 F1113:G1114 D1125:I1128 D1135:G1144 F1153:G1156 E516:I530 E249:I310 E1040:I1063 E998:I1017 A1113:B1119 C1112:E1115 C1116:G1123 H1112:H1123 D1153:E1158 E140:I162 E139:H139 A20:I91 A92 A93:I93 I92 H94:I94 A113:I116 A118:D310 E118:I138 A312:I315 I311 H316:I316 A317:I332 A334:D380 E334:I369 I333 A382:D530 E382:H386 H531:I531 H112:I112 H117:I117 A94 A95:I111 A112 A117 A311 A316 A333 A381 A531 A532:I987 A989:B996 D989:G996 F988:F996 H988:H996 C992:C994 E1071:I1071 E1064:H1068 A1040:D1068 A1069:I1070 I1066:I1068 A1165:D1211 A1071:D1111">
+  <conditionalFormatting sqref="A1038:I1038 A1131:I1131 A1133:I1133 A1145:I1145 A1147:I1147 A1149:I1149 A1151:I1151 A1159:I1161 H1162:H1163 E166:H166 E180:H180 E234:H234 E397:H397 E1022:I1022 E1024:I1036 E1073:I1073 E1075:I1083 E1085:I1085 E1087:I1099 E164:I165 E163:H163 E395:I396 E394:H394 E247:H248 E387:I393 E478:I505 E476:H477 E508:I514 E506:H507 E515:H515 E1176:I1211 E1175:H1175 E1165:I1174 E1021:H1021 E1023:H1023 E1072:H1072 E1074:H1074 E1084:H1084 E1086:H1086 E1100:H1100 C1164:I1164 C988:G988 C1037:E1037 C1039:E1039 C1130:E1130 C1132:E1132 C1134:E1134 C1146:E1146 C1148:E1148 C1150:E1150 E181:I233 E378:H380 E398:I473 A1124:H1124 A1129:I1129 E167:I179 C1152:E1152 A1120:A1123 A1125:A1128 A1135:A1144 A1153:A1158 B1011:D1015 A1007:B1009 A1018:D1036 A1010:C1010 D1006:D1017 E997:H997 A997:D1004 B1005:D1005 B1006 B1016:B1017 A1005:A1017 E235:I244 E1020:I1020 E1018:H1019 E246:I246 E245:H245 E371:I377 E370:H370 E475:I475 E474:H474 E1101:I1111 F1113:G1114 D1125:I1128 D1135:G1144 F1153:G1156 E516:I530 E249:I309 E1040:I1063 E998:I1017 A1113:B1119 C1112:E1115 C1116:G1123 H1112:H1123 D1153:E1158 E140:I162 E139:H139 A20:I91 A92 A93:I93 I92 H94:I94 A113:I116 A118:D310 E118:I138 A315:I315 H316:I316 A334:D380 I333 A382:D530 E382:H386 H531:I531 H112:I112 H117:I117 A94 A95:I111 A112 A117 A311 A316 A333 A381 A531 A989:B996 D989:G996 F988:F996 H988:H996 C992:C994 E1071:I1071 E1064:H1068 A1040:D1068 A1069:I1070 I1066:I1068 A1165:D1211 A1071:D1111 A317:I332 A312:G314 E310:G310 H310:I314 E334:I369 A532:I987">
     <cfRule type="expression" dxfId="755" priority="1115">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -48790,7 +48586,7 @@
       <formula>NOT(ISERROR(SEARCH("Client",F117)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B311:H311">
+  <conditionalFormatting sqref="B311:G311">
     <cfRule type="expression" dxfId="61" priority="43">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -48801,7 +48597,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B311:H311">
+  <conditionalFormatting sqref="B311:G311">
     <cfRule type="expression" dxfId="58" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -48989,7 +48785,7 @@
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1165:H1211 H1159:H1163 H1038 H1131 H1133 H1145 H1147 H1149 H1151 H1124:H1129 H1006:H1036 H997 H20:H987 H1040:H1111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1165:H1211 H1159:H1163 H1038 H1131 H1133 H1145 H1147 H1149 H1151 H1124:H1129 H1006:H1036 H997 H1040:H1111 H20:H987">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1152:H1158 H1037 H1039 H1130 H1132 H998:H1005 H1146 H1148 H1150 H1164 H1134:H1144 H1112:H1123 H988:H996">
@@ -49002,7 +48798,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B11:B85 C3 B1094:B1180 B1181:B1213 B86:B1093" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B2 B11:B85 C3 B1094:B1180 B1181:B1213 B86:B1093 B4:B9" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -49012,6 +48808,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -49060,12 +48862,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -49076,6 +48872,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49090,20 +48900,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EWS&amp;EAS\MS-OXWSMTGS\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EWS&amp;EAS\MS-OXWSMTGS\MS-OXWSMTGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8EA084-B15C-4F8B-B8E7-DB2D6BDFB079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0470FD2F-E034-4C8D-987E-5A2F1650EE71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7717,9 +7717,6 @@
     <t>[In Messages] GetItemSoapIn: For each item being retrieved that is a recurring calendar item, the ItemIds element SHOULD contain a RecurringMasterItemId child element ([MS-OXWSCORE] section 2.2.4.39) or an OccurrenceItemId child element ([MS-OXWSCORE] section 2.2.4.35).</t>
   </si>
   <si>
-    <t>[In Messages] ErrorCalendarCannotUseIdForOccurrenceId: Specifies that the OccurrenceId ([MS-OXWSCORE] section 2.2.4.39) does not correspond to a valid occurrence of a recurring master item .</t>
-  </si>
-  <si>
     <t>MS-OXWSMTGS_R2011</t>
   </si>
   <si>
@@ -9850,6 +9847,10 @@
   </si>
   <si>
     <t>[In ReminderGroupType Simple Type]Task:The reminder is for a task item.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Messages] ErrorCalendarCannotUseIdForOccurrenceId: Specifies that the OccurrenceId ([MS-OXWSCORE] section 2.2.4.39) does not correspond to a valid occurrence of a recurring master item .</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10140,7 +10141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10321,9 +10322,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14278,16 +14276,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="25"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -14299,13 +14297,13 @@
       <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -14313,16 +14311,16 @@
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -14330,16 +14328,16 @@
       <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -14347,16 +14345,16 @@
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -14364,16 +14362,16 @@
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -14381,16 +14379,16 @@
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="87" t="s">
         <v>1649</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -14398,16 +14396,16 @@
       <c r="A11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="90" t="s">
         <v>1650</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -14491,16 +14489,16 @@
       <c r="A16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="86"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -14508,16 +14506,16 @@
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="87"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -14525,16 +14523,16 @@
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="84" t="s">
         <v>1651</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="87"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="86"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -16070,7 +16068,7 @@
         <v>17</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="45">
@@ -16147,7 +16145,7 @@
         <v>17</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="37" customFormat="1" ht="90">
@@ -16158,7 +16156,7 @@
         <v>851</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39" t="s">
@@ -16171,7 +16169,7 @@
         <v>15</v>
       </c>
       <c r="H83" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I83" s="41"/>
     </row>
@@ -16208,7 +16206,7 @@
         <v>851</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39" t="s">
@@ -16221,7 +16219,7 @@
         <v>15</v>
       </c>
       <c r="H85" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I85" s="41"/>
     </row>
@@ -16243,7 +16241,7 @@
         <v>3</v>
       </c>
       <c r="G86" s="55" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="H86" s="55" t="s">
         <v>18</v>
@@ -16700,7 +16698,7 @@
         <v>15</v>
       </c>
       <c r="H104" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I104" s="41"/>
     </row>
@@ -16728,7 +16726,7 @@
         <v>17</v>
       </c>
       <c r="I105" s="41" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -16864,7 +16862,7 @@
         <v>854</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39" t="s">
@@ -17359,7 +17357,7 @@
         <v>17</v>
       </c>
       <c r="I130" s="41" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30">
@@ -18793,7 +18791,7 @@
         <v>17</v>
       </c>
       <c r="I186" s="41" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -19501,7 +19499,7 @@
         <v>20</v>
       </c>
       <c r="I214" s="41" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="30">
@@ -19764,7 +19762,7 @@
     </row>
     <row r="225" spans="1:9" s="37" customFormat="1">
       <c r="A225" s="39" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B225" s="40" t="s">
         <v>854</v>
@@ -19797,7 +19795,7 @@
         <v>854</v>
       </c>
       <c r="C226" s="41" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D226" s="48"/>
       <c r="E226" s="48" t="s">
@@ -19813,7 +19811,7 @@
         <v>17</v>
       </c>
       <c r="I226" s="41" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -20124,7 +20122,7 @@
         <v>15</v>
       </c>
       <c r="H238" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I238" s="49"/>
     </row>
@@ -20174,7 +20172,7 @@
         <v>15</v>
       </c>
       <c r="H240" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I240" s="49"/>
     </row>
@@ -20213,7 +20211,7 @@
         <v>854</v>
       </c>
       <c r="C242" s="41" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="D242" s="48"/>
       <c r="E242" s="48" t="s">
@@ -20226,19 +20224,19 @@
         <v>15</v>
       </c>
       <c r="H242" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I242" s="49"/>
     </row>
     <row r="243" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A243" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B243" s="40" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="C243" s="41" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="D243" s="39"/>
       <c r="E243" s="48" t="s">
@@ -21140,7 +21138,7 @@
         <v>858</v>
       </c>
       <c r="C279" s="41" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D279" s="39"/>
       <c r="E279" s="39" t="s">
@@ -21153,7 +21151,7 @@
         <v>15</v>
       </c>
       <c r="H279" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I279" s="41"/>
     </row>
@@ -21165,7 +21163,7 @@
         <v>858</v>
       </c>
       <c r="C280" s="41" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D280" s="39"/>
       <c r="E280" s="39" t="s">
@@ -21178,7 +21176,7 @@
         <v>15</v>
       </c>
       <c r="H280" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I280" s="41"/>
     </row>
@@ -21190,7 +21188,7 @@
         <v>858</v>
       </c>
       <c r="C281" s="41" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="D281" s="39"/>
       <c r="E281" s="39" t="s">
@@ -21203,7 +21201,7 @@
         <v>15</v>
       </c>
       <c r="H281" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I281" s="41"/>
     </row>
@@ -21215,7 +21213,7 @@
         <v>858</v>
       </c>
       <c r="C282" s="41" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D282" s="39"/>
       <c r="E282" s="39" t="s">
@@ -21228,7 +21226,7 @@
         <v>15</v>
       </c>
       <c r="H282" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I282" s="41"/>
     </row>
@@ -21240,7 +21238,7 @@
         <v>858</v>
       </c>
       <c r="C283" s="41" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="D283" s="39"/>
       <c r="E283" s="39" t="s">
@@ -21253,7 +21251,7 @@
         <v>15</v>
       </c>
       <c r="H283" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I283" s="41"/>
     </row>
@@ -21265,7 +21263,7 @@
         <v>858</v>
       </c>
       <c r="C284" s="41" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D284" s="39"/>
       <c r="E284" s="39" t="s">
@@ -21278,7 +21276,7 @@
         <v>15</v>
       </c>
       <c r="H284" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I284" s="41"/>
     </row>
@@ -21290,7 +21288,7 @@
         <v>858</v>
       </c>
       <c r="C285" s="41" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="D285" s="39"/>
       <c r="E285" s="39" t="s">
@@ -21303,7 +21301,7 @@
         <v>15</v>
       </c>
       <c r="H285" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I285" s="41"/>
     </row>
@@ -21315,7 +21313,7 @@
         <v>858</v>
       </c>
       <c r="C286" s="41" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D286" s="39"/>
       <c r="E286" s="39" t="s">
@@ -21328,7 +21326,7 @@
         <v>15</v>
       </c>
       <c r="H286" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I286" s="41"/>
     </row>
@@ -21353,7 +21351,7 @@
         <v>15</v>
       </c>
       <c r="H287" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I287" s="41"/>
     </row>
@@ -21365,7 +21363,7 @@
         <v>858</v>
       </c>
       <c r="C288" s="41" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D288" s="39" t="s">
         <v>1886</v>
@@ -21380,7 +21378,7 @@
         <v>15</v>
       </c>
       <c r="H288" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I288" s="41"/>
     </row>
@@ -21392,7 +21390,7 @@
         <v>858</v>
       </c>
       <c r="C289" s="41" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="D289" s="39" t="s">
         <v>1886</v>
@@ -21407,7 +21405,7 @@
         <v>15</v>
       </c>
       <c r="H289" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I289" s="41"/>
     </row>
@@ -21419,7 +21417,7 @@
         <v>858</v>
       </c>
       <c r="C290" s="41" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D290" s="39"/>
       <c r="E290" s="39" t="s">
@@ -21432,7 +21430,7 @@
         <v>15</v>
       </c>
       <c r="H290" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I290" s="41"/>
     </row>
@@ -21444,7 +21442,7 @@
         <v>858</v>
       </c>
       <c r="C291" s="41" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="D291" s="39"/>
       <c r="E291" s="39" t="s">
@@ -21457,7 +21455,7 @@
         <v>15</v>
       </c>
       <c r="H291" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I291" s="41"/>
     </row>
@@ -21469,7 +21467,7 @@
         <v>858</v>
       </c>
       <c r="C292" s="41" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D292" s="48"/>
       <c r="E292" s="48" t="s">
@@ -21507,22 +21505,22 @@
         <v>15</v>
       </c>
       <c r="H293" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I293" s="49"/>
     </row>
     <row r="294" spans="1:9" s="37" customFormat="1">
       <c r="A294" s="39" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B294" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C294" s="41" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="D294" s="39" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="E294" s="48" t="s">
         <v>19</v>
@@ -21534,22 +21532,22 @@
         <v>15</v>
       </c>
       <c r="H294" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I294" s="41"/>
     </row>
     <row r="295" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A295" s="39" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B295" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C295" s="41" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="D295" s="39" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="E295" s="48" t="s">
         <v>19</v>
@@ -21561,7 +21559,7 @@
         <v>15</v>
       </c>
       <c r="H295" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I295" s="41"/>
     </row>
@@ -21573,7 +21571,7 @@
         <v>858</v>
       </c>
       <c r="C296" s="41" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="D296" s="39"/>
       <c r="E296" s="39" t="s">
@@ -21586,7 +21584,7 @@
         <v>15</v>
       </c>
       <c r="H296" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I296" s="41"/>
     </row>
@@ -21611,7 +21609,7 @@
         <v>15</v>
       </c>
       <c r="H297" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I297" s="41"/>
     </row>
@@ -22913,7 +22911,7 @@
         <v>17</v>
       </c>
       <c r="I348" s="41" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="30">
@@ -23586,13 +23584,13 @@
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="39" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B375" s="40" t="s">
         <v>862</v>
       </c>
       <c r="C375" s="41" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="D375" s="39"/>
       <c r="E375" s="39" t="s">
@@ -23605,7 +23603,7 @@
         <v>15</v>
       </c>
       <c r="H375" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I375" s="41"/>
     </row>
@@ -24518,7 +24516,7 @@
         <v>17</v>
       </c>
       <c r="I411" s="41" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -25103,7 +25101,7 @@
         <v>20</v>
       </c>
       <c r="I434" s="41" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="30">
@@ -29866,7 +29864,7 @@
         <v>873</v>
       </c>
       <c r="C623" s="41" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D623" s="39"/>
       <c r="E623" s="39" t="s">
@@ -29879,7 +29877,7 @@
         <v>15</v>
       </c>
       <c r="H623" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I623" s="41"/>
     </row>
@@ -29957,7 +29955,7 @@
         <v>17</v>
       </c>
       <c r="I626" s="41" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="627" spans="1:9" s="37" customFormat="1" ht="120">
@@ -29968,7 +29966,7 @@
         <v>874</v>
       </c>
       <c r="C627" s="41" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D627" s="39"/>
       <c r="E627" s="39" t="s">
@@ -29981,7 +29979,7 @@
         <v>15</v>
       </c>
       <c r="H627" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I627" s="41"/>
     </row>
@@ -30018,7 +30016,7 @@
         <v>874</v>
       </c>
       <c r="C629" s="41" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="D629" s="39"/>
       <c r="E629" s="39" t="s">
@@ -30031,7 +30029,7 @@
         <v>15</v>
       </c>
       <c r="H629" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I629" s="41"/>
     </row>
@@ -30043,7 +30041,7 @@
         <v>874</v>
       </c>
       <c r="C630" s="41" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D630" s="39"/>
       <c r="E630" s="39" t="s">
@@ -30056,7 +30054,7 @@
         <v>15</v>
       </c>
       <c r="H630" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I630" s="41"/>
     </row>
@@ -30068,7 +30066,7 @@
         <v>874</v>
       </c>
       <c r="C631" s="41" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D631" s="39"/>
       <c r="E631" s="39" t="s">
@@ -30081,7 +30079,7 @@
         <v>15</v>
       </c>
       <c r="H631" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I631" s="41"/>
     </row>
@@ -30093,7 +30091,7 @@
         <v>874</v>
       </c>
       <c r="C632" s="41" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="D632" s="39"/>
       <c r="E632" s="39" t="s">
@@ -30106,7 +30104,7 @@
         <v>15</v>
       </c>
       <c r="H632" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I632" s="41"/>
     </row>
@@ -30134,7 +30132,7 @@
         <v>17</v>
       </c>
       <c r="I633" s="41" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="634" spans="1:9" s="37" customFormat="1" ht="135">
@@ -30145,7 +30143,7 @@
         <v>875</v>
       </c>
       <c r="C634" s="41" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="D634" s="39"/>
       <c r="E634" s="39" t="s">
@@ -30158,7 +30156,7 @@
         <v>15</v>
       </c>
       <c r="H634" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I634" s="41"/>
     </row>
@@ -30220,7 +30218,7 @@
         <v>875</v>
       </c>
       <c r="C637" s="41" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="D637" s="39"/>
       <c r="E637" s="39" t="s">
@@ -30233,7 +30231,7 @@
         <v>15</v>
       </c>
       <c r="H637" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I637" s="41"/>
     </row>
@@ -30720,7 +30718,7 @@
         <v>877</v>
       </c>
       <c r="C657" s="41" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="D657" s="39"/>
       <c r="E657" s="39" t="s">
@@ -30736,7 +30734,7 @@
         <v>17</v>
       </c>
       <c r="I657" s="41" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="658" spans="1:9" ht="150">
@@ -30913,7 +30911,7 @@
         <v>17</v>
       </c>
       <c r="I664" s="41" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="665" spans="1:9" s="37" customFormat="1" ht="30" hidden="1">
@@ -30990,7 +30988,7 @@
         <v>17</v>
       </c>
       <c r="I667" s="41" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="668" spans="1:9" s="38" customFormat="1">
@@ -32207,7 +32205,7 @@
         <v>885</v>
       </c>
       <c r="C716" s="41" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="D716" s="39"/>
       <c r="E716" s="39" t="s">
@@ -32224,7 +32222,7 @@
       </c>
       <c r="I716" s="41"/>
       <c r="N716" s="37" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="717" spans="1:14" ht="30">
@@ -32914,7 +32912,7 @@
         <v>886</v>
       </c>
       <c r="C744" s="41" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="D744" s="39"/>
       <c r="E744" s="39" t="s">
@@ -32955,7 +32953,7 @@
         <v>17</v>
       </c>
       <c r="I745" s="41" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="746" spans="1:9" ht="30">
@@ -33433,7 +33431,7 @@
         <v>15</v>
       </c>
       <c r="H764" s="39" t="s">
-        <v>18</v>
+        <v>2574</v>
       </c>
       <c r="I764" s="41"/>
     </row>
@@ -33978,7 +33976,7 @@
         <v>890</v>
       </c>
       <c r="C786" s="41" t="s">
-        <v>2100</v>
+        <v>2681</v>
       </c>
       <c r="D786" s="39"/>
       <c r="E786" s="39" t="s">
@@ -33991,7 +33989,7 @@
         <v>15</v>
       </c>
       <c r="H786" s="39" t="s">
-        <v>18</v>
+        <v>2574</v>
       </c>
       <c r="I786" s="41"/>
     </row>
@@ -34016,7 +34014,7 @@
         <v>15</v>
       </c>
       <c r="H787" s="39" t="s">
-        <v>18</v>
+        <v>2575</v>
       </c>
       <c r="I787" s="41"/>
     </row>
@@ -34072,13 +34070,13 @@
     </row>
     <row r="790" spans="1:9" ht="30">
       <c r="A790" s="39" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B790" s="40" t="s">
         <v>891</v>
       </c>
       <c r="C790" s="41" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D790" s="48"/>
       <c r="E790" s="48" t="s">
@@ -34094,68 +34092,68 @@
         <v>17</v>
       </c>
       <c r="I790" s="41" t="s">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="791" spans="1:9" s="74" customFormat="1" ht="90">
-      <c r="A791" s="69" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9" s="37" customFormat="1" ht="90">
+      <c r="A791" s="39" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B791" s="40" t="s">
+        <v>891</v>
+      </c>
+      <c r="C791" s="41" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D791" s="48"/>
+      <c r="E791" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F791" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G791" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H791" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I791" s="49"/>
+    </row>
+    <row r="792" spans="1:9" s="37" customFormat="1" ht="195">
+      <c r="A792" s="39" t="s">
         <v>2102</v>
       </c>
-      <c r="B791" s="75" t="s">
+      <c r="B792" s="50" t="s">
         <v>891</v>
       </c>
-      <c r="C791" s="71" t="s">
-        <v>2630</v>
-      </c>
-      <c r="D791" s="72"/>
-      <c r="E791" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F791" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G791" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H791" s="72" t="s">
+      <c r="C792" s="41" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D792" s="48"/>
+      <c r="E792" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F792" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G792" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H792" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I791" s="73"/>
-    </row>
-    <row r="792" spans="1:9" s="74" customFormat="1" ht="195">
-      <c r="A792" s="69" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B792" s="70" t="s">
-        <v>891</v>
-      </c>
-      <c r="C792" s="71" t="s">
-        <v>2629</v>
-      </c>
-      <c r="D792" s="72"/>
-      <c r="E792" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F792" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G792" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H792" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I792" s="73"/>
+      <c r="I792" s="49"/>
     </row>
     <row r="793" spans="1:9" ht="30" hidden="1">
       <c r="A793" s="39" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B793" s="40" t="s">
         <v>892</v>
       </c>
       <c r="C793" s="41" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D793" s="48"/>
       <c r="E793" s="48" t="s">
@@ -34174,70 +34172,70 @@
     </row>
     <row r="794" spans="1:9" s="37" customFormat="1" hidden="1">
       <c r="A794" s="39" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B794" s="40" t="s">
         <v>892</v>
       </c>
       <c r="C794" s="41" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D794" s="48"/>
       <c r="E794" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F794" s="39" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G794" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H794" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I794" s="49"/>
     </row>
-    <row r="795" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A795" s="69" t="s">
-        <v>2106</v>
-      </c>
-      <c r="B795" s="75" t="s">
+    <row r="795" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A795" s="39" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B795" s="40" t="s">
         <v>892</v>
       </c>
-      <c r="C795" s="71" t="s">
-        <v>2633</v>
-      </c>
-      <c r="D795" s="69"/>
-      <c r="E795" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="F795" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="G795" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="H795" s="69" t="s">
-        <v>2581</v>
-      </c>
-      <c r="I795" s="71"/>
+      <c r="C795" s="41" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D795" s="39"/>
+      <c r="E795" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F795" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G795" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H795" s="39" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I795" s="41"/>
     </row>
     <row r="796" spans="1:9" ht="30" hidden="1">
       <c r="A796" s="39" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B796" s="40" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C796" s="41" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D796" s="48"/>
       <c r="E796" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F796" s="39" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G796" s="48" t="s">
         <v>15</v>
@@ -34249,45 +34247,45 @@
     </row>
     <row r="797" spans="1:9" ht="75" hidden="1">
       <c r="A797" s="39" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B797" s="50" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C797" s="41" t="s">
         <v>2137</v>
-      </c>
-      <c r="B797" s="50" t="s">
-        <v>2116</v>
-      </c>
-      <c r="C797" s="41" t="s">
-        <v>2138</v>
       </c>
       <c r="D797" s="48"/>
       <c r="E797" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F797" s="39" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G797" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H797" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I797" s="49"/>
     </row>
     <row r="798" spans="1:9" ht="30" hidden="1">
       <c r="A798" s="39" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B798" s="40" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C798" s="41" t="s">
         <v>2116</v>
-      </c>
-      <c r="C798" s="41" t="s">
-        <v>2117</v>
       </c>
       <c r="D798" s="48"/>
       <c r="E798" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F798" s="39" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G798" s="48" t="s">
         <v>15</v>
@@ -34299,13 +34297,13 @@
     </row>
     <row r="799" spans="1:9" ht="30" hidden="1">
       <c r="A799" s="39" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B799" s="40" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C799" s="41" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D799" s="48"/>
       <c r="E799" s="48" t="s">
@@ -34324,45 +34322,45 @@
     </row>
     <row r="800" spans="1:9" hidden="1">
       <c r="A800" s="39" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B800" s="40" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C800" s="41" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D800" s="48"/>
       <c r="E800" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F800" s="39" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G800" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H800" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I800" s="49"/>
     </row>
     <row r="801" spans="1:9" ht="30" hidden="1">
       <c r="A801" s="39" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B801" s="40" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C801" s="41" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D801" s="48"/>
       <c r="E801" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F801" s="39" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G801" s="48" t="s">
         <v>15</v>
@@ -34374,45 +34372,45 @@
     </row>
     <row r="802" spans="1:9" ht="30" hidden="1">
       <c r="A802" s="39" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B802" s="40" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C802" s="41" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D802" s="48"/>
       <c r="E802" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F802" s="39" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G802" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H802" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I802" s="49"/>
     </row>
     <row r="803" spans="1:9" ht="30" hidden="1">
       <c r="A803" s="39" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B803" s="40" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C803" s="41" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D803" s="48"/>
       <c r="E803" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F803" s="39" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G803" s="48" t="s">
         <v>15</v>
@@ -34424,13 +34422,13 @@
     </row>
     <row r="804" spans="1:9" ht="30" hidden="1">
       <c r="A804" s="39" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B804" s="40" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C804" s="41" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D804" s="48"/>
       <c r="E804" s="48" t="s">
@@ -34440,47 +34438,47 @@
         <v>3</v>
       </c>
       <c r="G804" s="39" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="H804" s="48" t="s">
         <v>18</v>
       </c>
       <c r="I804" s="49"/>
     </row>
-    <row r="805" spans="1:9" s="74" customFormat="1" ht="75">
-      <c r="A805" s="69" t="s">
-        <v>2124</v>
-      </c>
-      <c r="B805" s="70" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C805" s="71" t="s">
-        <v>2634</v>
-      </c>
-      <c r="D805" s="72"/>
-      <c r="E805" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F805" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G805" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H805" s="72" t="s">
+    <row r="805" spans="1:9" s="37" customFormat="1" ht="75">
+      <c r="A805" s="39" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B805" s="50" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C805" s="41" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D805" s="48"/>
+      <c r="E805" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F805" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G805" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H805" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I805" s="73"/>
+      <c r="I805" s="49"/>
     </row>
     <row r="806" spans="1:9" ht="30" hidden="1">
       <c r="A806" s="39" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B806" s="50" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C806" s="41" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D806" s="48"/>
       <c r="E806" s="48" t="s">
@@ -34490,7 +34488,7 @@
         <v>3</v>
       </c>
       <c r="G806" s="39" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="H806" s="48" t="s">
         <v>18</v>
@@ -34499,13 +34497,13 @@
     </row>
     <row r="807" spans="1:9" ht="30" hidden="1">
       <c r="A807" s="39" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B807" s="50" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C807" s="41" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D807" s="48"/>
       <c r="E807" s="48" t="s">
@@ -34522,215 +34520,215 @@
       </c>
       <c r="I807" s="49"/>
     </row>
-    <row r="808" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A808" s="69" t="s">
+    <row r="808" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A808" s="39" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B808" s="50" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C808" s="41" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D808" s="48"/>
+      <c r="E808" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F808" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G808" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H808" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I808" s="49"/>
+    </row>
+    <row r="809" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A809" s="39" t="s">
         <v>2127</v>
       </c>
-      <c r="B808" s="70" t="s">
+      <c r="B809" s="50" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C809" s="41" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D809" s="48"/>
+      <c r="E809" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F809" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G809" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H809" s="39" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I809" s="49"/>
+    </row>
+    <row r="810" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A810" s="39" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B810" s="50" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C810" s="41" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D810" s="48"/>
+      <c r="E810" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F810" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G810" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H810" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I810" s="49"/>
+    </row>
+    <row r="811" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A811" s="39" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B811" s="50" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C811" s="41" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D811" s="48"/>
+      <c r="E811" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F811" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G811" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H811" s="39" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I811" s="49"/>
+    </row>
+    <row r="812" spans="1:9" s="37" customFormat="1" ht="45">
+      <c r="A812" s="39" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B812" s="50" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C812" s="41" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D812" s="48"/>
+      <c r="E812" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F812" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G812" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H812" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I812" s="49"/>
+    </row>
+    <row r="813" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A813" s="39" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B813" s="50" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C813" s="41" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D813" s="48"/>
+      <c r="E813" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F813" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G813" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H813" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I813" s="49"/>
+    </row>
+    <row r="814" spans="1:9" s="37" customFormat="1" ht="45">
+      <c r="A814" s="39" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B814" s="50" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C814" s="41" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D814" s="48"/>
+      <c r="E814" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F814" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G814" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H814" s="39" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I814" s="49"/>
+    </row>
+    <row r="815" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A815" s="39" t="s">
         <v>2134</v>
       </c>
-      <c r="C808" s="71" t="s">
-        <v>2637</v>
-      </c>
-      <c r="D808" s="72"/>
-      <c r="E808" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F808" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G808" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H808" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I808" s="73"/>
-    </row>
-    <row r="809" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A809" s="69" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B809" s="70" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C809" s="71" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D809" s="72"/>
-      <c r="E809" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F809" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G809" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H809" s="69" t="s">
-        <v>2581</v>
-      </c>
-      <c r="I809" s="73"/>
-    </row>
-    <row r="810" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A810" s="69" t="s">
-        <v>2129</v>
-      </c>
-      <c r="B810" s="70" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C810" s="71" t="s">
-        <v>2639</v>
-      </c>
-      <c r="D810" s="72"/>
-      <c r="E810" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F810" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G810" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H810" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I810" s="73"/>
-    </row>
-    <row r="811" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A811" s="69" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B811" s="70" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C811" s="71" t="s">
-        <v>2640</v>
-      </c>
-      <c r="D811" s="72"/>
-      <c r="E811" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F811" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G811" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H811" s="69" t="s">
-        <v>2581</v>
-      </c>
-      <c r="I811" s="73"/>
-    </row>
-    <row r="812" spans="1:9" s="74" customFormat="1" ht="45">
-      <c r="A812" s="69" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B812" s="70" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C812" s="71" t="s">
-        <v>2663</v>
-      </c>
-      <c r="D812" s="72"/>
-      <c r="E812" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F812" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G812" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H812" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I812" s="73"/>
-    </row>
-    <row r="813" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A813" s="69" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B813" s="70" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C813" s="71" t="s">
-        <v>2664</v>
-      </c>
-      <c r="D813" s="72"/>
-      <c r="E813" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F813" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G813" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H813" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I813" s="73"/>
-    </row>
-    <row r="814" spans="1:9" s="64" customFormat="1" ht="45">
-      <c r="A814" s="59" t="s">
+      <c r="B815" s="50" t="s">
         <v>2133</v>
       </c>
-      <c r="B814" s="65" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C814" s="61" t="s">
+      <c r="C815" s="41" t="s">
         <v>2142</v>
       </c>
-      <c r="D814" s="62"/>
-      <c r="E814" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F814" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G814" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H814" s="59" t="s">
-        <v>2576</v>
-      </c>
-      <c r="I814" s="63"/>
-    </row>
-    <row r="815" spans="1:9" s="64" customFormat="1" ht="30">
-      <c r="A815" s="59" t="s">
-        <v>2135</v>
-      </c>
-      <c r="B815" s="65" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C815" s="61" t="s">
-        <v>2143</v>
-      </c>
-      <c r="D815" s="62"/>
-      <c r="E815" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F815" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G815" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H815" s="59" t="s">
-        <v>2576</v>
-      </c>
-      <c r="I815" s="63"/>
+      <c r="D815" s="48"/>
+      <c r="E815" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F815" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G815" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H815" s="39" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I815" s="49"/>
     </row>
     <row r="816" spans="1:9" ht="30" hidden="1">
       <c r="A816" s="39" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B816" s="40" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C816" s="41" t="s">
         <v>2158</v>
-      </c>
-      <c r="C816" s="41" t="s">
-        <v>2159</v>
       </c>
       <c r="D816" s="48"/>
       <c r="E816" s="48" t="s">
@@ -34749,38 +34747,38 @@
     </row>
     <row r="817" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A817" s="51" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B817" s="68" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C817" s="53" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D817" s="66"/>
       <c r="E817" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F817" s="51" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G817" s="66" t="s">
         <v>15</v>
       </c>
       <c r="H817" s="51" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I817" s="67"/>
     </row>
     <row r="818" spans="1:9" s="74" customFormat="1" hidden="1">
       <c r="A818" s="69" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B818" s="70" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C818" s="71" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="D818" s="72"/>
       <c r="E818" s="72" t="s">
@@ -34790,7 +34788,7 @@
         <v>3</v>
       </c>
       <c r="G818" s="69" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="H818" s="72" t="s">
         <v>18</v>
@@ -34799,20 +34797,20 @@
     </row>
     <row r="819" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A819" s="51" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B819" s="52" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C819" s="53" t="s">
         <v>2160</v>
-      </c>
-      <c r="C819" s="53" t="s">
-        <v>2161</v>
       </c>
       <c r="D819" s="66"/>
       <c r="E819" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F819" s="51" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G819" s="66" t="s">
         <v>15</v>
@@ -34824,38 +34822,38 @@
     </row>
     <row r="820" spans="1:9" s="54" customFormat="1" ht="30" hidden="1">
       <c r="A820" s="51" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B820" s="52" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="C820" s="53" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D820" s="66"/>
       <c r="E820" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F820" s="51" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G820" s="66" t="s">
         <v>15</v>
       </c>
       <c r="H820" s="51" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I820" s="67"/>
     </row>
     <row r="821" spans="1:9" s="74" customFormat="1" ht="30" hidden="1">
       <c r="A821" s="69" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B821" s="75" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C821" s="71" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="D821" s="72"/>
       <c r="E821" s="72" t="s">
@@ -34865,47 +34863,47 @@
         <v>3</v>
       </c>
       <c r="G821" s="69" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="H821" s="69" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I821" s="73"/>
     </row>
-    <row r="822" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A822" s="69" t="s">
-        <v>2150</v>
-      </c>
-      <c r="B822" s="75" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C822" s="71" t="s">
-        <v>2642</v>
-      </c>
-      <c r="D822" s="72"/>
-      <c r="E822" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F822" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G822" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H822" s="72" t="s">
+    <row r="822" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A822" s="39" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B822" s="40" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C822" s="41" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D822" s="48"/>
+      <c r="E822" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F822" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G822" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H822" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I822" s="73"/>
+      <c r="I822" s="49"/>
     </row>
     <row r="823" spans="1:9" ht="45" hidden="1">
       <c r="A823" s="39" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B823" s="40" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C823" s="41" t="s">
         <v>2164</v>
-      </c>
-      <c r="C823" s="41" t="s">
-        <v>2165</v>
       </c>
       <c r="D823" s="48"/>
       <c r="E823" s="48" t="s">
@@ -34922,40 +34920,40 @@
       </c>
       <c r="I823" s="49"/>
     </row>
-    <row r="824" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A824" s="69" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B824" s="75" t="s">
-        <v>2164</v>
-      </c>
-      <c r="C824" s="71" t="s">
-        <v>2644</v>
-      </c>
-      <c r="D824" s="72"/>
-      <c r="E824" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F824" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G824" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H824" s="69" t="s">
-        <v>2581</v>
-      </c>
-      <c r="I824" s="73"/>
+    <row r="824" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A824" s="39" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B824" s="40" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C824" s="41" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D824" s="48"/>
+      <c r="E824" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F824" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G824" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H824" s="39" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I824" s="49"/>
     </row>
     <row r="825" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A825" s="59" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B825" s="60" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C825" s="61" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D825" s="62"/>
       <c r="E825" s="62" t="s">
@@ -34965,7 +34963,7 @@
         <v>3</v>
       </c>
       <c r="G825" s="59" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="H825" s="62" t="s">
         <v>18</v>
@@ -34974,20 +34972,20 @@
     </row>
     <row r="826" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A826" s="59" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B826" s="60" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C826" s="61" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D826" s="62"/>
       <c r="E826" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F826" s="59" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G826" s="62" t="s">
         <v>15</v>
@@ -34999,20 +34997,20 @@
     </row>
     <row r="827" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A827" s="59" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B827" s="60" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C827" s="61" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D827" s="62"/>
       <c r="E827" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F827" s="59" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G827" s="62" t="s">
         <v>15</v>
@@ -35022,90 +35020,90 @@
       </c>
       <c r="I827" s="63"/>
     </row>
-    <row r="828" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A828" s="69" t="s">
+    <row r="828" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A828" s="39" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B828" s="40" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C828" s="41" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D828" s="48"/>
+      <c r="E828" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F828" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G828" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H828" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I828" s="49"/>
+    </row>
+    <row r="829" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A829" s="39" t="s">
         <v>2156</v>
       </c>
-      <c r="B828" s="75" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C828" s="71" t="s">
-        <v>2646</v>
-      </c>
-      <c r="D828" s="72"/>
-      <c r="E828" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F828" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G828" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H828" s="72" t="s">
+      <c r="B829" s="40" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C829" s="41" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D829" s="48"/>
+      <c r="E829" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F829" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G829" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H829" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I828" s="73"/>
-    </row>
-    <row r="829" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A829" s="69" t="s">
-        <v>2157</v>
-      </c>
-      <c r="B829" s="75" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C829" s="71" t="s">
-        <v>2645</v>
-      </c>
-      <c r="D829" s="72"/>
-      <c r="E829" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F829" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G829" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H829" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="I829" s="73"/>
-    </row>
-    <row r="830" spans="1:9" s="74" customFormat="1" ht="165">
-      <c r="A830" s="69" t="s">
-        <v>2169</v>
-      </c>
-      <c r="B830" s="70" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C830" s="71" t="s">
-        <v>2636</v>
-      </c>
-      <c r="D830" s="72"/>
-      <c r="E830" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F830" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G830" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H830" s="72" t="s">
+      <c r="I829" s="49"/>
+    </row>
+    <row r="830" spans="1:9" s="37" customFormat="1" ht="165">
+      <c r="A830" s="39" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B830" s="50" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C830" s="41" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D830" s="48"/>
+      <c r="E830" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F830" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G830" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H830" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I830" s="73"/>
+      <c r="I830" s="49"/>
     </row>
     <row r="831" spans="1:9" ht="30" hidden="1">
       <c r="A831" s="39" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B831" s="40" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C831" s="41" t="s">
         <v>2193</v>
-      </c>
-      <c r="C831" s="41" t="s">
-        <v>2194</v>
       </c>
       <c r="D831" s="48"/>
       <c r="E831" s="48" t="s">
@@ -35122,72 +35120,72 @@
       </c>
       <c r="I831" s="49"/>
     </row>
-    <row r="832" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A832" s="69" t="s">
+    <row r="832" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A832" s="39" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B832" s="50" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C832" s="41" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D832" s="48"/>
+      <c r="E832" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F832" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G832" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H832" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I832" s="49"/>
+    </row>
+    <row r="833" spans="1:9" s="37" customFormat="1">
+      <c r="A833" s="39" t="s">
         <v>2171</v>
       </c>
-      <c r="B832" s="70" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C832" s="71" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D832" s="72"/>
-      <c r="E832" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F832" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G832" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H832" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I832" s="73"/>
-    </row>
-    <row r="833" spans="1:9" s="64" customFormat="1">
-      <c r="A833" s="59" t="s">
-        <v>2172</v>
-      </c>
-      <c r="B833" s="65" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C833" s="61" t="s">
-        <v>2679</v>
-      </c>
-      <c r="D833" s="62"/>
-      <c r="E833" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F833" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G833" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H833" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I833" s="63"/>
+      <c r="B833" s="50" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C833" s="41" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D833" s="48"/>
+      <c r="E833" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F833" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G833" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H833" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I833" s="49"/>
     </row>
     <row r="834" spans="1:9" s="54" customFormat="1" ht="30" hidden="1">
       <c r="A834" s="51" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B834" s="52" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C834" s="53" t="s">
         <v>2195</v>
-      </c>
-      <c r="C834" s="53" t="s">
-        <v>2196</v>
       </c>
       <c r="D834" s="66"/>
       <c r="E834" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F834" s="51" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G834" s="66" t="s">
         <v>15</v>
@@ -35199,20 +35197,20 @@
     </row>
     <row r="835" spans="1:9" s="54" customFormat="1" ht="30" hidden="1">
       <c r="A835" s="51" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B835" s="68" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C835" s="53" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D835" s="66"/>
       <c r="E835" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F835" s="51" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G835" s="66" t="s">
         <v>15</v>
@@ -35224,38 +35222,38 @@
     </row>
     <row r="836" spans="1:9" s="54" customFormat="1" ht="409.5" hidden="1">
       <c r="A836" s="51" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B836" s="68" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C836" s="53" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D836" s="66"/>
       <c r="E836" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F836" s="51" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G836" s="66" t="s">
         <v>15</v>
       </c>
       <c r="H836" s="51" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I836" s="67"/>
     </row>
     <row r="837" spans="1:9" ht="30" hidden="1">
       <c r="A837" s="39" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B837" s="50" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C837" s="41" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D837" s="48"/>
       <c r="E837" s="48" t="s">
@@ -35274,20 +35272,20 @@
     </row>
     <row r="838" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A838" s="51" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B838" s="52" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C838" s="53" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D838" s="66"/>
       <c r="E838" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F838" s="51" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G838" s="66" t="s">
         <v>15</v>
@@ -35299,20 +35297,20 @@
     </row>
     <row r="839" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A839" s="51" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B839" s="68" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C839" s="53" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D839" s="66"/>
       <c r="E839" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F839" s="51" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G839" s="66" t="s">
         <v>15</v>
@@ -35324,20 +35322,20 @@
     </row>
     <row r="840" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A840" s="51" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B840" s="52" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C840" s="53" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D840" s="66"/>
       <c r="E840" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F840" s="51" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G840" s="66" t="s">
         <v>15</v>
@@ -35349,20 +35347,20 @@
     </row>
     <row r="841" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A841" s="51" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B841" s="68" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C841" s="53" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D841" s="66"/>
       <c r="E841" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F841" s="51" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G841" s="66" t="s">
         <v>15</v>
@@ -35374,20 +35372,20 @@
     </row>
     <row r="842" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A842" s="51" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B842" s="68" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C842" s="53" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D842" s="66"/>
       <c r="E842" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F842" s="51" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G842" s="66" t="s">
         <v>15</v>
@@ -35399,20 +35397,20 @@
     </row>
     <row r="843" spans="1:9" s="64" customFormat="1" ht="30" hidden="1">
       <c r="A843" s="59" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B843" s="65" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C843" s="61" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D843" s="62"/>
       <c r="E843" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F843" s="59" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G843" s="62" t="s">
         <v>15</v>
@@ -35424,20 +35422,20 @@
     </row>
     <row r="844" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A844" s="59" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B844" s="65" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C844" s="61" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D844" s="62"/>
       <c r="E844" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F844" s="59" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G844" s="62" t="s">
         <v>15</v>
@@ -35449,20 +35447,20 @@
     </row>
     <row r="845" spans="1:9" s="64" customFormat="1" ht="75" hidden="1">
       <c r="A845" s="59" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B845" s="60" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C845" s="61" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D845" s="62"/>
       <c r="E845" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F845" s="59" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G845" s="62" t="s">
         <v>15</v>
@@ -35472,65 +35470,65 @@
       </c>
       <c r="I845" s="63"/>
     </row>
-    <row r="846" spans="1:9" s="74" customFormat="1" ht="30">
-      <c r="A846" s="69" t="s">
+    <row r="846" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A846" s="39" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B846" s="40" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C846" s="41" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D846" s="48"/>
+      <c r="E846" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F846" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G846" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H846" s="39" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I846" s="49"/>
+    </row>
+    <row r="847" spans="1:9" s="37" customFormat="1" ht="90">
+      <c r="A847" s="39" t="s">
         <v>2185</v>
       </c>
-      <c r="B846" s="75" t="s">
-        <v>2208</v>
-      </c>
-      <c r="C846" s="71" t="s">
-        <v>2649</v>
-      </c>
-      <c r="D846" s="72"/>
-      <c r="E846" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F846" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G846" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H846" s="69" t="s">
-        <v>2581</v>
-      </c>
-      <c r="I846" s="73"/>
-    </row>
-    <row r="847" spans="1:9" s="74" customFormat="1" ht="90">
-      <c r="A847" s="69" t="s">
-        <v>2186</v>
-      </c>
-      <c r="B847" s="70" t="s">
-        <v>2208</v>
-      </c>
-      <c r="C847" s="71" t="s">
-        <v>2648</v>
-      </c>
-      <c r="D847" s="72"/>
-      <c r="E847" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F847" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G847" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H847" s="72" t="s">
+      <c r="B847" s="50" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C847" s="41" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D847" s="48"/>
+      <c r="E847" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F847" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G847" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H847" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I847" s="73"/>
+      <c r="I847" s="49"/>
     </row>
     <row r="848" spans="1:9" ht="30" hidden="1">
       <c r="A848" s="39" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B848" s="50" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C848" s="41" t="s">
         <v>2208</v>
-      </c>
-      <c r="C848" s="41" t="s">
-        <v>2209</v>
       </c>
       <c r="D848" s="48"/>
       <c r="E848" s="48" t="s">
@@ -35547,65 +35545,65 @@
       </c>
       <c r="I848" s="49"/>
     </row>
-    <row r="849" spans="1:9" s="74" customFormat="1">
-      <c r="A849" s="69" t="s">
-        <v>2187</v>
-      </c>
-      <c r="B849" s="70" t="s">
-        <v>2208</v>
-      </c>
-      <c r="C849" s="71" t="s">
-        <v>2650</v>
-      </c>
-      <c r="D849" s="72"/>
-      <c r="E849" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F849" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G849" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H849" s="72" t="s">
+    <row r="849" spans="1:9" s="37" customFormat="1">
+      <c r="A849" s="39" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B849" s="50" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C849" s="41" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D849" s="48"/>
+      <c r="E849" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F849" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G849" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H849" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I849" s="73"/>
-    </row>
-    <row r="850" spans="1:9" s="64" customFormat="1">
-      <c r="A850" s="59" t="s">
-        <v>2189</v>
-      </c>
-      <c r="B850" s="65" t="s">
-        <v>2208</v>
-      </c>
-      <c r="C850" s="61" t="s">
-        <v>2680</v>
-      </c>
-      <c r="D850" s="62"/>
-      <c r="E850" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F850" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G850" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H850" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I850" s="63"/>
+      <c r="I849" s="49"/>
+    </row>
+    <row r="850" spans="1:9" s="37" customFormat="1">
+      <c r="A850" s="39" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B850" s="50" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C850" s="41" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D850" s="48"/>
+      <c r="E850" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F850" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G850" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H850" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I850" s="49"/>
     </row>
     <row r="851" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A851" s="59" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B851" s="60" t="s">
         <v>2058</v>
       </c>
       <c r="C851" s="61" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D851" s="62"/>
       <c r="E851" s="62" t="s">
@@ -35615,47 +35613,47 @@
         <v>3</v>
       </c>
       <c r="G851" s="59" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="H851" s="62" t="s">
         <v>18</v>
       </c>
       <c r="I851" s="63"/>
     </row>
-    <row r="852" spans="1:9" s="74" customFormat="1" ht="210">
-      <c r="A852" s="69" t="s">
-        <v>2191</v>
-      </c>
-      <c r="B852" s="75" t="s">
+    <row r="852" spans="1:9" s="37" customFormat="1" ht="210">
+      <c r="A852" s="39" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B852" s="40" t="s">
         <v>2058</v>
       </c>
-      <c r="C852" s="71" t="s">
-        <v>2651</v>
-      </c>
-      <c r="D852" s="72"/>
-      <c r="E852" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F852" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G852" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H852" s="72" t="s">
+      <c r="C852" s="41" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D852" s="48"/>
+      <c r="E852" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F852" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G852" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H852" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I852" s="73"/>
+      <c r="I852" s="49"/>
     </row>
     <row r="853" spans="1:9" ht="45" hidden="1">
       <c r="A853" s="39" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B853" s="40" t="s">
         <v>2058</v>
       </c>
       <c r="C853" s="41" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D853" s="48"/>
       <c r="E853" s="48" t="s">
@@ -35672,519 +35670,519 @@
       </c>
       <c r="I853" s="49"/>
     </row>
-    <row r="854" spans="1:9" s="74" customFormat="1">
-      <c r="A854" s="69" t="s">
+    <row r="854" spans="1:9" s="37" customFormat="1">
+      <c r="A854" s="39" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B854" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C854" s="41" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D854" s="48"/>
+      <c r="E854" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F854" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G854" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H854" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I854" s="49"/>
+    </row>
+    <row r="855" spans="1:9" s="37" customFormat="1">
+      <c r="A855" s="39" t="s">
         <v>2210</v>
       </c>
-      <c r="B854" s="70" t="s">
+      <c r="B855" s="50" t="s">
         <v>2058</v>
       </c>
-      <c r="C854" s="71" t="s">
+      <c r="C855" s="41" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D855" s="48"/>
+      <c r="E855" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F855" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G855" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H855" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I855" s="49"/>
+    </row>
+    <row r="856" spans="1:9" s="37" customFormat="1">
+      <c r="A856" s="39" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B856" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C856" s="41" t="s">
         <v>2652</v>
       </c>
-      <c r="D854" s="72"/>
-      <c r="E854" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F854" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G854" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H854" s="72" t="s">
+      <c r="D856" s="48"/>
+      <c r="E856" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F856" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G856" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H856" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I854" s="73"/>
-    </row>
-    <row r="855" spans="1:9" s="64" customFormat="1">
-      <c r="A855" s="59" t="s">
-        <v>2211</v>
-      </c>
-      <c r="B855" s="65" t="s">
+      <c r="I856" s="49"/>
+    </row>
+    <row r="857" spans="1:9" s="37" customFormat="1">
+      <c r="A857" s="39" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B857" s="50" t="s">
         <v>2058</v>
       </c>
-      <c r="C855" s="61" t="s">
+      <c r="C857" s="41" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D857" s="48"/>
+      <c r="E857" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F857" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G857" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H857" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I857" s="49"/>
+    </row>
+    <row r="858" spans="1:9" s="37" customFormat="1">
+      <c r="A858" s="39" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B858" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C858" s="41" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D858" s="48"/>
+      <c r="E858" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F858" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G858" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H858" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I858" s="49"/>
+    </row>
+    <row r="859" spans="1:9" s="37" customFormat="1">
+      <c r="A859" s="39" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B859" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C859" s="41" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D859" s="48"/>
+      <c r="E859" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F859" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G859" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H859" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I859" s="49"/>
+    </row>
+    <row r="860" spans="1:9" s="37" customFormat="1">
+      <c r="A860" s="39" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B860" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C860" s="41" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D860" s="48"/>
+      <c r="E860" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F860" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G860" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H860" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I860" s="49"/>
+    </row>
+    <row r="861" spans="1:9" s="37" customFormat="1">
+      <c r="A861" s="39" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B861" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C861" s="41" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D861" s="48"/>
+      <c r="E861" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F861" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G861" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H861" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I861" s="49"/>
+    </row>
+    <row r="862" spans="1:9" s="37" customFormat="1">
+      <c r="A862" s="39" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B862" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C862" s="41" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D862" s="48"/>
+      <c r="E862" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F862" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G862" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H862" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I862" s="49"/>
+    </row>
+    <row r="863" spans="1:9" s="37" customFormat="1">
+      <c r="A863" s="39" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B863" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C863" s="41" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D863" s="48"/>
+      <c r="E863" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F863" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G863" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H863" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I863" s="49"/>
+    </row>
+    <row r="864" spans="1:9" s="37" customFormat="1">
+      <c r="A864" s="39" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B864" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C864" s="41" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D864" s="48"/>
+      <c r="E864" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F864" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G864" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H864" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I864" s="49"/>
+    </row>
+    <row r="865" spans="1:9" s="37" customFormat="1">
+      <c r="A865" s="39" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B865" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C865" s="41" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D865" s="48"/>
+      <c r="E865" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F865" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G865" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H865" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I865" s="49"/>
+    </row>
+    <row r="866" spans="1:9" s="37" customFormat="1">
+      <c r="A866" s="39" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B866" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C866" s="41" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D866" s="48"/>
+      <c r="E866" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F866" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G866" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H866" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I866" s="49"/>
+    </row>
+    <row r="867" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A867" s="39" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B867" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C867" s="41" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D867" s="48"/>
+      <c r="E867" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F867" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G867" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H867" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I867" s="49"/>
+    </row>
+    <row r="868" spans="1:9" s="37" customFormat="1">
+      <c r="A868" s="39" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B868" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C868" s="41" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D868" s="48"/>
+      <c r="E868" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F868" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G868" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H868" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I868" s="49"/>
+    </row>
+    <row r="869" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A869" s="39" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B869" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C869" s="41" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D869" s="48"/>
+      <c r="E869" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F869" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G869" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H869" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I869" s="41"/>
+    </row>
+    <row r="870" spans="1:9" s="37" customFormat="1">
+      <c r="A870" s="39" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B870" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C870" s="41" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D870" s="39" t="s">
+        <v>2677</v>
+      </c>
+      <c r="E870" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F870" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G870" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H870" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I870" s="41"/>
+    </row>
+    <row r="871" spans="1:9" s="37" customFormat="1">
+      <c r="A871" s="39" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B871" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C871" s="41" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D871" s="39" t="s">
+        <v>2677</v>
+      </c>
+      <c r="E871" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F871" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G871" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H871" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I871" s="49"/>
+    </row>
+    <row r="872" spans="1:9" s="37" customFormat="1">
+      <c r="A872" s="39" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B872" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C872" s="41" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D872" s="48"/>
+      <c r="E872" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F872" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G872" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H872" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I872" s="49"/>
+    </row>
+    <row r="873" spans="1:9" s="37" customFormat="1">
+      <c r="A873" s="39" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B873" s="40" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C873" s="41" t="s">
         <v>2666</v>
       </c>
-      <c r="D855" s="62"/>
-      <c r="E855" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F855" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G855" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H855" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I855" s="63"/>
-    </row>
-    <row r="856" spans="1:9" s="74" customFormat="1">
-      <c r="A856" s="69" t="s">
-        <v>2212</v>
-      </c>
-      <c r="B856" s="70" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C856" s="71" t="s">
-        <v>2653</v>
-      </c>
-      <c r="D856" s="72"/>
-      <c r="E856" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F856" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G856" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H856" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I856" s="73"/>
-    </row>
-    <row r="857" spans="1:9" s="64" customFormat="1">
-      <c r="A857" s="59" t="s">
-        <v>2213</v>
-      </c>
-      <c r="B857" s="65" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C857" s="61" t="s">
-        <v>2665</v>
-      </c>
-      <c r="D857" s="62"/>
-      <c r="E857" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F857" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G857" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H857" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I857" s="63"/>
-    </row>
-    <row r="858" spans="1:9" s="74" customFormat="1">
-      <c r="A858" s="69" t="s">
-        <v>2214</v>
-      </c>
-      <c r="B858" s="70" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C858" s="71" t="s">
-        <v>2654</v>
-      </c>
-      <c r="D858" s="72"/>
-      <c r="E858" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F858" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G858" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H858" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I858" s="73"/>
-    </row>
-    <row r="859" spans="1:9" s="64" customFormat="1">
-      <c r="A859" s="59" t="s">
-        <v>2215</v>
-      </c>
-      <c r="B859" s="65" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C859" s="61" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D859" s="62"/>
-      <c r="E859" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F859" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G859" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H859" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I859" s="63"/>
-    </row>
-    <row r="860" spans="1:9" s="74" customFormat="1">
-      <c r="A860" s="69" t="s">
-        <v>2216</v>
-      </c>
-      <c r="B860" s="70" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C860" s="71" t="s">
-        <v>2655</v>
-      </c>
-      <c r="D860" s="72"/>
-      <c r="E860" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F860" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G860" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H860" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I860" s="73"/>
-    </row>
-    <row r="861" spans="1:9" s="64" customFormat="1">
-      <c r="A861" s="59" t="s">
-        <v>2217</v>
-      </c>
-      <c r="B861" s="65" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C861" s="61" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D861" s="62"/>
-      <c r="E861" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F861" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G861" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H861" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I861" s="63"/>
-    </row>
-    <row r="862" spans="1:9" s="74" customFormat="1">
-      <c r="A862" s="69" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B862" s="70" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C862" s="71" t="s">
-        <v>2656</v>
-      </c>
-      <c r="D862" s="72"/>
-      <c r="E862" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F862" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G862" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H862" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I862" s="73"/>
-    </row>
-    <row r="863" spans="1:9" s="64" customFormat="1">
-      <c r="A863" s="59" t="s">
-        <v>2219</v>
-      </c>
-      <c r="B863" s="65" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C863" s="61" t="s">
-        <v>2675</v>
-      </c>
-      <c r="D863" s="62"/>
-      <c r="E863" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F863" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G863" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H863" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I863" s="63"/>
-    </row>
-    <row r="864" spans="1:9" s="74" customFormat="1">
-      <c r="A864" s="69" t="s">
-        <v>2220</v>
-      </c>
-      <c r="B864" s="70" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C864" s="71" t="s">
-        <v>2657</v>
-      </c>
-      <c r="D864" s="72"/>
-      <c r="E864" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F864" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G864" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H864" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I864" s="73"/>
-    </row>
-    <row r="865" spans="1:9" s="64" customFormat="1">
-      <c r="A865" s="59" t="s">
-        <v>2221</v>
-      </c>
-      <c r="B865" s="65" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C865" s="61" t="s">
-        <v>2676</v>
-      </c>
-      <c r="D865" s="62"/>
-      <c r="E865" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F865" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G865" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H865" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I865" s="63"/>
-    </row>
-    <row r="866" spans="1:9" s="74" customFormat="1">
-      <c r="A866" s="69" t="s">
-        <v>2222</v>
-      </c>
-      <c r="B866" s="70" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C866" s="71" t="s">
-        <v>2658</v>
-      </c>
-      <c r="D866" s="72"/>
-      <c r="E866" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F866" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G866" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H866" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I866" s="73"/>
-    </row>
-    <row r="867" spans="1:9" s="64" customFormat="1" ht="30">
-      <c r="A867" s="59" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B867" s="65" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C867" s="61" t="s">
-        <v>2229</v>
-      </c>
-      <c r="D867" s="62"/>
-      <c r="E867" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F867" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G867" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H867" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I867" s="63"/>
-    </row>
-    <row r="868" spans="1:9" s="74" customFormat="1">
-      <c r="A868" s="69" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B868" s="70" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C868" s="71" t="s">
-        <v>2659</v>
-      </c>
-      <c r="D868" s="72"/>
-      <c r="E868" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F868" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G868" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H868" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I868" s="73"/>
-    </row>
-    <row r="869" spans="1:9" s="64" customFormat="1" ht="30">
-      <c r="A869" s="59" t="s">
-        <v>2668</v>
-      </c>
-      <c r="B869" s="65" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C869" s="61" t="s">
-        <v>2230</v>
-      </c>
-      <c r="D869" s="62"/>
-      <c r="E869" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F869" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G869" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H869" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I869" s="61"/>
-    </row>
-    <row r="870" spans="1:9" s="64" customFormat="1">
-      <c r="A870" s="59" t="s">
-        <v>2669</v>
-      </c>
-      <c r="B870" s="65" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C870" s="61" t="s">
-        <v>2671</v>
-      </c>
-      <c r="D870" s="59" t="s">
-        <v>2678</v>
-      </c>
-      <c r="E870" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F870" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G870" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H870" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I870" s="61"/>
-    </row>
-    <row r="871" spans="1:9" s="64" customFormat="1">
-      <c r="A871" s="59" t="s">
-        <v>2670</v>
-      </c>
-      <c r="B871" s="65" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C871" s="61" t="s">
-        <v>2672</v>
-      </c>
-      <c r="D871" s="59" t="s">
-        <v>2678</v>
-      </c>
-      <c r="E871" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F871" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G871" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H871" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I871" s="63"/>
-    </row>
-    <row r="872" spans="1:9" s="74" customFormat="1">
-      <c r="A872" s="69" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B872" s="70" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C872" s="71" t="s">
-        <v>2660</v>
-      </c>
-      <c r="D872" s="72"/>
-      <c r="E872" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F872" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G872" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H872" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I872" s="73"/>
-    </row>
-    <row r="873" spans="1:9" s="64" customFormat="1">
-      <c r="A873" s="59" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B873" s="60" t="s">
-        <v>2058</v>
-      </c>
-      <c r="C873" s="61" t="s">
-        <v>2667</v>
-      </c>
-      <c r="D873" s="62"/>
-      <c r="E873" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F873" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G873" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H873" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I873" s="63"/>
+      <c r="D873" s="48"/>
+      <c r="E873" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F873" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G873" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H873" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I873" s="49"/>
     </row>
     <row r="874" spans="1:9" ht="30" hidden="1">
       <c r="A874" s="39" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B874" s="40" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C874" s="41" t="s">
         <v>2245</v>
-      </c>
-      <c r="C874" s="41" t="s">
-        <v>2246</v>
       </c>
       <c r="D874" s="39"/>
       <c r="E874" s="39" t="s">
@@ -36203,13 +36201,13 @@
     </row>
     <row r="875" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A875" s="59" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B875" s="60" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="C875" s="61" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D875" s="59"/>
       <c r="E875" s="59" t="s">
@@ -36219,7 +36217,7 @@
         <v>3</v>
       </c>
       <c r="G875" s="59" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="H875" s="59" t="s">
         <v>18</v>
@@ -36228,13 +36226,13 @@
     </row>
     <row r="876" spans="1:9" s="64" customFormat="1" ht="30" hidden="1">
       <c r="A876" s="59" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B876" s="60" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C876" s="61" t="s">
         <v>2248</v>
-      </c>
-      <c r="C876" s="61" t="s">
-        <v>2249</v>
       </c>
       <c r="D876" s="59"/>
       <c r="E876" s="59" t="s">
@@ -36244,47 +36242,47 @@
         <v>3</v>
       </c>
       <c r="G876" s="59" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="H876" s="59" t="s">
         <v>18</v>
       </c>
       <c r="I876" s="61"/>
     </row>
-    <row r="877" spans="1:9" s="74" customFormat="1" ht="105">
-      <c r="A877" s="69" t="s">
-        <v>2235</v>
-      </c>
-      <c r="B877" s="75" t="s">
-        <v>2248</v>
-      </c>
-      <c r="C877" s="71" t="s">
-        <v>2661</v>
-      </c>
-      <c r="D877" s="69"/>
-      <c r="E877" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="F877" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="G877" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="H877" s="69" t="s">
+    <row r="877" spans="1:9" s="37" customFormat="1" ht="105">
+      <c r="A877" s="39" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B877" s="40" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C877" s="41" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D877" s="39"/>
+      <c r="E877" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F877" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G877" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H877" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I877" s="71"/>
+      <c r="I877" s="41"/>
     </row>
     <row r="878" spans="1:9" ht="30" hidden="1">
       <c r="A878" s="39" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B878" s="40" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C878" s="41" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D878" s="39"/>
       <c r="E878" s="39" t="s">
@@ -36301,55 +36299,55 @@
       </c>
       <c r="I878" s="41"/>
     </row>
-    <row r="879" spans="1:9" s="64" customFormat="1">
-      <c r="A879" s="59" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B879" s="60" t="s">
-        <v>2248</v>
-      </c>
-      <c r="C879" s="61" t="s">
-        <v>2677</v>
-      </c>
-      <c r="D879" s="59"/>
-      <c r="E879" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F879" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="G879" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H879" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I879" s="61"/>
-    </row>
-    <row r="880" spans="1:9" s="64" customFormat="1">
-      <c r="A880" s="59" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B880" s="60" t="s">
-        <v>2248</v>
-      </c>
-      <c r="C880" s="61" t="s">
-        <v>2681</v>
-      </c>
-      <c r="D880" s="59"/>
-      <c r="E880" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F880" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="G880" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H880" s="59" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I880" s="61"/>
+    <row r="879" spans="1:9" s="37" customFormat="1">
+      <c r="A879" s="39" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B879" s="40" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C879" s="41" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D879" s="39"/>
+      <c r="E879" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F879" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G879" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H879" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I879" s="41"/>
+    </row>
+    <row r="880" spans="1:9" s="37" customFormat="1">
+      <c r="A880" s="39" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B880" s="40" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C880" s="41" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D880" s="39"/>
+      <c r="E880" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F880" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G880" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H880" s="39" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I880" s="41"/>
     </row>
     <row r="881" spans="1:9" hidden="1">
       <c r="A881" s="39" t="s">
@@ -36586,7 +36584,7 @@
         <v>1723</v>
       </c>
       <c r="C890" s="41" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D890" s="39"/>
       <c r="E890" s="39" t="s">
@@ -36828,7 +36826,7 @@
         <v>15</v>
       </c>
       <c r="H899" s="39" t="s">
-        <v>18</v>
+        <v>2574</v>
       </c>
       <c r="I899" s="41"/>
     </row>
@@ -36859,13 +36857,13 @@
     </row>
     <row r="901" spans="1:9" ht="30">
       <c r="A901" s="39" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B901" s="40" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C901" s="41" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D901" s="39"/>
       <c r="E901" s="39" t="s">
@@ -36881,18 +36879,18 @@
         <v>17</v>
       </c>
       <c r="I901" s="41" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="902" spans="1:9" ht="90">
       <c r="A902" s="39" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B902" s="40" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C902" s="41" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D902" s="39"/>
       <c r="E902" s="39" t="s">
@@ -36911,13 +36909,13 @@
     </row>
     <row r="903" spans="1:9" ht="30">
       <c r="A903" s="39" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B903" s="40" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C903" s="41" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D903" s="39"/>
       <c r="E903" s="39" t="s">
@@ -36936,13 +36934,13 @@
     </row>
     <row r="904" spans="1:9" ht="195">
       <c r="A904" s="39" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B904" s="40" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C904" s="41" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D904" s="39"/>
       <c r="E904" s="39" t="s">
@@ -36961,13 +36959,13 @@
     </row>
     <row r="905" spans="1:9" ht="30" hidden="1">
       <c r="A905" s="39" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B905" s="40" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C905" s="41" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D905" s="39"/>
       <c r="E905" s="39" t="s">
@@ -36986,13 +36984,13 @@
     </row>
     <row r="906" spans="1:9" ht="30">
       <c r="A906" s="39" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B906" s="40" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C906" s="41" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D906" s="39"/>
       <c r="E906" s="39" t="s">
@@ -37011,13 +37009,13 @@
     </row>
     <row r="907" spans="1:9" ht="30">
       <c r="A907" s="39" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B907" s="40" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C907" s="41" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D907" s="39"/>
       <c r="E907" s="39" t="s">
@@ -37036,13 +37034,13 @@
     </row>
     <row r="908" spans="1:9" ht="30">
       <c r="A908" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B908" s="40" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C908" s="41" t="s">
         <v>2272</v>
-      </c>
-      <c r="C908" s="41" t="s">
-        <v>2273</v>
       </c>
       <c r="D908" s="39"/>
       <c r="E908" s="39" t="s">
@@ -37061,13 +37059,13 @@
     </row>
     <row r="909" spans="1:9" ht="90">
       <c r="A909" s="39" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B909" s="40" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C909" s="41" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D909" s="39"/>
       <c r="E909" s="39" t="s">
@@ -37086,13 +37084,13 @@
     </row>
     <row r="910" spans="1:9" ht="45">
       <c r="A910" s="39" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B910" s="40" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C910" s="41" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D910" s="39"/>
       <c r="E910" s="39" t="s">
@@ -37111,13 +37109,13 @@
     </row>
     <row r="911" spans="1:9" ht="30" hidden="1">
       <c r="A911" s="39" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B911" s="40" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C911" s="41" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D911" s="39"/>
       <c r="E911" s="39" t="s">
@@ -37136,13 +37134,13 @@
     </row>
     <row r="912" spans="1:9" ht="30">
       <c r="A912" s="39" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B912" s="40" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C912" s="41" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D912" s="39"/>
       <c r="E912" s="39" t="s">
@@ -37161,13 +37159,13 @@
     </row>
     <row r="913" spans="1:9" ht="30">
       <c r="A913" s="39" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B913" s="40" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C913" s="41" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D913" s="39"/>
       <c r="E913" s="39" t="s">
@@ -37186,13 +37184,13 @@
     </row>
     <row r="914" spans="1:9" ht="30">
       <c r="A914" s="39" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B914" s="40" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C914" s="41" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D914" s="39"/>
       <c r="E914" s="39" t="s">
@@ -37211,13 +37209,13 @@
     </row>
     <row r="915" spans="1:9" ht="30">
       <c r="A915" s="39" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B915" s="40" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C915" s="41" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D915" s="39"/>
       <c r="E915" s="39" t="s">
@@ -37236,13 +37234,13 @@
     </row>
     <row r="916" spans="1:9" ht="45">
       <c r="A916" s="39" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B916" s="40" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C916" s="41" t="s">
         <v>2304</v>
-      </c>
-      <c r="C916" s="41" t="s">
-        <v>2305</v>
       </c>
       <c r="D916" s="39"/>
       <c r="E916" s="39" t="s">
@@ -37261,13 +37259,13 @@
     </row>
     <row r="917" spans="1:9" ht="90">
       <c r="A917" s="39" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B917" s="40" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C917" s="41" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D917" s="48"/>
       <c r="E917" s="48" t="s">
@@ -37286,13 +37284,13 @@
     </row>
     <row r="918" spans="1:9" ht="45">
       <c r="A918" s="39" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B918" s="50" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C918" s="41" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D918" s="48"/>
       <c r="E918" s="48" t="s">
@@ -37311,13 +37309,13 @@
     </row>
     <row r="919" spans="1:9" ht="30" hidden="1">
       <c r="A919" s="39" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B919" s="50" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C919" s="41" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D919" s="48"/>
       <c r="E919" s="48" t="s">
@@ -37336,13 +37334,13 @@
     </row>
     <row r="920" spans="1:9" ht="30">
       <c r="A920" s="39" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B920" s="50" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C920" s="41" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D920" s="48"/>
       <c r="E920" s="48" t="s">
@@ -37361,13 +37359,13 @@
     </row>
     <row r="921" spans="1:9" ht="30">
       <c r="A921" s="39" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B921" s="50" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C921" s="41" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D921" s="48"/>
       <c r="E921" s="48" t="s">
@@ -37386,13 +37384,13 @@
     </row>
     <row r="922" spans="1:9" ht="30">
       <c r="A922" s="39" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B922" s="50" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C922" s="41" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D922" s="48"/>
       <c r="E922" s="48" t="s">
@@ -37411,13 +37409,13 @@
     </row>
     <row r="923" spans="1:9" ht="30">
       <c r="A923" s="39" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B923" s="40" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C923" s="41" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D923" s="48"/>
       <c r="E923" s="48" t="s">
@@ -37436,13 +37434,13 @@
     </row>
     <row r="924" spans="1:9" ht="45">
       <c r="A924" s="39" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B924" s="50" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C924" s="41" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D924" s="48"/>
       <c r="E924" s="48" t="s">
@@ -37461,13 +37459,13 @@
     </row>
     <row r="925" spans="1:9" ht="30">
       <c r="A925" s="39" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B925" s="50" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C925" s="41" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D925" s="48"/>
       <c r="E925" s="48" t="s">
@@ -37486,13 +37484,13 @@
     </row>
     <row r="926" spans="1:9" ht="45">
       <c r="A926" s="39" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B926" s="50" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C926" s="41" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D926" s="48"/>
       <c r="E926" s="48" t="s">
@@ -37511,13 +37509,13 @@
     </row>
     <row r="927" spans="1:9" ht="45">
       <c r="A927" s="39" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B927" s="40" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C927" s="41" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D927" s="48"/>
       <c r="E927" s="48" t="s">
@@ -37536,13 +37534,13 @@
     </row>
     <row r="928" spans="1:9" ht="30" hidden="1">
       <c r="A928" s="39" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B928" s="40" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C928" s="41" t="s">
         <v>2317</v>
-      </c>
-      <c r="C928" s="41" t="s">
-        <v>2318</v>
       </c>
       <c r="D928" s="48"/>
       <c r="E928" s="48" t="s">
@@ -37561,13 +37559,13 @@
     </row>
     <row r="929" spans="1:9">
       <c r="A929" s="39" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B929" s="50" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="C929" s="41" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D929" s="48"/>
       <c r="E929" s="48" t="s">
@@ -37586,13 +37584,13 @@
     </row>
     <row r="930" spans="1:9" ht="30">
       <c r="A930" s="39" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B930" s="50" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="C930" s="41" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D930" s="48"/>
       <c r="E930" s="48" t="s">
@@ -37611,13 +37609,13 @@
     </row>
     <row r="931" spans="1:9" ht="30">
       <c r="A931" s="39" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B931" s="40" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C931" s="41" t="s">
         <v>2321</v>
-      </c>
-      <c r="C931" s="41" t="s">
-        <v>2322</v>
       </c>
       <c r="D931" s="48"/>
       <c r="E931" s="48" t="s">
@@ -37636,13 +37634,13 @@
     </row>
     <row r="932" spans="1:9" ht="30">
       <c r="A932" s="39" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B932" s="40" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="C932" s="41" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D932" s="48"/>
       <c r="E932" s="48" t="s">
@@ -37661,13 +37659,13 @@
     </row>
     <row r="933" spans="1:9" ht="30">
       <c r="A933" s="39" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B933" s="40" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C933" s="41" t="s">
         <v>2324</v>
-      </c>
-      <c r="C933" s="41" t="s">
-        <v>2325</v>
       </c>
       <c r="D933" s="48"/>
       <c r="E933" s="48" t="s">
@@ -37686,13 +37684,13 @@
     </row>
     <row r="934" spans="1:9" ht="45">
       <c r="A934" s="39" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B934" s="40" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C934" s="41" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D934" s="48"/>
       <c r="E934" s="48" t="s">
@@ -37711,13 +37709,13 @@
     </row>
     <row r="935" spans="1:9" ht="60" hidden="1">
       <c r="A935" s="39" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B935" s="40" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C935" s="41" t="s">
         <v>2327</v>
-      </c>
-      <c r="C935" s="41" t="s">
-        <v>2328</v>
       </c>
       <c r="D935" s="48"/>
       <c r="E935" s="48" t="s">
@@ -37736,13 +37734,13 @@
     </row>
     <row r="936" spans="1:9" ht="30">
       <c r="A936" s="39" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B936" s="50" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C936" s="41" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D936" s="48"/>
       <c r="E936" s="48" t="s">
@@ -37761,13 +37759,13 @@
     </row>
     <row r="937" spans="1:9">
       <c r="A937" s="39" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B937" s="50" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C937" s="41" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D937" s="48"/>
       <c r="E937" s="48" t="s">
@@ -37786,13 +37784,13 @@
     </row>
     <row r="938" spans="1:9" ht="30">
       <c r="A938" s="39" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B938" s="50" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C938" s="41" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D938" s="48"/>
       <c r="E938" s="48" t="s">
@@ -37811,13 +37809,13 @@
     </row>
     <row r="939" spans="1:9">
       <c r="A939" s="39" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B939" s="40" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C939" s="41" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D939" s="48"/>
       <c r="E939" s="48" t="s">
@@ -37836,13 +37834,13 @@
     </row>
     <row r="940" spans="1:9" ht="45">
       <c r="A940" s="39" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B940" s="40" t="s">
         <v>2056</v>
       </c>
       <c r="C940" s="41" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D940" s="48"/>
       <c r="E940" s="48" t="s">
@@ -37861,13 +37859,13 @@
     </row>
     <row r="941" spans="1:9" ht="45">
       <c r="A941" s="39" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B941" s="40" t="s">
         <v>2056</v>
       </c>
       <c r="C941" s="41" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D941" s="39"/>
       <c r="E941" s="39" t="s">
@@ -37886,13 +37884,13 @@
     </row>
     <row r="942" spans="1:9" ht="180">
       <c r="A942" s="39" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B942" s="50" t="s">
         <v>2056</v>
       </c>
       <c r="C942" s="41" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D942" s="48"/>
       <c r="E942" s="48" t="s">
@@ -37911,13 +37909,13 @@
     </row>
     <row r="943" spans="1:9" ht="30" hidden="1">
       <c r="A943" s="39" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B943" s="50" t="s">
         <v>2056</v>
       </c>
       <c r="C943" s="41" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D943" s="48"/>
       <c r="E943" s="48" t="s">
@@ -37936,13 +37934,13 @@
     </row>
     <row r="944" spans="1:9" ht="30">
       <c r="A944" s="39" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B944" s="50" t="s">
         <v>2056</v>
       </c>
       <c r="C944" s="41" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D944" s="48"/>
       <c r="E944" s="48" t="s">
@@ -37961,13 +37959,13 @@
     </row>
     <row r="945" spans="1:9" ht="30">
       <c r="A945" s="39" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B945" s="40" t="s">
         <v>2056</v>
       </c>
       <c r="C945" s="41" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D945" s="48"/>
       <c r="E945" s="48" t="s">
@@ -37986,13 +37984,13 @@
     </row>
     <row r="946" spans="1:9" ht="30">
       <c r="A946" s="39" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B946" s="40" t="s">
         <v>2057</v>
       </c>
       <c r="C946" s="41" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D946" s="48"/>
       <c r="E946" s="48" t="s">
@@ -38011,13 +38009,13 @@
     </row>
     <row r="947" spans="1:9" ht="30">
       <c r="A947" s="39" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B947" s="50" t="s">
         <v>2057</v>
       </c>
       <c r="C947" s="41" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D947" s="48"/>
       <c r="E947" s="48" t="s">
@@ -38036,13 +38034,13 @@
     </row>
     <row r="948" spans="1:9" ht="180">
       <c r="A948" s="39" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B948" s="50" t="s">
         <v>2057</v>
       </c>
       <c r="C948" s="41" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D948" s="48"/>
       <c r="E948" s="48" t="s">
@@ -38061,13 +38059,13 @@
     </row>
     <row r="949" spans="1:9" ht="30" hidden="1">
       <c r="A949" s="39" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B949" s="50" t="s">
         <v>2057</v>
       </c>
       <c r="C949" s="41" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D949" s="48"/>
       <c r="E949" s="48" t="s">
@@ -38086,13 +38084,13 @@
     </row>
     <row r="950" spans="1:9" ht="30">
       <c r="A950" s="39" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B950" s="50" t="s">
         <v>2057</v>
       </c>
       <c r="C950" s="41" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D950" s="48"/>
       <c r="E950" s="48" t="s">
@@ -38111,13 +38109,13 @@
     </row>
     <row r="951" spans="1:9">
       <c r="A951" s="39" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B951" s="40" t="s">
         <v>2057</v>
       </c>
       <c r="C951" s="41" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D951" s="48"/>
       <c r="E951" s="48" t="s">
@@ -38136,13 +38134,13 @@
     </row>
     <row r="952" spans="1:9" ht="45">
       <c r="A952" s="39" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B952" s="40" t="s">
         <v>2055</v>
       </c>
       <c r="C952" s="41" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D952" s="39"/>
       <c r="E952" s="39" t="s">
@@ -38161,13 +38159,13 @@
     </row>
     <row r="953" spans="1:9" ht="120">
       <c r="A953" s="39" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B953" s="50" t="s">
         <v>2055</v>
       </c>
       <c r="C953" s="41" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D953" s="48"/>
       <c r="E953" s="48" t="s">
@@ -38186,13 +38184,13 @@
     </row>
     <row r="954" spans="1:9" ht="30" hidden="1">
       <c r="A954" s="39" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B954" s="50" t="s">
         <v>2055</v>
       </c>
       <c r="C954" s="41" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D954" s="48"/>
       <c r="E954" s="48" t="s">
@@ -38211,13 +38209,13 @@
     </row>
     <row r="955" spans="1:9" ht="30">
       <c r="A955" s="39" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B955" s="40" t="s">
         <v>2055</v>
       </c>
       <c r="C955" s="41" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D955" s="39"/>
       <c r="E955" s="39" t="s">
@@ -38236,13 +38234,13 @@
     </row>
     <row r="956" spans="1:9" ht="30">
       <c r="A956" s="39" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B956" s="50" t="s">
         <v>2055</v>
       </c>
       <c r="C956" s="41" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D956" s="48"/>
       <c r="E956" s="48" t="s">
@@ -38261,13 +38259,13 @@
     </row>
     <row r="957" spans="1:9" ht="30">
       <c r="A957" s="39" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B957" s="40" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C957" s="41" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D957" s="48"/>
       <c r="E957" s="48" t="s">
@@ -38286,13 +38284,13 @@
     </row>
     <row r="958" spans="1:9" ht="120">
       <c r="A958" s="39" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B958" s="40" t="s">
         <v>2351</v>
       </c>
-      <c r="B958" s="40" t="s">
-        <v>2352</v>
-      </c>
       <c r="C958" s="41" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D958" s="48"/>
       <c r="E958" s="48" t="s">
@@ -38311,13 +38309,13 @@
     </row>
     <row r="959" spans="1:9" ht="30" hidden="1">
       <c r="A959" s="39" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B959" s="40" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C959" s="41" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D959" s="48"/>
       <c r="E959" s="48" t="s">
@@ -38336,13 +38334,13 @@
     </row>
     <row r="960" spans="1:9" ht="30">
       <c r="A960" s="39" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B960" s="50" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C960" s="41" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D960" s="48"/>
       <c r="E960" s="48" t="s">
@@ -38361,13 +38359,13 @@
     </row>
     <row r="961" spans="1:9">
       <c r="A961" s="39" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B961" s="50" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C961" s="41" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D961" s="48"/>
       <c r="E961" s="48" t="s">
@@ -38386,13 +38384,13 @@
     </row>
     <row r="962" spans="1:9" ht="30">
       <c r="A962" s="39" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B962" s="50" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C962" s="41" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D962" s="48"/>
       <c r="E962" s="48" t="s">
@@ -38411,13 +38409,13 @@
     </row>
     <row r="963" spans="1:9">
       <c r="A963" s="39" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B963" s="40" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C963" s="41" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D963" s="48"/>
       <c r="E963" s="48" t="s">
@@ -38436,13 +38434,13 @@
     </row>
     <row r="964" spans="1:9" ht="30">
       <c r="A964" s="39" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B964" s="40" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C964" s="41" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D964" s="48"/>
       <c r="E964" s="48" t="s">
@@ -38461,13 +38459,13 @@
     </row>
     <row r="965" spans="1:9">
       <c r="A965" s="39" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B965" s="50" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C965" s="41" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D965" s="48"/>
       <c r="E965" s="48" t="s">
@@ -38486,13 +38484,13 @@
     </row>
     <row r="966" spans="1:9" ht="30" hidden="1">
       <c r="A966" s="39" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B966" s="40" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C966" s="41" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D966" s="48"/>
       <c r="E966" s="48" t="s">
@@ -38511,13 +38509,13 @@
     </row>
     <row r="967" spans="1:9">
       <c r="A967" s="39" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B967" s="40" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C967" s="41" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D967" s="48"/>
       <c r="E967" s="48" t="s">
@@ -38536,13 +38534,13 @@
     </row>
     <row r="968" spans="1:9">
       <c r="A968" s="39" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B968" s="40" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C968" s="41" t="s">
         <v>2396</v>
-      </c>
-      <c r="C968" s="41" t="s">
-        <v>2397</v>
       </c>
       <c r="D968" s="48"/>
       <c r="E968" s="48" t="s">
@@ -38561,13 +38559,13 @@
     </row>
     <row r="969" spans="1:9" ht="105">
       <c r="A969" s="39" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B969" s="50" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C969" s="41" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D969" s="48"/>
       <c r="E969" s="48" t="s">
@@ -38586,13 +38584,13 @@
     </row>
     <row r="970" spans="1:9" ht="30" hidden="1">
       <c r="A970" s="39" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B970" s="50" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C970" s="41" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D970" s="48"/>
       <c r="E970" s="48" t="s">
@@ -38611,13 +38609,13 @@
     </row>
     <row r="971" spans="1:9">
       <c r="A971" s="39" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B971" s="50" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C971" s="41" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D971" s="48"/>
       <c r="E971" s="48" t="s">
@@ -38636,13 +38634,13 @@
     </row>
     <row r="972" spans="1:9">
       <c r="A972" s="39" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B972" s="50" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C972" s="41" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D972" s="48"/>
       <c r="E972" s="48" t="s">
@@ -38664,7 +38662,7 @@
         <v>702</v>
       </c>
       <c r="B973" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C973" s="41" t="s">
         <v>1421</v>
@@ -38689,7 +38687,7 @@
         <v>703</v>
       </c>
       <c r="B974" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C974" s="41" t="s">
         <v>1422</v>
@@ -38716,7 +38714,7 @@
         <v>704</v>
       </c>
       <c r="B975" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C975" s="41" t="s">
         <v>1423</v>
@@ -38741,7 +38739,7 @@
         <v>705</v>
       </c>
       <c r="B976" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C976" s="41" t="s">
         <v>1424</v>
@@ -38766,7 +38764,7 @@
         <v>706</v>
       </c>
       <c r="B977" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C977" s="41" t="s">
         <v>1425</v>
@@ -38791,7 +38789,7 @@
         <v>707</v>
       </c>
       <c r="B978" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C978" s="41" t="s">
         <v>1426</v>
@@ -38816,7 +38814,7 @@
         <v>708</v>
       </c>
       <c r="B979" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C979" s="41" t="s">
         <v>1427</v>
@@ -38841,7 +38839,7 @@
         <v>709</v>
       </c>
       <c r="B980" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C980" s="41" t="s">
         <v>1428</v>
@@ -38866,7 +38864,7 @@
         <v>710</v>
       </c>
       <c r="B981" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C981" s="41" t="s">
         <v>1429</v>
@@ -38891,7 +38889,7 @@
         <v>711</v>
       </c>
       <c r="B982" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C982" s="41" t="s">
         <v>1430</v>
@@ -38916,7 +38914,7 @@
         <v>712</v>
       </c>
       <c r="B983" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C983" s="41" t="s">
         <v>1431</v>
@@ -38943,7 +38941,7 @@
         <v>713</v>
       </c>
       <c r="B984" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C984" s="41" t="s">
         <v>1432</v>
@@ -38968,7 +38966,7 @@
         <v>1831</v>
       </c>
       <c r="B985" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C985" s="41" t="s">
         <v>1710</v>
@@ -38993,7 +38991,7 @@
         <v>1832</v>
       </c>
       <c r="B986" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C986" s="41" t="s">
         <v>1711</v>
@@ -39018,7 +39016,7 @@
         <v>1833</v>
       </c>
       <c r="B987" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C987" s="41" t="s">
         <v>1712</v>
@@ -39043,7 +39041,7 @@
         <v>1834</v>
       </c>
       <c r="B988" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C988" s="41" t="s">
         <v>1713</v>
@@ -39068,7 +39066,7 @@
         <v>1835</v>
       </c>
       <c r="B989" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C989" s="41" t="s">
         <v>1714</v>
@@ -39093,7 +39091,7 @@
         <v>1836</v>
       </c>
       <c r="B990" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C990" s="41" t="s">
         <v>1716</v>
@@ -39118,7 +39116,7 @@
         <v>1837</v>
       </c>
       <c r="B991" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C991" s="41" t="s">
         <v>1891</v>
@@ -39143,7 +39141,7 @@
         <v>1892</v>
       </c>
       <c r="B992" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C992" s="41" t="s">
         <v>1890</v>
@@ -39168,7 +39166,7 @@
         <v>1838</v>
       </c>
       <c r="B993" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C993" s="41" t="s">
         <v>1715</v>
@@ -39193,10 +39191,10 @@
         <v>1839</v>
       </c>
       <c r="B994" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C994" s="41" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D994" s="39"/>
       <c r="E994" s="39" t="s">
@@ -39218,7 +39216,7 @@
         <v>1840</v>
       </c>
       <c r="B995" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C995" s="41" t="s">
         <v>1695</v>
@@ -39240,10 +39238,10 @@
     </row>
     <row r="996" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A996" s="39" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B996" s="40" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C996" s="41" t="s">
         <v>2094</v>
@@ -39259,7 +39257,7 @@
         <v>15</v>
       </c>
       <c r="H996" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I996" s="49"/>
     </row>
@@ -39491,10 +39489,10 @@
         <v>893</v>
       </c>
       <c r="C1005" s="41" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D1005" s="39" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="E1005" s="39" t="s">
         <v>22</v>
@@ -39518,10 +39516,10 @@
         <v>893</v>
       </c>
       <c r="C1006" s="41" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D1006" s="39" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="E1006" s="39" t="s">
         <v>22</v>
@@ -39545,10 +39543,10 @@
         <v>893</v>
       </c>
       <c r="C1007" s="41" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D1007" s="39" t="s">
         <v>2406</v>
-      </c>
-      <c r="D1007" s="39" t="s">
-        <v>2407</v>
       </c>
       <c r="E1007" s="39" t="s">
         <v>22</v>
@@ -39575,7 +39573,7 @@
         <v>1726</v>
       </c>
       <c r="D1008" s="39" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="E1008" s="39" t="s">
         <v>22</v>
@@ -39599,7 +39597,7 @@
         <v>893</v>
       </c>
       <c r="C1009" s="41" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D1009" s="39" t="s">
         <v>1528</v>
@@ -39653,10 +39651,10 @@
         <v>893</v>
       </c>
       <c r="C1011" s="41" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D1011" s="39" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="E1011" s="39" t="s">
         <v>22</v>
@@ -39680,10 +39678,10 @@
         <v>893</v>
       </c>
       <c r="C1012" s="41" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D1012" s="39" t="s">
         <v>2410</v>
-      </c>
-      <c r="D1012" s="39" t="s">
-        <v>2411</v>
       </c>
       <c r="E1012" s="39" t="s">
         <v>22</v>
@@ -39701,13 +39699,13 @@
     </row>
     <row r="1013" spans="1:9" ht="30">
       <c r="A1013" s="39" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B1013" s="43">
         <v>8</v>
       </c>
       <c r="C1013" s="41" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1013" s="39" t="s">
         <v>1529</v>
@@ -39728,13 +39726,13 @@
     </row>
     <row r="1014" spans="1:9" ht="45">
       <c r="A1014" s="39" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B1014" s="43">
         <v>8</v>
       </c>
       <c r="C1014" s="41" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D1014" s="39" t="s">
         <v>1864</v>
@@ -39749,19 +39747,19 @@
         <v>15</v>
       </c>
       <c r="H1014" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I1014" s="41"/>
     </row>
     <row r="1015" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1015" s="39" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B1015" s="43">
         <v>8</v>
       </c>
       <c r="C1015" s="41" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="D1015" s="39" t="s">
         <v>1864</v>
@@ -39776,19 +39774,19 @@
         <v>15</v>
       </c>
       <c r="H1015" s="39" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="I1015" s="41"/>
     </row>
     <row r="1016" spans="1:9" ht="45">
       <c r="A1016" s="39" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B1016" s="43">
         <v>8</v>
       </c>
       <c r="C1016" s="41" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D1016" s="39" t="s">
         <v>1865</v>
@@ -39809,7 +39807,7 @@
     </row>
     <row r="1017" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1017" s="39" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B1017" s="43">
         <v>8</v>
@@ -39838,13 +39836,13 @@
     </row>
     <row r="1018" spans="1:9" ht="30">
       <c r="A1018" s="39" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B1018" s="43">
         <v>8</v>
       </c>
       <c r="C1018" s="41" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D1018" s="39" t="s">
         <v>1866</v>
@@ -39865,13 +39863,13 @@
     </row>
     <row r="1019" spans="1:9" ht="45">
       <c r="A1019" s="39" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B1019" s="43">
         <v>8</v>
       </c>
       <c r="C1019" s="41" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D1019" s="48" t="s">
         <v>1866</v>
@@ -39894,13 +39892,13 @@
     </row>
     <row r="1020" spans="1:9" ht="30">
       <c r="A1020" s="39" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B1020" s="43">
         <v>8</v>
       </c>
       <c r="C1020" s="41" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D1020" s="39" t="s">
         <v>1867</v>
@@ -39921,13 +39919,13 @@
     </row>
     <row r="1021" spans="1:9" ht="45">
       <c r="A1021" s="39" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B1021" s="43">
         <v>8</v>
       </c>
       <c r="C1021" s="41" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D1021" s="39" t="s">
         <v>1867</v>
@@ -39956,7 +39954,7 @@
         <v>893</v>
       </c>
       <c r="C1022" s="41" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D1022" s="39" t="s">
         <v>1928</v>
@@ -39983,7 +39981,7 @@
         <v>893</v>
       </c>
       <c r="C1023" s="41" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="D1023" s="39" t="s">
         <v>1928</v>
@@ -40006,16 +40004,16 @@
     </row>
     <row r="1024" spans="1:9" ht="45">
       <c r="A1024" s="39" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B1024" s="43">
         <v>8</v>
       </c>
       <c r="C1024" s="41" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D1024" s="39" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E1024" s="48" t="s">
         <v>22</v>
@@ -40033,16 +40031,16 @@
     </row>
     <row r="1025" spans="1:9" ht="45">
       <c r="A1025" s="39" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B1025" s="43">
         <v>8</v>
       </c>
       <c r="C1025" s="41" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D1025" s="39" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E1025" s="48" t="s">
         <v>22</v>
@@ -40068,7 +40066,7 @@
         <v>893</v>
       </c>
       <c r="C1026" s="41" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D1026" s="39" t="s">
         <v>1530</v>
@@ -40097,7 +40095,7 @@
         <v>893</v>
       </c>
       <c r="C1027" s="41" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D1027" s="39" t="s">
         <v>1530</v>
@@ -40124,7 +40122,7 @@
         <v>893</v>
       </c>
       <c r="C1028" s="41" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D1028" s="39" t="s">
         <v>1531</v>
@@ -40180,7 +40178,7 @@
         <v>893</v>
       </c>
       <c r="C1030" s="41" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D1030" s="39" t="s">
         <v>1532</v>
@@ -40207,7 +40205,7 @@
         <v>893</v>
       </c>
       <c r="C1031" s="41" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D1031" s="39" t="s">
         <v>1532</v>
@@ -40230,16 +40228,16 @@
     </row>
     <row r="1032" spans="1:9" ht="45">
       <c r="A1032" s="39" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B1032" s="43">
         <v>8</v>
       </c>
       <c r="C1032" s="41" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D1032" s="39" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E1032" s="48" t="s">
         <v>22</v>
@@ -40259,16 +40257,16 @@
     </row>
     <row r="1033" spans="1:9" ht="30">
       <c r="A1033" s="39" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B1033" s="43">
         <v>8</v>
       </c>
       <c r="C1033" s="41" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D1033" s="39" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E1033" s="48" t="s">
         <v>22</v>
@@ -40286,16 +40284,16 @@
     </row>
     <row r="1034" spans="1:9" ht="30">
       <c r="A1034" s="39" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B1034" s="43">
         <v>8</v>
       </c>
       <c r="C1034" s="41" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D1034" s="39" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="E1034" s="48" t="s">
         <v>22</v>
@@ -40313,16 +40311,16 @@
     </row>
     <row r="1035" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1035" s="39" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B1035" s="43">
         <v>8</v>
       </c>
       <c r="C1035" s="41" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D1035" s="39" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="E1035" s="48" t="s">
         <v>22</v>
@@ -40348,7 +40346,7 @@
         <v>893</v>
       </c>
       <c r="C1036" s="41" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D1036" s="39" t="s">
         <v>1533</v>
@@ -40375,7 +40373,7 @@
         <v>893</v>
       </c>
       <c r="C1037" s="41" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D1037" s="39" t="s">
         <v>1533</v>
@@ -40404,7 +40402,7 @@
         <v>893</v>
       </c>
       <c r="C1038" s="41" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D1038" s="39" t="s">
         <v>1534</v>
@@ -40431,7 +40429,7 @@
         <v>893</v>
       </c>
       <c r="C1039" s="41" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D1039" s="39" t="s">
         <v>1534</v>
@@ -40460,7 +40458,7 @@
         <v>893</v>
       </c>
       <c r="C1040" s="41" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D1040" s="39" t="s">
         <v>1535</v>
@@ -40487,7 +40485,7 @@
         <v>893</v>
       </c>
       <c r="C1041" s="41" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D1041" s="39" t="s">
         <v>1535</v>
@@ -40516,7 +40514,7 @@
         <v>893</v>
       </c>
       <c r="C1042" s="41" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D1042" s="39" t="s">
         <v>1536</v>
@@ -40543,7 +40541,7 @@
         <v>893</v>
       </c>
       <c r="C1043" s="41" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D1043" s="39" t="s">
         <v>1536</v>
@@ -40572,7 +40570,7 @@
         <v>893</v>
       </c>
       <c r="C1044" s="41" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D1044" s="39" t="s">
         <v>1537</v>
@@ -40599,7 +40597,7 @@
         <v>893</v>
       </c>
       <c r="C1045" s="41" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D1045" s="39" t="s">
         <v>1537</v>
@@ -40628,7 +40626,7 @@
         <v>893</v>
       </c>
       <c r="C1046" s="41" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D1046" s="39" t="s">
         <v>1538</v>
@@ -40655,7 +40653,7 @@
         <v>893</v>
       </c>
       <c r="C1047" s="41" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1047" s="39" t="s">
         <v>1538</v>
@@ -40684,7 +40682,7 @@
         <v>893</v>
       </c>
       <c r="C1048" s="41" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1048" s="39" t="s">
         <v>1539</v>
@@ -40711,7 +40709,7 @@
         <v>893</v>
       </c>
       <c r="C1049" s="41" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D1049" s="42" t="s">
         <v>1539</v>
@@ -40738,7 +40736,7 @@
         <v>893</v>
       </c>
       <c r="C1050" s="41" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D1050" s="39" t="s">
         <v>1540</v>
@@ -40765,7 +40763,7 @@
         <v>893</v>
       </c>
       <c r="C1051" s="41" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1051" s="42" t="s">
         <v>1540</v>
@@ -40792,7 +40790,7 @@
         <v>893</v>
       </c>
       <c r="C1052" s="41" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1052" s="39" t="s">
         <v>1541</v>
@@ -40819,7 +40817,7 @@
         <v>893</v>
       </c>
       <c r="C1053" s="41" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D1053" s="39" t="s">
         <v>1541</v>
@@ -40848,7 +40846,7 @@
         <v>893</v>
       </c>
       <c r="C1054" s="41" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D1054" s="39" t="s">
         <v>1542</v>
@@ -40904,7 +40902,7 @@
         <v>893</v>
       </c>
       <c r="C1056" s="41" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1056" s="39" t="s">
         <v>1868</v>
@@ -40931,7 +40929,7 @@
         <v>893</v>
       </c>
       <c r="C1057" s="41" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="D1057" s="39" t="s">
         <v>1868</v>
@@ -40958,7 +40956,7 @@
         <v>893</v>
       </c>
       <c r="C1058" s="41" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1058" s="39" t="s">
         <v>1543</v>
@@ -41014,7 +41012,7 @@
         <v>893</v>
       </c>
       <c r="C1060" s="41" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1060" s="39" t="s">
         <v>1544</v>
@@ -41070,7 +41068,7 @@
         <v>893</v>
       </c>
       <c r="C1062" s="41" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D1062" s="39" t="s">
         <v>1545</v>
@@ -41126,7 +41124,7 @@
         <v>893</v>
       </c>
       <c r="C1064" s="41" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1064" s="39" t="s">
         <v>1546</v>
@@ -41182,7 +41180,7 @@
         <v>893</v>
       </c>
       <c r="C1066" s="41" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1066" s="39" t="s">
         <v>1547</v>
@@ -41238,7 +41236,7 @@
         <v>893</v>
       </c>
       <c r="C1068" s="41" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1068" s="39" t="s">
         <v>1869</v>
@@ -41294,7 +41292,7 @@
         <v>893</v>
       </c>
       <c r="C1070" s="41" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1070" s="39" t="s">
         <v>1548</v>
@@ -41350,7 +41348,7 @@
         <v>8</v>
       </c>
       <c r="C1072" s="41" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D1072" s="39" t="s">
         <v>1870</v>
@@ -41400,13 +41398,13 @@
     </row>
     <row r="1074" spans="1:9" ht="45">
       <c r="A1074" s="39" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B1074" s="43">
         <v>8</v>
       </c>
       <c r="C1074" s="41" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D1074" s="39" t="s">
         <v>1918</v>
@@ -41427,13 +41425,13 @@
     </row>
     <row r="1075" spans="1:9" ht="45">
       <c r="A1075" s="39" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B1075" s="43">
         <v>8</v>
       </c>
       <c r="C1075" s="41" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D1075" s="39" t="s">
         <v>1918</v>
@@ -41462,7 +41460,7 @@
         <v>893</v>
       </c>
       <c r="C1076" s="41" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D1076" s="39" t="s">
         <v>1549</v>
@@ -41491,7 +41489,7 @@
         <v>893</v>
       </c>
       <c r="C1077" s="41" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D1077" s="39" t="s">
         <v>1549</v>
@@ -41518,7 +41516,7 @@
         <v>893</v>
       </c>
       <c r="C1078" s="41" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D1078" s="39" t="s">
         <v>1550</v>
@@ -41545,7 +41543,7 @@
         <v>893</v>
       </c>
       <c r="C1079" s="41" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D1079" s="39" t="s">
         <v>1550</v>
@@ -41574,7 +41572,7 @@
         <v>893</v>
       </c>
       <c r="C1080" s="41" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D1080" s="39" t="s">
         <v>1551</v>
@@ -41601,7 +41599,7 @@
         <v>893</v>
       </c>
       <c r="C1081" s="41" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D1081" s="39" t="s">
         <v>1551</v>
@@ -41624,16 +41622,16 @@
     </row>
     <row r="1082" spans="1:9" ht="60">
       <c r="A1082" s="39" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B1082" s="43">
         <v>8</v>
       </c>
       <c r="C1082" s="41" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D1082" s="39" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="E1082" s="48" t="s">
         <v>22</v>
@@ -41653,7 +41651,7 @@
     </row>
     <row r="1083" spans="1:9" ht="30">
       <c r="A1083" s="39" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B1083" s="43">
         <v>8</v>
@@ -41662,7 +41660,7 @@
         <v>1916</v>
       </c>
       <c r="D1083" s="39" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="E1083" s="48" t="s">
         <v>22</v>
@@ -41686,7 +41684,7 @@
         <v>893</v>
       </c>
       <c r="C1084" s="41" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D1084" s="39" t="s">
         <v>1552</v>
@@ -41713,7 +41711,7 @@
         <v>893</v>
       </c>
       <c r="C1085" s="41" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D1085" s="39" t="s">
         <v>1552</v>
@@ -41742,7 +41740,7 @@
         <v>893</v>
       </c>
       <c r="C1086" s="41" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D1086" s="39" t="s">
         <v>1553</v>
@@ -41769,7 +41767,7 @@
         <v>893</v>
       </c>
       <c r="C1087" s="41" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D1087" s="39" t="s">
         <v>1553</v>
@@ -41798,7 +41796,7 @@
         <v>893</v>
       </c>
       <c r="C1088" s="41" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D1088" s="39" t="s">
         <v>1554</v>
@@ -41825,7 +41823,7 @@
         <v>893</v>
       </c>
       <c r="C1089" s="41" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D1089" s="39" t="s">
         <v>1554</v>
@@ -41854,7 +41852,7 @@
         <v>893</v>
       </c>
       <c r="C1090" s="41" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D1090" s="39" t="s">
         <v>1555</v>
@@ -41881,7 +41879,7 @@
         <v>893</v>
       </c>
       <c r="C1091" s="41" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D1091" s="39" t="s">
         <v>1555</v>
@@ -41910,7 +41908,7 @@
         <v>893</v>
       </c>
       <c r="C1092" s="41" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D1092" s="39" t="s">
         <v>1556</v>
@@ -41937,7 +41935,7 @@
         <v>893</v>
       </c>
       <c r="C1093" s="41" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D1093" s="39" t="s">
         <v>1556</v>
@@ -41966,7 +41964,7 @@
         <v>893</v>
       </c>
       <c r="C1094" s="41" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D1094" s="39" t="s">
         <v>1557</v>
@@ -42022,7 +42020,7 @@
         <v>893</v>
       </c>
       <c r="C1096" s="41" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D1096" s="39" t="s">
         <v>1558</v>
@@ -42078,7 +42076,7 @@
         <v>893</v>
       </c>
       <c r="C1098" s="41" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D1098" s="39" t="s">
         <v>1559</v>
@@ -42134,7 +42132,7 @@
         <v>893</v>
       </c>
       <c r="C1100" s="41" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D1100" s="39" t="s">
         <v>1560</v>
@@ -42190,7 +42188,7 @@
         <v>893</v>
       </c>
       <c r="C1102" s="41" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D1102" s="39" t="s">
         <v>1561</v>
@@ -42246,7 +42244,7 @@
         <v>893</v>
       </c>
       <c r="C1104" s="41" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D1104" s="39" t="s">
         <v>1562</v>
@@ -42300,7 +42298,7 @@
         <v>893</v>
       </c>
       <c r="C1106" s="41" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D1106" s="39" t="s">
         <v>1563</v>
@@ -42354,7 +42352,7 @@
         <v>893</v>
       </c>
       <c r="C1108" s="41" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D1108" s="39" t="s">
         <v>1564</v>
@@ -42381,7 +42379,7 @@
         <v>893</v>
       </c>
       <c r="C1109" s="41" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D1109" s="39" t="s">
         <v>1564</v>
@@ -42410,7 +42408,7 @@
         <v>893</v>
       </c>
       <c r="C1110" s="41" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D1110" s="39" t="s">
         <v>1565</v>
@@ -42464,7 +42462,7 @@
         <v>893</v>
       </c>
       <c r="C1112" s="41" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D1112" s="39" t="s">
         <v>1871</v>
@@ -42520,7 +42518,7 @@
         <v>893</v>
       </c>
       <c r="C1114" s="41" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D1114" s="39" t="s">
         <v>1566</v>
@@ -42549,7 +42547,7 @@
         <v>893</v>
       </c>
       <c r="C1115" s="41" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D1115" s="39" t="s">
         <v>1567</v>
@@ -42603,7 +42601,7 @@
         <v>893</v>
       </c>
       <c r="C1117" s="41" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D1117" s="39" t="s">
         <v>1568</v>
@@ -42657,7 +42655,7 @@
         <v>893</v>
       </c>
       <c r="C1119" s="41" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D1119" s="39" t="s">
         <v>1569</v>
@@ -42711,7 +42709,7 @@
         <v>893</v>
       </c>
       <c r="C1121" s="41" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="D1121" s="39" t="s">
         <v>1872</v>
@@ -42738,7 +42736,7 @@
         <v>893</v>
       </c>
       <c r="C1122" s="41" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="D1122" s="39" t="s">
         <v>1872</v>
@@ -42753,10 +42751,10 @@
         <v>15</v>
       </c>
       <c r="H1122" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I1122" s="41" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1123" spans="1:9" ht="45">
@@ -42767,7 +42765,7 @@
         <v>893</v>
       </c>
       <c r="C1123" s="41" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="D1123" s="39" t="s">
         <v>1873</v>
@@ -42794,7 +42792,7 @@
         <v>893</v>
       </c>
       <c r="C1124" s="41" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="D1124" s="39" t="s">
         <v>1873</v>
@@ -42809,10 +42807,10 @@
         <v>15</v>
       </c>
       <c r="H1124" s="39" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I1124" s="41" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1125" spans="1:9" ht="30">
@@ -42823,7 +42821,7 @@
         <v>893</v>
       </c>
       <c r="C1125" s="41" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="D1125" s="39" t="s">
         <v>1570</v>
@@ -42871,16 +42869,16 @@
     </row>
     <row r="1127" spans="1:9" ht="30">
       <c r="A1127" s="39" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B1127" s="43">
         <v>8</v>
       </c>
       <c r="C1127" s="41" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="D1127" s="39" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E1127" s="48" t="s">
         <v>22</v>
@@ -42898,16 +42896,16 @@
     </row>
     <row r="1128" spans="1:9" ht="45">
       <c r="A1128" s="39" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B1128" s="43">
         <v>8</v>
       </c>
       <c r="C1128" s="41" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="D1128" s="48" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E1128" s="48" t="s">
         <v>22</v>
@@ -42933,7 +42931,7 @@
         <v>893</v>
       </c>
       <c r="C1129" s="41" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="D1129" s="39" t="s">
         <v>1571</v>
@@ -42987,7 +42985,7 @@
         <v>893</v>
       </c>
       <c r="C1131" s="41" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="D1131" s="39" t="s">
         <v>1572</v>
@@ -43041,7 +43039,7 @@
         <v>893</v>
       </c>
       <c r="C1133" s="41" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="D1133" s="39" t="s">
         <v>1573</v>
@@ -43089,16 +43087,16 @@
     </row>
     <row r="1135" spans="1:9" ht="60">
       <c r="A1135" s="39" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B1135" s="43">
         <v>8</v>
       </c>
       <c r="C1135" s="41" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D1135" s="39" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="E1135" s="48" t="s">
         <v>22</v>
@@ -43116,16 +43114,16 @@
     </row>
     <row r="1136" spans="1:9" ht="45">
       <c r="A1136" s="39" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B1136" s="43">
         <v>8</v>
       </c>
       <c r="C1136" s="41" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D1136" s="39" t="s">
         <v>2534</v>
-      </c>
-      <c r="D1136" s="39" t="s">
-        <v>2535</v>
       </c>
       <c r="E1136" s="48" t="s">
         <v>22</v>
@@ -43151,7 +43149,7 @@
         <v>893</v>
       </c>
       <c r="C1137" s="41" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="D1137" s="39" t="s">
         <v>1574</v>
@@ -43230,16 +43228,16 @@
     </row>
     <row r="1140" spans="1:9" ht="30">
       <c r="A1140" s="39" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B1140" s="43">
         <v>8</v>
       </c>
       <c r="C1140" s="41" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D1140" s="39" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="E1140" s="48" t="s">
         <v>22</v>
@@ -43255,47 +43253,47 @@
       </c>
       <c r="I1140" s="49"/>
     </row>
-    <row r="1141" spans="1:9" s="64" customFormat="1" ht="45">
-      <c r="A1141" s="59" t="s">
-        <v>2540</v>
-      </c>
-      <c r="B1141" s="76">
+    <row r="1141" spans="1:9" s="37" customFormat="1" ht="45">
+      <c r="A1141" s="39" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B1141" s="43">
         <v>8</v>
       </c>
-      <c r="C1141" s="61" t="s">
-        <v>2631</v>
-      </c>
-      <c r="D1141" s="59" t="s">
-        <v>2549</v>
-      </c>
-      <c r="E1141" s="62" t="s">
+      <c r="C1141" s="41" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D1141" s="39" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E1141" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F1141" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1141" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1141" s="62" t="s">
+      <c r="F1141" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1141" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1141" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I1141" s="63" t="s">
+      <c r="I1141" s="49" t="s">
         <v>1611</v>
       </c>
     </row>
     <row r="1142" spans="1:9" ht="45">
       <c r="A1142" s="39" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B1142" s="43">
         <v>8</v>
       </c>
       <c r="C1142" s="41" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="D1142" s="39" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E1142" s="48" t="s">
         <v>22</v>
@@ -43313,16 +43311,16 @@
     </row>
     <row r="1143" spans="1:9" ht="45">
       <c r="A1143" s="39" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B1143" s="43">
         <v>8</v>
       </c>
       <c r="C1143" s="41" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="D1143" s="39" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E1143" s="48" t="s">
         <v>22</v>
@@ -43445,7 +43443,7 @@
         <v>802</v>
       </c>
       <c r="B1148" s="40" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C1148" s="41" t="s">
         <v>1456</v>
@@ -43470,7 +43468,7 @@
         <v>803</v>
       </c>
       <c r="B1149" s="40" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C1149" s="41" t="s">
         <v>1457</v>
@@ -43497,7 +43495,7 @@
         <v>804</v>
       </c>
       <c r="B1150" s="40" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C1150" s="41" t="s">
         <v>1458</v>
@@ -43524,7 +43522,7 @@
         <v>805</v>
       </c>
       <c r="B1151" s="40" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C1151" s="41" t="s">
         <v>1459</v>
@@ -43551,7 +43549,7 @@
         <v>806</v>
       </c>
       <c r="B1152" s="40" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C1152" s="41" t="s">
         <v>1460</v>
@@ -43578,7 +43576,7 @@
         <v>807</v>
       </c>
       <c r="B1153" s="40" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C1153" s="41" t="s">
         <v>1461</v>
@@ -43605,10 +43603,10 @@
         <v>808</v>
       </c>
       <c r="B1154" s="40" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1154" s="41" t="s">
         <v>2550</v>
-      </c>
-      <c r="C1154" s="41" t="s">
-        <v>2551</v>
       </c>
       <c r="D1154" s="39"/>
       <c r="E1154" s="39" t="s">
@@ -43630,7 +43628,7 @@
         <v>809</v>
       </c>
       <c r="B1155" s="40" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C1155" s="41" t="s">
         <v>1462</v>
@@ -43655,7 +43653,7 @@
         <v>810</v>
       </c>
       <c r="B1156" s="40" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C1156" s="41" t="s">
         <v>1463</v>
@@ -43680,7 +43678,7 @@
         <v>811</v>
       </c>
       <c r="B1157" s="40" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C1157" s="41" t="s">
         <v>1464</v>
@@ -43707,7 +43705,7 @@
         <v>812</v>
       </c>
       <c r="B1158" s="40" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C1158" s="41" t="s">
         <v>1465</v>
@@ -43732,7 +43730,7 @@
         <v>1919</v>
       </c>
       <c r="B1159" s="40" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="C1159" s="41" t="s">
         <v>1920</v>
@@ -43887,7 +43885,7 @@
         <v>864</v>
       </c>
       <c r="C1165" s="41" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="D1165" s="39"/>
       <c r="E1165" s="39" t="s">
@@ -44034,7 +44032,7 @@
         <v>824</v>
       </c>
       <c r="B1171" s="40" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C1171" s="41" t="s">
         <v>1476</v>
@@ -44059,7 +44057,7 @@
         <v>825</v>
       </c>
       <c r="B1172" s="40" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="C1172" s="41" t="s">
         <v>1477</v>
@@ -44084,7 +44082,7 @@
         <v>826</v>
       </c>
       <c r="B1173" s="40" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C1173" s="41" t="s">
         <v>1478</v>
@@ -44109,7 +44107,7 @@
         <v>827</v>
       </c>
       <c r="B1174" s="40" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C1174" s="41" t="s">
         <v>1479</v>
@@ -44134,7 +44132,7 @@
         <v>828</v>
       </c>
       <c r="B1175" s="40" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C1175" s="41" t="s">
         <v>1480</v>
@@ -44159,7 +44157,7 @@
         <v>829</v>
       </c>
       <c r="B1176" s="40" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C1176" s="41" t="s">
         <v>1481</v>
@@ -44184,7 +44182,7 @@
         <v>830</v>
       </c>
       <c r="B1177" s="40" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C1177" s="41" t="s">
         <v>1482</v>
@@ -44209,7 +44207,7 @@
         <v>831</v>
       </c>
       <c r="B1178" s="40" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C1178" s="41" t="s">
         <v>1483</v>
@@ -44234,7 +44232,7 @@
         <v>832</v>
       </c>
       <c r="B1179" s="40" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C1179" s="41" t="s">
         <v>1484</v>
@@ -44259,7 +44257,7 @@
         <v>833</v>
       </c>
       <c r="B1180" s="40" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C1180" s="41" t="s">
         <v>1485</v>
@@ -44309,7 +44307,7 @@
         <v>835</v>
       </c>
       <c r="B1182" s="40" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="C1182" s="41" t="s">
         <v>1487</v>
@@ -44387,7 +44385,7 @@
         <v>893</v>
       </c>
       <c r="C1185" s="41" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="D1185" s="39" t="s">
         <v>1575</v>
@@ -44497,7 +44495,7 @@
         <v>893</v>
       </c>
       <c r="C1189" s="41" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D1189" s="39" t="s">
         <v>1576</v>
@@ -46753,15 +46751,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -46810,21 +46799,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46839,7 +46829,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -46851,4 +46841,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EWS&amp;EAS\MS-OXWSMTGS\MS-OXWSMTGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0470FD2F-E034-4C8D-987E-5A2F1650EE71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD70966-CC50-4F70-B85F-EBA73F7E7597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8564" uniqueCount="2682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8564" uniqueCount="2681">
   <si>
     <t>Req ID</t>
   </si>
@@ -7664,9 +7664,6 @@
   </si>
   <si>
     <t>[In Messages] CopyItemSoapIn: For each item being copied that is a recurring calendar item, the ItemIds element SHOULD contain a RecurringMasterItemId child element ([MS-OXWSCORE] section 2.2.4.39).</t>
-  </si>
-  <si>
-    <t>[In Messages] ErrorCalendarCannotUseIdForRecurringMasterId: Specifies that the RecurringMasterId ([MS-OXWSCORE] section 2.2.4.35) does not correspond to a valid recurring master item.</t>
   </si>
   <si>
     <t>[In Messages] CreateItemSoapIn: The Items child element ([MS-OXWSCDATA] section 2.2.4.42) of the CreateItem element ([MS-OXWSCORE] section 3.1.4.2.2.1) that specifies the XML request MUST contain at least one of the following elements: 
@@ -10324,30 +10321,6 @@
     <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10380,6 +10353,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14276,16 +14273,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="25"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -14297,13 +14294,13 @@
       <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -14311,16 +14308,16 @@
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -14328,16 +14325,16 @@
       <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -14345,16 +14342,16 @@
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -14362,16 +14359,16 @@
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -14379,16 +14376,16 @@
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="79" t="s">
         <v>1649</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -14396,16 +14393,16 @@
       <c r="A11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="82" t="s">
         <v>1650</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -14489,16 +14486,16 @@
       <c r="A16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="86"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -14506,16 +14503,16 @@
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -14523,16 +14520,16 @@
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="76" t="s">
         <v>1651</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -16068,7 +16065,7 @@
         <v>17</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="45">
@@ -16145,7 +16142,7 @@
         <v>17</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="37" customFormat="1" ht="90">
@@ -16156,7 +16153,7 @@
         <v>851</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39" t="s">
@@ -16169,7 +16166,7 @@
         <v>15</v>
       </c>
       <c r="H83" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I83" s="41"/>
     </row>
@@ -16206,7 +16203,7 @@
         <v>851</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39" t="s">
@@ -16219,7 +16216,7 @@
         <v>15</v>
       </c>
       <c r="H85" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I85" s="41"/>
     </row>
@@ -16241,7 +16238,7 @@
         <v>3</v>
       </c>
       <c r="G86" s="55" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="H86" s="55" t="s">
         <v>18</v>
@@ -16698,7 +16695,7 @@
         <v>15</v>
       </c>
       <c r="H104" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I104" s="41"/>
     </row>
@@ -16726,7 +16723,7 @@
         <v>17</v>
       </c>
       <c r="I105" s="41" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -16862,7 +16859,7 @@
         <v>854</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39" t="s">
@@ -17357,7 +17354,7 @@
         <v>17</v>
       </c>
       <c r="I130" s="41" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30">
@@ -18791,7 +18788,7 @@
         <v>17</v>
       </c>
       <c r="I186" s="41" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -19499,7 +19496,7 @@
         <v>20</v>
       </c>
       <c r="I214" s="41" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="30">
@@ -19762,7 +19759,7 @@
     </row>
     <row r="225" spans="1:9" s="37" customFormat="1">
       <c r="A225" s="39" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B225" s="40" t="s">
         <v>854</v>
@@ -19795,7 +19792,7 @@
         <v>854</v>
       </c>
       <c r="C226" s="41" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="D226" s="48"/>
       <c r="E226" s="48" t="s">
@@ -19811,7 +19808,7 @@
         <v>17</v>
       </c>
       <c r="I226" s="41" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -20122,7 +20119,7 @@
         <v>15</v>
       </c>
       <c r="H238" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I238" s="49"/>
     </row>
@@ -20172,7 +20169,7 @@
         <v>15</v>
       </c>
       <c r="H240" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I240" s="49"/>
     </row>
@@ -20211,7 +20208,7 @@
         <v>854</v>
       </c>
       <c r="C242" s="41" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="D242" s="48"/>
       <c r="E242" s="48" t="s">
@@ -20224,19 +20221,19 @@
         <v>15</v>
       </c>
       <c r="H242" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I242" s="49"/>
     </row>
     <row r="243" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A243" s="39" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B243" s="40" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C243" s="41" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="D243" s="39"/>
       <c r="E243" s="48" t="s">
@@ -21138,7 +21135,7 @@
         <v>858</v>
       </c>
       <c r="C279" s="41" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="D279" s="39"/>
       <c r="E279" s="39" t="s">
@@ -21151,7 +21148,7 @@
         <v>15</v>
       </c>
       <c r="H279" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I279" s="41"/>
     </row>
@@ -21163,7 +21160,7 @@
         <v>858</v>
       </c>
       <c r="C280" s="41" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D280" s="39"/>
       <c r="E280" s="39" t="s">
@@ -21176,7 +21173,7 @@
         <v>15</v>
       </c>
       <c r="H280" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I280" s="41"/>
     </row>
@@ -21188,7 +21185,7 @@
         <v>858</v>
       </c>
       <c r="C281" s="41" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="D281" s="39"/>
       <c r="E281" s="39" t="s">
@@ -21201,7 +21198,7 @@
         <v>15</v>
       </c>
       <c r="H281" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I281" s="41"/>
     </row>
@@ -21213,7 +21210,7 @@
         <v>858</v>
       </c>
       <c r="C282" s="41" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D282" s="39"/>
       <c r="E282" s="39" t="s">
@@ -21226,7 +21223,7 @@
         <v>15</v>
       </c>
       <c r="H282" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I282" s="41"/>
     </row>
@@ -21238,7 +21235,7 @@
         <v>858</v>
       </c>
       <c r="C283" s="41" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="D283" s="39"/>
       <c r="E283" s="39" t="s">
@@ -21251,7 +21248,7 @@
         <v>15</v>
       </c>
       <c r="H283" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I283" s="41"/>
     </row>
@@ -21263,7 +21260,7 @@
         <v>858</v>
       </c>
       <c r="C284" s="41" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D284" s="39"/>
       <c r="E284" s="39" t="s">
@@ -21276,7 +21273,7 @@
         <v>15</v>
       </c>
       <c r="H284" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I284" s="41"/>
     </row>
@@ -21288,7 +21285,7 @@
         <v>858</v>
       </c>
       <c r="C285" s="41" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="D285" s="39"/>
       <c r="E285" s="39" t="s">
@@ -21301,7 +21298,7 @@
         <v>15</v>
       </c>
       <c r="H285" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I285" s="41"/>
     </row>
@@ -21313,7 +21310,7 @@
         <v>858</v>
       </c>
       <c r="C286" s="41" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D286" s="39"/>
       <c r="E286" s="39" t="s">
@@ -21326,7 +21323,7 @@
         <v>15</v>
       </c>
       <c r="H286" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I286" s="41"/>
     </row>
@@ -21351,7 +21348,7 @@
         <v>15</v>
       </c>
       <c r="H287" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I287" s="41"/>
     </row>
@@ -21363,7 +21360,7 @@
         <v>858</v>
       </c>
       <c r="C288" s="41" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="D288" s="39" t="s">
         <v>1886</v>
@@ -21378,7 +21375,7 @@
         <v>15</v>
       </c>
       <c r="H288" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I288" s="41"/>
     </row>
@@ -21390,7 +21387,7 @@
         <v>858</v>
       </c>
       <c r="C289" s="41" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="D289" s="39" t="s">
         <v>1886</v>
@@ -21405,7 +21402,7 @@
         <v>15</v>
       </c>
       <c r="H289" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I289" s="41"/>
     </row>
@@ -21417,7 +21414,7 @@
         <v>858</v>
       </c>
       <c r="C290" s="41" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D290" s="39"/>
       <c r="E290" s="39" t="s">
@@ -21430,7 +21427,7 @@
         <v>15</v>
       </c>
       <c r="H290" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I290" s="41"/>
     </row>
@@ -21442,7 +21439,7 @@
         <v>858</v>
       </c>
       <c r="C291" s="41" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D291" s="39"/>
       <c r="E291" s="39" t="s">
@@ -21455,7 +21452,7 @@
         <v>15</v>
       </c>
       <c r="H291" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I291" s="41"/>
     </row>
@@ -21467,7 +21464,7 @@
         <v>858</v>
       </c>
       <c r="C292" s="41" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D292" s="48"/>
       <c r="E292" s="48" t="s">
@@ -21505,22 +21502,22 @@
         <v>15</v>
       </c>
       <c r="H293" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I293" s="49"/>
     </row>
     <row r="294" spans="1:9" s="37" customFormat="1">
       <c r="A294" s="39" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B294" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C294" s="41" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="D294" s="39" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="E294" s="48" t="s">
         <v>19</v>
@@ -21532,22 +21529,22 @@
         <v>15</v>
       </c>
       <c r="H294" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I294" s="41"/>
     </row>
     <row r="295" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A295" s="39" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B295" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C295" s="41" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="D295" s="39" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="E295" s="48" t="s">
         <v>19</v>
@@ -21559,7 +21556,7 @@
         <v>15</v>
       </c>
       <c r="H295" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I295" s="41"/>
     </row>
@@ -21571,7 +21568,7 @@
         <v>858</v>
       </c>
       <c r="C296" s="41" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D296" s="39"/>
       <c r="E296" s="39" t="s">
@@ -21584,7 +21581,7 @@
         <v>15</v>
       </c>
       <c r="H296" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I296" s="41"/>
     </row>
@@ -21609,7 +21606,7 @@
         <v>15</v>
       </c>
       <c r="H297" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I297" s="41"/>
     </row>
@@ -22911,7 +22908,7 @@
         <v>17</v>
       </c>
       <c r="I348" s="41" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="30">
@@ -23584,13 +23581,13 @@
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="39" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B375" s="40" t="s">
         <v>862</v>
       </c>
       <c r="C375" s="41" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="D375" s="39"/>
       <c r="E375" s="39" t="s">
@@ -23603,7 +23600,7 @@
         <v>15</v>
       </c>
       <c r="H375" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I375" s="41"/>
     </row>
@@ -24516,7 +24513,7 @@
         <v>17</v>
       </c>
       <c r="I411" s="41" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -25101,7 +25098,7 @@
         <v>20</v>
       </c>
       <c r="I434" s="41" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="30">
@@ -29864,7 +29861,7 @@
         <v>873</v>
       </c>
       <c r="C623" s="41" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="D623" s="39"/>
       <c r="E623" s="39" t="s">
@@ -29877,7 +29874,7 @@
         <v>15</v>
       </c>
       <c r="H623" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I623" s="41"/>
     </row>
@@ -29955,7 +29952,7 @@
         <v>17</v>
       </c>
       <c r="I626" s="41" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="627" spans="1:9" s="37" customFormat="1" ht="120">
@@ -29966,7 +29963,7 @@
         <v>874</v>
       </c>
       <c r="C627" s="41" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="D627" s="39"/>
       <c r="E627" s="39" t="s">
@@ -29979,7 +29976,7 @@
         <v>15</v>
       </c>
       <c r="H627" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I627" s="41"/>
     </row>
@@ -30016,7 +30013,7 @@
         <v>874</v>
       </c>
       <c r="C629" s="41" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="D629" s="39"/>
       <c r="E629" s="39" t="s">
@@ -30029,7 +30026,7 @@
         <v>15</v>
       </c>
       <c r="H629" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I629" s="41"/>
     </row>
@@ -30041,7 +30038,7 @@
         <v>874</v>
       </c>
       <c r="C630" s="41" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="D630" s="39"/>
       <c r="E630" s="39" t="s">
@@ -30054,7 +30051,7 @@
         <v>15</v>
       </c>
       <c r="H630" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I630" s="41"/>
     </row>
@@ -30066,7 +30063,7 @@
         <v>874</v>
       </c>
       <c r="C631" s="41" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D631" s="39"/>
       <c r="E631" s="39" t="s">
@@ -30079,7 +30076,7 @@
         <v>15</v>
       </c>
       <c r="H631" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I631" s="41"/>
     </row>
@@ -30091,7 +30088,7 @@
         <v>874</v>
       </c>
       <c r="C632" s="41" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D632" s="39"/>
       <c r="E632" s="39" t="s">
@@ -30104,7 +30101,7 @@
         <v>15</v>
       </c>
       <c r="H632" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I632" s="41"/>
     </row>
@@ -30132,7 +30129,7 @@
         <v>17</v>
       </c>
       <c r="I633" s="41" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="634" spans="1:9" s="37" customFormat="1" ht="135">
@@ -30143,7 +30140,7 @@
         <v>875</v>
       </c>
       <c r="C634" s="41" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D634" s="39"/>
       <c r="E634" s="39" t="s">
@@ -30156,7 +30153,7 @@
         <v>15</v>
       </c>
       <c r="H634" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I634" s="41"/>
     </row>
@@ -30218,7 +30215,7 @@
         <v>875</v>
       </c>
       <c r="C637" s="41" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="D637" s="39"/>
       <c r="E637" s="39" t="s">
@@ -30231,7 +30228,7 @@
         <v>15</v>
       </c>
       <c r="H637" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I637" s="41"/>
     </row>
@@ -30718,7 +30715,7 @@
         <v>877</v>
       </c>
       <c r="C657" s="41" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="D657" s="39"/>
       <c r="E657" s="39" t="s">
@@ -30734,7 +30731,7 @@
         <v>17</v>
       </c>
       <c r="I657" s="41" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="658" spans="1:9" ht="150">
@@ -30911,7 +30908,7 @@
         <v>17</v>
       </c>
       <c r="I664" s="41" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="665" spans="1:9" s="37" customFormat="1" ht="30" hidden="1">
@@ -30988,7 +30985,7 @@
         <v>17</v>
       </c>
       <c r="I667" s="41" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="668" spans="1:9" s="38" customFormat="1">
@@ -32205,7 +32202,7 @@
         <v>885</v>
       </c>
       <c r="C716" s="41" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="D716" s="39"/>
       <c r="E716" s="39" t="s">
@@ -32222,7 +32219,7 @@
       </c>
       <c r="I716" s="41"/>
       <c r="N716" s="37" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="717" spans="1:14" ht="30">
@@ -32635,7 +32632,7 @@
         <v>886</v>
       </c>
       <c r="C733" s="41" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D733" s="39"/>
       <c r="E733" s="39" t="s">
@@ -32660,7 +32657,7 @@
         <v>886</v>
       </c>
       <c r="C734" s="41" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D734" s="39"/>
       <c r="E734" s="39" t="s">
@@ -32912,7 +32909,7 @@
         <v>886</v>
       </c>
       <c r="C744" s="41" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="D744" s="39"/>
       <c r="E744" s="39" t="s">
@@ -32937,7 +32934,7 @@
         <v>886</v>
       </c>
       <c r="C745" s="41" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D745" s="39"/>
       <c r="E745" s="39" t="s">
@@ -32953,7 +32950,7 @@
         <v>17</v>
       </c>
       <c r="I745" s="41" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="746" spans="1:9" ht="30">
@@ -33216,7 +33213,7 @@
         <v>888</v>
       </c>
       <c r="C756" s="41" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D756" s="39"/>
       <c r="E756" s="39" t="s">
@@ -33418,7 +33415,7 @@
         <v>888</v>
       </c>
       <c r="C764" s="41" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D764" s="39"/>
       <c r="E764" s="39" t="s">
@@ -33431,7 +33428,7 @@
         <v>15</v>
       </c>
       <c r="H764" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I764" s="41"/>
     </row>
@@ -33620,7 +33617,7 @@
         <v>889</v>
       </c>
       <c r="C772" s="41" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D772" s="39"/>
       <c r="E772" s="39" t="s">
@@ -33772,7 +33769,7 @@
         <v>890</v>
       </c>
       <c r="C778" s="41" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D778" s="39"/>
       <c r="E778" s="39" t="s">
@@ -33976,7 +33973,7 @@
         <v>890</v>
       </c>
       <c r="C786" s="41" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="D786" s="39"/>
       <c r="E786" s="39" t="s">
@@ -33989,7 +33986,7 @@
         <v>15</v>
       </c>
       <c r="H786" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I786" s="41"/>
     </row>
@@ -34001,7 +33998,7 @@
         <v>890</v>
       </c>
       <c r="C787" s="41" t="s">
-        <v>2091</v>
+        <v>2616</v>
       </c>
       <c r="D787" s="39"/>
       <c r="E787" s="39" t="s">
@@ -34014,7 +34011,7 @@
         <v>15</v>
       </c>
       <c r="H787" s="39" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="I787" s="41"/>
     </row>
@@ -34070,13 +34067,13 @@
     </row>
     <row r="790" spans="1:9" ht="30">
       <c r="A790" s="39" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B790" s="40" t="s">
         <v>891</v>
       </c>
       <c r="C790" s="41" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D790" s="48"/>
       <c r="E790" s="48" t="s">
@@ -34092,18 +34089,18 @@
         <v>17</v>
       </c>
       <c r="I790" s="41" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="791" spans="1:9" s="37" customFormat="1" ht="90">
       <c r="A791" s="39" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B791" s="40" t="s">
         <v>891</v>
       </c>
       <c r="C791" s="41" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D791" s="48"/>
       <c r="E791" s="48" t="s">
@@ -34122,13 +34119,13 @@
     </row>
     <row r="792" spans="1:9" s="37" customFormat="1" ht="195">
       <c r="A792" s="39" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B792" s="50" t="s">
         <v>891</v>
       </c>
       <c r="C792" s="41" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="D792" s="48"/>
       <c r="E792" s="48" t="s">
@@ -34147,13 +34144,13 @@
     </row>
     <row r="793" spans="1:9" ht="30" hidden="1">
       <c r="A793" s="39" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B793" s="40" t="s">
         <v>892</v>
       </c>
       <c r="C793" s="41" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D793" s="48"/>
       <c r="E793" s="48" t="s">
@@ -34172,38 +34169,38 @@
     </row>
     <row r="794" spans="1:9" s="37" customFormat="1" hidden="1">
       <c r="A794" s="39" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B794" s="40" t="s">
         <v>892</v>
       </c>
       <c r="C794" s="41" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="D794" s="48"/>
       <c r="E794" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F794" s="39" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G794" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H794" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I794" s="49"/>
     </row>
     <row r="795" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A795" s="39" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B795" s="40" t="s">
         <v>892</v>
       </c>
       <c r="C795" s="41" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D795" s="39"/>
       <c r="E795" s="39" t="s">
@@ -34216,26 +34213,26 @@
         <v>15</v>
       </c>
       <c r="H795" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I795" s="41"/>
     </row>
     <row r="796" spans="1:9" ht="30" hidden="1">
       <c r="A796" s="39" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B796" s="40" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C796" s="41" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D796" s="48"/>
       <c r="E796" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F796" s="39" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G796" s="48" t="s">
         <v>15</v>
@@ -34247,45 +34244,45 @@
     </row>
     <row r="797" spans="1:9" ht="75" hidden="1">
       <c r="A797" s="39" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B797" s="50" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C797" s="41" t="s">
         <v>2136</v>
-      </c>
-      <c r="B797" s="50" t="s">
-        <v>2115</v>
-      </c>
-      <c r="C797" s="41" t="s">
-        <v>2137</v>
       </c>
       <c r="D797" s="48"/>
       <c r="E797" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F797" s="39" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G797" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H797" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I797" s="49"/>
     </row>
     <row r="798" spans="1:9" ht="30" hidden="1">
       <c r="A798" s="39" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B798" s="40" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C798" s="41" t="s">
         <v>2115</v>
-      </c>
-      <c r="C798" s="41" t="s">
-        <v>2116</v>
       </c>
       <c r="D798" s="48"/>
       <c r="E798" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F798" s="39" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G798" s="48" t="s">
         <v>15</v>
@@ -34297,13 +34294,13 @@
     </row>
     <row r="799" spans="1:9" ht="30" hidden="1">
       <c r="A799" s="39" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B799" s="40" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C799" s="41" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D799" s="48"/>
       <c r="E799" s="48" t="s">
@@ -34322,45 +34319,45 @@
     </row>
     <row r="800" spans="1:9" hidden="1">
       <c r="A800" s="39" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B800" s="40" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C800" s="41" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D800" s="48"/>
       <c r="E800" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F800" s="39" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G800" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H800" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I800" s="49"/>
     </row>
     <row r="801" spans="1:9" ht="30" hidden="1">
       <c r="A801" s="39" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B801" s="40" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C801" s="41" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D801" s="48"/>
       <c r="E801" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F801" s="39" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G801" s="48" t="s">
         <v>15</v>
@@ -34372,45 +34369,45 @@
     </row>
     <row r="802" spans="1:9" ht="30" hidden="1">
       <c r="A802" s="39" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B802" s="40" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C802" s="41" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D802" s="48"/>
       <c r="E802" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F802" s="39" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G802" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H802" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I802" s="49"/>
     </row>
     <row r="803" spans="1:9" ht="30" hidden="1">
       <c r="A803" s="39" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B803" s="40" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C803" s="41" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D803" s="48"/>
       <c r="E803" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F803" s="39" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G803" s="48" t="s">
         <v>15</v>
@@ -34422,13 +34419,13 @@
     </row>
     <row r="804" spans="1:9" ht="30" hidden="1">
       <c r="A804" s="39" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B804" s="40" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C804" s="41" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D804" s="48"/>
       <c r="E804" s="48" t="s">
@@ -34438,7 +34435,7 @@
         <v>3</v>
       </c>
       <c r="G804" s="39" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="H804" s="48" t="s">
         <v>18</v>
@@ -34447,13 +34444,13 @@
     </row>
     <row r="805" spans="1:9" s="37" customFormat="1" ht="75">
       <c r="A805" s="39" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B805" s="50" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C805" s="41" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="D805" s="48"/>
       <c r="E805" s="48" t="s">
@@ -34472,13 +34469,13 @@
     </row>
     <row r="806" spans="1:9" ht="30" hidden="1">
       <c r="A806" s="39" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B806" s="50" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C806" s="41" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D806" s="48"/>
       <c r="E806" s="48" t="s">
@@ -34488,7 +34485,7 @@
         <v>3</v>
       </c>
       <c r="G806" s="39" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="H806" s="48" t="s">
         <v>18</v>
@@ -34497,13 +34494,13 @@
     </row>
     <row r="807" spans="1:9" ht="30" hidden="1">
       <c r="A807" s="39" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B807" s="50" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C807" s="41" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D807" s="48"/>
       <c r="E807" s="48" t="s">
@@ -34522,13 +34519,13 @@
     </row>
     <row r="808" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A808" s="39" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B808" s="50" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C808" s="41" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="D808" s="48"/>
       <c r="E808" s="48" t="s">
@@ -34547,13 +34544,13 @@
     </row>
     <row r="809" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A809" s="39" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B809" s="50" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C809" s="41" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D809" s="48"/>
       <c r="E809" s="48" t="s">
@@ -34566,19 +34563,19 @@
         <v>15</v>
       </c>
       <c r="H809" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I809" s="49"/>
     </row>
     <row r="810" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A810" s="39" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B810" s="50" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C810" s="41" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D810" s="48"/>
       <c r="E810" s="48" t="s">
@@ -34597,13 +34594,13 @@
     </row>
     <row r="811" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A811" s="39" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B811" s="50" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C811" s="41" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D811" s="48"/>
       <c r="E811" s="48" t="s">
@@ -34616,19 +34613,19 @@
         <v>15</v>
       </c>
       <c r="H811" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I811" s="49"/>
     </row>
     <row r="812" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A812" s="39" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B812" s="50" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C812" s="41" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D812" s="48"/>
       <c r="E812" s="48" t="s">
@@ -34647,13 +34644,13 @@
     </row>
     <row r="813" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A813" s="39" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B813" s="50" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C813" s="41" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="D813" s="48"/>
       <c r="E813" s="48" t="s">
@@ -34672,13 +34669,13 @@
     </row>
     <row r="814" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A814" s="39" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B814" s="50" t="s">
         <v>2132</v>
       </c>
-      <c r="B814" s="50" t="s">
-        <v>2133</v>
-      </c>
       <c r="C814" s="41" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D814" s="48"/>
       <c r="E814" s="48" t="s">
@@ -34691,19 +34688,19 @@
         <v>15</v>
       </c>
       <c r="H814" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I814" s="49"/>
     </row>
     <row r="815" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A815" s="39" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B815" s="50" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C815" s="41" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D815" s="48"/>
       <c r="E815" s="48" t="s">
@@ -34716,19 +34713,19 @@
         <v>15</v>
       </c>
       <c r="H815" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I815" s="49"/>
     </row>
     <row r="816" spans="1:9" ht="30" hidden="1">
       <c r="A816" s="39" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B816" s="40" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C816" s="41" t="s">
         <v>2157</v>
-      </c>
-      <c r="C816" s="41" t="s">
-        <v>2158</v>
       </c>
       <c r="D816" s="48"/>
       <c r="E816" s="48" t="s">
@@ -34747,38 +34744,38 @@
     </row>
     <row r="817" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A817" s="51" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B817" s="68" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C817" s="53" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="D817" s="66"/>
       <c r="E817" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F817" s="51" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G817" s="66" t="s">
         <v>15</v>
       </c>
       <c r="H817" s="51" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I817" s="67"/>
     </row>
     <row r="818" spans="1:9" s="74" customFormat="1" hidden="1">
       <c r="A818" s="69" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B818" s="70" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C818" s="71" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D818" s="72"/>
       <c r="E818" s="72" t="s">
@@ -34788,7 +34785,7 @@
         <v>3</v>
       </c>
       <c r="G818" s="69" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="H818" s="72" t="s">
         <v>18</v>
@@ -34797,20 +34794,20 @@
     </row>
     <row r="819" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A819" s="51" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B819" s="52" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C819" s="53" t="s">
         <v>2159</v>
-      </c>
-      <c r="C819" s="53" t="s">
-        <v>2160</v>
       </c>
       <c r="D819" s="66"/>
       <c r="E819" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F819" s="51" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G819" s="66" t="s">
         <v>15</v>
@@ -34822,38 +34819,38 @@
     </row>
     <row r="820" spans="1:9" s="54" customFormat="1" ht="30" hidden="1">
       <c r="A820" s="51" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B820" s="52" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C820" s="53" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D820" s="66"/>
       <c r="E820" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F820" s="51" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G820" s="66" t="s">
         <v>15</v>
       </c>
       <c r="H820" s="51" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I820" s="67"/>
     </row>
     <row r="821" spans="1:9" s="74" customFormat="1" ht="30" hidden="1">
       <c r="A821" s="69" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B821" s="75" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C821" s="71" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="D821" s="72"/>
       <c r="E821" s="72" t="s">
@@ -34863,22 +34860,22 @@
         <v>3</v>
       </c>
       <c r="G821" s="69" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="H821" s="69" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I821" s="73"/>
     </row>
     <row r="822" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A822" s="39" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B822" s="40" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C822" s="41" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="D822" s="48"/>
       <c r="E822" s="48" t="s">
@@ -34897,13 +34894,13 @@
     </row>
     <row r="823" spans="1:9" ht="45" hidden="1">
       <c r="A823" s="39" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B823" s="40" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C823" s="41" t="s">
         <v>2163</v>
-      </c>
-      <c r="C823" s="41" t="s">
-        <v>2164</v>
       </c>
       <c r="D823" s="48"/>
       <c r="E823" s="48" t="s">
@@ -34922,13 +34919,13 @@
     </row>
     <row r="824" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A824" s="39" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B824" s="40" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C824" s="41" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="D824" s="48"/>
       <c r="E824" s="48" t="s">
@@ -34941,19 +34938,19 @@
         <v>15</v>
       </c>
       <c r="H824" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I824" s="49"/>
     </row>
     <row r="825" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A825" s="59" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B825" s="60" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C825" s="61" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D825" s="62"/>
       <c r="E825" s="62" t="s">
@@ -34963,7 +34960,7 @@
         <v>3</v>
       </c>
       <c r="G825" s="59" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="H825" s="62" t="s">
         <v>18</v>
@@ -34972,20 +34969,20 @@
     </row>
     <row r="826" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A826" s="59" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B826" s="60" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C826" s="61" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D826" s="62"/>
       <c r="E826" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F826" s="59" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G826" s="62" t="s">
         <v>15</v>
@@ -34997,20 +34994,20 @@
     </row>
     <row r="827" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A827" s="59" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B827" s="60" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C827" s="61" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D827" s="62"/>
       <c r="E827" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F827" s="59" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G827" s="62" t="s">
         <v>15</v>
@@ -35022,13 +35019,13 @@
     </row>
     <row r="828" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A828" s="39" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B828" s="40" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C828" s="41" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="D828" s="48"/>
       <c r="E828" s="48" t="s">
@@ -35047,13 +35044,13 @@
     </row>
     <row r="829" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A829" s="39" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B829" s="40" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C829" s="41" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="D829" s="48"/>
       <c r="E829" s="48" t="s">
@@ -35072,13 +35069,13 @@
     </row>
     <row r="830" spans="1:9" s="37" customFormat="1" ht="165">
       <c r="A830" s="39" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B830" s="50" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C830" s="41" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D830" s="48"/>
       <c r="E830" s="48" t="s">
@@ -35097,13 +35094,13 @@
     </row>
     <row r="831" spans="1:9" ht="30" hidden="1">
       <c r="A831" s="39" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B831" s="40" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C831" s="41" t="s">
         <v>2192</v>
-      </c>
-      <c r="C831" s="41" t="s">
-        <v>2193</v>
       </c>
       <c r="D831" s="48"/>
       <c r="E831" s="48" t="s">
@@ -35122,13 +35119,13 @@
     </row>
     <row r="832" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A832" s="39" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B832" s="50" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C832" s="41" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D832" s="48"/>
       <c r="E832" s="48" t="s">
@@ -35147,13 +35144,13 @@
     </row>
     <row r="833" spans="1:9" s="37" customFormat="1">
       <c r="A833" s="39" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B833" s="50" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C833" s="41" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="D833" s="48"/>
       <c r="E833" s="48" t="s">
@@ -35166,26 +35163,26 @@
         <v>15</v>
       </c>
       <c r="H833" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I833" s="49"/>
     </row>
     <row r="834" spans="1:9" s="54" customFormat="1" ht="30" hidden="1">
       <c r="A834" s="51" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B834" s="52" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C834" s="53" t="s">
         <v>2194</v>
-      </c>
-      <c r="C834" s="53" t="s">
-        <v>2195</v>
       </c>
       <c r="D834" s="66"/>
       <c r="E834" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F834" s="51" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G834" s="66" t="s">
         <v>15</v>
@@ -35197,20 +35194,20 @@
     </row>
     <row r="835" spans="1:9" s="54" customFormat="1" ht="30" hidden="1">
       <c r="A835" s="51" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B835" s="68" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C835" s="53" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D835" s="66"/>
       <c r="E835" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F835" s="51" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G835" s="66" t="s">
         <v>15</v>
@@ -35222,38 +35219,38 @@
     </row>
     <row r="836" spans="1:9" s="54" customFormat="1" ht="409.5" hidden="1">
       <c r="A836" s="51" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B836" s="68" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C836" s="53" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D836" s="66"/>
       <c r="E836" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F836" s="51" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G836" s="66" t="s">
         <v>15</v>
       </c>
       <c r="H836" s="51" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I836" s="67"/>
     </row>
     <row r="837" spans="1:9" ht="30" hidden="1">
       <c r="A837" s="39" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B837" s="50" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C837" s="41" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D837" s="48"/>
       <c r="E837" s="48" t="s">
@@ -35272,20 +35269,20 @@
     </row>
     <row r="838" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A838" s="51" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B838" s="52" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C838" s="53" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D838" s="66"/>
       <c r="E838" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F838" s="51" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G838" s="66" t="s">
         <v>15</v>
@@ -35297,20 +35294,20 @@
     </row>
     <row r="839" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A839" s="51" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B839" s="68" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C839" s="53" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D839" s="66"/>
       <c r="E839" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F839" s="51" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G839" s="66" t="s">
         <v>15</v>
@@ -35322,20 +35319,20 @@
     </row>
     <row r="840" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A840" s="51" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B840" s="52" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C840" s="53" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D840" s="66"/>
       <c r="E840" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F840" s="51" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G840" s="66" t="s">
         <v>15</v>
@@ -35347,20 +35344,20 @@
     </row>
     <row r="841" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A841" s="51" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B841" s="68" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C841" s="53" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D841" s="66"/>
       <c r="E841" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F841" s="51" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G841" s="66" t="s">
         <v>15</v>
@@ -35372,20 +35369,20 @@
     </row>
     <row r="842" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A842" s="51" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B842" s="68" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C842" s="53" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D842" s="66"/>
       <c r="E842" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F842" s="51" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G842" s="66" t="s">
         <v>15</v>
@@ -35397,20 +35394,20 @@
     </row>
     <row r="843" spans="1:9" s="64" customFormat="1" ht="30" hidden="1">
       <c r="A843" s="59" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B843" s="65" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C843" s="61" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D843" s="62"/>
       <c r="E843" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F843" s="59" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G843" s="62" t="s">
         <v>15</v>
@@ -35422,20 +35419,20 @@
     </row>
     <row r="844" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A844" s="59" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B844" s="65" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C844" s="61" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D844" s="62"/>
       <c r="E844" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F844" s="59" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G844" s="62" t="s">
         <v>15</v>
@@ -35447,20 +35444,20 @@
     </row>
     <row r="845" spans="1:9" s="64" customFormat="1" ht="75" hidden="1">
       <c r="A845" s="59" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B845" s="60" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C845" s="61" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D845" s="62"/>
       <c r="E845" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F845" s="59" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G845" s="62" t="s">
         <v>15</v>
@@ -35472,13 +35469,13 @@
     </row>
     <row r="846" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A846" s="39" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B846" s="40" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C846" s="41" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D846" s="48"/>
       <c r="E846" s="48" t="s">
@@ -35491,19 +35488,19 @@
         <v>15</v>
       </c>
       <c r="H846" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I846" s="49"/>
     </row>
     <row r="847" spans="1:9" s="37" customFormat="1" ht="90">
       <c r="A847" s="39" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B847" s="50" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C847" s="41" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="D847" s="48"/>
       <c r="E847" s="48" t="s">
@@ -35522,13 +35519,13 @@
     </row>
     <row r="848" spans="1:9" ht="30" hidden="1">
       <c r="A848" s="39" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B848" s="50" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C848" s="41" t="s">
         <v>2207</v>
-      </c>
-      <c r="C848" s="41" t="s">
-        <v>2208</v>
       </c>
       <c r="D848" s="48"/>
       <c r="E848" s="48" t="s">
@@ -35547,13 +35544,13 @@
     </row>
     <row r="849" spans="1:9" s="37" customFormat="1">
       <c r="A849" s="39" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B849" s="50" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C849" s="41" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D849" s="48"/>
       <c r="E849" s="48" t="s">
@@ -35572,13 +35569,13 @@
     </row>
     <row r="850" spans="1:9" s="37" customFormat="1">
       <c r="A850" s="39" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B850" s="50" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C850" s="41" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="D850" s="48"/>
       <c r="E850" s="48" t="s">
@@ -35591,19 +35588,19 @@
         <v>15</v>
       </c>
       <c r="H850" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I850" s="49"/>
     </row>
     <row r="851" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A851" s="59" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B851" s="60" t="s">
         <v>2058</v>
       </c>
       <c r="C851" s="61" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D851" s="62"/>
       <c r="E851" s="62" t="s">
@@ -35613,7 +35610,7 @@
         <v>3</v>
       </c>
       <c r="G851" s="59" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="H851" s="62" t="s">
         <v>18</v>
@@ -35622,13 +35619,13 @@
     </row>
     <row r="852" spans="1:9" s="37" customFormat="1" ht="210">
       <c r="A852" s="39" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B852" s="40" t="s">
         <v>2058</v>
       </c>
       <c r="C852" s="41" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D852" s="48"/>
       <c r="E852" s="48" t="s">
@@ -35647,13 +35644,13 @@
     </row>
     <row r="853" spans="1:9" ht="45" hidden="1">
       <c r="A853" s="39" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B853" s="40" t="s">
         <v>2058</v>
       </c>
       <c r="C853" s="41" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D853" s="48"/>
       <c r="E853" s="48" t="s">
@@ -35672,13 +35669,13 @@
     </row>
     <row r="854" spans="1:9" s="37" customFormat="1">
       <c r="A854" s="39" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B854" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C854" s="41" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="D854" s="48"/>
       <c r="E854" s="48" t="s">
@@ -35697,13 +35694,13 @@
     </row>
     <row r="855" spans="1:9" s="37" customFormat="1">
       <c r="A855" s="39" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B855" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C855" s="41" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D855" s="48"/>
       <c r="E855" s="48" t="s">
@@ -35716,19 +35713,19 @@
         <v>15</v>
       </c>
       <c r="H855" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I855" s="49"/>
     </row>
     <row r="856" spans="1:9" s="37" customFormat="1">
       <c r="A856" s="39" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B856" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C856" s="41" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="D856" s="48"/>
       <c r="E856" s="48" t="s">
@@ -35747,13 +35744,13 @@
     </row>
     <row r="857" spans="1:9" s="37" customFormat="1">
       <c r="A857" s="39" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B857" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C857" s="41" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D857" s="48"/>
       <c r="E857" s="48" t="s">
@@ -35766,19 +35763,19 @@
         <v>15</v>
       </c>
       <c r="H857" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I857" s="49"/>
     </row>
     <row r="858" spans="1:9" s="37" customFormat="1">
       <c r="A858" s="39" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B858" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C858" s="41" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D858" s="48"/>
       <c r="E858" s="48" t="s">
@@ -35797,13 +35794,13 @@
     </row>
     <row r="859" spans="1:9" s="37" customFormat="1">
       <c r="A859" s="39" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B859" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C859" s="41" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="D859" s="48"/>
       <c r="E859" s="48" t="s">
@@ -35816,19 +35813,19 @@
         <v>15</v>
       </c>
       <c r="H859" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I859" s="49"/>
     </row>
     <row r="860" spans="1:9" s="37" customFormat="1">
       <c r="A860" s="39" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B860" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C860" s="41" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="D860" s="48"/>
       <c r="E860" s="48" t="s">
@@ -35847,13 +35844,13 @@
     </row>
     <row r="861" spans="1:9" s="37" customFormat="1">
       <c r="A861" s="39" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B861" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C861" s="41" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="D861" s="48"/>
       <c r="E861" s="48" t="s">
@@ -35866,19 +35863,19 @@
         <v>15</v>
       </c>
       <c r="H861" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I861" s="49"/>
     </row>
     <row r="862" spans="1:9" s="37" customFormat="1">
       <c r="A862" s="39" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B862" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C862" s="41" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D862" s="48"/>
       <c r="E862" s="48" t="s">
@@ -35897,13 +35894,13 @@
     </row>
     <row r="863" spans="1:9" s="37" customFormat="1">
       <c r="A863" s="39" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B863" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C863" s="41" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D863" s="48"/>
       <c r="E863" s="48" t="s">
@@ -35916,19 +35913,19 @@
         <v>15</v>
       </c>
       <c r="H863" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I863" s="49"/>
     </row>
     <row r="864" spans="1:9" s="37" customFormat="1">
       <c r="A864" s="39" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B864" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C864" s="41" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D864" s="48"/>
       <c r="E864" s="48" t="s">
@@ -35947,13 +35944,13 @@
     </row>
     <row r="865" spans="1:9" s="37" customFormat="1">
       <c r="A865" s="39" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B865" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C865" s="41" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="D865" s="48"/>
       <c r="E865" s="48" t="s">
@@ -35966,19 +35963,19 @@
         <v>15</v>
       </c>
       <c r="H865" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I865" s="49"/>
     </row>
     <row r="866" spans="1:9" s="37" customFormat="1">
       <c r="A866" s="39" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B866" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C866" s="41" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D866" s="48"/>
       <c r="E866" s="48" t="s">
@@ -35997,13 +35994,13 @@
     </row>
     <row r="867" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A867" s="39" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B867" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C867" s="41" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D867" s="48"/>
       <c r="E867" s="48" t="s">
@@ -36016,19 +36013,19 @@
         <v>15</v>
       </c>
       <c r="H867" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I867" s="49"/>
     </row>
     <row r="868" spans="1:9" s="37" customFormat="1">
       <c r="A868" s="39" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B868" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C868" s="41" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D868" s="48"/>
       <c r="E868" s="48" t="s">
@@ -36047,13 +36044,13 @@
     </row>
     <row r="869" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A869" s="39" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B869" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C869" s="41" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D869" s="48"/>
       <c r="E869" s="48" t="s">
@@ -36066,22 +36063,22 @@
         <v>15</v>
       </c>
       <c r="H869" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I869" s="41"/>
     </row>
     <row r="870" spans="1:9" s="37" customFormat="1">
       <c r="A870" s="39" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B870" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C870" s="41" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D870" s="39" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="E870" s="48" t="s">
         <v>19</v>
@@ -36093,22 +36090,22 @@
         <v>15</v>
       </c>
       <c r="H870" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I870" s="41"/>
     </row>
     <row r="871" spans="1:9" s="37" customFormat="1">
       <c r="A871" s="39" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B871" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C871" s="41" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="D871" s="39" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="E871" s="48" t="s">
         <v>19</v>
@@ -36120,19 +36117,19 @@
         <v>15</v>
       </c>
       <c r="H871" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I871" s="49"/>
     </row>
     <row r="872" spans="1:9" s="37" customFormat="1">
       <c r="A872" s="39" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B872" s="50" t="s">
         <v>2058</v>
       </c>
       <c r="C872" s="41" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="D872" s="48"/>
       <c r="E872" s="48" t="s">
@@ -36151,13 +36148,13 @@
     </row>
     <row r="873" spans="1:9" s="37" customFormat="1">
       <c r="A873" s="39" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B873" s="40" t="s">
         <v>2058</v>
       </c>
       <c r="C873" s="41" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D873" s="48"/>
       <c r="E873" s="48" t="s">
@@ -36170,19 +36167,19 @@
         <v>15</v>
       </c>
       <c r="H873" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I873" s="49"/>
     </row>
     <row r="874" spans="1:9" ht="30" hidden="1">
       <c r="A874" s="39" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B874" s="40" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C874" s="41" t="s">
         <v>2244</v>
-      </c>
-      <c r="C874" s="41" t="s">
-        <v>2245</v>
       </c>
       <c r="D874" s="39"/>
       <c r="E874" s="39" t="s">
@@ -36201,13 +36198,13 @@
     </row>
     <row r="875" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A875" s="59" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B875" s="60" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C875" s="61" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D875" s="59"/>
       <c r="E875" s="59" t="s">
@@ -36217,7 +36214,7 @@
         <v>3</v>
       </c>
       <c r="G875" s="59" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="H875" s="59" t="s">
         <v>18</v>
@@ -36226,13 +36223,13 @@
     </row>
     <row r="876" spans="1:9" s="64" customFormat="1" ht="30" hidden="1">
       <c r="A876" s="59" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B876" s="60" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C876" s="61" t="s">
         <v>2247</v>
-      </c>
-      <c r="C876" s="61" t="s">
-        <v>2248</v>
       </c>
       <c r="D876" s="59"/>
       <c r="E876" s="59" t="s">
@@ -36242,7 +36239,7 @@
         <v>3</v>
       </c>
       <c r="G876" s="59" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="H876" s="59" t="s">
         <v>18</v>
@@ -36251,13 +36248,13 @@
     </row>
     <row r="877" spans="1:9" s="37" customFormat="1" ht="105">
       <c r="A877" s="39" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B877" s="40" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C877" s="41" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="D877" s="39"/>
       <c r="E877" s="39" t="s">
@@ -36276,13 +36273,13 @@
     </row>
     <row r="878" spans="1:9" ht="30" hidden="1">
       <c r="A878" s="39" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B878" s="40" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C878" s="41" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D878" s="39"/>
       <c r="E878" s="39" t="s">
@@ -36301,13 +36298,13 @@
     </row>
     <row r="879" spans="1:9" s="37" customFormat="1">
       <c r="A879" s="39" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B879" s="40" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C879" s="41" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="D879" s="39"/>
       <c r="E879" s="39" t="s">
@@ -36320,19 +36317,19 @@
         <v>15</v>
       </c>
       <c r="H879" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I879" s="41"/>
     </row>
     <row r="880" spans="1:9" s="37" customFormat="1">
       <c r="A880" s="39" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B880" s="40" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C880" s="41" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="D880" s="39"/>
       <c r="E880" s="39" t="s">
@@ -36345,7 +36342,7 @@
         <v>15</v>
       </c>
       <c r="H880" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I880" s="41"/>
     </row>
@@ -36584,7 +36581,7 @@
         <v>1723</v>
       </c>
       <c r="C890" s="41" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D890" s="39"/>
       <c r="E890" s="39" t="s">
@@ -36813,7 +36810,7 @@
         <v>1723</v>
       </c>
       <c r="C899" s="41" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D899" s="39"/>
       <c r="E899" s="39" t="s">
@@ -36826,7 +36823,7 @@
         <v>15</v>
       </c>
       <c r="H899" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I899" s="41"/>
     </row>
@@ -36857,13 +36854,13 @@
     </row>
     <row r="901" spans="1:9" ht="30">
       <c r="A901" s="39" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B901" s="40" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C901" s="41" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D901" s="39"/>
       <c r="E901" s="39" t="s">
@@ -36879,18 +36876,18 @@
         <v>17</v>
       </c>
       <c r="I901" s="41" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="902" spans="1:9" ht="90">
       <c r="A902" s="39" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B902" s="40" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C902" s="41" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D902" s="39"/>
       <c r="E902" s="39" t="s">
@@ -36909,13 +36906,13 @@
     </row>
     <row r="903" spans="1:9" ht="30">
       <c r="A903" s="39" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B903" s="40" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C903" s="41" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D903" s="39"/>
       <c r="E903" s="39" t="s">
@@ -36934,13 +36931,13 @@
     </row>
     <row r="904" spans="1:9" ht="195">
       <c r="A904" s="39" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B904" s="40" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C904" s="41" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D904" s="39"/>
       <c r="E904" s="39" t="s">
@@ -36959,13 +36956,13 @@
     </row>
     <row r="905" spans="1:9" ht="30" hidden="1">
       <c r="A905" s="39" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B905" s="40" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C905" s="41" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D905" s="39"/>
       <c r="E905" s="39" t="s">
@@ -36984,13 +36981,13 @@
     </row>
     <row r="906" spans="1:9" ht="30">
       <c r="A906" s="39" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B906" s="40" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C906" s="41" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D906" s="39"/>
       <c r="E906" s="39" t="s">
@@ -37009,13 +37006,13 @@
     </row>
     <row r="907" spans="1:9" ht="30">
       <c r="A907" s="39" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B907" s="40" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C907" s="41" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D907" s="39"/>
       <c r="E907" s="39" t="s">
@@ -37034,13 +37031,13 @@
     </row>
     <row r="908" spans="1:9" ht="30">
       <c r="A908" s="39" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B908" s="40" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C908" s="41" t="s">
         <v>2271</v>
-      </c>
-      <c r="C908" s="41" t="s">
-        <v>2272</v>
       </c>
       <c r="D908" s="39"/>
       <c r="E908" s="39" t="s">
@@ -37059,13 +37056,13 @@
     </row>
     <row r="909" spans="1:9" ht="90">
       <c r="A909" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B909" s="40" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C909" s="41" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D909" s="39"/>
       <c r="E909" s="39" t="s">
@@ -37084,13 +37081,13 @@
     </row>
     <row r="910" spans="1:9" ht="45">
       <c r="A910" s="39" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B910" s="40" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C910" s="41" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D910" s="39"/>
       <c r="E910" s="39" t="s">
@@ -37109,13 +37106,13 @@
     </row>
     <row r="911" spans="1:9" ht="30" hidden="1">
       <c r="A911" s="39" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B911" s="40" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C911" s="41" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D911" s="39"/>
       <c r="E911" s="39" t="s">
@@ -37134,13 +37131,13 @@
     </row>
     <row r="912" spans="1:9" ht="30">
       <c r="A912" s="39" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B912" s="40" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C912" s="41" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D912" s="39"/>
       <c r="E912" s="39" t="s">
@@ -37159,13 +37156,13 @@
     </row>
     <row r="913" spans="1:9" ht="30">
       <c r="A913" s="39" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B913" s="40" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C913" s="41" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D913" s="39"/>
       <c r="E913" s="39" t="s">
@@ -37184,13 +37181,13 @@
     </row>
     <row r="914" spans="1:9" ht="30">
       <c r="A914" s="39" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B914" s="40" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C914" s="41" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D914" s="39"/>
       <c r="E914" s="39" t="s">
@@ -37209,13 +37206,13 @@
     </row>
     <row r="915" spans="1:9" ht="30">
       <c r="A915" s="39" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B915" s="40" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C915" s="41" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D915" s="39"/>
       <c r="E915" s="39" t="s">
@@ -37234,13 +37231,13 @@
     </row>
     <row r="916" spans="1:9" ht="45">
       <c r="A916" s="39" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B916" s="40" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C916" s="41" t="s">
         <v>2303</v>
-      </c>
-      <c r="C916" s="41" t="s">
-        <v>2304</v>
       </c>
       <c r="D916" s="39"/>
       <c r="E916" s="39" t="s">
@@ -37259,13 +37256,13 @@
     </row>
     <row r="917" spans="1:9" ht="90">
       <c r="A917" s="39" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B917" s="40" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C917" s="41" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D917" s="48"/>
       <c r="E917" s="48" t="s">
@@ -37284,13 +37281,13 @@
     </row>
     <row r="918" spans="1:9" ht="45">
       <c r="A918" s="39" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B918" s="50" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C918" s="41" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D918" s="48"/>
       <c r="E918" s="48" t="s">
@@ -37309,13 +37306,13 @@
     </row>
     <row r="919" spans="1:9" ht="30" hidden="1">
       <c r="A919" s="39" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B919" s="50" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C919" s="41" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D919" s="48"/>
       <c r="E919" s="48" t="s">
@@ -37334,13 +37331,13 @@
     </row>
     <row r="920" spans="1:9" ht="30">
       <c r="A920" s="39" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B920" s="50" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C920" s="41" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D920" s="48"/>
       <c r="E920" s="48" t="s">
@@ -37359,13 +37356,13 @@
     </row>
     <row r="921" spans="1:9" ht="30">
       <c r="A921" s="39" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B921" s="50" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C921" s="41" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D921" s="48"/>
       <c r="E921" s="48" t="s">
@@ -37384,13 +37381,13 @@
     </row>
     <row r="922" spans="1:9" ht="30">
       <c r="A922" s="39" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B922" s="50" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C922" s="41" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D922" s="48"/>
       <c r="E922" s="48" t="s">
@@ -37409,13 +37406,13 @@
     </row>
     <row r="923" spans="1:9" ht="30">
       <c r="A923" s="39" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B923" s="40" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C923" s="41" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D923" s="48"/>
       <c r="E923" s="48" t="s">
@@ -37434,13 +37431,13 @@
     </row>
     <row r="924" spans="1:9" ht="45">
       <c r="A924" s="39" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B924" s="50" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C924" s="41" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D924" s="48"/>
       <c r="E924" s="48" t="s">
@@ -37459,13 +37456,13 @@
     </row>
     <row r="925" spans="1:9" ht="30">
       <c r="A925" s="39" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B925" s="50" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C925" s="41" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D925" s="48"/>
       <c r="E925" s="48" t="s">
@@ -37484,13 +37481,13 @@
     </row>
     <row r="926" spans="1:9" ht="45">
       <c r="A926" s="39" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B926" s="50" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C926" s="41" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D926" s="48"/>
       <c r="E926" s="48" t="s">
@@ -37509,13 +37506,13 @@
     </row>
     <row r="927" spans="1:9" ht="45">
       <c r="A927" s="39" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B927" s="40" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C927" s="41" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D927" s="48"/>
       <c r="E927" s="48" t="s">
@@ -37534,13 +37531,13 @@
     </row>
     <row r="928" spans="1:9" ht="30" hidden="1">
       <c r="A928" s="39" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B928" s="40" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C928" s="41" t="s">
         <v>2316</v>
-      </c>
-      <c r="C928" s="41" t="s">
-        <v>2317</v>
       </c>
       <c r="D928" s="48"/>
       <c r="E928" s="48" t="s">
@@ -37559,13 +37556,13 @@
     </row>
     <row r="929" spans="1:9">
       <c r="A929" s="39" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B929" s="50" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C929" s="41" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D929" s="48"/>
       <c r="E929" s="48" t="s">
@@ -37584,13 +37581,13 @@
     </row>
     <row r="930" spans="1:9" ht="30">
       <c r="A930" s="39" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B930" s="50" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C930" s="41" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D930" s="48"/>
       <c r="E930" s="48" t="s">
@@ -37609,13 +37606,13 @@
     </row>
     <row r="931" spans="1:9" ht="30">
       <c r="A931" s="39" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B931" s="40" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C931" s="41" t="s">
         <v>2320</v>
-      </c>
-      <c r="C931" s="41" t="s">
-        <v>2321</v>
       </c>
       <c r="D931" s="48"/>
       <c r="E931" s="48" t="s">
@@ -37634,13 +37631,13 @@
     </row>
     <row r="932" spans="1:9" ht="30">
       <c r="A932" s="39" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B932" s="40" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="C932" s="41" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D932" s="48"/>
       <c r="E932" s="48" t="s">
@@ -37659,13 +37656,13 @@
     </row>
     <row r="933" spans="1:9" ht="30">
       <c r="A933" s="39" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B933" s="40" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C933" s="41" t="s">
         <v>2323</v>
-      </c>
-      <c r="C933" s="41" t="s">
-        <v>2324</v>
       </c>
       <c r="D933" s="48"/>
       <c r="E933" s="48" t="s">
@@ -37684,13 +37681,13 @@
     </row>
     <row r="934" spans="1:9" ht="45">
       <c r="A934" s="39" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B934" s="40" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C934" s="41" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D934" s="48"/>
       <c r="E934" s="48" t="s">
@@ -37709,13 +37706,13 @@
     </row>
     <row r="935" spans="1:9" ht="60" hidden="1">
       <c r="A935" s="39" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B935" s="40" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C935" s="41" t="s">
         <v>2326</v>
-      </c>
-      <c r="C935" s="41" t="s">
-        <v>2327</v>
       </c>
       <c r="D935" s="48"/>
       <c r="E935" s="48" t="s">
@@ -37734,13 +37731,13 @@
     </row>
     <row r="936" spans="1:9" ht="30">
       <c r="A936" s="39" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B936" s="50" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C936" s="41" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D936" s="48"/>
       <c r="E936" s="48" t="s">
@@ -37759,13 +37756,13 @@
     </row>
     <row r="937" spans="1:9">
       <c r="A937" s="39" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B937" s="50" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C937" s="41" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D937" s="48"/>
       <c r="E937" s="48" t="s">
@@ -37784,13 +37781,13 @@
     </row>
     <row r="938" spans="1:9" ht="30">
       <c r="A938" s="39" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B938" s="50" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C938" s="41" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D938" s="48"/>
       <c r="E938" s="48" t="s">
@@ -37809,13 +37806,13 @@
     </row>
     <row r="939" spans="1:9">
       <c r="A939" s="39" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B939" s="40" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C939" s="41" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D939" s="48"/>
       <c r="E939" s="48" t="s">
@@ -37834,13 +37831,13 @@
     </row>
     <row r="940" spans="1:9" ht="45">
       <c r="A940" s="39" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B940" s="40" t="s">
         <v>2056</v>
       </c>
       <c r="C940" s="41" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D940" s="48"/>
       <c r="E940" s="48" t="s">
@@ -37859,13 +37856,13 @@
     </row>
     <row r="941" spans="1:9" ht="45">
       <c r="A941" s="39" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B941" s="40" t="s">
         <v>2056</v>
       </c>
       <c r="C941" s="41" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D941" s="39"/>
       <c r="E941" s="39" t="s">
@@ -37884,13 +37881,13 @@
     </row>
     <row r="942" spans="1:9" ht="180">
       <c r="A942" s="39" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B942" s="50" t="s">
         <v>2056</v>
       </c>
       <c r="C942" s="41" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D942" s="48"/>
       <c r="E942" s="48" t="s">
@@ -37909,13 +37906,13 @@
     </row>
     <row r="943" spans="1:9" ht="30" hidden="1">
       <c r="A943" s="39" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B943" s="50" t="s">
         <v>2056</v>
       </c>
       <c r="C943" s="41" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D943" s="48"/>
       <c r="E943" s="48" t="s">
@@ -37934,13 +37931,13 @@
     </row>
     <row r="944" spans="1:9" ht="30">
       <c r="A944" s="39" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B944" s="50" t="s">
         <v>2056</v>
       </c>
       <c r="C944" s="41" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D944" s="48"/>
       <c r="E944" s="48" t="s">
@@ -37959,13 +37956,13 @@
     </row>
     <row r="945" spans="1:9" ht="30">
       <c r="A945" s="39" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B945" s="40" t="s">
         <v>2056</v>
       </c>
       <c r="C945" s="41" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D945" s="48"/>
       <c r="E945" s="48" t="s">
@@ -37984,13 +37981,13 @@
     </row>
     <row r="946" spans="1:9" ht="30">
       <c r="A946" s="39" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B946" s="40" t="s">
         <v>2057</v>
       </c>
       <c r="C946" s="41" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D946" s="48"/>
       <c r="E946" s="48" t="s">
@@ -38009,13 +38006,13 @@
     </row>
     <row r="947" spans="1:9" ht="30">
       <c r="A947" s="39" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B947" s="50" t="s">
         <v>2057</v>
       </c>
       <c r="C947" s="41" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D947" s="48"/>
       <c r="E947" s="48" t="s">
@@ -38034,13 +38031,13 @@
     </row>
     <row r="948" spans="1:9" ht="180">
       <c r="A948" s="39" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B948" s="50" t="s">
         <v>2057</v>
       </c>
       <c r="C948" s="41" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D948" s="48"/>
       <c r="E948" s="48" t="s">
@@ -38059,13 +38056,13 @@
     </row>
     <row r="949" spans="1:9" ht="30" hidden="1">
       <c r="A949" s="39" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B949" s="50" t="s">
         <v>2057</v>
       </c>
       <c r="C949" s="41" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D949" s="48"/>
       <c r="E949" s="48" t="s">
@@ -38084,13 +38081,13 @@
     </row>
     <row r="950" spans="1:9" ht="30">
       <c r="A950" s="39" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B950" s="50" t="s">
         <v>2057</v>
       </c>
       <c r="C950" s="41" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D950" s="48"/>
       <c r="E950" s="48" t="s">
@@ -38109,13 +38106,13 @@
     </row>
     <row r="951" spans="1:9">
       <c r="A951" s="39" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B951" s="40" t="s">
         <v>2057</v>
       </c>
       <c r="C951" s="41" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D951" s="48"/>
       <c r="E951" s="48" t="s">
@@ -38134,13 +38131,13 @@
     </row>
     <row r="952" spans="1:9" ht="45">
       <c r="A952" s="39" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B952" s="40" t="s">
         <v>2055</v>
       </c>
       <c r="C952" s="41" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D952" s="39"/>
       <c r="E952" s="39" t="s">
@@ -38159,13 +38156,13 @@
     </row>
     <row r="953" spans="1:9" ht="120">
       <c r="A953" s="39" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B953" s="50" t="s">
         <v>2055</v>
       </c>
       <c r="C953" s="41" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D953" s="48"/>
       <c r="E953" s="48" t="s">
@@ -38184,13 +38181,13 @@
     </row>
     <row r="954" spans="1:9" ht="30" hidden="1">
       <c r="A954" s="39" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B954" s="50" t="s">
         <v>2055</v>
       </c>
       <c r="C954" s="41" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D954" s="48"/>
       <c r="E954" s="48" t="s">
@@ -38209,13 +38206,13 @@
     </row>
     <row r="955" spans="1:9" ht="30">
       <c r="A955" s="39" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B955" s="40" t="s">
         <v>2055</v>
       </c>
       <c r="C955" s="41" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D955" s="39"/>
       <c r="E955" s="39" t="s">
@@ -38234,13 +38231,13 @@
     </row>
     <row r="956" spans="1:9" ht="30">
       <c r="A956" s="39" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B956" s="50" t="s">
         <v>2055</v>
       </c>
       <c r="C956" s="41" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D956" s="48"/>
       <c r="E956" s="48" t="s">
@@ -38259,13 +38256,13 @@
     </row>
     <row r="957" spans="1:9" ht="30">
       <c r="A957" s="39" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B957" s="40" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C957" s="41" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D957" s="48"/>
       <c r="E957" s="48" t="s">
@@ -38284,13 +38281,13 @@
     </row>
     <row r="958" spans="1:9" ht="120">
       <c r="A958" s="39" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B958" s="40" t="s">
         <v>2350</v>
       </c>
-      <c r="B958" s="40" t="s">
-        <v>2351</v>
-      </c>
       <c r="C958" s="41" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D958" s="48"/>
       <c r="E958" s="48" t="s">
@@ -38309,13 +38306,13 @@
     </row>
     <row r="959" spans="1:9" ht="30" hidden="1">
       <c r="A959" s="39" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B959" s="40" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C959" s="41" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D959" s="48"/>
       <c r="E959" s="48" t="s">
@@ -38334,13 +38331,13 @@
     </row>
     <row r="960" spans="1:9" ht="30">
       <c r="A960" s="39" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B960" s="50" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C960" s="41" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D960" s="48"/>
       <c r="E960" s="48" t="s">
@@ -38359,13 +38356,13 @@
     </row>
     <row r="961" spans="1:9">
       <c r="A961" s="39" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B961" s="50" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C961" s="41" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D961" s="48"/>
       <c r="E961" s="48" t="s">
@@ -38384,13 +38381,13 @@
     </row>
     <row r="962" spans="1:9" ht="30">
       <c r="A962" s="39" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B962" s="50" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C962" s="41" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D962" s="48"/>
       <c r="E962" s="48" t="s">
@@ -38409,13 +38406,13 @@
     </row>
     <row r="963" spans="1:9">
       <c r="A963" s="39" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B963" s="40" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C963" s="41" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D963" s="48"/>
       <c r="E963" s="48" t="s">
@@ -38434,13 +38431,13 @@
     </row>
     <row r="964" spans="1:9" ht="30">
       <c r="A964" s="39" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B964" s="40" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C964" s="41" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D964" s="48"/>
       <c r="E964" s="48" t="s">
@@ -38459,13 +38456,13 @@
     </row>
     <row r="965" spans="1:9">
       <c r="A965" s="39" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B965" s="50" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C965" s="41" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D965" s="48"/>
       <c r="E965" s="48" t="s">
@@ -38484,13 +38481,13 @@
     </row>
     <row r="966" spans="1:9" ht="30" hidden="1">
       <c r="A966" s="39" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B966" s="40" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C966" s="41" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D966" s="48"/>
       <c r="E966" s="48" t="s">
@@ -38509,13 +38506,13 @@
     </row>
     <row r="967" spans="1:9">
       <c r="A967" s="39" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B967" s="40" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C967" s="41" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D967" s="48"/>
       <c r="E967" s="48" t="s">
@@ -38534,13 +38531,13 @@
     </row>
     <row r="968" spans="1:9">
       <c r="A968" s="39" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B968" s="40" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C968" s="41" t="s">
         <v>2395</v>
-      </c>
-      <c r="C968" s="41" t="s">
-        <v>2396</v>
       </c>
       <c r="D968" s="48"/>
       <c r="E968" s="48" t="s">
@@ -38559,13 +38556,13 @@
     </row>
     <row r="969" spans="1:9" ht="105">
       <c r="A969" s="39" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B969" s="50" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C969" s="41" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D969" s="48"/>
       <c r="E969" s="48" t="s">
@@ -38584,13 +38581,13 @@
     </row>
     <row r="970" spans="1:9" ht="30" hidden="1">
       <c r="A970" s="39" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B970" s="50" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C970" s="41" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D970" s="48"/>
       <c r="E970" s="48" t="s">
@@ -38609,13 +38606,13 @@
     </row>
     <row r="971" spans="1:9">
       <c r="A971" s="39" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B971" s="50" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C971" s="41" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D971" s="48"/>
       <c r="E971" s="48" t="s">
@@ -38634,13 +38631,13 @@
     </row>
     <row r="972" spans="1:9">
       <c r="A972" s="39" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B972" s="50" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C972" s="41" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D972" s="48"/>
       <c r="E972" s="48" t="s">
@@ -38662,7 +38659,7 @@
         <v>702</v>
       </c>
       <c r="B973" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C973" s="41" t="s">
         <v>1421</v>
@@ -38687,7 +38684,7 @@
         <v>703</v>
       </c>
       <c r="B974" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C974" s="41" t="s">
         <v>1422</v>
@@ -38714,7 +38711,7 @@
         <v>704</v>
       </c>
       <c r="B975" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C975" s="41" t="s">
         <v>1423</v>
@@ -38739,7 +38736,7 @@
         <v>705</v>
       </c>
       <c r="B976" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C976" s="41" t="s">
         <v>1424</v>
@@ -38764,7 +38761,7 @@
         <v>706</v>
       </c>
       <c r="B977" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C977" s="41" t="s">
         <v>1425</v>
@@ -38789,7 +38786,7 @@
         <v>707</v>
       </c>
       <c r="B978" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C978" s="41" t="s">
         <v>1426</v>
@@ -38814,7 +38811,7 @@
         <v>708</v>
       </c>
       <c r="B979" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C979" s="41" t="s">
         <v>1427</v>
@@ -38839,7 +38836,7 @@
         <v>709</v>
       </c>
       <c r="B980" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C980" s="41" t="s">
         <v>1428</v>
@@ -38864,7 +38861,7 @@
         <v>710</v>
       </c>
       <c r="B981" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C981" s="41" t="s">
         <v>1429</v>
@@ -38889,7 +38886,7 @@
         <v>711</v>
       </c>
       <c r="B982" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C982" s="41" t="s">
         <v>1430</v>
@@ -38914,7 +38911,7 @@
         <v>712</v>
       </c>
       <c r="B983" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C983" s="41" t="s">
         <v>1431</v>
@@ -38941,7 +38938,7 @@
         <v>713</v>
       </c>
       <c r="B984" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C984" s="41" t="s">
         <v>1432</v>
@@ -38966,7 +38963,7 @@
         <v>1831</v>
       </c>
       <c r="B985" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C985" s="41" t="s">
         <v>1710</v>
@@ -38991,7 +38988,7 @@
         <v>1832</v>
       </c>
       <c r="B986" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C986" s="41" t="s">
         <v>1711</v>
@@ -39016,7 +39013,7 @@
         <v>1833</v>
       </c>
       <c r="B987" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C987" s="41" t="s">
         <v>1712</v>
@@ -39041,7 +39038,7 @@
         <v>1834</v>
       </c>
       <c r="B988" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C988" s="41" t="s">
         <v>1713</v>
@@ -39066,7 +39063,7 @@
         <v>1835</v>
       </c>
       <c r="B989" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C989" s="41" t="s">
         <v>1714</v>
@@ -39091,7 +39088,7 @@
         <v>1836</v>
       </c>
       <c r="B990" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C990" s="41" t="s">
         <v>1716</v>
@@ -39116,7 +39113,7 @@
         <v>1837</v>
       </c>
       <c r="B991" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C991" s="41" t="s">
         <v>1891</v>
@@ -39141,7 +39138,7 @@
         <v>1892</v>
       </c>
       <c r="B992" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C992" s="41" t="s">
         <v>1890</v>
@@ -39166,7 +39163,7 @@
         <v>1838</v>
       </c>
       <c r="B993" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C993" s="41" t="s">
         <v>1715</v>
@@ -39191,10 +39188,10 @@
         <v>1839</v>
       </c>
       <c r="B994" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C994" s="41" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D994" s="39"/>
       <c r="E994" s="39" t="s">
@@ -39216,7 +39213,7 @@
         <v>1840</v>
       </c>
       <c r="B995" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C995" s="41" t="s">
         <v>1695</v>
@@ -39238,13 +39235,13 @@
     </row>
     <row r="996" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A996" s="39" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B996" s="40" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C996" s="41" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D996" s="48"/>
       <c r="E996" s="48" t="s">
@@ -39257,7 +39254,7 @@
         <v>15</v>
       </c>
       <c r="H996" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I996" s="49"/>
     </row>
@@ -39489,10 +39486,10 @@
         <v>893</v>
       </c>
       <c r="C1005" s="41" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D1005" s="39" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="E1005" s="39" t="s">
         <v>22</v>
@@ -39516,10 +39513,10 @@
         <v>893</v>
       </c>
       <c r="C1006" s="41" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D1006" s="39" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="E1006" s="39" t="s">
         <v>22</v>
@@ -39543,10 +39540,10 @@
         <v>893</v>
       </c>
       <c r="C1007" s="41" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D1007" s="39" t="s">
         <v>2405</v>
-      </c>
-      <c r="D1007" s="39" t="s">
-        <v>2406</v>
       </c>
       <c r="E1007" s="39" t="s">
         <v>22</v>
@@ -39573,7 +39570,7 @@
         <v>1726</v>
       </c>
       <c r="D1008" s="39" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="E1008" s="39" t="s">
         <v>22</v>
@@ -39597,7 +39594,7 @@
         <v>893</v>
       </c>
       <c r="C1009" s="41" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D1009" s="39" t="s">
         <v>1528</v>
@@ -39651,10 +39648,10 @@
         <v>893</v>
       </c>
       <c r="C1011" s="41" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D1011" s="39" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="E1011" s="39" t="s">
         <v>22</v>
@@ -39678,10 +39675,10 @@
         <v>893</v>
       </c>
       <c r="C1012" s="41" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D1012" s="39" t="s">
         <v>2409</v>
-      </c>
-      <c r="D1012" s="39" t="s">
-        <v>2410</v>
       </c>
       <c r="E1012" s="39" t="s">
         <v>22</v>
@@ -39699,13 +39696,13 @@
     </row>
     <row r="1013" spans="1:9" ht="30">
       <c r="A1013" s="39" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B1013" s="43">
         <v>8</v>
       </c>
       <c r="C1013" s="41" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D1013" s="39" t="s">
         <v>1529</v>
@@ -39726,13 +39723,13 @@
     </row>
     <row r="1014" spans="1:9" ht="45">
       <c r="A1014" s="39" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B1014" s="43">
         <v>8</v>
       </c>
       <c r="C1014" s="41" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D1014" s="39" t="s">
         <v>1864</v>
@@ -39747,19 +39744,19 @@
         <v>15</v>
       </c>
       <c r="H1014" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I1014" s="41"/>
     </row>
     <row r="1015" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1015" s="39" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B1015" s="43">
         <v>8</v>
       </c>
       <c r="C1015" s="41" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="D1015" s="39" t="s">
         <v>1864</v>
@@ -39774,19 +39771,19 @@
         <v>15</v>
       </c>
       <c r="H1015" s="39" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="I1015" s="41"/>
     </row>
     <row r="1016" spans="1:9" ht="45">
       <c r="A1016" s="39" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B1016" s="43">
         <v>8</v>
       </c>
       <c r="C1016" s="41" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D1016" s="39" t="s">
         <v>1865</v>
@@ -39807,7 +39804,7 @@
     </row>
     <row r="1017" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1017" s="39" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B1017" s="43">
         <v>8</v>
@@ -39836,13 +39833,13 @@
     </row>
     <row r="1018" spans="1:9" ht="30">
       <c r="A1018" s="39" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B1018" s="43">
         <v>8</v>
       </c>
       <c r="C1018" s="41" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D1018" s="39" t="s">
         <v>1866</v>
@@ -39863,13 +39860,13 @@
     </row>
     <row r="1019" spans="1:9" ht="45">
       <c r="A1019" s="39" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B1019" s="43">
         <v>8</v>
       </c>
       <c r="C1019" s="41" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D1019" s="48" t="s">
         <v>1866</v>
@@ -39892,13 +39889,13 @@
     </row>
     <row r="1020" spans="1:9" ht="30">
       <c r="A1020" s="39" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B1020" s="43">
         <v>8</v>
       </c>
       <c r="C1020" s="41" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D1020" s="39" t="s">
         <v>1867</v>
@@ -39919,13 +39916,13 @@
     </row>
     <row r="1021" spans="1:9" ht="45">
       <c r="A1021" s="39" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B1021" s="43">
         <v>8</v>
       </c>
       <c r="C1021" s="41" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D1021" s="39" t="s">
         <v>1867</v>
@@ -39954,7 +39951,7 @@
         <v>893</v>
       </c>
       <c r="C1022" s="41" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D1022" s="39" t="s">
         <v>1928</v>
@@ -39981,7 +39978,7 @@
         <v>893</v>
       </c>
       <c r="C1023" s="41" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="D1023" s="39" t="s">
         <v>1928</v>
@@ -40004,16 +40001,16 @@
     </row>
     <row r="1024" spans="1:9" ht="45">
       <c r="A1024" s="39" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B1024" s="43">
         <v>8</v>
       </c>
       <c r="C1024" s="41" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D1024" s="39" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E1024" s="48" t="s">
         <v>22</v>
@@ -40031,16 +40028,16 @@
     </row>
     <row r="1025" spans="1:9" ht="45">
       <c r="A1025" s="39" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B1025" s="43">
         <v>8</v>
       </c>
       <c r="C1025" s="41" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D1025" s="39" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E1025" s="48" t="s">
         <v>22</v>
@@ -40066,7 +40063,7 @@
         <v>893</v>
       </c>
       <c r="C1026" s="41" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D1026" s="39" t="s">
         <v>1530</v>
@@ -40095,7 +40092,7 @@
         <v>893</v>
       </c>
       <c r="C1027" s="41" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D1027" s="39" t="s">
         <v>1530</v>
@@ -40122,7 +40119,7 @@
         <v>893</v>
       </c>
       <c r="C1028" s="41" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D1028" s="39" t="s">
         <v>1531</v>
@@ -40178,7 +40175,7 @@
         <v>893</v>
       </c>
       <c r="C1030" s="41" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D1030" s="39" t="s">
         <v>1532</v>
@@ -40205,7 +40202,7 @@
         <v>893</v>
       </c>
       <c r="C1031" s="41" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D1031" s="39" t="s">
         <v>1532</v>
@@ -40228,16 +40225,16 @@
     </row>
     <row r="1032" spans="1:9" ht="45">
       <c r="A1032" s="39" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B1032" s="43">
         <v>8</v>
       </c>
       <c r="C1032" s="41" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D1032" s="39" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E1032" s="48" t="s">
         <v>22</v>
@@ -40257,16 +40254,16 @@
     </row>
     <row r="1033" spans="1:9" ht="30">
       <c r="A1033" s="39" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B1033" s="43">
         <v>8</v>
       </c>
       <c r="C1033" s="41" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D1033" s="39" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E1033" s="48" t="s">
         <v>22</v>
@@ -40284,16 +40281,16 @@
     </row>
     <row r="1034" spans="1:9" ht="30">
       <c r="A1034" s="39" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B1034" s="43">
         <v>8</v>
       </c>
       <c r="C1034" s="41" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="D1034" s="39" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="E1034" s="48" t="s">
         <v>22</v>
@@ -40311,16 +40308,16 @@
     </row>
     <row r="1035" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1035" s="39" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B1035" s="43">
         <v>8</v>
       </c>
       <c r="C1035" s="41" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D1035" s="39" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="E1035" s="48" t="s">
         <v>22</v>
@@ -40346,7 +40343,7 @@
         <v>893</v>
       </c>
       <c r="C1036" s="41" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D1036" s="39" t="s">
         <v>1533</v>
@@ -40373,7 +40370,7 @@
         <v>893</v>
       </c>
       <c r="C1037" s="41" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1037" s="39" t="s">
         <v>1533</v>
@@ -40402,7 +40399,7 @@
         <v>893</v>
       </c>
       <c r="C1038" s="41" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D1038" s="39" t="s">
         <v>1534</v>
@@ -40429,7 +40426,7 @@
         <v>893</v>
       </c>
       <c r="C1039" s="41" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D1039" s="39" t="s">
         <v>1534</v>
@@ -40458,7 +40455,7 @@
         <v>893</v>
       </c>
       <c r="C1040" s="41" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D1040" s="39" t="s">
         <v>1535</v>
@@ -40485,7 +40482,7 @@
         <v>893</v>
       </c>
       <c r="C1041" s="41" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D1041" s="39" t="s">
         <v>1535</v>
@@ -40514,7 +40511,7 @@
         <v>893</v>
       </c>
       <c r="C1042" s="41" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D1042" s="39" t="s">
         <v>1536</v>
@@ -40541,7 +40538,7 @@
         <v>893</v>
       </c>
       <c r="C1043" s="41" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D1043" s="39" t="s">
         <v>1536</v>
@@ -40570,7 +40567,7 @@
         <v>893</v>
       </c>
       <c r="C1044" s="41" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D1044" s="39" t="s">
         <v>1537</v>
@@ -40597,7 +40594,7 @@
         <v>893</v>
       </c>
       <c r="C1045" s="41" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D1045" s="39" t="s">
         <v>1537</v>
@@ -40626,7 +40623,7 @@
         <v>893</v>
       </c>
       <c r="C1046" s="41" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D1046" s="39" t="s">
         <v>1538</v>
@@ -40653,7 +40650,7 @@
         <v>893</v>
       </c>
       <c r="C1047" s="41" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D1047" s="39" t="s">
         <v>1538</v>
@@ -40682,7 +40679,7 @@
         <v>893</v>
       </c>
       <c r="C1048" s="41" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D1048" s="39" t="s">
         <v>1539</v>
@@ -40709,7 +40706,7 @@
         <v>893</v>
       </c>
       <c r="C1049" s="41" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1049" s="42" t="s">
         <v>1539</v>
@@ -40736,7 +40733,7 @@
         <v>893</v>
       </c>
       <c r="C1050" s="41" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1050" s="39" t="s">
         <v>1540</v>
@@ -40763,7 +40760,7 @@
         <v>893</v>
       </c>
       <c r="C1051" s="41" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D1051" s="42" t="s">
         <v>1540</v>
@@ -40790,7 +40787,7 @@
         <v>893</v>
       </c>
       <c r="C1052" s="41" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D1052" s="39" t="s">
         <v>1541</v>
@@ -40817,7 +40814,7 @@
         <v>893</v>
       </c>
       <c r="C1053" s="41" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1053" s="39" t="s">
         <v>1541</v>
@@ -40846,7 +40843,7 @@
         <v>893</v>
       </c>
       <c r="C1054" s="41" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1054" s="39" t="s">
         <v>1542</v>
@@ -40902,7 +40899,7 @@
         <v>893</v>
       </c>
       <c r="C1056" s="41" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D1056" s="39" t="s">
         <v>1868</v>
@@ -40929,7 +40926,7 @@
         <v>893</v>
       </c>
       <c r="C1057" s="41" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D1057" s="39" t="s">
         <v>1868</v>
@@ -40956,7 +40953,7 @@
         <v>893</v>
       </c>
       <c r="C1058" s="41" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1058" s="39" t="s">
         <v>1543</v>
@@ -41012,7 +41009,7 @@
         <v>893</v>
       </c>
       <c r="C1060" s="41" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1060" s="39" t="s">
         <v>1544</v>
@@ -41068,7 +41065,7 @@
         <v>893</v>
       </c>
       <c r="C1062" s="41" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1062" s="39" t="s">
         <v>1545</v>
@@ -41124,7 +41121,7 @@
         <v>893</v>
       </c>
       <c r="C1064" s="41" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D1064" s="39" t="s">
         <v>1546</v>
@@ -41180,7 +41177,7 @@
         <v>893</v>
       </c>
       <c r="C1066" s="41" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1066" s="39" t="s">
         <v>1547</v>
@@ -41236,7 +41233,7 @@
         <v>893</v>
       </c>
       <c r="C1068" s="41" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1068" s="39" t="s">
         <v>1869</v>
@@ -41292,7 +41289,7 @@
         <v>893</v>
       </c>
       <c r="C1070" s="41" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1070" s="39" t="s">
         <v>1548</v>
@@ -41348,7 +41345,7 @@
         <v>8</v>
       </c>
       <c r="C1072" s="41" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1072" s="39" t="s">
         <v>1870</v>
@@ -41398,13 +41395,13 @@
     </row>
     <row r="1074" spans="1:9" ht="45">
       <c r="A1074" s="39" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B1074" s="43">
         <v>8</v>
       </c>
       <c r="C1074" s="41" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D1074" s="39" t="s">
         <v>1918</v>
@@ -41425,13 +41422,13 @@
     </row>
     <row r="1075" spans="1:9" ht="45">
       <c r="A1075" s="39" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B1075" s="43">
         <v>8</v>
       </c>
       <c r="C1075" s="41" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D1075" s="39" t="s">
         <v>1918</v>
@@ -41460,7 +41457,7 @@
         <v>893</v>
       </c>
       <c r="C1076" s="41" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D1076" s="39" t="s">
         <v>1549</v>
@@ -41489,7 +41486,7 @@
         <v>893</v>
       </c>
       <c r="C1077" s="41" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D1077" s="39" t="s">
         <v>1549</v>
@@ -41516,7 +41513,7 @@
         <v>893</v>
       </c>
       <c r="C1078" s="41" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D1078" s="39" t="s">
         <v>1550</v>
@@ -41543,7 +41540,7 @@
         <v>893</v>
       </c>
       <c r="C1079" s="41" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D1079" s="39" t="s">
         <v>1550</v>
@@ -41572,7 +41569,7 @@
         <v>893</v>
       </c>
       <c r="C1080" s="41" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D1080" s="39" t="s">
         <v>1551</v>
@@ -41599,7 +41596,7 @@
         <v>893</v>
       </c>
       <c r="C1081" s="41" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D1081" s="39" t="s">
         <v>1551</v>
@@ -41622,16 +41619,16 @@
     </row>
     <row r="1082" spans="1:9" ht="60">
       <c r="A1082" s="39" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B1082" s="43">
         <v>8</v>
       </c>
       <c r="C1082" s="41" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D1082" s="39" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="E1082" s="48" t="s">
         <v>22</v>
@@ -41651,7 +41648,7 @@
     </row>
     <row r="1083" spans="1:9" ht="30">
       <c r="A1083" s="39" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B1083" s="43">
         <v>8</v>
@@ -41660,7 +41657,7 @@
         <v>1916</v>
       </c>
       <c r="D1083" s="39" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="E1083" s="48" t="s">
         <v>22</v>
@@ -41684,7 +41681,7 @@
         <v>893</v>
       </c>
       <c r="C1084" s="41" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D1084" s="39" t="s">
         <v>1552</v>
@@ -41711,7 +41708,7 @@
         <v>893</v>
       </c>
       <c r="C1085" s="41" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D1085" s="39" t="s">
         <v>1552</v>
@@ -41740,7 +41737,7 @@
         <v>893</v>
       </c>
       <c r="C1086" s="41" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D1086" s="39" t="s">
         <v>1553</v>
@@ -41767,7 +41764,7 @@
         <v>893</v>
       </c>
       <c r="C1087" s="41" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D1087" s="39" t="s">
         <v>1553</v>
@@ -41796,7 +41793,7 @@
         <v>893</v>
       </c>
       <c r="C1088" s="41" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D1088" s="39" t="s">
         <v>1554</v>
@@ -41823,7 +41820,7 @@
         <v>893</v>
       </c>
       <c r="C1089" s="41" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D1089" s="39" t="s">
         <v>1554</v>
@@ -41852,7 +41849,7 @@
         <v>893</v>
       </c>
       <c r="C1090" s="41" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D1090" s="39" t="s">
         <v>1555</v>
@@ -41879,7 +41876,7 @@
         <v>893</v>
       </c>
       <c r="C1091" s="41" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D1091" s="39" t="s">
         <v>1555</v>
@@ -41908,7 +41905,7 @@
         <v>893</v>
       </c>
       <c r="C1092" s="41" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D1092" s="39" t="s">
         <v>1556</v>
@@ -41935,7 +41932,7 @@
         <v>893</v>
       </c>
       <c r="C1093" s="41" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D1093" s="39" t="s">
         <v>1556</v>
@@ -41964,7 +41961,7 @@
         <v>893</v>
       </c>
       <c r="C1094" s="41" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D1094" s="39" t="s">
         <v>1557</v>
@@ -42020,7 +42017,7 @@
         <v>893</v>
       </c>
       <c r="C1096" s="41" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D1096" s="39" t="s">
         <v>1558</v>
@@ -42076,7 +42073,7 @@
         <v>893</v>
       </c>
       <c r="C1098" s="41" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D1098" s="39" t="s">
         <v>1559</v>
@@ -42132,7 +42129,7 @@
         <v>893</v>
       </c>
       <c r="C1100" s="41" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D1100" s="39" t="s">
         <v>1560</v>
@@ -42188,7 +42185,7 @@
         <v>893</v>
       </c>
       <c r="C1102" s="41" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D1102" s="39" t="s">
         <v>1561</v>
@@ -42244,7 +42241,7 @@
         <v>893</v>
       </c>
       <c r="C1104" s="41" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D1104" s="39" t="s">
         <v>1562</v>
@@ -42298,7 +42295,7 @@
         <v>893</v>
       </c>
       <c r="C1106" s="41" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D1106" s="39" t="s">
         <v>1563</v>
@@ -42352,7 +42349,7 @@
         <v>893</v>
       </c>
       <c r="C1108" s="41" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D1108" s="39" t="s">
         <v>1564</v>
@@ -42379,7 +42376,7 @@
         <v>893</v>
       </c>
       <c r="C1109" s="41" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D1109" s="39" t="s">
         <v>1564</v>
@@ -42408,7 +42405,7 @@
         <v>893</v>
       </c>
       <c r="C1110" s="41" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D1110" s="39" t="s">
         <v>1565</v>
@@ -42462,7 +42459,7 @@
         <v>893</v>
       </c>
       <c r="C1112" s="41" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D1112" s="39" t="s">
         <v>1871</v>
@@ -42518,7 +42515,7 @@
         <v>893</v>
       </c>
       <c r="C1114" s="41" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D1114" s="39" t="s">
         <v>1566</v>
@@ -42547,7 +42544,7 @@
         <v>893</v>
       </c>
       <c r="C1115" s="41" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D1115" s="39" t="s">
         <v>1567</v>
@@ -42601,7 +42598,7 @@
         <v>893</v>
       </c>
       <c r="C1117" s="41" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D1117" s="39" t="s">
         <v>1568</v>
@@ -42655,7 +42652,7 @@
         <v>893</v>
       </c>
       <c r="C1119" s="41" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D1119" s="39" t="s">
         <v>1569</v>
@@ -42709,7 +42706,7 @@
         <v>893</v>
       </c>
       <c r="C1121" s="41" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D1121" s="39" t="s">
         <v>1872</v>
@@ -42736,7 +42733,7 @@
         <v>893</v>
       </c>
       <c r="C1122" s="41" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="D1122" s="39" t="s">
         <v>1872</v>
@@ -42751,10 +42748,10 @@
         <v>15</v>
       </c>
       <c r="H1122" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I1122" s="41" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1123" spans="1:9" ht="45">
@@ -42765,7 +42762,7 @@
         <v>893</v>
       </c>
       <c r="C1123" s="41" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="D1123" s="39" t="s">
         <v>1873</v>
@@ -42792,7 +42789,7 @@
         <v>893</v>
       </c>
       <c r="C1124" s="41" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="D1124" s="39" t="s">
         <v>1873</v>
@@ -42807,10 +42804,10 @@
         <v>15</v>
       </c>
       <c r="H1124" s="39" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="I1124" s="41" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1125" spans="1:9" ht="30">
@@ -42821,7 +42818,7 @@
         <v>893</v>
       </c>
       <c r="C1125" s="41" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="D1125" s="39" t="s">
         <v>1570</v>
@@ -42869,16 +42866,16 @@
     </row>
     <row r="1127" spans="1:9" ht="30">
       <c r="A1127" s="39" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B1127" s="43">
         <v>8</v>
       </c>
       <c r="C1127" s="41" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="D1127" s="39" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="E1127" s="48" t="s">
         <v>22</v>
@@ -42896,16 +42893,16 @@
     </row>
     <row r="1128" spans="1:9" ht="45">
       <c r="A1128" s="39" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B1128" s="43">
         <v>8</v>
       </c>
       <c r="C1128" s="41" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="D1128" s="48" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="E1128" s="48" t="s">
         <v>22</v>
@@ -42931,7 +42928,7 @@
         <v>893</v>
       </c>
       <c r="C1129" s="41" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="D1129" s="39" t="s">
         <v>1571</v>
@@ -42985,7 +42982,7 @@
         <v>893</v>
       </c>
       <c r="C1131" s="41" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="D1131" s="39" t="s">
         <v>1572</v>
@@ -43039,7 +43036,7 @@
         <v>893</v>
       </c>
       <c r="C1133" s="41" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="D1133" s="39" t="s">
         <v>1573</v>
@@ -43087,16 +43084,16 @@
     </row>
     <row r="1135" spans="1:9" ht="60">
       <c r="A1135" s="39" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B1135" s="43">
         <v>8</v>
       </c>
       <c r="C1135" s="41" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="D1135" s="39" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="E1135" s="48" t="s">
         <v>22</v>
@@ -43114,16 +43111,16 @@
     </row>
     <row r="1136" spans="1:9" ht="45">
       <c r="A1136" s="39" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B1136" s="43">
         <v>8</v>
       </c>
       <c r="C1136" s="41" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D1136" s="39" t="s">
         <v>2533</v>
-      </c>
-      <c r="D1136" s="39" t="s">
-        <v>2534</v>
       </c>
       <c r="E1136" s="48" t="s">
         <v>22</v>
@@ -43149,7 +43146,7 @@
         <v>893</v>
       </c>
       <c r="C1137" s="41" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D1137" s="39" t="s">
         <v>1574</v>
@@ -43228,16 +43225,16 @@
     </row>
     <row r="1140" spans="1:9" ht="30">
       <c r="A1140" s="39" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B1140" s="43">
         <v>8</v>
       </c>
       <c r="C1140" s="41" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D1140" s="39" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E1140" s="48" t="s">
         <v>22</v>
@@ -43255,16 +43252,16 @@
     </row>
     <row r="1141" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1141" s="39" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B1141" s="43">
         <v>8</v>
       </c>
       <c r="C1141" s="41" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D1141" s="39" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E1141" s="48" t="s">
         <v>22</v>
@@ -43284,16 +43281,16 @@
     </row>
     <row r="1142" spans="1:9" ht="45">
       <c r="A1142" s="39" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B1142" s="43">
         <v>8</v>
       </c>
       <c r="C1142" s="41" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D1142" s="39" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="E1142" s="48" t="s">
         <v>22</v>
@@ -43311,16 +43308,16 @@
     </row>
     <row r="1143" spans="1:9" ht="45">
       <c r="A1143" s="39" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B1143" s="43">
         <v>8</v>
       </c>
       <c r="C1143" s="41" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="D1143" s="39" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="E1143" s="48" t="s">
         <v>22</v>
@@ -43443,7 +43440,7 @@
         <v>802</v>
       </c>
       <c r="B1148" s="40" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C1148" s="41" t="s">
         <v>1456</v>
@@ -43468,7 +43465,7 @@
         <v>803</v>
       </c>
       <c r="B1149" s="40" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C1149" s="41" t="s">
         <v>1457</v>
@@ -43495,7 +43492,7 @@
         <v>804</v>
       </c>
       <c r="B1150" s="40" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C1150" s="41" t="s">
         <v>1458</v>
@@ -43522,7 +43519,7 @@
         <v>805</v>
       </c>
       <c r="B1151" s="40" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C1151" s="41" t="s">
         <v>1459</v>
@@ -43549,7 +43546,7 @@
         <v>806</v>
       </c>
       <c r="B1152" s="40" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C1152" s="41" t="s">
         <v>1460</v>
@@ -43576,7 +43573,7 @@
         <v>807</v>
       </c>
       <c r="B1153" s="40" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C1153" s="41" t="s">
         <v>1461</v>
@@ -43603,10 +43600,10 @@
         <v>808</v>
       </c>
       <c r="B1154" s="40" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1154" s="41" t="s">
         <v>2549</v>
-      </c>
-      <c r="C1154" s="41" t="s">
-        <v>2550</v>
       </c>
       <c r="D1154" s="39"/>
       <c r="E1154" s="39" t="s">
@@ -43628,7 +43625,7 @@
         <v>809</v>
       </c>
       <c r="B1155" s="40" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C1155" s="41" t="s">
         <v>1462</v>
@@ -43653,7 +43650,7 @@
         <v>810</v>
       </c>
       <c r="B1156" s="40" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C1156" s="41" t="s">
         <v>1463</v>
@@ -43678,7 +43675,7 @@
         <v>811</v>
       </c>
       <c r="B1157" s="40" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C1157" s="41" t="s">
         <v>1464</v>
@@ -43705,7 +43702,7 @@
         <v>812</v>
       </c>
       <c r="B1158" s="40" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C1158" s="41" t="s">
         <v>1465</v>
@@ -43730,7 +43727,7 @@
         <v>1919</v>
       </c>
       <c r="B1159" s="40" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C1159" s="41" t="s">
         <v>1920</v>
@@ -43885,7 +43882,7 @@
         <v>864</v>
       </c>
       <c r="C1165" s="41" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="D1165" s="39"/>
       <c r="E1165" s="39" t="s">
@@ -44032,7 +44029,7 @@
         <v>824</v>
       </c>
       <c r="B1171" s="40" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C1171" s="41" t="s">
         <v>1476</v>
@@ -44057,7 +44054,7 @@
         <v>825</v>
       </c>
       <c r="B1172" s="40" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C1172" s="41" t="s">
         <v>1477</v>
@@ -44082,7 +44079,7 @@
         <v>826</v>
       </c>
       <c r="B1173" s="40" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="C1173" s="41" t="s">
         <v>1478</v>
@@ -44107,7 +44104,7 @@
         <v>827</v>
       </c>
       <c r="B1174" s="40" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C1174" s="41" t="s">
         <v>1479</v>
@@ -44132,7 +44129,7 @@
         <v>828</v>
       </c>
       <c r="B1175" s="40" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C1175" s="41" t="s">
         <v>1480</v>
@@ -44157,7 +44154,7 @@
         <v>829</v>
       </c>
       <c r="B1176" s="40" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C1176" s="41" t="s">
         <v>1481</v>
@@ -44182,7 +44179,7 @@
         <v>830</v>
       </c>
       <c r="B1177" s="40" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C1177" s="41" t="s">
         <v>1482</v>
@@ -44207,7 +44204,7 @@
         <v>831</v>
       </c>
       <c r="B1178" s="40" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C1178" s="41" t="s">
         <v>1483</v>
@@ -44232,7 +44229,7 @@
         <v>832</v>
       </c>
       <c r="B1179" s="40" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C1179" s="41" t="s">
         <v>1484</v>
@@ -44257,7 +44254,7 @@
         <v>833</v>
       </c>
       <c r="B1180" s="40" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C1180" s="41" t="s">
         <v>1485</v>
@@ -44307,7 +44304,7 @@
         <v>835</v>
       </c>
       <c r="B1182" s="40" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C1182" s="41" t="s">
         <v>1487</v>
@@ -44385,7 +44382,7 @@
         <v>893</v>
       </c>
       <c r="C1185" s="41" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="D1185" s="39" t="s">
         <v>1575</v>
@@ -44495,7 +44492,7 @@
         <v>893</v>
       </c>
       <c r="C1189" s="41" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="D1189" s="39" t="s">
         <v>1576</v>
@@ -44551,17 +44548,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1050:I1050 A1117:I1117 A1119:I1119 A1125:I1125 A1129:I1129 A1131:I1131 A1133:I1133 A1137:I1143 E133:H133 E148:H148 E198:H198 E351:H351 E1030:I1030 E1036:I1048 E1080:I1080 E1092:I1092 E131:I132 E130:H130 E349:I350 E348:H348 E211:H212 E341:I347 E433:I460 E431:H432 E463:I469 E461:H462 E470:H470 E1155:I1190 E1154:H1154 E1144:I1153 E1029:H1029 E1031:H1035 E1079:H1079 E1081:H1083 E1091:H1091 E1093:H1093 E1101:H1101 C1049:E1049 C1051:E1051 C1116:E1116 C1118:E1118 C1120:E1120 C1126:E1128 C1130:E1130 C1132:E1132 E332:H334 E134:I147 A1026:D1048 E199:I208 E1028:I1028 E1026:H1027 E210:I210 E209:H209 E325:I331 E324:H324 E430:I430 E429:H429 E471:I484 E107:I129 E106:H106 I81 A278:I278 H279:I279 E336:H340 A81 A279 A335 E1078:I1078 A1076:I1077 A1144:D1190 E1071:H1071 E1072:I1075 A20:I80 A82:I86 E87:I105 E149:I197 A298:D334 E298:I323 A795:B795 D795:I795 A847:B847 D847:I847 A1022:B1025 D1022:I1025 A1052:D1075 E1052:I1070 E1084:I1090 E1094:I1100 E1102:I1109 A1078:D1109 A1110:I1110 I1112 C1111:E1111 H1111 A1112:H1114 A1115:I1115 H1120 A1121:A1124 C1121:H1124 C1134:H1136 A796:I846 A87:D277 E213:I277 A280:I297 A336:D484 E352:I428 A485:I794 A848:I869 A872:I1012 A870:C871 E870:I871">
@@ -46751,6 +46748,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -46799,12 +46802,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -46815,6 +46812,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46829,20 +46840,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EWS&amp;EAS\MS-OXWSMTGS\MS-OXWSMTGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EWS&amp;EAS\MS-OXWSMTGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD70966-CC50-4F70-B85F-EBA73F7E7597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F3CDB4-0439-4559-A702-D0EA65E661C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10321,6 +10321,30 @@
     <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10353,30 +10377,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14273,16 +14273,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="25"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -14294,13 +14294,13 @@
       <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -14308,16 +14308,16 @@
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -14325,16 +14325,16 @@
       <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -14342,16 +14342,16 @@
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -14359,16 +14359,16 @@
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -14376,16 +14376,16 @@
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="87" t="s">
         <v>1649</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -14393,16 +14393,16 @@
       <c r="A11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="90" t="s">
         <v>1650</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -14486,16 +14486,16 @@
       <c r="A16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="86"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -14503,16 +14503,16 @@
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -14520,16 +14520,16 @@
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="84" t="s">
         <v>1651</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="78"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="86"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -30026,7 +30026,7 @@
         <v>15</v>
       </c>
       <c r="H629" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I629" s="41"/>
     </row>
@@ -30051,7 +30051,7 @@
         <v>15</v>
       </c>
       <c r="H630" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I630" s="41"/>
     </row>
@@ -30076,7 +30076,7 @@
         <v>15</v>
       </c>
       <c r="H631" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I631" s="41"/>
     </row>
@@ -30101,7 +30101,7 @@
         <v>15</v>
       </c>
       <c r="H632" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I632" s="41"/>
     </row>
@@ -30228,7 +30228,7 @@
         <v>15</v>
       </c>
       <c r="H637" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I637" s="41"/>
     </row>
@@ -30253,7 +30253,7 @@
         <v>15</v>
       </c>
       <c r="H638" s="39" t="s">
-        <v>18</v>
+        <v>2573</v>
       </c>
       <c r="I638" s="41"/>
     </row>
@@ -44548,17 +44548,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1050:I1050 A1117:I1117 A1119:I1119 A1125:I1125 A1129:I1129 A1131:I1131 A1133:I1133 A1137:I1143 E133:H133 E148:H148 E198:H198 E351:H351 E1030:I1030 E1036:I1048 E1080:I1080 E1092:I1092 E131:I132 E130:H130 E349:I350 E348:H348 E211:H212 E341:I347 E433:I460 E431:H432 E463:I469 E461:H462 E470:H470 E1155:I1190 E1154:H1154 E1144:I1153 E1029:H1029 E1031:H1035 E1079:H1079 E1081:H1083 E1091:H1091 E1093:H1093 E1101:H1101 C1049:E1049 C1051:E1051 C1116:E1116 C1118:E1118 C1120:E1120 C1126:E1128 C1130:E1130 C1132:E1132 E332:H334 E134:I147 A1026:D1048 E199:I208 E1028:I1028 E1026:H1027 E210:I210 E209:H209 E325:I331 E324:H324 E430:I430 E429:H429 E471:I484 E107:I129 E106:H106 I81 A278:I278 H279:I279 E336:H340 A81 A279 A335 E1078:I1078 A1076:I1077 A1144:D1190 E1071:H1071 E1072:I1075 A20:I80 A82:I86 E87:I105 E149:I197 A298:D334 E298:I323 A795:B795 D795:I795 A847:B847 D847:I847 A1022:B1025 D1022:I1025 A1052:D1075 E1052:I1070 E1084:I1090 E1094:I1100 E1102:I1109 A1078:D1109 A1110:I1110 I1112 C1111:E1111 H1111 A1112:H1114 A1115:I1115 H1120 A1121:A1124 C1121:H1124 C1134:H1136 A796:I846 A87:D277 E213:I277 A280:I297 A336:D484 E352:I428 A485:I794 A848:I869 A872:I1012 A870:C871 E870:I871">
@@ -46748,12 +46748,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -46802,6 +46796,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -46812,20 +46812,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46840,6 +46826,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EWS&amp;EAS\MS-OXWSMTGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F3CDB4-0439-4559-A702-D0EA65E661C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3175EA-B0CA-41ED-A779-738572F1934D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <definedName name="ScopeList">Requirements!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -6927,9 +6928,6 @@
     <t>[In t:InboxReminderType] IsOrganizerReminder: Specifies whether this is an organizer inbox reminder.</t>
   </si>
   <si>
-    <t>[In t:InboxReminderType] EmailReminderSendOption: Specifies the send option.</t>
-  </si>
-  <si>
     <t>MS-OXWSMTGS_R1067:c</t>
   </si>
   <si>
@@ -9848,6 +9846,10 @@
   </si>
   <si>
     <t>[In Messages] ErrorCalendarCannotUseIdForOccurrenceId: Specifies that the OccurrenceId ([MS-OXWSCORE] section 2.2.4.39) does not correspond to a valid occurrence of a recurring master item .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:InboxReminderType] SendOption: Specifies the send option.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15199,7 +15201,7 @@
         <v>849</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="39" t="s">
@@ -15299,7 +15301,7 @@
         <v>849</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D49" s="39"/>
       <c r="E49" s="39" t="s">
@@ -15324,7 +15326,7 @@
         <v>849</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D50" s="39"/>
       <c r="E50" s="39" t="s">
@@ -15349,7 +15351,7 @@
         <v>849</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="39" t="s">
@@ -15374,7 +15376,7 @@
         <v>849</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D52" s="39"/>
       <c r="E52" s="39" t="s">
@@ -15399,7 +15401,7 @@
         <v>849</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D53" s="39"/>
       <c r="E53" s="39" t="s">
@@ -15424,7 +15426,7 @@
         <v>849</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D54" s="39"/>
       <c r="E54" s="39" t="s">
@@ -15449,7 +15451,7 @@
         <v>849</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D55" s="39"/>
       <c r="E55" s="39" t="s">
@@ -15474,7 +15476,7 @@
         <v>849</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="39" t="s">
@@ -15499,7 +15501,7 @@
         <v>849</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D57" s="39"/>
       <c r="E57" s="39" t="s">
@@ -15524,7 +15526,7 @@
         <v>849</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D58" s="39"/>
       <c r="E58" s="39" t="s">
@@ -15549,7 +15551,7 @@
         <v>849</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="39" t="s">
@@ -15574,7 +15576,7 @@
         <v>849</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D60" s="39"/>
       <c r="E60" s="39" t="s">
@@ -15599,7 +15601,7 @@
         <v>849</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D61" s="39"/>
       <c r="E61" s="39" t="s">
@@ -15624,7 +15626,7 @@
         <v>849</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D62" s="39"/>
       <c r="E62" s="39" t="s">
@@ -15649,7 +15651,7 @@
         <v>849</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D63" s="39"/>
       <c r="E63" s="39" t="s">
@@ -15674,7 +15676,7 @@
         <v>849</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
@@ -15699,7 +15701,7 @@
         <v>849</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D65" s="39"/>
       <c r="E65" s="39" t="s">
@@ -15724,7 +15726,7 @@
         <v>849</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D66" s="39"/>
       <c r="E66" s="39" t="s">
@@ -15749,7 +15751,7 @@
         <v>849</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D67" s="39"/>
       <c r="E67" s="39" t="s">
@@ -15774,7 +15776,7 @@
         <v>849</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D68" s="39"/>
       <c r="E68" s="39" t="s">
@@ -15799,7 +15801,7 @@
         <v>849</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D69" s="39"/>
       <c r="E69" s="39" t="s">
@@ -15824,7 +15826,7 @@
         <v>849</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D70" s="39"/>
       <c r="E70" s="39" t="s">
@@ -15849,7 +15851,7 @@
         <v>849</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D71" s="39"/>
       <c r="E71" s="39" t="s">
@@ -15874,7 +15876,7 @@
         <v>849</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D72" s="39"/>
       <c r="E72" s="39" t="s">
@@ -15899,7 +15901,7 @@
         <v>849</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D73" s="39"/>
       <c r="E73" s="39" t="s">
@@ -15924,7 +15926,7 @@
         <v>849</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D74" s="39"/>
       <c r="E74" s="39" t="s">
@@ -15949,7 +15951,7 @@
         <v>849</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D75" s="39"/>
       <c r="E75" s="39" t="s">
@@ -15999,7 +16001,7 @@
         <v>31</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D77" s="39"/>
       <c r="E77" s="39" t="s">
@@ -16049,7 +16051,7 @@
         <v>850</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D79" s="39"/>
       <c r="E79" s="39" t="s">
@@ -16065,7 +16067,7 @@
         <v>17</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="45">
@@ -16076,7 +16078,7 @@
         <v>850</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="39" t="s">
@@ -16095,13 +16097,13 @@
     </row>
     <row r="81" spans="1:9" ht="105">
       <c r="A81" s="39" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B81" s="40" t="s">
         <v>850</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="39" t="s">
@@ -16126,7 +16128,7 @@
         <v>851</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="39" t="s">
@@ -16142,18 +16144,18 @@
         <v>17</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="37" customFormat="1" ht="90">
       <c r="A83" s="39" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B83" s="40" t="s">
         <v>851</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39" t="s">
@@ -16166,7 +16168,7 @@
         <v>15</v>
       </c>
       <c r="H83" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I83" s="41"/>
     </row>
@@ -16203,7 +16205,7 @@
         <v>851</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39" t="s">
@@ -16216,7 +16218,7 @@
         <v>15</v>
       </c>
       <c r="H85" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I85" s="41"/>
     </row>
@@ -16238,7 +16240,7 @@
         <v>3</v>
       </c>
       <c r="G86" s="55" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H86" s="55" t="s">
         <v>18</v>
@@ -16378,7 +16380,7 @@
         <v>852</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D92" s="39"/>
       <c r="E92" s="39" t="s">
@@ -16503,7 +16505,7 @@
         <v>852</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D97" s="39"/>
       <c r="E97" s="39" t="s">
@@ -16555,7 +16557,7 @@
         <v>852</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D99" s="39"/>
       <c r="E99" s="39" t="s">
@@ -16607,7 +16609,7 @@
         <v>853</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D101" s="39"/>
       <c r="E101" s="39" t="s">
@@ -16695,7 +16697,7 @@
         <v>15</v>
       </c>
       <c r="H104" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I104" s="41"/>
     </row>
@@ -16707,7 +16709,7 @@
         <v>853</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="39" t="s">
@@ -16723,7 +16725,7 @@
         <v>17</v>
       </c>
       <c r="I105" s="41" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -16734,7 +16736,7 @@
         <v>853</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="39" t="s">
@@ -16759,7 +16761,7 @@
         <v>853</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="39" t="s">
@@ -16859,7 +16861,7 @@
         <v>854</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39" t="s">
@@ -17354,7 +17356,7 @@
         <v>17</v>
       </c>
       <c r="I130" s="41" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30">
@@ -17600,7 +17602,7 @@
         <v>854</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D140" s="39"/>
       <c r="E140" s="39" t="s">
@@ -17723,13 +17725,13 @@
     </row>
     <row r="145" spans="1:9" ht="30">
       <c r="A145" s="39" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B145" s="40" t="s">
         <v>854</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D145" s="48"/>
       <c r="E145" s="48" t="s">
@@ -18220,7 +18222,7 @@
         <v>854</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D164" s="39"/>
       <c r="E164" s="39" t="s">
@@ -18347,7 +18349,7 @@
         <v>854</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D169" s="39"/>
       <c r="E169" s="39" t="s">
@@ -18472,7 +18474,7 @@
         <v>854</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D174" s="39"/>
       <c r="E174" s="39" t="s">
@@ -18597,7 +18599,7 @@
         <v>854</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D179" s="39"/>
       <c r="E179" s="39" t="s">
@@ -18772,7 +18774,7 @@
         <v>854</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D186" s="39"/>
       <c r="E186" s="39" t="s">
@@ -18788,7 +18790,7 @@
         <v>17</v>
       </c>
       <c r="I186" s="41" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -19099,7 +19101,7 @@
         <v>854</v>
       </c>
       <c r="C199" s="41" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D199" s="39"/>
       <c r="E199" s="39" t="s">
@@ -19149,7 +19151,7 @@
         <v>854</v>
       </c>
       <c r="C201" s="41" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D201" s="39"/>
       <c r="E201" s="39" t="s">
@@ -19249,7 +19251,7 @@
         <v>854</v>
       </c>
       <c r="C205" s="41" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D205" s="39"/>
       <c r="E205" s="39" t="s">
@@ -19299,7 +19301,7 @@
         <v>854</v>
       </c>
       <c r="C207" s="41" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D207" s="39"/>
       <c r="E207" s="39" t="s">
@@ -19349,7 +19351,7 @@
         <v>854</v>
       </c>
       <c r="C209" s="41" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D209" s="39"/>
       <c r="E209" s="39" t="s">
@@ -19401,7 +19403,7 @@
         <v>854</v>
       </c>
       <c r="C211" s="41" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D211" s="39"/>
       <c r="E211" s="39" t="s">
@@ -19428,7 +19430,7 @@
         <v>854</v>
       </c>
       <c r="C212" s="41" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D212" s="39"/>
       <c r="E212" s="39" t="s">
@@ -19480,7 +19482,7 @@
         <v>854</v>
       </c>
       <c r="C214" s="41" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D214" s="39"/>
       <c r="E214" s="39" t="s">
@@ -19496,7 +19498,7 @@
         <v>20</v>
       </c>
       <c r="I214" s="41" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="30">
@@ -19702,7 +19704,7 @@
         <v>17</v>
       </c>
       <c r="I222" s="41" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -19759,7 +19761,7 @@
     </row>
     <row r="225" spans="1:9" s="37" customFormat="1">
       <c r="A225" s="39" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B225" s="40" t="s">
         <v>854</v>
@@ -19786,13 +19788,13 @@
     </row>
     <row r="226" spans="1:9" ht="30">
       <c r="A226" s="39" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B226" s="40" t="s">
         <v>854</v>
       </c>
       <c r="C226" s="41" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D226" s="48"/>
       <c r="E226" s="48" t="s">
@@ -19808,7 +19810,7 @@
         <v>17</v>
       </c>
       <c r="I226" s="41" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -19919,7 +19921,7 @@
         <v>854</v>
       </c>
       <c r="C231" s="41" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D231" s="39"/>
       <c r="E231" s="39" t="s">
@@ -19935,7 +19937,7 @@
         <v>17</v>
       </c>
       <c r="I231" s="41" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="30">
@@ -19946,7 +19948,7 @@
         <v>854</v>
       </c>
       <c r="C232" s="41" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D232" s="39"/>
       <c r="E232" s="39" t="s">
@@ -19973,7 +19975,7 @@
         <v>854</v>
       </c>
       <c r="C233" s="41" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D233" s="39"/>
       <c r="E233" s="39" t="s">
@@ -20000,7 +20002,7 @@
         <v>854</v>
       </c>
       <c r="C234" s="41" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D234" s="39"/>
       <c r="E234" s="39" t="s">
@@ -20027,7 +20029,7 @@
         <v>854</v>
       </c>
       <c r="C235" s="41" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D235" s="39"/>
       <c r="E235" s="39" t="s">
@@ -20054,7 +20056,7 @@
         <v>854</v>
       </c>
       <c r="C236" s="41" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D236" s="39"/>
       <c r="E236" s="39" t="s">
@@ -20081,7 +20083,7 @@
         <v>854</v>
       </c>
       <c r="C237" s="41" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D237" s="39"/>
       <c r="E237" s="39" t="s">
@@ -20100,13 +20102,13 @@
     </row>
     <row r="238" spans="1:9" s="37" customFormat="1">
       <c r="A238" s="39" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B238" s="40" t="s">
         <v>854</v>
       </c>
       <c r="C238" s="41" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D238" s="48"/>
       <c r="E238" s="48" t="s">
@@ -20119,7 +20121,7 @@
         <v>15</v>
       </c>
       <c r="H238" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I238" s="49"/>
     </row>
@@ -20131,7 +20133,7 @@
         <v>854</v>
       </c>
       <c r="C239" s="41" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D239" s="39"/>
       <c r="E239" s="39" t="s">
@@ -20150,13 +20152,13 @@
     </row>
     <row r="240" spans="1:9" s="37" customFormat="1">
       <c r="A240" s="39" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B240" s="40" t="s">
         <v>854</v>
       </c>
       <c r="C240" s="41" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D240" s="48"/>
       <c r="E240" s="48" t="s">
@@ -20169,7 +20171,7 @@
         <v>15</v>
       </c>
       <c r="H240" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I240" s="49"/>
     </row>
@@ -20181,7 +20183,7 @@
         <v>854</v>
       </c>
       <c r="C241" s="41" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D241" s="39"/>
       <c r="E241" s="39" t="s">
@@ -20202,13 +20204,13 @@
     </row>
     <row r="242" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A242" s="39" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B242" s="40" t="s">
         <v>854</v>
       </c>
       <c r="C242" s="41" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="D242" s="48"/>
       <c r="E242" s="48" t="s">
@@ -20221,19 +20223,19 @@
         <v>15</v>
       </c>
       <c r="H242" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I242" s="49"/>
     </row>
     <row r="243" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A243" s="39" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B243" s="40" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="C243" s="41" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D243" s="39"/>
       <c r="E243" s="48" t="s">
@@ -20255,7 +20257,7 @@
         <v>236</v>
       </c>
       <c r="B244" s="40" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C244" s="41" t="s">
         <v>1039</v>
@@ -20280,7 +20282,7 @@
         <v>237</v>
       </c>
       <c r="B245" s="40" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C245" s="41" t="s">
         <v>1040</v>
@@ -20305,7 +20307,7 @@
         <v>238</v>
       </c>
       <c r="B246" s="40" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C246" s="41" t="s">
         <v>1041</v>
@@ -20330,7 +20332,7 @@
         <v>239</v>
       </c>
       <c r="B247" s="40" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C247" s="41" t="s">
         <v>1042</v>
@@ -20355,7 +20357,7 @@
         <v>240</v>
       </c>
       <c r="B248" s="40" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C248" s="41" t="s">
         <v>1043</v>
@@ -20380,7 +20382,7 @@
         <v>241</v>
       </c>
       <c r="B249" s="40" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C249" s="41" t="s">
         <v>1044</v>
@@ -20405,7 +20407,7 @@
         <v>242</v>
       </c>
       <c r="B250" s="40" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C250" s="41" t="s">
         <v>1045</v>
@@ -20430,7 +20432,7 @@
         <v>243</v>
       </c>
       <c r="B251" s="40" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C251" s="41" t="s">
         <v>1046</v>
@@ -20455,7 +20457,7 @@
         <v>244</v>
       </c>
       <c r="B252" s="40" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C252" s="41" t="s">
         <v>1047</v>
@@ -20480,7 +20482,7 @@
         <v>245</v>
       </c>
       <c r="B253" s="40" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C253" s="41" t="s">
         <v>1048</v>
@@ -20505,7 +20507,7 @@
         <v>246</v>
       </c>
       <c r="B254" s="40" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C254" s="41" t="s">
         <v>1049</v>
@@ -20530,7 +20532,7 @@
         <v>247</v>
       </c>
       <c r="B255" s="40" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C255" s="41" t="s">
         <v>1050</v>
@@ -20555,7 +20557,7 @@
         <v>248</v>
       </c>
       <c r="B256" s="40" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C256" s="41" t="s">
         <v>1051</v>
@@ -20580,7 +20582,7 @@
         <v>249</v>
       </c>
       <c r="B257" s="40" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C257" s="41" t="s">
         <v>1052</v>
@@ -20605,7 +20607,7 @@
         <v>250</v>
       </c>
       <c r="B258" s="40" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C258" s="41" t="s">
         <v>1053</v>
@@ -20630,7 +20632,7 @@
         <v>251</v>
       </c>
       <c r="B259" s="40" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C259" s="41" t="s">
         <v>1054</v>
@@ -20655,7 +20657,7 @@
         <v>252</v>
       </c>
       <c r="B260" s="40" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C260" s="41" t="s">
         <v>1055</v>
@@ -20680,7 +20682,7 @@
         <v>253</v>
       </c>
       <c r="B261" s="40" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C261" s="41" t="s">
         <v>1056</v>
@@ -20705,7 +20707,7 @@
         <v>254</v>
       </c>
       <c r="B262" s="40" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C262" s="41" t="s">
         <v>1057</v>
@@ -20730,7 +20732,7 @@
         <v>255</v>
       </c>
       <c r="B263" s="40" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C263" s="41" t="s">
         <v>1058</v>
@@ -20755,7 +20757,7 @@
         <v>256</v>
       </c>
       <c r="B264" s="40" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C264" s="41" t="s">
         <v>1059</v>
@@ -20780,7 +20782,7 @@
         <v>257</v>
       </c>
       <c r="B265" s="40" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C265" s="41" t="s">
         <v>1060</v>
@@ -20805,7 +20807,7 @@
         <v>258</v>
       </c>
       <c r="B266" s="40" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C266" s="41" t="s">
         <v>1061</v>
@@ -20830,7 +20832,7 @@
         <v>259</v>
       </c>
       <c r="B267" s="40" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C267" s="41" t="s">
         <v>1062</v>
@@ -20958,7 +20960,7 @@
         <v>856</v>
       </c>
       <c r="C272" s="41" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D272" s="39"/>
       <c r="E272" s="39" t="s">
@@ -21008,7 +21010,7 @@
         <v>857</v>
       </c>
       <c r="C274" s="41" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D274" s="39"/>
       <c r="E274" s="39" t="s">
@@ -21024,7 +21026,7 @@
         <v>17</v>
       </c>
       <c r="I274" s="41" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="37" customFormat="1" ht="30">
@@ -21110,7 +21112,7 @@
         <v>858</v>
       </c>
       <c r="C278" s="41" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D278" s="39"/>
       <c r="E278" s="39" t="s">
@@ -21129,13 +21131,13 @@
     </row>
     <row r="279" spans="1:9" s="37" customFormat="1" ht="195">
       <c r="A279" s="39" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B279" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C279" s="41" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="D279" s="39"/>
       <c r="E279" s="39" t="s">
@@ -21148,7 +21150,7 @@
         <v>15</v>
       </c>
       <c r="H279" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I279" s="41"/>
     </row>
@@ -21160,7 +21162,7 @@
         <v>858</v>
       </c>
       <c r="C280" s="41" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="D280" s="39"/>
       <c r="E280" s="39" t="s">
@@ -21173,7 +21175,7 @@
         <v>15</v>
       </c>
       <c r="H280" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I280" s="41"/>
     </row>
@@ -21185,7 +21187,7 @@
         <v>858</v>
       </c>
       <c r="C281" s="41" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="D281" s="39"/>
       <c r="E281" s="39" t="s">
@@ -21198,7 +21200,7 @@
         <v>15</v>
       </c>
       <c r="H281" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I281" s="41"/>
     </row>
@@ -21210,7 +21212,7 @@
         <v>858</v>
       </c>
       <c r="C282" s="41" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D282" s="39"/>
       <c r="E282" s="39" t="s">
@@ -21223,7 +21225,7 @@
         <v>15</v>
       </c>
       <c r="H282" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I282" s="41"/>
     </row>
@@ -21235,7 +21237,7 @@
         <v>858</v>
       </c>
       <c r="C283" s="41" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="D283" s="39"/>
       <c r="E283" s="39" t="s">
@@ -21248,7 +21250,7 @@
         <v>15</v>
       </c>
       <c r="H283" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I283" s="41"/>
     </row>
@@ -21260,7 +21262,7 @@
         <v>858</v>
       </c>
       <c r="C284" s="41" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D284" s="39"/>
       <c r="E284" s="39" t="s">
@@ -21273,7 +21275,7 @@
         <v>15</v>
       </c>
       <c r="H284" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I284" s="41"/>
     </row>
@@ -21285,7 +21287,7 @@
         <v>858</v>
       </c>
       <c r="C285" s="41" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="D285" s="39"/>
       <c r="E285" s="39" t="s">
@@ -21298,7 +21300,7 @@
         <v>15</v>
       </c>
       <c r="H285" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I285" s="41"/>
     </row>
@@ -21310,7 +21312,7 @@
         <v>858</v>
       </c>
       <c r="C286" s="41" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D286" s="39"/>
       <c r="E286" s="39" t="s">
@@ -21323,7 +21325,7 @@
         <v>15</v>
       </c>
       <c r="H286" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I286" s="41"/>
     </row>
@@ -21348,22 +21350,22 @@
         <v>15</v>
       </c>
       <c r="H287" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I287" s="41"/>
     </row>
     <row r="288" spans="1:9" s="37" customFormat="1">
       <c r="A288" s="39" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B288" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C288" s="41" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="D288" s="39" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E288" s="39" t="s">
         <v>19</v>
@@ -21375,22 +21377,22 @@
         <v>15</v>
       </c>
       <c r="H288" s="39" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="I288" s="41"/>
     </row>
     <row r="289" spans="1:9" s="37" customFormat="1">
       <c r="A289" s="39" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B289" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C289" s="41" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="D289" s="39" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E289" s="39" t="s">
         <v>19</v>
@@ -21402,7 +21404,7 @@
         <v>15</v>
       </c>
       <c r="H289" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I289" s="41"/>
     </row>
@@ -21414,7 +21416,7 @@
         <v>858</v>
       </c>
       <c r="C290" s="41" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D290" s="39"/>
       <c r="E290" s="39" t="s">
@@ -21427,7 +21429,7 @@
         <v>15</v>
       </c>
       <c r="H290" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I290" s="41"/>
     </row>
@@ -21439,7 +21441,7 @@
         <v>858</v>
       </c>
       <c r="C291" s="41" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="D291" s="39"/>
       <c r="E291" s="39" t="s">
@@ -21452,19 +21454,19 @@
         <v>15</v>
       </c>
       <c r="H291" s="39" t="s">
-        <v>2574</v>
+        <v>2578</v>
       </c>
       <c r="I291" s="41"/>
     </row>
     <row r="292" spans="1:9" s="37" customFormat="1">
       <c r="A292" s="39" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B292" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C292" s="41" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D292" s="48"/>
       <c r="E292" s="48" t="s">
@@ -21483,13 +21485,13 @@
     </row>
     <row r="293" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A293" s="39" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B293" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C293" s="41" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D293" s="48"/>
       <c r="E293" s="48" t="s">
@@ -21502,22 +21504,22 @@
         <v>15</v>
       </c>
       <c r="H293" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I293" s="49"/>
     </row>
     <row r="294" spans="1:9" s="37" customFormat="1">
       <c r="A294" s="39" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B294" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C294" s="41" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="D294" s="39" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="E294" s="48" t="s">
         <v>19</v>
@@ -21529,22 +21531,22 @@
         <v>15</v>
       </c>
       <c r="H294" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I294" s="41"/>
     </row>
     <row r="295" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A295" s="39" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B295" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C295" s="41" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="D295" s="39" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="E295" s="48" t="s">
         <v>19</v>
@@ -21556,7 +21558,7 @@
         <v>15</v>
       </c>
       <c r="H295" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I295" s="41"/>
     </row>
@@ -21568,7 +21570,7 @@
         <v>858</v>
       </c>
       <c r="C296" s="41" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D296" s="39"/>
       <c r="E296" s="39" t="s">
@@ -21581,19 +21583,19 @@
         <v>15</v>
       </c>
       <c r="H296" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I296" s="41"/>
     </row>
     <row r="297" spans="1:9" s="37" customFormat="1">
       <c r="A297" s="39" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B297" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C297" s="41" t="s">
-        <v>1885</v>
+        <v>2680</v>
       </c>
       <c r="D297" s="39"/>
       <c r="E297" s="39" t="s">
@@ -21606,7 +21608,7 @@
         <v>15</v>
       </c>
       <c r="H297" s="39" t="s">
-        <v>2574</v>
+        <v>2578</v>
       </c>
       <c r="I297" s="41"/>
     </row>
@@ -21643,7 +21645,7 @@
         <v>859</v>
       </c>
       <c r="C299" s="41" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D299" s="39"/>
       <c r="E299" s="39" t="s">
@@ -21693,7 +21695,7 @@
         <v>859</v>
       </c>
       <c r="C301" s="41" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D301" s="39"/>
       <c r="E301" s="39" t="s">
@@ -21720,7 +21722,7 @@
         <v>859</v>
       </c>
       <c r="C302" s="41" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D302" s="39"/>
       <c r="E302" s="39" t="s">
@@ -21747,7 +21749,7 @@
         <v>859</v>
       </c>
       <c r="C303" s="41" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D303" s="39"/>
       <c r="E303" s="39" t="s">
@@ -21774,7 +21776,7 @@
         <v>859</v>
       </c>
       <c r="C304" s="41" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D304" s="39"/>
       <c r="E304" s="39" t="s">
@@ -21801,7 +21803,7 @@
         <v>859</v>
       </c>
       <c r="C305" s="41" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D305" s="39"/>
       <c r="E305" s="39" t="s">
@@ -21828,7 +21830,7 @@
         <v>859</v>
       </c>
       <c r="C306" s="41" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D306" s="39"/>
       <c r="E306" s="39" t="s">
@@ -21878,7 +21880,7 @@
         <v>860</v>
       </c>
       <c r="C308" s="41" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D308" s="39"/>
       <c r="E308" s="39" t="s">
@@ -22028,7 +22030,7 @@
         <v>860</v>
       </c>
       <c r="C314" s="41" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D314" s="39"/>
       <c r="E314" s="39" t="s">
@@ -22053,7 +22055,7 @@
         <v>860</v>
       </c>
       <c r="C315" s="41" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D315" s="39" t="s">
         <v>1506</v>
@@ -22080,7 +22082,7 @@
         <v>860</v>
       </c>
       <c r="C316" s="41" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D316" s="39" t="s">
         <v>1506</v>
@@ -22261,7 +22263,7 @@
         <v>860</v>
       </c>
       <c r="C323" s="41" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D323" s="39"/>
       <c r="E323" s="39" t="s">
@@ -22286,7 +22288,7 @@
         <v>860</v>
       </c>
       <c r="C324" s="41" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D324" s="39"/>
       <c r="E324" s="39" t="s">
@@ -22488,7 +22490,7 @@
         <v>860</v>
       </c>
       <c r="C332" s="41" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D332" s="39"/>
       <c r="E332" s="39" t="s">
@@ -22515,7 +22517,7 @@
         <v>861</v>
       </c>
       <c r="C333" s="41" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D333" s="39"/>
       <c r="E333" s="39" t="s">
@@ -22542,7 +22544,7 @@
         <v>861</v>
       </c>
       <c r="C334" s="41" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D334" s="39"/>
       <c r="E334" s="39" t="s">
@@ -22561,13 +22563,13 @@
     </row>
     <row r="335" spans="1:9" ht="165" hidden="1">
       <c r="A335" s="39" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B335" s="40" t="s">
         <v>861</v>
       </c>
       <c r="C335" s="41" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D335" s="39"/>
       <c r="E335" s="39" t="s">
@@ -22742,7 +22744,7 @@
         <v>862</v>
       </c>
       <c r="C342" s="41" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D342" s="39"/>
       <c r="E342" s="39" t="s">
@@ -22817,7 +22819,7 @@
         <v>862</v>
       </c>
       <c r="C345" s="41" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D345" s="39"/>
       <c r="E345" s="39" t="s">
@@ -22908,7 +22910,7 @@
         <v>17</v>
       </c>
       <c r="I348" s="41" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="30">
@@ -23458,7 +23460,7 @@
         <v>862</v>
       </c>
       <c r="C370" s="41" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D370" s="39"/>
       <c r="E370" s="39" t="s">
@@ -23581,13 +23583,13 @@
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="39" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B375" s="40" t="s">
         <v>862</v>
       </c>
       <c r="C375" s="41" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="D375" s="39"/>
       <c r="E375" s="39" t="s">
@@ -23600,7 +23602,7 @@
         <v>15</v>
       </c>
       <c r="H375" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I375" s="41"/>
     </row>
@@ -23897,7 +23899,7 @@
         <v>862</v>
       </c>
       <c r="C387" s="41" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D387" s="39"/>
       <c r="E387" s="39" t="s">
@@ -23922,7 +23924,7 @@
         <v>862</v>
       </c>
       <c r="C388" s="41" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D388" s="39"/>
       <c r="E388" s="39" t="s">
@@ -23972,7 +23974,7 @@
         <v>862</v>
       </c>
       <c r="C390" s="41" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D390" s="39"/>
       <c r="E390" s="39" t="s">
@@ -24072,7 +24074,7 @@
         <v>862</v>
       </c>
       <c r="C394" s="41" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D394" s="39"/>
       <c r="E394" s="39" t="s">
@@ -24197,7 +24199,7 @@
         <v>862</v>
       </c>
       <c r="C399" s="41" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D399" s="39"/>
       <c r="E399" s="39" t="s">
@@ -24497,7 +24499,7 @@
         <v>862</v>
       </c>
       <c r="C411" s="41" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D411" s="39"/>
       <c r="E411" s="39" t="s">
@@ -24513,7 +24515,7 @@
         <v>17</v>
       </c>
       <c r="I411" s="41" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -24699,7 +24701,7 @@
         <v>862</v>
       </c>
       <c r="C419" s="41" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D419" s="39"/>
       <c r="E419" s="39" t="s">
@@ -24749,7 +24751,7 @@
         <v>862</v>
       </c>
       <c r="C421" s="41" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D421" s="39"/>
       <c r="E421" s="39" t="s">
@@ -24849,7 +24851,7 @@
         <v>862</v>
       </c>
       <c r="C425" s="41" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D425" s="39"/>
       <c r="E425" s="39" t="s">
@@ -24899,7 +24901,7 @@
         <v>862</v>
       </c>
       <c r="C427" s="41" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D427" s="39"/>
       <c r="E427" s="39" t="s">
@@ -24949,7 +24951,7 @@
         <v>862</v>
       </c>
       <c r="C429" s="41" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D429" s="39"/>
       <c r="E429" s="39" t="s">
@@ -25001,7 +25003,7 @@
         <v>862</v>
       </c>
       <c r="C431" s="41" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D431" s="39"/>
       <c r="E431" s="39" t="s">
@@ -25028,7 +25030,7 @@
         <v>862</v>
       </c>
       <c r="C432" s="41" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D432" s="39"/>
       <c r="E432" s="39" t="s">
@@ -25071,7 +25073,7 @@
         <v>17</v>
       </c>
       <c r="I433" s="41" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="75">
@@ -25082,7 +25084,7 @@
         <v>862</v>
       </c>
       <c r="C434" s="41" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D434" s="39"/>
       <c r="E434" s="39" t="s">
@@ -25098,7 +25100,7 @@
         <v>20</v>
       </c>
       <c r="I434" s="41" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="30">
@@ -25498,7 +25500,7 @@
         <v>862</v>
       </c>
       <c r="C450" s="41" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D450" s="39"/>
       <c r="E450" s="39" t="s">
@@ -25514,7 +25516,7 @@
         <v>17</v>
       </c>
       <c r="I450" s="41" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="451" spans="1:9" ht="30">
@@ -25525,7 +25527,7 @@
         <v>862</v>
       </c>
       <c r="C451" s="41" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D451" s="39"/>
       <c r="E451" s="39" t="s">
@@ -25737,7 +25739,7 @@
         <v>862</v>
       </c>
       <c r="C459" s="41" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D459" s="39"/>
       <c r="E459" s="39" t="s">
@@ -25764,7 +25766,7 @@
         <v>862</v>
       </c>
       <c r="C460" s="41" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D460" s="39"/>
       <c r="E460" s="39" t="s">
@@ -25791,7 +25793,7 @@
         <v>862</v>
       </c>
       <c r="C461" s="41" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D461" s="39"/>
       <c r="E461" s="39" t="s">
@@ -25818,7 +25820,7 @@
         <v>862</v>
       </c>
       <c r="C462" s="41" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D462" s="39"/>
       <c r="E462" s="39" t="s">
@@ -25895,7 +25897,7 @@
         <v>863</v>
       </c>
       <c r="C465" s="41" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D465" s="39"/>
       <c r="E465" s="39" t="s">
@@ -25945,7 +25947,7 @@
         <v>863</v>
       </c>
       <c r="C467" s="41" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D467" s="39"/>
       <c r="E467" s="39" t="s">
@@ -25972,7 +25974,7 @@
         <v>863</v>
       </c>
       <c r="C468" s="41" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D468" s="39"/>
       <c r="E468" s="39" t="s">
@@ -25999,7 +26001,7 @@
         <v>863</v>
       </c>
       <c r="C469" s="41" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D469" s="39"/>
       <c r="E469" s="39" t="s">
@@ -26026,7 +26028,7 @@
         <v>863</v>
       </c>
       <c r="C470" s="41" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D470" s="39"/>
       <c r="E470" s="39" t="s">
@@ -26053,7 +26055,7 @@
         <v>863</v>
       </c>
       <c r="C471" s="41" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D471" s="39"/>
       <c r="E471" s="39" t="s">
@@ -26080,7 +26082,7 @@
         <v>863</v>
       </c>
       <c r="C472" s="41" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D472" s="39"/>
       <c r="E472" s="39" t="s">
@@ -26105,7 +26107,7 @@
         <v>863</v>
       </c>
       <c r="C473" s="41" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D473" s="39"/>
       <c r="E473" s="39" t="s">
@@ -26130,7 +26132,7 @@
         <v>863</v>
       </c>
       <c r="C474" s="41" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D474" s="39"/>
       <c r="E474" s="39" t="s">
@@ -26146,7 +26148,7 @@
         <v>17</v>
       </c>
       <c r="I474" s="41" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="475" spans="1:9" ht="30" hidden="1">
@@ -26154,7 +26156,7 @@
         <v>436</v>
       </c>
       <c r="B475" s="40" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C475" s="41" t="s">
         <v>1186</v>
@@ -26179,7 +26181,7 @@
         <v>437</v>
       </c>
       <c r="B476" s="40" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C476" s="41" t="s">
         <v>1187</v>
@@ -26204,7 +26206,7 @@
         <v>438</v>
       </c>
       <c r="B477" s="40" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C477" s="41" t="s">
         <v>1188</v>
@@ -26229,10 +26231,10 @@
         <v>439</v>
       </c>
       <c r="B478" s="40" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C478" s="41" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D478" s="39"/>
       <c r="E478" s="39" t="s">
@@ -26254,7 +26256,7 @@
         <v>440</v>
       </c>
       <c r="B479" s="40" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C479" s="41" t="s">
         <v>1189</v>
@@ -26279,7 +26281,7 @@
         <v>441</v>
       </c>
       <c r="B480" s="40" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C480" s="41" t="s">
         <v>1190</v>
@@ -26304,7 +26306,7 @@
         <v>442</v>
       </c>
       <c r="B481" s="40" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C481" s="41" t="s">
         <v>1191</v>
@@ -26329,7 +26331,7 @@
         <v>443</v>
       </c>
       <c r="B482" s="40" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C482" s="41" t="s">
         <v>1192</v>
@@ -26354,7 +26356,7 @@
         <v>444</v>
       </c>
       <c r="B483" s="40" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C483" s="41" t="s">
         <v>1193</v>
@@ -26379,7 +26381,7 @@
         <v>445</v>
       </c>
       <c r="B484" s="40" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C484" s="41" t="s">
         <v>1194</v>
@@ -26482,7 +26484,7 @@
         <v>864</v>
       </c>
       <c r="C488" s="41" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D488" s="39"/>
       <c r="E488" s="39" t="s">
@@ -26807,7 +26809,7 @@
         <v>866</v>
       </c>
       <c r="C501" s="41" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D501" s="39"/>
       <c r="E501" s="39" t="s">
@@ -26857,7 +26859,7 @@
         <v>866</v>
       </c>
       <c r="C503" s="41" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D503" s="39"/>
       <c r="E503" s="39" t="s">
@@ -26907,7 +26909,7 @@
         <v>866</v>
       </c>
       <c r="C505" s="41" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D505" s="39"/>
       <c r="E505" s="39" t="s">
@@ -26957,7 +26959,7 @@
         <v>866</v>
       </c>
       <c r="C507" s="41" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D507" s="39"/>
       <c r="E507" s="39" t="s">
@@ -27007,7 +27009,7 @@
         <v>867</v>
       </c>
       <c r="C509" s="41" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D509" s="39"/>
       <c r="E509" s="39" t="s">
@@ -27034,7 +27036,7 @@
         <v>867</v>
       </c>
       <c r="C510" s="41" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D510" s="39"/>
       <c r="E510" s="39" t="s">
@@ -27053,13 +27055,13 @@
     </row>
     <row r="511" spans="1:9" ht="75">
       <c r="A511" s="39" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B511" s="40" t="s">
         <v>867</v>
       </c>
       <c r="C511" s="41" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D511" s="39"/>
       <c r="E511" s="39" t="s">
@@ -27284,7 +27286,7 @@
         <v>894</v>
       </c>
       <c r="C520" s="41" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D520" s="39"/>
       <c r="E520" s="39" t="s">
@@ -27434,7 +27436,7 @@
         <v>895</v>
       </c>
       <c r="C526" s="41" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D526" s="39"/>
       <c r="E526" s="39" t="s">
@@ -27584,7 +27586,7 @@
         <v>1675</v>
       </c>
       <c r="C532" s="41" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D532" s="39"/>
       <c r="E532" s="39" t="s">
@@ -27686,7 +27688,7 @@
         <v>1675</v>
       </c>
       <c r="C536" s="41" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D536" s="39"/>
       <c r="E536" s="39" t="s">
@@ -27861,7 +27863,7 @@
         <v>868</v>
       </c>
       <c r="C543" s="41" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D543" s="39"/>
       <c r="E543" s="39" t="s">
@@ -28030,13 +28032,13 @@
     </row>
     <row r="550" spans="1:9" ht="30" hidden="1">
       <c r="A550" s="39" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B550" s="50" t="s">
         <v>868</v>
       </c>
       <c r="C550" s="41" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D550" s="48"/>
       <c r="E550" s="48" t="s">
@@ -28055,13 +28057,13 @@
     </row>
     <row r="551" spans="1:9" hidden="1">
       <c r="A551" s="39" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B551" s="50" t="s">
         <v>868</v>
       </c>
       <c r="C551" s="41" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D551" s="48"/>
       <c r="E551" s="48" t="s">
@@ -28086,7 +28088,7 @@
         <v>868</v>
       </c>
       <c r="C552" s="41" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D552" s="39"/>
       <c r="E552" s="39" t="s">
@@ -28136,7 +28138,7 @@
         <v>868</v>
       </c>
       <c r="C554" s="41" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D554" s="39"/>
       <c r="E554" s="39" t="s">
@@ -28161,7 +28163,7 @@
         <v>868</v>
       </c>
       <c r="C555" s="41" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D555" s="39"/>
       <c r="E555" s="39" t="s">
@@ -29761,7 +29763,7 @@
         <v>873</v>
       </c>
       <c r="C619" s="41" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D619" s="39"/>
       <c r="E619" s="39" t="s">
@@ -29861,7 +29863,7 @@
         <v>873</v>
       </c>
       <c r="C623" s="41" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="D623" s="39"/>
       <c r="E623" s="39" t="s">
@@ -29874,7 +29876,7 @@
         <v>15</v>
       </c>
       <c r="H623" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I623" s="41"/>
     </row>
@@ -29936,7 +29938,7 @@
         <v>874</v>
       </c>
       <c r="C626" s="41" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D626" s="39"/>
       <c r="E626" s="39" t="s">
@@ -29952,18 +29954,18 @@
         <v>17</v>
       </c>
       <c r="I626" s="41" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="627" spans="1:9" s="37" customFormat="1" ht="120">
       <c r="A627" s="39" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B627" s="40" t="s">
         <v>874</v>
       </c>
       <c r="C627" s="41" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="D627" s="39"/>
       <c r="E627" s="39" t="s">
@@ -29976,7 +29978,7 @@
         <v>15</v>
       </c>
       <c r="H627" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I627" s="41"/>
     </row>
@@ -30013,7 +30015,7 @@
         <v>874</v>
       </c>
       <c r="C629" s="41" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D629" s="39"/>
       <c r="E629" s="39" t="s">
@@ -30026,7 +30028,7 @@
         <v>15</v>
       </c>
       <c r="H629" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I629" s="41"/>
     </row>
@@ -30038,7 +30040,7 @@
         <v>874</v>
       </c>
       <c r="C630" s="41" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="D630" s="39"/>
       <c r="E630" s="39" t="s">
@@ -30051,7 +30053,7 @@
         <v>15</v>
       </c>
       <c r="H630" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I630" s="41"/>
     </row>
@@ -30063,7 +30065,7 @@
         <v>874</v>
       </c>
       <c r="C631" s="41" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="D631" s="39"/>
       <c r="E631" s="39" t="s">
@@ -30076,7 +30078,7 @@
         <v>15</v>
       </c>
       <c r="H631" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I631" s="41"/>
     </row>
@@ -30088,7 +30090,7 @@
         <v>874</v>
       </c>
       <c r="C632" s="41" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D632" s="39"/>
       <c r="E632" s="39" t="s">
@@ -30101,7 +30103,7 @@
         <v>15</v>
       </c>
       <c r="H632" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I632" s="41"/>
     </row>
@@ -30113,7 +30115,7 @@
         <v>875</v>
       </c>
       <c r="C633" s="41" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D633" s="39"/>
       <c r="E633" s="39" t="s">
@@ -30129,18 +30131,18 @@
         <v>17</v>
       </c>
       <c r="I633" s="41" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="634" spans="1:9" s="37" customFormat="1" ht="135">
       <c r="A634" s="39" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B634" s="40" t="s">
         <v>875</v>
       </c>
       <c r="C634" s="41" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="D634" s="39"/>
       <c r="E634" s="39" t="s">
@@ -30153,7 +30155,7 @@
         <v>15</v>
       </c>
       <c r="H634" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I634" s="41"/>
     </row>
@@ -30215,7 +30217,7 @@
         <v>875</v>
       </c>
       <c r="C637" s="41" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="D637" s="39"/>
       <c r="E637" s="39" t="s">
@@ -30228,7 +30230,7 @@
         <v>15</v>
       </c>
       <c r="H637" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I637" s="41"/>
     </row>
@@ -30253,7 +30255,7 @@
         <v>15</v>
       </c>
       <c r="H638" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I638" s="41"/>
     </row>
@@ -30315,7 +30317,7 @@
         <v>876</v>
       </c>
       <c r="C641" s="41" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D641" s="39"/>
       <c r="E641" s="39" t="s">
@@ -30715,7 +30717,7 @@
         <v>877</v>
       </c>
       <c r="C657" s="41" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="D657" s="39"/>
       <c r="E657" s="39" t="s">
@@ -30731,7 +30733,7 @@
         <v>17</v>
       </c>
       <c r="I657" s="41" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="658" spans="1:9" ht="150">
@@ -30742,7 +30744,7 @@
         <v>878</v>
       </c>
       <c r="C658" s="41" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D658" s="39"/>
       <c r="E658" s="39" t="s">
@@ -30892,7 +30894,7 @@
         <v>1678</v>
       </c>
       <c r="C664" s="41" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D664" s="39"/>
       <c r="E664" s="39" t="s">
@@ -30908,7 +30910,7 @@
         <v>17</v>
       </c>
       <c r="I664" s="41" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="665" spans="1:9" s="37" customFormat="1" ht="30" hidden="1">
@@ -30969,7 +30971,7 @@
         <v>1678</v>
       </c>
       <c r="C667" s="41" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D667" s="39"/>
       <c r="E667" s="39" t="s">
@@ -30985,7 +30987,7 @@
         <v>17</v>
       </c>
       <c r="I667" s="41" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="668" spans="1:9" s="38" customFormat="1">
@@ -31471,7 +31473,7 @@
         <v>884</v>
       </c>
       <c r="C687" s="41" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D687" s="39"/>
       <c r="E687" s="39" t="s">
@@ -31640,13 +31642,13 @@
     </row>
     <row r="694" spans="1:9" ht="30" hidden="1">
       <c r="A694" s="39" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B694" s="40" t="s">
         <v>884</v>
       </c>
       <c r="C694" s="41" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D694" s="48"/>
       <c r="E694" s="48" t="s">
@@ -31690,13 +31692,13 @@
     </row>
     <row r="696" spans="1:9" hidden="1">
       <c r="A696" s="39" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B696" s="40" t="s">
         <v>884</v>
       </c>
       <c r="C696" s="41" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D696" s="48"/>
       <c r="E696" s="48" t="s">
@@ -31973,7 +31975,7 @@
         <v>885</v>
       </c>
       <c r="C707" s="41" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D707" s="39"/>
       <c r="E707" s="39" t="s">
@@ -32202,7 +32204,7 @@
         <v>885</v>
       </c>
       <c r="C716" s="41" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D716" s="39"/>
       <c r="E716" s="39" t="s">
@@ -32219,7 +32221,7 @@
       </c>
       <c r="I716" s="41"/>
       <c r="N716" s="37" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="717" spans="1:14" ht="30">
@@ -32632,7 +32634,7 @@
         <v>886</v>
       </c>
       <c r="C733" s="41" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D733" s="39"/>
       <c r="E733" s="39" t="s">
@@ -32657,7 +32659,7 @@
         <v>886</v>
       </c>
       <c r="C734" s="41" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D734" s="39"/>
       <c r="E734" s="39" t="s">
@@ -32909,7 +32911,7 @@
         <v>886</v>
       </c>
       <c r="C744" s="41" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="D744" s="39"/>
       <c r="E744" s="39" t="s">
@@ -32934,7 +32936,7 @@
         <v>886</v>
       </c>
       <c r="C745" s="41" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D745" s="39"/>
       <c r="E745" s="39" t="s">
@@ -32950,7 +32952,7 @@
         <v>17</v>
       </c>
       <c r="I745" s="41" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="746" spans="1:9" ht="30">
@@ -33213,7 +33215,7 @@
         <v>888</v>
       </c>
       <c r="C756" s="41" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D756" s="39"/>
       <c r="E756" s="39" t="s">
@@ -33415,7 +33417,7 @@
         <v>888</v>
       </c>
       <c r="C764" s="41" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D764" s="39"/>
       <c r="E764" s="39" t="s">
@@ -33428,7 +33430,7 @@
         <v>15</v>
       </c>
       <c r="H764" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I764" s="41"/>
     </row>
@@ -33617,7 +33619,7 @@
         <v>889</v>
       </c>
       <c r="C772" s="41" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D772" s="39"/>
       <c r="E772" s="39" t="s">
@@ -33769,7 +33771,7 @@
         <v>890</v>
       </c>
       <c r="C778" s="41" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D778" s="39"/>
       <c r="E778" s="39" t="s">
@@ -33973,7 +33975,7 @@
         <v>890</v>
       </c>
       <c r="C786" s="41" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="D786" s="39"/>
       <c r="E786" s="39" t="s">
@@ -33986,7 +33988,7 @@
         <v>15</v>
       </c>
       <c r="H786" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I786" s="41"/>
     </row>
@@ -33998,7 +34000,7 @@
         <v>890</v>
       </c>
       <c r="C787" s="41" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D787" s="39"/>
       <c r="E787" s="39" t="s">
@@ -34011,7 +34013,7 @@
         <v>15</v>
       </c>
       <c r="H787" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I787" s="41"/>
     </row>
@@ -34067,13 +34069,13 @@
     </row>
     <row r="790" spans="1:9" ht="30">
       <c r="A790" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B790" s="40" t="s">
         <v>891</v>
       </c>
       <c r="C790" s="41" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D790" s="48"/>
       <c r="E790" s="48" t="s">
@@ -34089,18 +34091,18 @@
         <v>17</v>
       </c>
       <c r="I790" s="41" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="791" spans="1:9" s="37" customFormat="1" ht="90">
       <c r="A791" s="39" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B791" s="40" t="s">
         <v>891</v>
       </c>
       <c r="C791" s="41" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="D791" s="48"/>
       <c r="E791" s="48" t="s">
@@ -34119,13 +34121,13 @@
     </row>
     <row r="792" spans="1:9" s="37" customFormat="1" ht="195">
       <c r="A792" s="39" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B792" s="50" t="s">
         <v>891</v>
       </c>
       <c r="C792" s="41" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="D792" s="48"/>
       <c r="E792" s="48" t="s">
@@ -34144,13 +34146,13 @@
     </row>
     <row r="793" spans="1:9" ht="30" hidden="1">
       <c r="A793" s="39" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B793" s="40" t="s">
         <v>892</v>
       </c>
       <c r="C793" s="41" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D793" s="48"/>
       <c r="E793" s="48" t="s">
@@ -34169,38 +34171,38 @@
     </row>
     <row r="794" spans="1:9" s="37" customFormat="1" hidden="1">
       <c r="A794" s="39" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B794" s="40" t="s">
         <v>892</v>
       </c>
       <c r="C794" s="41" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D794" s="48"/>
       <c r="E794" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F794" s="39" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G794" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H794" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I794" s="49"/>
     </row>
     <row r="795" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A795" s="39" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B795" s="40" t="s">
         <v>892</v>
       </c>
       <c r="C795" s="41" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="D795" s="39"/>
       <c r="E795" s="39" t="s">
@@ -34213,26 +34215,26 @@
         <v>15</v>
       </c>
       <c r="H795" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I795" s="41"/>
     </row>
     <row r="796" spans="1:9" ht="30" hidden="1">
       <c r="A796" s="39" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B796" s="40" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C796" s="41" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D796" s="48"/>
       <c r="E796" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F796" s="39" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G796" s="48" t="s">
         <v>15</v>
@@ -34244,45 +34246,45 @@
     </row>
     <row r="797" spans="1:9" ht="75" hidden="1">
       <c r="A797" s="39" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B797" s="50" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C797" s="41" t="s">
         <v>2135</v>
-      </c>
-      <c r="B797" s="50" t="s">
-        <v>2114</v>
-      </c>
-      <c r="C797" s="41" t="s">
-        <v>2136</v>
       </c>
       <c r="D797" s="48"/>
       <c r="E797" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F797" s="39" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G797" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H797" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I797" s="49"/>
     </row>
     <row r="798" spans="1:9" ht="30" hidden="1">
       <c r="A798" s="39" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B798" s="40" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C798" s="41" t="s">
         <v>2114</v>
-      </c>
-      <c r="C798" s="41" t="s">
-        <v>2115</v>
       </c>
       <c r="D798" s="48"/>
       <c r="E798" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F798" s="39" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G798" s="48" t="s">
         <v>15</v>
@@ -34294,13 +34296,13 @@
     </row>
     <row r="799" spans="1:9" ht="30" hidden="1">
       <c r="A799" s="39" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B799" s="40" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C799" s="41" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D799" s="48"/>
       <c r="E799" s="48" t="s">
@@ -34319,45 +34321,45 @@
     </row>
     <row r="800" spans="1:9" hidden="1">
       <c r="A800" s="39" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B800" s="40" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C800" s="41" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D800" s="48"/>
       <c r="E800" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F800" s="39" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G800" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H800" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I800" s="49"/>
     </row>
     <row r="801" spans="1:9" ht="30" hidden="1">
       <c r="A801" s="39" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B801" s="40" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C801" s="41" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D801" s="48"/>
       <c r="E801" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F801" s="39" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G801" s="48" t="s">
         <v>15</v>
@@ -34369,45 +34371,45 @@
     </row>
     <row r="802" spans="1:9" ht="30" hidden="1">
       <c r="A802" s="39" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B802" s="40" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C802" s="41" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D802" s="48"/>
       <c r="E802" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F802" s="39" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G802" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H802" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I802" s="49"/>
     </row>
     <row r="803" spans="1:9" ht="30" hidden="1">
       <c r="A803" s="39" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B803" s="40" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C803" s="41" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D803" s="48"/>
       <c r="E803" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F803" s="39" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G803" s="48" t="s">
         <v>15</v>
@@ -34419,13 +34421,13 @@
     </row>
     <row r="804" spans="1:9" ht="30" hidden="1">
       <c r="A804" s="39" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B804" s="40" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C804" s="41" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D804" s="48"/>
       <c r="E804" s="48" t="s">
@@ -34435,7 +34437,7 @@
         <v>3</v>
       </c>
       <c r="G804" s="39" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H804" s="48" t="s">
         <v>18</v>
@@ -34444,13 +34446,13 @@
     </row>
     <row r="805" spans="1:9" s="37" customFormat="1" ht="75">
       <c r="A805" s="39" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B805" s="50" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C805" s="41" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D805" s="48"/>
       <c r="E805" s="48" t="s">
@@ -34469,13 +34471,13 @@
     </row>
     <row r="806" spans="1:9" ht="30" hidden="1">
       <c r="A806" s="39" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B806" s="50" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C806" s="41" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D806" s="48"/>
       <c r="E806" s="48" t="s">
@@ -34485,7 +34487,7 @@
         <v>3</v>
       </c>
       <c r="G806" s="39" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H806" s="48" t="s">
         <v>18</v>
@@ -34494,13 +34496,13 @@
     </row>
     <row r="807" spans="1:9" ht="30" hidden="1">
       <c r="A807" s="39" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B807" s="50" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C807" s="41" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D807" s="48"/>
       <c r="E807" s="48" t="s">
@@ -34519,13 +34521,13 @@
     </row>
     <row r="808" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A808" s="39" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B808" s="50" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C808" s="41" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D808" s="48"/>
       <c r="E808" s="48" t="s">
@@ -34544,13 +34546,13 @@
     </row>
     <row r="809" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A809" s="39" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B809" s="50" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C809" s="41" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="D809" s="48"/>
       <c r="E809" s="48" t="s">
@@ -34563,19 +34565,19 @@
         <v>15</v>
       </c>
       <c r="H809" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I809" s="49"/>
     </row>
     <row r="810" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A810" s="39" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B810" s="50" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C810" s="41" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D810" s="48"/>
       <c r="E810" s="48" t="s">
@@ -34594,13 +34596,13 @@
     </row>
     <row r="811" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A811" s="39" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B811" s="50" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C811" s="41" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D811" s="48"/>
       <c r="E811" s="48" t="s">
@@ -34613,19 +34615,19 @@
         <v>15</v>
       </c>
       <c r="H811" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I811" s="49"/>
     </row>
     <row r="812" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A812" s="39" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B812" s="50" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C812" s="41" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="D812" s="48"/>
       <c r="E812" s="48" t="s">
@@ -34644,13 +34646,13 @@
     </row>
     <row r="813" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A813" s="39" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B813" s="50" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C813" s="41" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D813" s="48"/>
       <c r="E813" s="48" t="s">
@@ -34669,13 +34671,13 @@
     </row>
     <row r="814" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A814" s="39" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B814" s="50" t="s">
         <v>2131</v>
       </c>
-      <c r="B814" s="50" t="s">
-        <v>2132</v>
-      </c>
       <c r="C814" s="41" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D814" s="48"/>
       <c r="E814" s="48" t="s">
@@ -34688,19 +34690,19 @@
         <v>15</v>
       </c>
       <c r="H814" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I814" s="49"/>
     </row>
     <row r="815" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A815" s="39" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B815" s="50" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C815" s="41" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D815" s="48"/>
       <c r="E815" s="48" t="s">
@@ -34713,19 +34715,19 @@
         <v>15</v>
       </c>
       <c r="H815" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I815" s="49"/>
     </row>
     <row r="816" spans="1:9" ht="30" hidden="1">
       <c r="A816" s="39" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B816" s="40" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C816" s="41" t="s">
         <v>2156</v>
-      </c>
-      <c r="C816" s="41" t="s">
-        <v>2157</v>
       </c>
       <c r="D816" s="48"/>
       <c r="E816" s="48" t="s">
@@ -34744,38 +34746,38 @@
     </row>
     <row r="817" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A817" s="51" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B817" s="68" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C817" s="53" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="D817" s="66"/>
       <c r="E817" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F817" s="51" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G817" s="66" t="s">
         <v>15</v>
       </c>
       <c r="H817" s="51" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I817" s="67"/>
     </row>
     <row r="818" spans="1:9" s="74" customFormat="1" hidden="1">
       <c r="A818" s="69" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B818" s="70" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C818" s="71" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D818" s="72"/>
       <c r="E818" s="72" t="s">
@@ -34785,7 +34787,7 @@
         <v>3</v>
       </c>
       <c r="G818" s="69" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H818" s="72" t="s">
         <v>18</v>
@@ -34794,20 +34796,20 @@
     </row>
     <row r="819" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A819" s="51" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B819" s="52" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C819" s="53" t="s">
         <v>2158</v>
-      </c>
-      <c r="C819" s="53" t="s">
-        <v>2159</v>
       </c>
       <c r="D819" s="66"/>
       <c r="E819" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F819" s="51" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G819" s="66" t="s">
         <v>15</v>
@@ -34819,38 +34821,38 @@
     </row>
     <row r="820" spans="1:9" s="54" customFormat="1" ht="30" hidden="1">
       <c r="A820" s="51" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B820" s="52" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C820" s="53" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D820" s="66"/>
       <c r="E820" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F820" s="51" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G820" s="66" t="s">
         <v>15</v>
       </c>
       <c r="H820" s="51" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I820" s="67"/>
     </row>
     <row r="821" spans="1:9" s="74" customFormat="1" ht="30" hidden="1">
       <c r="A821" s="69" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B821" s="75" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C821" s="71" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="D821" s="72"/>
       <c r="E821" s="72" t="s">
@@ -34860,22 +34862,22 @@
         <v>3</v>
       </c>
       <c r="G821" s="69" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H821" s="69" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I821" s="73"/>
     </row>
     <row r="822" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A822" s="39" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B822" s="40" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C822" s="41" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D822" s="48"/>
       <c r="E822" s="48" t="s">
@@ -34894,13 +34896,13 @@
     </row>
     <row r="823" spans="1:9" ht="45" hidden="1">
       <c r="A823" s="39" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B823" s="40" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C823" s="41" t="s">
         <v>2162</v>
-      </c>
-      <c r="C823" s="41" t="s">
-        <v>2163</v>
       </c>
       <c r="D823" s="48"/>
       <c r="E823" s="48" t="s">
@@ -34919,13 +34921,13 @@
     </row>
     <row r="824" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A824" s="39" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B824" s="40" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C824" s="41" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="D824" s="48"/>
       <c r="E824" s="48" t="s">
@@ -34938,19 +34940,19 @@
         <v>15</v>
       </c>
       <c r="H824" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I824" s="49"/>
     </row>
     <row r="825" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A825" s="59" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B825" s="60" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C825" s="61" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D825" s="62"/>
       <c r="E825" s="62" t="s">
@@ -34960,7 +34962,7 @@
         <v>3</v>
       </c>
       <c r="G825" s="59" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H825" s="62" t="s">
         <v>18</v>
@@ -34969,20 +34971,20 @@
     </row>
     <row r="826" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A826" s="59" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B826" s="60" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C826" s="61" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D826" s="62"/>
       <c r="E826" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F826" s="59" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G826" s="62" t="s">
         <v>15</v>
@@ -34994,20 +34996,20 @@
     </row>
     <row r="827" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A827" s="59" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B827" s="60" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C827" s="61" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D827" s="62"/>
       <c r="E827" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F827" s="59" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G827" s="62" t="s">
         <v>15</v>
@@ -35019,13 +35021,13 @@
     </row>
     <row r="828" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A828" s="39" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B828" s="40" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C828" s="41" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="D828" s="48"/>
       <c r="E828" s="48" t="s">
@@ -35044,13 +35046,13 @@
     </row>
     <row r="829" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A829" s="39" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B829" s="40" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C829" s="41" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="D829" s="48"/>
       <c r="E829" s="48" t="s">
@@ -35069,13 +35071,13 @@
     </row>
     <row r="830" spans="1:9" s="37" customFormat="1" ht="165">
       <c r="A830" s="39" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B830" s="50" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C830" s="41" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="D830" s="48"/>
       <c r="E830" s="48" t="s">
@@ -35094,13 +35096,13 @@
     </row>
     <row r="831" spans="1:9" ht="30" hidden="1">
       <c r="A831" s="39" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B831" s="40" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C831" s="41" t="s">
         <v>2191</v>
-      </c>
-      <c r="C831" s="41" t="s">
-        <v>2192</v>
       </c>
       <c r="D831" s="48"/>
       <c r="E831" s="48" t="s">
@@ -35119,13 +35121,13 @@
     </row>
     <row r="832" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A832" s="39" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B832" s="50" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C832" s="41" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="D832" s="48"/>
       <c r="E832" s="48" t="s">
@@ -35144,13 +35146,13 @@
     </row>
     <row r="833" spans="1:9" s="37" customFormat="1">
       <c r="A833" s="39" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B833" s="50" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C833" s="41" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="D833" s="48"/>
       <c r="E833" s="48" t="s">
@@ -35163,26 +35165,26 @@
         <v>15</v>
       </c>
       <c r="H833" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I833" s="49"/>
     </row>
     <row r="834" spans="1:9" s="54" customFormat="1" ht="30" hidden="1">
       <c r="A834" s="51" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B834" s="52" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C834" s="53" t="s">
         <v>2193</v>
-      </c>
-      <c r="C834" s="53" t="s">
-        <v>2194</v>
       </c>
       <c r="D834" s="66"/>
       <c r="E834" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F834" s="51" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G834" s="66" t="s">
         <v>15</v>
@@ -35194,20 +35196,20 @@
     </row>
     <row r="835" spans="1:9" s="54" customFormat="1" ht="30" hidden="1">
       <c r="A835" s="51" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B835" s="68" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C835" s="53" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D835" s="66"/>
       <c r="E835" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F835" s="51" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G835" s="66" t="s">
         <v>15</v>
@@ -35219,38 +35221,38 @@
     </row>
     <row r="836" spans="1:9" s="54" customFormat="1" ht="409.5" hidden="1">
       <c r="A836" s="51" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B836" s="68" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C836" s="53" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D836" s="66"/>
       <c r="E836" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F836" s="51" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G836" s="66" t="s">
         <v>15</v>
       </c>
       <c r="H836" s="51" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I836" s="67"/>
     </row>
     <row r="837" spans="1:9" ht="30" hidden="1">
       <c r="A837" s="39" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B837" s="50" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C837" s="41" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D837" s="48"/>
       <c r="E837" s="48" t="s">
@@ -35269,20 +35271,20 @@
     </row>
     <row r="838" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A838" s="51" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B838" s="52" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C838" s="53" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D838" s="66"/>
       <c r="E838" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F838" s="51" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G838" s="66" t="s">
         <v>15</v>
@@ -35294,20 +35296,20 @@
     </row>
     <row r="839" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A839" s="51" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B839" s="68" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C839" s="53" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D839" s="66"/>
       <c r="E839" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F839" s="51" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G839" s="66" t="s">
         <v>15</v>
@@ -35319,20 +35321,20 @@
     </row>
     <row r="840" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A840" s="51" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B840" s="52" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C840" s="53" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D840" s="66"/>
       <c r="E840" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F840" s="51" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G840" s="66" t="s">
         <v>15</v>
@@ -35344,20 +35346,20 @@
     </row>
     <row r="841" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A841" s="51" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B841" s="68" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C841" s="53" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D841" s="66"/>
       <c r="E841" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F841" s="51" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G841" s="66" t="s">
         <v>15</v>
@@ -35369,20 +35371,20 @@
     </row>
     <row r="842" spans="1:9" s="54" customFormat="1" hidden="1">
       <c r="A842" s="51" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B842" s="68" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C842" s="53" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D842" s="66"/>
       <c r="E842" s="66" t="s">
         <v>19</v>
       </c>
       <c r="F842" s="51" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G842" s="66" t="s">
         <v>15</v>
@@ -35394,20 +35396,20 @@
     </row>
     <row r="843" spans="1:9" s="64" customFormat="1" ht="30" hidden="1">
       <c r="A843" s="59" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B843" s="65" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C843" s="61" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D843" s="62"/>
       <c r="E843" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F843" s="59" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G843" s="62" t="s">
         <v>15</v>
@@ -35419,20 +35421,20 @@
     </row>
     <row r="844" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A844" s="59" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B844" s="65" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C844" s="61" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D844" s="62"/>
       <c r="E844" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F844" s="59" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G844" s="62" t="s">
         <v>15</v>
@@ -35444,20 +35446,20 @@
     </row>
     <row r="845" spans="1:9" s="64" customFormat="1" ht="75" hidden="1">
       <c r="A845" s="59" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B845" s="60" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C845" s="61" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D845" s="62"/>
       <c r="E845" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F845" s="59" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G845" s="62" t="s">
         <v>15</v>
@@ -35469,13 +35471,13 @@
     </row>
     <row r="846" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A846" s="39" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B846" s="40" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="C846" s="41" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="D846" s="48"/>
       <c r="E846" s="48" t="s">
@@ -35488,19 +35490,19 @@
         <v>15</v>
       </c>
       <c r="H846" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I846" s="49"/>
     </row>
     <row r="847" spans="1:9" s="37" customFormat="1" ht="90">
       <c r="A847" s="39" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B847" s="50" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="C847" s="41" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D847" s="48"/>
       <c r="E847" s="48" t="s">
@@ -35519,13 +35521,13 @@
     </row>
     <row r="848" spans="1:9" ht="30" hidden="1">
       <c r="A848" s="39" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B848" s="50" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C848" s="41" t="s">
         <v>2206</v>
-      </c>
-      <c r="C848" s="41" t="s">
-        <v>2207</v>
       </c>
       <c r="D848" s="48"/>
       <c r="E848" s="48" t="s">
@@ -35544,13 +35546,13 @@
     </row>
     <row r="849" spans="1:9" s="37" customFormat="1">
       <c r="A849" s="39" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B849" s="50" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="C849" s="41" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D849" s="48"/>
       <c r="E849" s="48" t="s">
@@ -35569,13 +35571,13 @@
     </row>
     <row r="850" spans="1:9" s="37" customFormat="1">
       <c r="A850" s="39" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B850" s="50" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="C850" s="41" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="D850" s="48"/>
       <c r="E850" s="48" t="s">
@@ -35588,19 +35590,19 @@
         <v>15</v>
       </c>
       <c r="H850" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I850" s="49"/>
     </row>
     <row r="851" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A851" s="59" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B851" s="60" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C851" s="61" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D851" s="62"/>
       <c r="E851" s="62" t="s">
@@ -35610,7 +35612,7 @@
         <v>3</v>
       </c>
       <c r="G851" s="59" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H851" s="62" t="s">
         <v>18</v>
@@ -35619,13 +35621,13 @@
     </row>
     <row r="852" spans="1:9" s="37" customFormat="1" ht="210">
       <c r="A852" s="39" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B852" s="40" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C852" s="41" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D852" s="48"/>
       <c r="E852" s="48" t="s">
@@ -35644,13 +35646,13 @@
     </row>
     <row r="853" spans="1:9" ht="45" hidden="1">
       <c r="A853" s="39" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B853" s="40" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C853" s="41" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D853" s="48"/>
       <c r="E853" s="48" t="s">
@@ -35669,13 +35671,13 @@
     </row>
     <row r="854" spans="1:9" s="37" customFormat="1">
       <c r="A854" s="39" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B854" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C854" s="41" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D854" s="48"/>
       <c r="E854" s="48" t="s">
@@ -35694,13 +35696,13 @@
     </row>
     <row r="855" spans="1:9" s="37" customFormat="1">
       <c r="A855" s="39" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B855" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C855" s="41" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D855" s="48"/>
       <c r="E855" s="48" t="s">
@@ -35713,19 +35715,19 @@
         <v>15</v>
       </c>
       <c r="H855" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I855" s="49"/>
     </row>
     <row r="856" spans="1:9" s="37" customFormat="1">
       <c r="A856" s="39" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B856" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C856" s="41" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="D856" s="48"/>
       <c r="E856" s="48" t="s">
@@ -35744,13 +35746,13 @@
     </row>
     <row r="857" spans="1:9" s="37" customFormat="1">
       <c r="A857" s="39" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B857" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C857" s="41" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="D857" s="48"/>
       <c r="E857" s="48" t="s">
@@ -35763,19 +35765,19 @@
         <v>15</v>
       </c>
       <c r="H857" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I857" s="49"/>
     </row>
     <row r="858" spans="1:9" s="37" customFormat="1">
       <c r="A858" s="39" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B858" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C858" s="41" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="D858" s="48"/>
       <c r="E858" s="48" t="s">
@@ -35794,13 +35796,13 @@
     </row>
     <row r="859" spans="1:9" s="37" customFormat="1">
       <c r="A859" s="39" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B859" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C859" s="41" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="D859" s="48"/>
       <c r="E859" s="48" t="s">
@@ -35813,19 +35815,19 @@
         <v>15</v>
       </c>
       <c r="H859" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I859" s="49"/>
     </row>
     <row r="860" spans="1:9" s="37" customFormat="1">
       <c r="A860" s="39" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B860" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C860" s="41" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D860" s="48"/>
       <c r="E860" s="48" t="s">
@@ -35844,13 +35846,13 @@
     </row>
     <row r="861" spans="1:9" s="37" customFormat="1">
       <c r="A861" s="39" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B861" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C861" s="41" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="D861" s="48"/>
       <c r="E861" s="48" t="s">
@@ -35863,19 +35865,19 @@
         <v>15</v>
       </c>
       <c r="H861" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I861" s="49"/>
     </row>
     <row r="862" spans="1:9" s="37" customFormat="1">
       <c r="A862" s="39" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B862" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C862" s="41" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="D862" s="48"/>
       <c r="E862" s="48" t="s">
@@ -35894,13 +35896,13 @@
     </row>
     <row r="863" spans="1:9" s="37" customFormat="1">
       <c r="A863" s="39" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B863" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C863" s="41" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="D863" s="48"/>
       <c r="E863" s="48" t="s">
@@ -35913,19 +35915,19 @@
         <v>15</v>
       </c>
       <c r="H863" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I863" s="49"/>
     </row>
     <row r="864" spans="1:9" s="37" customFormat="1">
       <c r="A864" s="39" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B864" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C864" s="41" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D864" s="48"/>
       <c r="E864" s="48" t="s">
@@ -35944,13 +35946,13 @@
     </row>
     <row r="865" spans="1:9" s="37" customFormat="1">
       <c r="A865" s="39" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B865" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C865" s="41" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D865" s="48"/>
       <c r="E865" s="48" t="s">
@@ -35963,19 +35965,19 @@
         <v>15</v>
       </c>
       <c r="H865" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I865" s="49"/>
     </row>
     <row r="866" spans="1:9" s="37" customFormat="1">
       <c r="A866" s="39" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B866" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C866" s="41" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D866" s="48"/>
       <c r="E866" s="48" t="s">
@@ -35994,13 +35996,13 @@
     </row>
     <row r="867" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A867" s="39" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B867" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C867" s="41" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D867" s="48"/>
       <c r="E867" s="48" t="s">
@@ -36013,19 +36015,19 @@
         <v>15</v>
       </c>
       <c r="H867" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I867" s="49"/>
     </row>
     <row r="868" spans="1:9" s="37" customFormat="1">
       <c r="A868" s="39" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B868" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C868" s="41" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D868" s="48"/>
       <c r="E868" s="48" t="s">
@@ -36044,13 +36046,13 @@
     </row>
     <row r="869" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A869" s="39" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B869" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C869" s="41" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D869" s="48"/>
       <c r="E869" s="48" t="s">
@@ -36063,22 +36065,22 @@
         <v>15</v>
       </c>
       <c r="H869" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I869" s="41"/>
     </row>
     <row r="870" spans="1:9" s="37" customFormat="1">
       <c r="A870" s="39" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B870" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C870" s="41" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D870" s="39" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="E870" s="48" t="s">
         <v>19</v>
@@ -36090,22 +36092,22 @@
         <v>15</v>
       </c>
       <c r="H870" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I870" s="41"/>
     </row>
     <row r="871" spans="1:9" s="37" customFormat="1">
       <c r="A871" s="39" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B871" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C871" s="41" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D871" s="39" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="E871" s="48" t="s">
         <v>19</v>
@@ -36117,19 +36119,19 @@
         <v>15</v>
       </c>
       <c r="H871" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I871" s="49"/>
     </row>
     <row r="872" spans="1:9" s="37" customFormat="1">
       <c r="A872" s="39" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B872" s="50" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C872" s="41" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D872" s="48"/>
       <c r="E872" s="48" t="s">
@@ -36148,13 +36150,13 @@
     </row>
     <row r="873" spans="1:9" s="37" customFormat="1">
       <c r="A873" s="39" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B873" s="40" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C873" s="41" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D873" s="48"/>
       <c r="E873" s="48" t="s">
@@ -36167,19 +36169,19 @@
         <v>15</v>
       </c>
       <c r="H873" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I873" s="49"/>
     </row>
     <row r="874" spans="1:9" ht="30" hidden="1">
       <c r="A874" s="39" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B874" s="40" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C874" s="41" t="s">
         <v>2243</v>
-      </c>
-      <c r="C874" s="41" t="s">
-        <v>2244</v>
       </c>
       <c r="D874" s="39"/>
       <c r="E874" s="39" t="s">
@@ -36198,13 +36200,13 @@
     </row>
     <row r="875" spans="1:9" s="64" customFormat="1" hidden="1">
       <c r="A875" s="59" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B875" s="60" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C875" s="61" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D875" s="59"/>
       <c r="E875" s="59" t="s">
@@ -36214,7 +36216,7 @@
         <v>3</v>
       </c>
       <c r="G875" s="59" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H875" s="59" t="s">
         <v>18</v>
@@ -36223,13 +36225,13 @@
     </row>
     <row r="876" spans="1:9" s="64" customFormat="1" ht="30" hidden="1">
       <c r="A876" s="59" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B876" s="60" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C876" s="61" t="s">
         <v>2246</v>
-      </c>
-      <c r="C876" s="61" t="s">
-        <v>2247</v>
       </c>
       <c r="D876" s="59"/>
       <c r="E876" s="59" t="s">
@@ -36239,7 +36241,7 @@
         <v>3</v>
       </c>
       <c r="G876" s="59" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H876" s="59" t="s">
         <v>18</v>
@@ -36248,13 +36250,13 @@
     </row>
     <row r="877" spans="1:9" s="37" customFormat="1" ht="105">
       <c r="A877" s="39" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B877" s="40" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C877" s="41" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="D877" s="39"/>
       <c r="E877" s="39" t="s">
@@ -36273,13 +36275,13 @@
     </row>
     <row r="878" spans="1:9" ht="30" hidden="1">
       <c r="A878" s="39" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B878" s="40" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C878" s="41" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D878" s="39"/>
       <c r="E878" s="39" t="s">
@@ -36298,13 +36300,13 @@
     </row>
     <row r="879" spans="1:9" s="37" customFormat="1">
       <c r="A879" s="39" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B879" s="40" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C879" s="41" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="D879" s="39"/>
       <c r="E879" s="39" t="s">
@@ -36317,19 +36319,19 @@
         <v>15</v>
       </c>
       <c r="H879" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I879" s="41"/>
     </row>
     <row r="880" spans="1:9" s="37" customFormat="1">
       <c r="A880" s="39" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B880" s="40" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C880" s="41" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="D880" s="39"/>
       <c r="E880" s="39" t="s">
@@ -36342,7 +36344,7 @@
         <v>15</v>
       </c>
       <c r="H880" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I880" s="41"/>
     </row>
@@ -36581,7 +36583,7 @@
         <v>1723</v>
       </c>
       <c r="C890" s="41" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D890" s="39"/>
       <c r="E890" s="39" t="s">
@@ -36810,7 +36812,7 @@
         <v>1723</v>
       </c>
       <c r="C899" s="41" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D899" s="39"/>
       <c r="E899" s="39" t="s">
@@ -36823,7 +36825,7 @@
         <v>15</v>
       </c>
       <c r="H899" s="39" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="I899" s="41"/>
     </row>
@@ -36854,13 +36856,13 @@
     </row>
     <row r="901" spans="1:9" ht="30">
       <c r="A901" s="39" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B901" s="40" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C901" s="41" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D901" s="39"/>
       <c r="E901" s="39" t="s">
@@ -36876,18 +36878,18 @@
         <v>17</v>
       </c>
       <c r="I901" s="41" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="902" spans="1:9" ht="90">
       <c r="A902" s="39" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B902" s="40" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C902" s="41" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D902" s="39"/>
       <c r="E902" s="39" t="s">
@@ -36906,13 +36908,13 @@
     </row>
     <row r="903" spans="1:9" ht="30">
       <c r="A903" s="39" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B903" s="40" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C903" s="41" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D903" s="39"/>
       <c r="E903" s="39" t="s">
@@ -36931,13 +36933,13 @@
     </row>
     <row r="904" spans="1:9" ht="195">
       <c r="A904" s="39" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B904" s="40" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C904" s="41" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D904" s="39"/>
       <c r="E904" s="39" t="s">
@@ -36956,13 +36958,13 @@
     </row>
     <row r="905" spans="1:9" ht="30" hidden="1">
       <c r="A905" s="39" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B905" s="40" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C905" s="41" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D905" s="39"/>
       <c r="E905" s="39" t="s">
@@ -36981,13 +36983,13 @@
     </row>
     <row r="906" spans="1:9" ht="30">
       <c r="A906" s="39" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B906" s="40" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C906" s="41" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D906" s="39"/>
       <c r="E906" s="39" t="s">
@@ -37006,13 +37008,13 @@
     </row>
     <row r="907" spans="1:9" ht="30">
       <c r="A907" s="39" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B907" s="40" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C907" s="41" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D907" s="39"/>
       <c r="E907" s="39" t="s">
@@ -37031,13 +37033,13 @@
     </row>
     <row r="908" spans="1:9" ht="30">
       <c r="A908" s="39" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B908" s="40" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C908" s="41" t="s">
         <v>2270</v>
-      </c>
-      <c r="C908" s="41" t="s">
-        <v>2271</v>
       </c>
       <c r="D908" s="39"/>
       <c r="E908" s="39" t="s">
@@ -37056,13 +37058,13 @@
     </row>
     <row r="909" spans="1:9" ht="90">
       <c r="A909" s="39" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B909" s="40" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C909" s="41" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D909" s="39"/>
       <c r="E909" s="39" t="s">
@@ -37081,13 +37083,13 @@
     </row>
     <row r="910" spans="1:9" ht="45">
       <c r="A910" s="39" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B910" s="40" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C910" s="41" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D910" s="39"/>
       <c r="E910" s="39" t="s">
@@ -37106,13 +37108,13 @@
     </row>
     <row r="911" spans="1:9" ht="30" hidden="1">
       <c r="A911" s="39" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B911" s="40" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C911" s="41" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D911" s="39"/>
       <c r="E911" s="39" t="s">
@@ -37131,13 +37133,13 @@
     </row>
     <row r="912" spans="1:9" ht="30">
       <c r="A912" s="39" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B912" s="40" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C912" s="41" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D912" s="39"/>
       <c r="E912" s="39" t="s">
@@ -37156,13 +37158,13 @@
     </row>
     <row r="913" spans="1:9" ht="30">
       <c r="A913" s="39" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B913" s="40" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C913" s="41" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D913" s="39"/>
       <c r="E913" s="39" t="s">
@@ -37181,13 +37183,13 @@
     </row>
     <row r="914" spans="1:9" ht="30">
       <c r="A914" s="39" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B914" s="40" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C914" s="41" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D914" s="39"/>
       <c r="E914" s="39" t="s">
@@ -37206,13 +37208,13 @@
     </row>
     <row r="915" spans="1:9" ht="30">
       <c r="A915" s="39" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B915" s="40" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C915" s="41" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D915" s="39"/>
       <c r="E915" s="39" t="s">
@@ -37231,13 +37233,13 @@
     </row>
     <row r="916" spans="1:9" ht="45">
       <c r="A916" s="39" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B916" s="40" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C916" s="41" t="s">
         <v>2302</v>
-      </c>
-      <c r="C916" s="41" t="s">
-        <v>2303</v>
       </c>
       <c r="D916" s="39"/>
       <c r="E916" s="39" t="s">
@@ -37256,13 +37258,13 @@
     </row>
     <row r="917" spans="1:9" ht="90">
       <c r="A917" s="39" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B917" s="40" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C917" s="41" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D917" s="48"/>
       <c r="E917" s="48" t="s">
@@ -37281,13 +37283,13 @@
     </row>
     <row r="918" spans="1:9" ht="45">
       <c r="A918" s="39" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B918" s="50" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C918" s="41" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D918" s="48"/>
       <c r="E918" s="48" t="s">
@@ -37306,13 +37308,13 @@
     </row>
     <row r="919" spans="1:9" ht="30" hidden="1">
       <c r="A919" s="39" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B919" s="50" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C919" s="41" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D919" s="48"/>
       <c r="E919" s="48" t="s">
@@ -37331,13 +37333,13 @@
     </row>
     <row r="920" spans="1:9" ht="30">
       <c r="A920" s="39" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B920" s="50" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C920" s="41" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D920" s="48"/>
       <c r="E920" s="48" t="s">
@@ -37356,13 +37358,13 @@
     </row>
     <row r="921" spans="1:9" ht="30">
       <c r="A921" s="39" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B921" s="50" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C921" s="41" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D921" s="48"/>
       <c r="E921" s="48" t="s">
@@ -37381,13 +37383,13 @@
     </row>
     <row r="922" spans="1:9" ht="30">
       <c r="A922" s="39" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B922" s="50" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C922" s="41" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D922" s="48"/>
       <c r="E922" s="48" t="s">
@@ -37406,13 +37408,13 @@
     </row>
     <row r="923" spans="1:9" ht="30">
       <c r="A923" s="39" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B923" s="40" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C923" s="41" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D923" s="48"/>
       <c r="E923" s="48" t="s">
@@ -37431,13 +37433,13 @@
     </row>
     <row r="924" spans="1:9" ht="45">
       <c r="A924" s="39" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B924" s="50" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C924" s="41" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D924" s="48"/>
       <c r="E924" s="48" t="s">
@@ -37456,13 +37458,13 @@
     </row>
     <row r="925" spans="1:9" ht="30">
       <c r="A925" s="39" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B925" s="50" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C925" s="41" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D925" s="48"/>
       <c r="E925" s="48" t="s">
@@ -37481,13 +37483,13 @@
     </row>
     <row r="926" spans="1:9" ht="45">
       <c r="A926" s="39" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B926" s="50" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C926" s="41" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D926" s="48"/>
       <c r="E926" s="48" t="s">
@@ -37506,13 +37508,13 @@
     </row>
     <row r="927" spans="1:9" ht="45">
       <c r="A927" s="39" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B927" s="40" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C927" s="41" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D927" s="48"/>
       <c r="E927" s="48" t="s">
@@ -37531,13 +37533,13 @@
     </row>
     <row r="928" spans="1:9" ht="30" hidden="1">
       <c r="A928" s="39" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B928" s="40" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C928" s="41" t="s">
         <v>2315</v>
-      </c>
-      <c r="C928" s="41" t="s">
-        <v>2316</v>
       </c>
       <c r="D928" s="48"/>
       <c r="E928" s="48" t="s">
@@ -37556,13 +37558,13 @@
     </row>
     <row r="929" spans="1:9">
       <c r="A929" s="39" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B929" s="50" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="C929" s="41" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D929" s="48"/>
       <c r="E929" s="48" t="s">
@@ -37581,13 +37583,13 @@
     </row>
     <row r="930" spans="1:9" ht="30">
       <c r="A930" s="39" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B930" s="50" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="C930" s="41" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D930" s="48"/>
       <c r="E930" s="48" t="s">
@@ -37606,13 +37608,13 @@
     </row>
     <row r="931" spans="1:9" ht="30">
       <c r="A931" s="39" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B931" s="40" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C931" s="41" t="s">
         <v>2319</v>
-      </c>
-      <c r="C931" s="41" t="s">
-        <v>2320</v>
       </c>
       <c r="D931" s="48"/>
       <c r="E931" s="48" t="s">
@@ -37631,13 +37633,13 @@
     </row>
     <row r="932" spans="1:9" ht="30">
       <c r="A932" s="39" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B932" s="40" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="C932" s="41" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D932" s="48"/>
       <c r="E932" s="48" t="s">
@@ -37656,13 +37658,13 @@
     </row>
     <row r="933" spans="1:9" ht="30">
       <c r="A933" s="39" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B933" s="40" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C933" s="41" t="s">
         <v>2322</v>
-      </c>
-      <c r="C933" s="41" t="s">
-        <v>2323</v>
       </c>
       <c r="D933" s="48"/>
       <c r="E933" s="48" t="s">
@@ -37681,13 +37683,13 @@
     </row>
     <row r="934" spans="1:9" ht="45">
       <c r="A934" s="39" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B934" s="40" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="C934" s="41" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D934" s="48"/>
       <c r="E934" s="48" t="s">
@@ -37706,13 +37708,13 @@
     </row>
     <row r="935" spans="1:9" ht="60" hidden="1">
       <c r="A935" s="39" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B935" s="40" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C935" s="41" t="s">
         <v>2325</v>
-      </c>
-      <c r="C935" s="41" t="s">
-        <v>2326</v>
       </c>
       <c r="D935" s="48"/>
       <c r="E935" s="48" t="s">
@@ -37731,13 +37733,13 @@
     </row>
     <row r="936" spans="1:9" ht="30">
       <c r="A936" s="39" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B936" s="50" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C936" s="41" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D936" s="48"/>
       <c r="E936" s="48" t="s">
@@ -37756,13 +37758,13 @@
     </row>
     <row r="937" spans="1:9">
       <c r="A937" s="39" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B937" s="50" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C937" s="41" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D937" s="48"/>
       <c r="E937" s="48" t="s">
@@ -37781,13 +37783,13 @@
     </row>
     <row r="938" spans="1:9" ht="30">
       <c r="A938" s="39" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B938" s="50" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C938" s="41" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D938" s="48"/>
       <c r="E938" s="48" t="s">
@@ -37806,13 +37808,13 @@
     </row>
     <row r="939" spans="1:9">
       <c r="A939" s="39" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B939" s="40" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C939" s="41" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D939" s="48"/>
       <c r="E939" s="48" t="s">
@@ -37831,13 +37833,13 @@
     </row>
     <row r="940" spans="1:9" ht="45">
       <c r="A940" s="39" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B940" s="40" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C940" s="41" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D940" s="48"/>
       <c r="E940" s="48" t="s">
@@ -37856,13 +37858,13 @@
     </row>
     <row r="941" spans="1:9" ht="45">
       <c r="A941" s="39" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B941" s="40" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C941" s="41" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D941" s="39"/>
       <c r="E941" s="39" t="s">
@@ -37881,13 +37883,13 @@
     </row>
     <row r="942" spans="1:9" ht="180">
       <c r="A942" s="39" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B942" s="50" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C942" s="41" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D942" s="48"/>
       <c r="E942" s="48" t="s">
@@ -37906,13 +37908,13 @@
     </row>
     <row r="943" spans="1:9" ht="30" hidden="1">
       <c r="A943" s="39" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B943" s="50" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C943" s="41" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D943" s="48"/>
       <c r="E943" s="48" t="s">
@@ -37931,13 +37933,13 @@
     </row>
     <row r="944" spans="1:9" ht="30">
       <c r="A944" s="39" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B944" s="50" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C944" s="41" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D944" s="48"/>
       <c r="E944" s="48" t="s">
@@ -37956,13 +37958,13 @@
     </row>
     <row r="945" spans="1:9" ht="30">
       <c r="A945" s="39" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B945" s="40" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C945" s="41" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D945" s="48"/>
       <c r="E945" s="48" t="s">
@@ -37981,13 +37983,13 @@
     </row>
     <row r="946" spans="1:9" ht="30">
       <c r="A946" s="39" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B946" s="40" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C946" s="41" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D946" s="48"/>
       <c r="E946" s="48" t="s">
@@ -38006,13 +38008,13 @@
     </row>
     <row r="947" spans="1:9" ht="30">
       <c r="A947" s="39" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B947" s="50" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C947" s="41" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D947" s="48"/>
       <c r="E947" s="48" t="s">
@@ -38031,13 +38033,13 @@
     </row>
     <row r="948" spans="1:9" ht="180">
       <c r="A948" s="39" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B948" s="50" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C948" s="41" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D948" s="48"/>
       <c r="E948" s="48" t="s">
@@ -38056,13 +38058,13 @@
     </row>
     <row r="949" spans="1:9" ht="30" hidden="1">
       <c r="A949" s="39" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B949" s="50" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C949" s="41" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D949" s="48"/>
       <c r="E949" s="48" t="s">
@@ -38081,13 +38083,13 @@
     </row>
     <row r="950" spans="1:9" ht="30">
       <c r="A950" s="39" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B950" s="50" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C950" s="41" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D950" s="48"/>
       <c r="E950" s="48" t="s">
@@ -38106,13 +38108,13 @@
     </row>
     <row r="951" spans="1:9">
       <c r="A951" s="39" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B951" s="40" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C951" s="41" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D951" s="48"/>
       <c r="E951" s="48" t="s">
@@ -38131,13 +38133,13 @@
     </row>
     <row r="952" spans="1:9" ht="45">
       <c r="A952" s="39" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B952" s="40" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C952" s="41" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D952" s="39"/>
       <c r="E952" s="39" t="s">
@@ -38156,13 +38158,13 @@
     </row>
     <row r="953" spans="1:9" ht="120">
       <c r="A953" s="39" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B953" s="50" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C953" s="41" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D953" s="48"/>
       <c r="E953" s="48" t="s">
@@ -38181,13 +38183,13 @@
     </row>
     <row r="954" spans="1:9" ht="30" hidden="1">
       <c r="A954" s="39" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B954" s="50" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C954" s="41" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D954" s="48"/>
       <c r="E954" s="48" t="s">
@@ -38206,13 +38208,13 @@
     </row>
     <row r="955" spans="1:9" ht="30">
       <c r="A955" s="39" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B955" s="40" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C955" s="41" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D955" s="39"/>
       <c r="E955" s="39" t="s">
@@ -38231,13 +38233,13 @@
     </row>
     <row r="956" spans="1:9" ht="30">
       <c r="A956" s="39" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B956" s="50" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C956" s="41" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D956" s="48"/>
       <c r="E956" s="48" t="s">
@@ -38256,13 +38258,13 @@
     </row>
     <row r="957" spans="1:9" ht="30">
       <c r="A957" s="39" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B957" s="40" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C957" s="41" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D957" s="48"/>
       <c r="E957" s="48" t="s">
@@ -38281,13 +38283,13 @@
     </row>
     <row r="958" spans="1:9" ht="120">
       <c r="A958" s="39" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B958" s="40" t="s">
         <v>2349</v>
       </c>
-      <c r="B958" s="40" t="s">
-        <v>2350</v>
-      </c>
       <c r="C958" s="41" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D958" s="48"/>
       <c r="E958" s="48" t="s">
@@ -38306,13 +38308,13 @@
     </row>
     <row r="959" spans="1:9" ht="30" hidden="1">
       <c r="A959" s="39" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B959" s="40" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C959" s="41" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D959" s="48"/>
       <c r="E959" s="48" t="s">
@@ -38331,13 +38333,13 @@
     </row>
     <row r="960" spans="1:9" ht="30">
       <c r="A960" s="39" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B960" s="50" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C960" s="41" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D960" s="48"/>
       <c r="E960" s="48" t="s">
@@ -38356,13 +38358,13 @@
     </row>
     <row r="961" spans="1:9">
       <c r="A961" s="39" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B961" s="50" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C961" s="41" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D961" s="48"/>
       <c r="E961" s="48" t="s">
@@ -38381,13 +38383,13 @@
     </row>
     <row r="962" spans="1:9" ht="30">
       <c r="A962" s="39" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B962" s="50" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C962" s="41" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D962" s="48"/>
       <c r="E962" s="48" t="s">
@@ -38406,13 +38408,13 @@
     </row>
     <row r="963" spans="1:9">
       <c r="A963" s="39" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B963" s="40" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C963" s="41" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D963" s="48"/>
       <c r="E963" s="48" t="s">
@@ -38431,13 +38433,13 @@
     </row>
     <row r="964" spans="1:9" ht="30">
       <c r="A964" s="39" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B964" s="40" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C964" s="41" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D964" s="48"/>
       <c r="E964" s="48" t="s">
@@ -38456,13 +38458,13 @@
     </row>
     <row r="965" spans="1:9">
       <c r="A965" s="39" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B965" s="50" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C965" s="41" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D965" s="48"/>
       <c r="E965" s="48" t="s">
@@ -38481,13 +38483,13 @@
     </row>
     <row r="966" spans="1:9" ht="30" hidden="1">
       <c r="A966" s="39" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B966" s="40" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C966" s="41" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D966" s="48"/>
       <c r="E966" s="48" t="s">
@@ -38506,13 +38508,13 @@
     </row>
     <row r="967" spans="1:9">
       <c r="A967" s="39" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B967" s="40" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C967" s="41" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D967" s="48"/>
       <c r="E967" s="48" t="s">
@@ -38531,13 +38533,13 @@
     </row>
     <row r="968" spans="1:9">
       <c r="A968" s="39" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B968" s="40" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C968" s="41" t="s">
         <v>2394</v>
-      </c>
-      <c r="C968" s="41" t="s">
-        <v>2395</v>
       </c>
       <c r="D968" s="48"/>
       <c r="E968" s="48" t="s">
@@ -38556,13 +38558,13 @@
     </row>
     <row r="969" spans="1:9" ht="105">
       <c r="A969" s="39" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B969" s="50" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C969" s="41" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D969" s="48"/>
       <c r="E969" s="48" t="s">
@@ -38581,13 +38583,13 @@
     </row>
     <row r="970" spans="1:9" ht="30" hidden="1">
       <c r="A970" s="39" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B970" s="50" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C970" s="41" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D970" s="48"/>
       <c r="E970" s="48" t="s">
@@ -38606,13 +38608,13 @@
     </row>
     <row r="971" spans="1:9">
       <c r="A971" s="39" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B971" s="50" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C971" s="41" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D971" s="48"/>
       <c r="E971" s="48" t="s">
@@ -38631,13 +38633,13 @@
     </row>
     <row r="972" spans="1:9">
       <c r="A972" s="39" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B972" s="50" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C972" s="41" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D972" s="48"/>
       <c r="E972" s="48" t="s">
@@ -38659,7 +38661,7 @@
         <v>702</v>
       </c>
       <c r="B973" s="40" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C973" s="41" t="s">
         <v>1421</v>
@@ -38684,7 +38686,7 @@
         <v>703</v>
       </c>
       <c r="B974" s="40" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C974" s="41" t="s">
         <v>1422</v>
@@ -38711,7 +38713,7 @@
         <v>704</v>
       </c>
       <c r="B975" s="40" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C975" s="41" t="s">
         <v>1423</v>
@@ -38736,7 +38738,7 @@
         <v>705</v>
       </c>
       <c r="B976" s="40" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C976" s="41" t="s">
         <v>1424</v>
@@ -38761,7 +38763,7 @@
         <v>706</v>
       </c>
       <c r="B977" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C977" s="41" t="s">
         <v>1425</v>
@@ -38786,7 +38788,7 @@
         <v>707</v>
       </c>
       <c r="B978" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C978" s="41" t="s">
         <v>1426</v>
@@ -38811,7 +38813,7 @@
         <v>708</v>
       </c>
       <c r="B979" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C979" s="41" t="s">
         <v>1427</v>
@@ -38836,7 +38838,7 @@
         <v>709</v>
       </c>
       <c r="B980" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C980" s="41" t="s">
         <v>1428</v>
@@ -38861,7 +38863,7 @@
         <v>710</v>
       </c>
       <c r="B981" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C981" s="41" t="s">
         <v>1429</v>
@@ -38886,7 +38888,7 @@
         <v>711</v>
       </c>
       <c r="B982" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C982" s="41" t="s">
         <v>1430</v>
@@ -38911,7 +38913,7 @@
         <v>712</v>
       </c>
       <c r="B983" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C983" s="41" t="s">
         <v>1431</v>
@@ -38938,7 +38940,7 @@
         <v>713</v>
       </c>
       <c r="B984" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C984" s="41" t="s">
         <v>1432</v>
@@ -38963,7 +38965,7 @@
         <v>1831</v>
       </c>
       <c r="B985" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C985" s="41" t="s">
         <v>1710</v>
@@ -38988,7 +38990,7 @@
         <v>1832</v>
       </c>
       <c r="B986" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C986" s="41" t="s">
         <v>1711</v>
@@ -39013,7 +39015,7 @@
         <v>1833</v>
       </c>
       <c r="B987" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C987" s="41" t="s">
         <v>1712</v>
@@ -39038,7 +39040,7 @@
         <v>1834</v>
       </c>
       <c r="B988" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C988" s="41" t="s">
         <v>1713</v>
@@ -39063,7 +39065,7 @@
         <v>1835</v>
       </c>
       <c r="B989" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C989" s="41" t="s">
         <v>1714</v>
@@ -39088,7 +39090,7 @@
         <v>1836</v>
       </c>
       <c r="B990" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C990" s="41" t="s">
         <v>1716</v>
@@ -39113,10 +39115,10 @@
         <v>1837</v>
       </c>
       <c r="B991" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C991" s="41" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D991" s="39"/>
       <c r="E991" s="39" t="s">
@@ -39135,13 +39137,13 @@
     </row>
     <row r="992" spans="1:9" ht="75">
       <c r="A992" s="39" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B992" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C992" s="41" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D992" s="39"/>
       <c r="E992" s="39" t="s">
@@ -39163,7 +39165,7 @@
         <v>1838</v>
       </c>
       <c r="B993" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C993" s="41" t="s">
         <v>1715</v>
@@ -39188,10 +39190,10 @@
         <v>1839</v>
       </c>
       <c r="B994" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C994" s="41" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D994" s="39"/>
       <c r="E994" s="39" t="s">
@@ -39213,7 +39215,7 @@
         <v>1840</v>
       </c>
       <c r="B995" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C995" s="41" t="s">
         <v>1695</v>
@@ -39235,13 +39237,13 @@
     </row>
     <row r="996" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A996" s="39" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B996" s="40" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C996" s="41" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D996" s="48"/>
       <c r="E996" s="48" t="s">
@@ -39254,7 +39256,7 @@
         <v>15</v>
       </c>
       <c r="H996" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I996" s="49"/>
     </row>
@@ -39486,10 +39488,10 @@
         <v>893</v>
       </c>
       <c r="C1005" s="41" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D1005" s="39" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E1005" s="39" t="s">
         <v>22</v>
@@ -39513,10 +39515,10 @@
         <v>893</v>
       </c>
       <c r="C1006" s="41" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D1006" s="39" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E1006" s="39" t="s">
         <v>22</v>
@@ -39540,10 +39542,10 @@
         <v>893</v>
       </c>
       <c r="C1007" s="41" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D1007" s="39" t="s">
         <v>2404</v>
-      </c>
-      <c r="D1007" s="39" t="s">
-        <v>2405</v>
       </c>
       <c r="E1007" s="39" t="s">
         <v>22</v>
@@ -39570,7 +39572,7 @@
         <v>1726</v>
       </c>
       <c r="D1008" s="39" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="E1008" s="39" t="s">
         <v>22</v>
@@ -39594,7 +39596,7 @@
         <v>893</v>
       </c>
       <c r="C1009" s="41" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D1009" s="39" t="s">
         <v>1528</v>
@@ -39648,10 +39650,10 @@
         <v>893</v>
       </c>
       <c r="C1011" s="41" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D1011" s="39" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="E1011" s="39" t="s">
         <v>22</v>
@@ -39675,10 +39677,10 @@
         <v>893</v>
       </c>
       <c r="C1012" s="41" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D1012" s="39" t="s">
         <v>2408</v>
-      </c>
-      <c r="D1012" s="39" t="s">
-        <v>2409</v>
       </c>
       <c r="E1012" s="39" t="s">
         <v>22</v>
@@ -39696,13 +39698,13 @@
     </row>
     <row r="1013" spans="1:9" ht="30">
       <c r="A1013" s="39" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B1013" s="43">
         <v>8</v>
       </c>
       <c r="C1013" s="41" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D1013" s="39" t="s">
         <v>1529</v>
@@ -39723,13 +39725,13 @@
     </row>
     <row r="1014" spans="1:9" ht="45">
       <c r="A1014" s="39" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B1014" s="43">
         <v>8</v>
       </c>
       <c r="C1014" s="41" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D1014" s="39" t="s">
         <v>1864</v>
@@ -39744,19 +39746,19 @@
         <v>15</v>
       </c>
       <c r="H1014" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I1014" s="41"/>
     </row>
     <row r="1015" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1015" s="39" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B1015" s="43">
         <v>8</v>
       </c>
       <c r="C1015" s="41" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="D1015" s="39" t="s">
         <v>1864</v>
@@ -39771,19 +39773,19 @@
         <v>15</v>
       </c>
       <c r="H1015" s="39" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I1015" s="41"/>
     </row>
     <row r="1016" spans="1:9" ht="45">
       <c r="A1016" s="39" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B1016" s="43">
         <v>8</v>
       </c>
       <c r="C1016" s="41" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D1016" s="39" t="s">
         <v>1865</v>
@@ -39804,13 +39806,13 @@
     </row>
     <row r="1017" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1017" s="39" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B1017" s="43">
         <v>8</v>
       </c>
       <c r="C1017" s="41" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D1017" s="39" t="s">
         <v>1865</v>
@@ -39833,13 +39835,13 @@
     </row>
     <row r="1018" spans="1:9" ht="30">
       <c r="A1018" s="39" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B1018" s="43">
         <v>8</v>
       </c>
       <c r="C1018" s="41" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D1018" s="39" t="s">
         <v>1866</v>
@@ -39860,13 +39862,13 @@
     </row>
     <row r="1019" spans="1:9" ht="45">
       <c r="A1019" s="39" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B1019" s="43">
         <v>8</v>
       </c>
       <c r="C1019" s="41" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D1019" s="48" t="s">
         <v>1866</v>
@@ -39889,13 +39891,13 @@
     </row>
     <row r="1020" spans="1:9" ht="30">
       <c r="A1020" s="39" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B1020" s="43">
         <v>8</v>
       </c>
       <c r="C1020" s="41" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D1020" s="39" t="s">
         <v>1867</v>
@@ -39916,13 +39918,13 @@
     </row>
     <row r="1021" spans="1:9" ht="45">
       <c r="A1021" s="39" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B1021" s="43">
         <v>8</v>
       </c>
       <c r="C1021" s="41" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D1021" s="39" t="s">
         <v>1867</v>
@@ -39951,10 +39953,10 @@
         <v>893</v>
       </c>
       <c r="C1022" s="41" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D1022" s="39" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E1022" s="39" t="s">
         <v>22</v>
@@ -39978,10 +39980,10 @@
         <v>893</v>
       </c>
       <c r="C1023" s="41" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D1023" s="39" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E1023" s="39" t="s">
         <v>22</v>
@@ -40001,16 +40003,16 @@
     </row>
     <row r="1024" spans="1:9" ht="45">
       <c r="A1024" s="39" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B1024" s="43">
         <v>8</v>
       </c>
       <c r="C1024" s="41" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D1024" s="39" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E1024" s="48" t="s">
         <v>22</v>
@@ -40028,16 +40030,16 @@
     </row>
     <row r="1025" spans="1:9" ht="45">
       <c r="A1025" s="39" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B1025" s="43">
         <v>8</v>
       </c>
       <c r="C1025" s="41" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D1025" s="39" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E1025" s="48" t="s">
         <v>22</v>
@@ -40063,7 +40065,7 @@
         <v>893</v>
       </c>
       <c r="C1026" s="41" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D1026" s="39" t="s">
         <v>1530</v>
@@ -40086,13 +40088,13 @@
     </row>
     <row r="1027" spans="1:9" ht="45">
       <c r="A1027" s="39" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B1027" s="40" t="s">
         <v>893</v>
       </c>
       <c r="C1027" s="41" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D1027" s="39" t="s">
         <v>1530</v>
@@ -40119,7 +40121,7 @@
         <v>893</v>
       </c>
       <c r="C1028" s="41" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D1028" s="39" t="s">
         <v>1531</v>
@@ -40175,7 +40177,7 @@
         <v>893</v>
       </c>
       <c r="C1030" s="41" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D1030" s="39" t="s">
         <v>1532</v>
@@ -40202,7 +40204,7 @@
         <v>893</v>
       </c>
       <c r="C1031" s="41" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D1031" s="39" t="s">
         <v>1532</v>
@@ -40225,16 +40227,16 @@
     </row>
     <row r="1032" spans="1:9" ht="45">
       <c r="A1032" s="39" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B1032" s="43">
         <v>8</v>
       </c>
       <c r="C1032" s="41" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D1032" s="39" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E1032" s="48" t="s">
         <v>22</v>
@@ -40254,16 +40256,16 @@
     </row>
     <row r="1033" spans="1:9" ht="30">
       <c r="A1033" s="39" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B1033" s="43">
         <v>8</v>
       </c>
       <c r="C1033" s="41" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D1033" s="39" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E1033" s="48" t="s">
         <v>22</v>
@@ -40281,16 +40283,16 @@
     </row>
     <row r="1034" spans="1:9" ht="30">
       <c r="A1034" s="39" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B1034" s="43">
         <v>8</v>
       </c>
       <c r="C1034" s="41" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="D1034" s="39" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="E1034" s="48" t="s">
         <v>22</v>
@@ -40308,16 +40310,16 @@
     </row>
     <row r="1035" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1035" s="39" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B1035" s="43">
         <v>8</v>
       </c>
       <c r="C1035" s="41" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="D1035" s="39" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="E1035" s="48" t="s">
         <v>22</v>
@@ -40343,7 +40345,7 @@
         <v>893</v>
       </c>
       <c r="C1036" s="41" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D1036" s="39" t="s">
         <v>1533</v>
@@ -40370,7 +40372,7 @@
         <v>893</v>
       </c>
       <c r="C1037" s="41" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D1037" s="39" t="s">
         <v>1533</v>
@@ -40399,7 +40401,7 @@
         <v>893</v>
       </c>
       <c r="C1038" s="41" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D1038" s="39" t="s">
         <v>1534</v>
@@ -40426,7 +40428,7 @@
         <v>893</v>
       </c>
       <c r="C1039" s="41" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1039" s="39" t="s">
         <v>1534</v>
@@ -40455,7 +40457,7 @@
         <v>893</v>
       </c>
       <c r="C1040" s="41" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D1040" s="39" t="s">
         <v>1535</v>
@@ -40482,7 +40484,7 @@
         <v>893</v>
       </c>
       <c r="C1041" s="41" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D1041" s="39" t="s">
         <v>1535</v>
@@ -40511,7 +40513,7 @@
         <v>893</v>
       </c>
       <c r="C1042" s="41" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D1042" s="39" t="s">
         <v>1536</v>
@@ -40538,7 +40540,7 @@
         <v>893</v>
       </c>
       <c r="C1043" s="41" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D1043" s="39" t="s">
         <v>1536</v>
@@ -40567,7 +40569,7 @@
         <v>893</v>
       </c>
       <c r="C1044" s="41" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D1044" s="39" t="s">
         <v>1537</v>
@@ -40594,7 +40596,7 @@
         <v>893</v>
       </c>
       <c r="C1045" s="41" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D1045" s="39" t="s">
         <v>1537</v>
@@ -40623,7 +40625,7 @@
         <v>893</v>
       </c>
       <c r="C1046" s="41" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D1046" s="39" t="s">
         <v>1538</v>
@@ -40650,7 +40652,7 @@
         <v>893</v>
       </c>
       <c r="C1047" s="41" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D1047" s="39" t="s">
         <v>1538</v>
@@ -40679,7 +40681,7 @@
         <v>893</v>
       </c>
       <c r="C1048" s="41" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D1048" s="39" t="s">
         <v>1539</v>
@@ -40706,7 +40708,7 @@
         <v>893</v>
       </c>
       <c r="C1049" s="41" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D1049" s="42" t="s">
         <v>1539</v>
@@ -40733,7 +40735,7 @@
         <v>893</v>
       </c>
       <c r="C1050" s="41" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D1050" s="39" t="s">
         <v>1540</v>
@@ -40760,7 +40762,7 @@
         <v>893</v>
       </c>
       <c r="C1051" s="41" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1051" s="42" t="s">
         <v>1540</v>
@@ -40787,7 +40789,7 @@
         <v>893</v>
       </c>
       <c r="C1052" s="41" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1052" s="39" t="s">
         <v>1541</v>
@@ -40814,7 +40816,7 @@
         <v>893</v>
       </c>
       <c r="C1053" s="41" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D1053" s="39" t="s">
         <v>1541</v>
@@ -40843,7 +40845,7 @@
         <v>893</v>
       </c>
       <c r="C1054" s="41" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D1054" s="39" t="s">
         <v>1542</v>
@@ -40870,7 +40872,7 @@
         <v>893</v>
       </c>
       <c r="C1055" s="41" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D1055" s="39" t="s">
         <v>1542</v>
@@ -40899,7 +40901,7 @@
         <v>893</v>
       </c>
       <c r="C1056" s="41" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1056" s="39" t="s">
         <v>1868</v>
@@ -40926,7 +40928,7 @@
         <v>893</v>
       </c>
       <c r="C1057" s="41" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="D1057" s="39" t="s">
         <v>1868</v>
@@ -40953,7 +40955,7 @@
         <v>893</v>
       </c>
       <c r="C1058" s="41" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D1058" s="39" t="s">
         <v>1543</v>
@@ -41009,7 +41011,7 @@
         <v>893</v>
       </c>
       <c r="C1060" s="41" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1060" s="39" t="s">
         <v>1544</v>
@@ -41065,7 +41067,7 @@
         <v>893</v>
       </c>
       <c r="C1062" s="41" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1062" s="39" t="s">
         <v>1545</v>
@@ -41121,7 +41123,7 @@
         <v>893</v>
       </c>
       <c r="C1064" s="41" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1064" s="39" t="s">
         <v>1546</v>
@@ -41177,7 +41179,7 @@
         <v>893</v>
       </c>
       <c r="C1066" s="41" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D1066" s="39" t="s">
         <v>1547</v>
@@ -41233,7 +41235,7 @@
         <v>893</v>
       </c>
       <c r="C1068" s="41" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1068" s="39" t="s">
         <v>1869</v>
@@ -41260,7 +41262,7 @@
         <v>893</v>
       </c>
       <c r="C1069" s="41" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D1069" s="39" t="s">
         <v>1869</v>
@@ -41289,7 +41291,7 @@
         <v>893</v>
       </c>
       <c r="C1070" s="41" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1070" s="39" t="s">
         <v>1548</v>
@@ -41345,7 +41347,7 @@
         <v>8</v>
       </c>
       <c r="C1072" s="41" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1072" s="39" t="s">
         <v>1870</v>
@@ -41395,16 +41397,16 @@
     </row>
     <row r="1074" spans="1:9" ht="45">
       <c r="A1074" s="39" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B1074" s="43">
         <v>8</v>
       </c>
       <c r="C1074" s="41" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1074" s="39" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E1074" s="48" t="s">
         <v>22</v>
@@ -41422,16 +41424,16 @@
     </row>
     <row r="1075" spans="1:9" ht="45">
       <c r="A1075" s="39" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B1075" s="43">
         <v>8</v>
       </c>
       <c r="C1075" s="41" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D1075" s="39" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E1075" s="48" t="s">
         <v>22</v>
@@ -41457,7 +41459,7 @@
         <v>893</v>
       </c>
       <c r="C1076" s="41" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1076" s="39" t="s">
         <v>1549</v>
@@ -41480,13 +41482,13 @@
     </row>
     <row r="1077" spans="1:9" ht="45">
       <c r="A1077" s="39" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1077" s="40" t="s">
         <v>893</v>
       </c>
       <c r="C1077" s="41" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D1077" s="39" t="s">
         <v>1549</v>
@@ -41513,7 +41515,7 @@
         <v>893</v>
       </c>
       <c r="C1078" s="41" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D1078" s="39" t="s">
         <v>1550</v>
@@ -41540,7 +41542,7 @@
         <v>893</v>
       </c>
       <c r="C1079" s="41" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D1079" s="39" t="s">
         <v>1550</v>
@@ -41569,7 +41571,7 @@
         <v>893</v>
       </c>
       <c r="C1080" s="41" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D1080" s="39" t="s">
         <v>1551</v>
@@ -41596,7 +41598,7 @@
         <v>893</v>
       </c>
       <c r="C1081" s="41" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D1081" s="39" t="s">
         <v>1551</v>
@@ -41619,16 +41621,16 @@
     </row>
     <row r="1082" spans="1:9" ht="60">
       <c r="A1082" s="39" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B1082" s="43">
         <v>8</v>
       </c>
       <c r="C1082" s="41" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D1082" s="39" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E1082" s="48" t="s">
         <v>22</v>
@@ -41648,16 +41650,16 @@
     </row>
     <row r="1083" spans="1:9" ht="30">
       <c r="A1083" s="39" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B1083" s="43">
         <v>8</v>
       </c>
       <c r="C1083" s="41" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D1083" s="39" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E1083" s="48" t="s">
         <v>22</v>
@@ -41681,7 +41683,7 @@
         <v>893</v>
       </c>
       <c r="C1084" s="41" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D1084" s="39" t="s">
         <v>1552</v>
@@ -41708,7 +41710,7 @@
         <v>893</v>
       </c>
       <c r="C1085" s="41" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D1085" s="39" t="s">
         <v>1552</v>
@@ -41737,7 +41739,7 @@
         <v>893</v>
       </c>
       <c r="C1086" s="41" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D1086" s="39" t="s">
         <v>1553</v>
@@ -41764,7 +41766,7 @@
         <v>893</v>
       </c>
       <c r="C1087" s="41" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D1087" s="39" t="s">
         <v>1553</v>
@@ -41793,7 +41795,7 @@
         <v>893</v>
       </c>
       <c r="C1088" s="41" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D1088" s="39" t="s">
         <v>1554</v>
@@ -41820,7 +41822,7 @@
         <v>893</v>
       </c>
       <c r="C1089" s="41" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D1089" s="39" t="s">
         <v>1554</v>
@@ -41849,7 +41851,7 @@
         <v>893</v>
       </c>
       <c r="C1090" s="41" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D1090" s="39" t="s">
         <v>1555</v>
@@ -41876,7 +41878,7 @@
         <v>893</v>
       </c>
       <c r="C1091" s="41" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D1091" s="39" t="s">
         <v>1555</v>
@@ -41905,7 +41907,7 @@
         <v>893</v>
       </c>
       <c r="C1092" s="41" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D1092" s="39" t="s">
         <v>1556</v>
@@ -41932,7 +41934,7 @@
         <v>893</v>
       </c>
       <c r="C1093" s="41" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D1093" s="39" t="s">
         <v>1556</v>
@@ -41961,7 +41963,7 @@
         <v>893</v>
       </c>
       <c r="C1094" s="41" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D1094" s="39" t="s">
         <v>1557</v>
@@ -42017,7 +42019,7 @@
         <v>893</v>
       </c>
       <c r="C1096" s="41" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D1096" s="39" t="s">
         <v>1558</v>
@@ -42073,7 +42075,7 @@
         <v>893</v>
       </c>
       <c r="C1098" s="41" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D1098" s="39" t="s">
         <v>1559</v>
@@ -42129,7 +42131,7 @@
         <v>893</v>
       </c>
       <c r="C1100" s="41" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D1100" s="39" t="s">
         <v>1560</v>
@@ -42185,7 +42187,7 @@
         <v>893</v>
       </c>
       <c r="C1102" s="41" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D1102" s="39" t="s">
         <v>1561</v>
@@ -42241,7 +42243,7 @@
         <v>893</v>
       </c>
       <c r="C1104" s="41" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D1104" s="39" t="s">
         <v>1562</v>
@@ -42295,7 +42297,7 @@
         <v>893</v>
       </c>
       <c r="C1106" s="41" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D1106" s="39" t="s">
         <v>1563</v>
@@ -42349,7 +42351,7 @@
         <v>893</v>
       </c>
       <c r="C1108" s="41" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D1108" s="39" t="s">
         <v>1564</v>
@@ -42376,7 +42378,7 @@
         <v>893</v>
       </c>
       <c r="C1109" s="41" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D1109" s="39" t="s">
         <v>1564</v>
@@ -42405,7 +42407,7 @@
         <v>893</v>
       </c>
       <c r="C1110" s="41" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D1110" s="39" t="s">
         <v>1565</v>
@@ -42459,7 +42461,7 @@
         <v>893</v>
       </c>
       <c r="C1112" s="41" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D1112" s="39" t="s">
         <v>1871</v>
@@ -42515,7 +42517,7 @@
         <v>893</v>
       </c>
       <c r="C1114" s="41" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D1114" s="39" t="s">
         <v>1566</v>
@@ -42544,7 +42546,7 @@
         <v>893</v>
       </c>
       <c r="C1115" s="41" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D1115" s="39" t="s">
         <v>1567</v>
@@ -42598,7 +42600,7 @@
         <v>893</v>
       </c>
       <c r="C1117" s="41" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D1117" s="39" t="s">
         <v>1568</v>
@@ -42652,7 +42654,7 @@
         <v>893</v>
       </c>
       <c r="C1119" s="41" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D1119" s="39" t="s">
         <v>1569</v>
@@ -42706,7 +42708,7 @@
         <v>893</v>
       </c>
       <c r="C1121" s="41" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D1121" s="39" t="s">
         <v>1872</v>
@@ -42733,7 +42735,7 @@
         <v>893</v>
       </c>
       <c r="C1122" s="41" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D1122" s="39" t="s">
         <v>1872</v>
@@ -42748,10 +42750,10 @@
         <v>15</v>
       </c>
       <c r="H1122" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I1122" s="41" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1123" spans="1:9" ht="45">
@@ -42762,7 +42764,7 @@
         <v>893</v>
       </c>
       <c r="C1123" s="41" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D1123" s="39" t="s">
         <v>1873</v>
@@ -42789,7 +42791,7 @@
         <v>893</v>
       </c>
       <c r="C1124" s="41" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="D1124" s="39" t="s">
         <v>1873</v>
@@ -42804,10 +42806,10 @@
         <v>15</v>
       </c>
       <c r="H1124" s="39" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I1124" s="41" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1125" spans="1:9" ht="30">
@@ -42818,7 +42820,7 @@
         <v>893</v>
       </c>
       <c r="C1125" s="41" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="D1125" s="39" t="s">
         <v>1570</v>
@@ -42866,16 +42868,16 @@
     </row>
     <row r="1127" spans="1:9" ht="30">
       <c r="A1127" s="39" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B1127" s="43">
         <v>8</v>
       </c>
       <c r="C1127" s="41" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="D1127" s="39" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="E1127" s="48" t="s">
         <v>22</v>
@@ -42893,16 +42895,16 @@
     </row>
     <row r="1128" spans="1:9" ht="45">
       <c r="A1128" s="39" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B1128" s="43">
         <v>8</v>
       </c>
       <c r="C1128" s="41" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="D1128" s="48" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="E1128" s="48" t="s">
         <v>22</v>
@@ -42928,7 +42930,7 @@
         <v>893</v>
       </c>
       <c r="C1129" s="41" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="D1129" s="39" t="s">
         <v>1571</v>
@@ -42982,7 +42984,7 @@
         <v>893</v>
       </c>
       <c r="C1131" s="41" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="D1131" s="39" t="s">
         <v>1572</v>
@@ -43036,7 +43038,7 @@
         <v>893</v>
       </c>
       <c r="C1133" s="41" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="D1133" s="39" t="s">
         <v>1573</v>
@@ -43084,16 +43086,16 @@
     </row>
     <row r="1135" spans="1:9" ht="60">
       <c r="A1135" s="39" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B1135" s="43">
         <v>8</v>
       </c>
       <c r="C1135" s="41" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="D1135" s="39" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="E1135" s="48" t="s">
         <v>22</v>
@@ -43111,16 +43113,16 @@
     </row>
     <row r="1136" spans="1:9" ht="45">
       <c r="A1136" s="39" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B1136" s="43">
         <v>8</v>
       </c>
       <c r="C1136" s="41" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D1136" s="39" t="s">
         <v>2532</v>
-      </c>
-      <c r="D1136" s="39" t="s">
-        <v>2533</v>
       </c>
       <c r="E1136" s="48" t="s">
         <v>22</v>
@@ -43146,7 +43148,7 @@
         <v>893</v>
       </c>
       <c r="C1137" s="41" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="D1137" s="39" t="s">
         <v>1574</v>
@@ -43225,16 +43227,16 @@
     </row>
     <row r="1140" spans="1:9" ht="30">
       <c r="A1140" s="39" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B1140" s="43">
         <v>8</v>
       </c>
       <c r="C1140" s="41" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="D1140" s="39" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="E1140" s="48" t="s">
         <v>22</v>
@@ -43252,16 +43254,16 @@
     </row>
     <row r="1141" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1141" s="39" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B1141" s="43">
         <v>8</v>
       </c>
       <c r="C1141" s="41" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D1141" s="39" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="E1141" s="48" t="s">
         <v>22</v>
@@ -43281,16 +43283,16 @@
     </row>
     <row r="1142" spans="1:9" ht="45">
       <c r="A1142" s="39" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B1142" s="43">
         <v>8</v>
       </c>
       <c r="C1142" s="41" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D1142" s="39" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="E1142" s="48" t="s">
         <v>22</v>
@@ -43308,16 +43310,16 @@
     </row>
     <row r="1143" spans="1:9" ht="45">
       <c r="A1143" s="39" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B1143" s="43">
         <v>8</v>
       </c>
       <c r="C1143" s="41" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D1143" s="39" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="E1143" s="48" t="s">
         <v>22</v>
@@ -43440,7 +43442,7 @@
         <v>802</v>
       </c>
       <c r="B1148" s="40" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C1148" s="41" t="s">
         <v>1456</v>
@@ -43465,7 +43467,7 @@
         <v>803</v>
       </c>
       <c r="B1149" s="40" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C1149" s="41" t="s">
         <v>1457</v>
@@ -43492,7 +43494,7 @@
         <v>804</v>
       </c>
       <c r="B1150" s="40" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C1150" s="41" t="s">
         <v>1458</v>
@@ -43519,7 +43521,7 @@
         <v>805</v>
       </c>
       <c r="B1151" s="40" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C1151" s="41" t="s">
         <v>1459</v>
@@ -43546,7 +43548,7 @@
         <v>806</v>
       </c>
       <c r="B1152" s="40" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C1152" s="41" t="s">
         <v>1460</v>
@@ -43573,7 +43575,7 @@
         <v>807</v>
       </c>
       <c r="B1153" s="40" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C1153" s="41" t="s">
         <v>1461</v>
@@ -43600,10 +43602,10 @@
         <v>808</v>
       </c>
       <c r="B1154" s="40" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1154" s="41" t="s">
         <v>2548</v>
-      </c>
-      <c r="C1154" s="41" t="s">
-        <v>2549</v>
       </c>
       <c r="D1154" s="39"/>
       <c r="E1154" s="39" t="s">
@@ -43625,7 +43627,7 @@
         <v>809</v>
       </c>
       <c r="B1155" s="40" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C1155" s="41" t="s">
         <v>1462</v>
@@ -43650,7 +43652,7 @@
         <v>810</v>
       </c>
       <c r="B1156" s="40" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C1156" s="41" t="s">
         <v>1463</v>
@@ -43675,7 +43677,7 @@
         <v>811</v>
       </c>
       <c r="B1157" s="40" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C1157" s="41" t="s">
         <v>1464</v>
@@ -43702,7 +43704,7 @@
         <v>812</v>
       </c>
       <c r="B1158" s="40" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C1158" s="41" t="s">
         <v>1465</v>
@@ -43724,13 +43726,13 @@
     </row>
     <row r="1159" spans="1:9" ht="30">
       <c r="A1159" s="39" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1159" s="40" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1159" s="41" t="s">
         <v>1919</v>
-      </c>
-      <c r="B1159" s="40" t="s">
-        <v>2554</v>
-      </c>
-      <c r="C1159" s="41" t="s">
-        <v>1920</v>
       </c>
       <c r="D1159" s="44"/>
       <c r="E1159" s="44" t="s">
@@ -43746,7 +43748,7 @@
         <v>17</v>
       </c>
       <c r="I1159" s="41" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1160" spans="1:9" ht="225">
@@ -43882,7 +43884,7 @@
         <v>864</v>
       </c>
       <c r="C1165" s="41" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="D1165" s="39"/>
       <c r="E1165" s="39" t="s">
@@ -44029,7 +44031,7 @@
         <v>824</v>
       </c>
       <c r="B1171" s="40" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C1171" s="41" t="s">
         <v>1476</v>
@@ -44054,7 +44056,7 @@
         <v>825</v>
       </c>
       <c r="B1172" s="40" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C1172" s="41" t="s">
         <v>1477</v>
@@ -44079,7 +44081,7 @@
         <v>826</v>
       </c>
       <c r="B1173" s="40" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C1173" s="41" t="s">
         <v>1478</v>
@@ -44104,7 +44106,7 @@
         <v>827</v>
       </c>
       <c r="B1174" s="40" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="C1174" s="41" t="s">
         <v>1479</v>
@@ -44129,7 +44131,7 @@
         <v>828</v>
       </c>
       <c r="B1175" s="40" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C1175" s="41" t="s">
         <v>1480</v>
@@ -44154,7 +44156,7 @@
         <v>829</v>
       </c>
       <c r="B1176" s="40" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C1176" s="41" t="s">
         <v>1481</v>
@@ -44179,7 +44181,7 @@
         <v>830</v>
       </c>
       <c r="B1177" s="40" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C1177" s="41" t="s">
         <v>1482</v>
@@ -44204,7 +44206,7 @@
         <v>831</v>
       </c>
       <c r="B1178" s="40" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C1178" s="41" t="s">
         <v>1483</v>
@@ -44229,7 +44231,7 @@
         <v>832</v>
       </c>
       <c r="B1179" s="40" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C1179" s="41" t="s">
         <v>1484</v>
@@ -44254,7 +44256,7 @@
         <v>833</v>
       </c>
       <c r="B1180" s="40" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C1180" s="41" t="s">
         <v>1485</v>
@@ -44304,7 +44306,7 @@
         <v>835</v>
       </c>
       <c r="B1182" s="40" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C1182" s="41" t="s">
         <v>1487</v>
@@ -44382,7 +44384,7 @@
         <v>893</v>
       </c>
       <c r="C1185" s="41" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D1185" s="39" t="s">
         <v>1575</v>
@@ -44430,16 +44432,16 @@
     </row>
     <row r="1187" spans="1:9" ht="45">
       <c r="A1187" s="39" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B1187" s="40" t="s">
         <v>893</v>
       </c>
       <c r="C1187" s="41" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D1187" s="39" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E1187" s="44" t="s">
         <v>22</v>
@@ -44457,16 +44459,16 @@
     </row>
     <row r="1188" spans="1:9" ht="45">
       <c r="A1188" s="39" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B1188" s="40" t="s">
         <v>893</v>
       </c>
       <c r="C1188" s="41" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D1188" s="39" t="s">
         <v>1923</v>
-      </c>
-      <c r="D1188" s="39" t="s">
-        <v>1924</v>
       </c>
       <c r="E1188" s="44" t="s">
         <v>22</v>
@@ -44492,7 +44494,7 @@
         <v>893</v>
       </c>
       <c r="C1189" s="41" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="D1189" s="39" t="s">
         <v>1576</v>
@@ -46748,6 +46750,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -46796,37 +46813,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -46840,10 +46827,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMTGS/MS-OXWSMTGS_RequirementSpecification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EWS&amp;EAS\MS-OXWSMTGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4148ACCB-AFC4-4EA9-B025-52730CB40832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5CBCD3-7D7C-47B1-880C-9E1BA305C78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8565" uniqueCount="2681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8565" uniqueCount="2682">
   <si>
     <t>Req ID</t>
   </si>
@@ -8790,9 +8790,6 @@
     <t>MS-OXWSMTGS_R2182</t>
   </si>
   <si>
-    <t>MS-OXWSMTGS_R2183</t>
-  </si>
-  <si>
     <t>MS-OXWSMTGS_R203:i</t>
   </si>
   <si>
@@ -8910,15 +8907,9 @@
     <t>[In Appendix C: Product Behavior] Implementation does not support the EndTimeZone element. (&lt;40&gt; Section 2.2.4.17:  Exchange 2007 does not support the EndTimeZone element.)</t>
   </si>
   <si>
-    <t>MS-OXWSMTGS_R2190</t>
-  </si>
-  <si>
     <t>MS-OXWSMTGS_R2191</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support ConferenceType in MeetingRequestMessageType. (&lt;41&gt; Section 2.2.4.17:  Exchange 2007, Exchange 2010, and Exchange 2013 support the ConferenceType element. The ConferenceType element is obsolete in Exchange 2016 and Exchange 2019.)</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-OXWSMTGS_R2190.</t>
   </si>
   <si>
@@ -8932,9 +8923,6 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does not support the EndWallClock element. (&lt;44&gt; Section 2.2.4.17:  Exchange 2007 and Exchange 2010 do not support the EndWallClock element.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support ConferenceType in CalendarItemType. (&lt;16&gt; Section 2.2.4.6:  Exchange 2007, Exchange 2010, and Exchange 2013 support the ConferenceType element. )</t>
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXWSMTGS_R2187.</t>
@@ -9857,6 +9845,26 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does use the value "WorkingElsewhere" which specifies the status as working outside the office. (Exchange 2013 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior]Implementation does support TimeZone element if the meeting is not associated with a recurring calendar item. (Exchange 2007, Exchange 2010 and Exchange 2013 follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-OXWSMTGS_R3311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-OXWSMTGS_R3541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support ConferenceType in CalendarItemType. (&lt;16&gt; Section 2.2.4.6:  Exchange 2007, Exchange 2010, and Exchange 2013 support the ConferenceType element. )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support ConferenceType in MeetingRequestMessageType. (&lt;41&gt; Section 2.2.4.17:  Exchange 2007, Exchange 2010, and Exchange 2013 support the ConferenceType element. The ConferenceType element is obsolete in Exchange 2016 and Exchange 2019.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10239,30 +10247,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10295,6 +10279,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14179,16 +14187,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="25"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -14200,13 +14208,13 @@
       <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -14214,16 +14222,16 @@
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -14231,16 +14239,16 @@
       <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -14248,16 +14256,16 @@
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -14265,16 +14273,16 @@
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -14282,16 +14290,16 @@
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="54" t="s">
         <v>1648</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -14299,16 +14307,16 @@
       <c r="A11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="57" t="s">
         <v>1649</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -14392,16 +14400,16 @@
       <c r="A16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -14409,16 +14417,16 @@
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -14426,16 +14434,16 @@
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="51" t="s">
         <v>1650</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="61"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -16059,7 +16067,7 @@
         <v>851</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39" t="s">
@@ -16072,7 +16080,7 @@
         <v>15</v>
       </c>
       <c r="H83" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I83" s="41"/>
     </row>
@@ -16109,7 +16117,7 @@
         <v>851</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39" t="s">
@@ -16122,7 +16130,7 @@
         <v>15</v>
       </c>
       <c r="H85" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I85" s="41"/>
     </row>
@@ -16144,7 +16152,7 @@
         <v>3</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="H86" s="39" t="s">
         <v>18</v>
@@ -16409,7 +16417,7 @@
         <v>852</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>2673</v>
+        <v>2669</v>
       </c>
       <c r="D97" s="39"/>
       <c r="E97" s="39" t="s">
@@ -16601,7 +16609,7 @@
         <v>15</v>
       </c>
       <c r="H104" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I104" s="41"/>
     </row>
@@ -16765,7 +16773,7 @@
         <v>854</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39" t="s">
@@ -17260,7 +17268,7 @@
         <v>17</v>
       </c>
       <c r="I130" s="41" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30">
@@ -18694,7 +18702,7 @@
         <v>17</v>
       </c>
       <c r="I186" s="41" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -19402,7 +19410,7 @@
         <v>20</v>
       </c>
       <c r="I214" s="41" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="30">
@@ -19665,7 +19673,7 @@
     </row>
     <row r="225" spans="1:9" s="37" customFormat="1">
       <c r="A225" s="39" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="B225" s="40" t="s">
         <v>854</v>
@@ -19698,7 +19706,7 @@
         <v>854</v>
       </c>
       <c r="C226" s="41" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="D226" s="48"/>
       <c r="E226" s="48" t="s">
@@ -19714,7 +19722,7 @@
         <v>17</v>
       </c>
       <c r="I226" s="41" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -20025,7 +20033,7 @@
         <v>15</v>
       </c>
       <c r="H238" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I238" s="49"/>
     </row>
@@ -20075,7 +20083,7 @@
         <v>15</v>
       </c>
       <c r="H240" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I240" s="49"/>
     </row>
@@ -20114,7 +20122,7 @@
         <v>854</v>
       </c>
       <c r="C242" s="41" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="D242" s="48"/>
       <c r="E242" s="48" t="s">
@@ -20127,19 +20135,19 @@
         <v>15</v>
       </c>
       <c r="H242" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I242" s="49"/>
     </row>
     <row r="243" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A243" s="39" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="B243" s="40" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
       <c r="C243" s="41" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
       <c r="D243" s="39"/>
       <c r="E243" s="48" t="s">
@@ -21041,7 +21049,7 @@
         <v>858</v>
       </c>
       <c r="C279" s="41" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="D279" s="39"/>
       <c r="E279" s="39" t="s">
@@ -21054,7 +21062,7 @@
         <v>15</v>
       </c>
       <c r="H279" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I279" s="41"/>
     </row>
@@ -21066,7 +21074,7 @@
         <v>858</v>
       </c>
       <c r="C280" s="41" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="D280" s="39"/>
       <c r="E280" s="39" t="s">
@@ -21079,7 +21087,7 @@
         <v>15</v>
       </c>
       <c r="H280" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I280" s="41"/>
     </row>
@@ -21091,7 +21099,7 @@
         <v>858</v>
       </c>
       <c r="C281" s="41" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
       <c r="D281" s="39"/>
       <c r="E281" s="39" t="s">
@@ -21104,7 +21112,7 @@
         <v>15</v>
       </c>
       <c r="H281" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I281" s="41"/>
     </row>
@@ -21116,7 +21124,7 @@
         <v>858</v>
       </c>
       <c r="C282" s="41" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="D282" s="39"/>
       <c r="E282" s="39" t="s">
@@ -21129,7 +21137,7 @@
         <v>15</v>
       </c>
       <c r="H282" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I282" s="41"/>
     </row>
@@ -21141,7 +21149,7 @@
         <v>858</v>
       </c>
       <c r="C283" s="41" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
       <c r="D283" s="39"/>
       <c r="E283" s="39" t="s">
@@ -21154,7 +21162,7 @@
         <v>15</v>
       </c>
       <c r="H283" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I283" s="41"/>
     </row>
@@ -21166,7 +21174,7 @@
         <v>858</v>
       </c>
       <c r="C284" s="41" t="s">
-        <v>2575</v>
+        <v>2571</v>
       </c>
       <c r="D284" s="39"/>
       <c r="E284" s="39" t="s">
@@ -21179,7 +21187,7 @@
         <v>15</v>
       </c>
       <c r="H284" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I284" s="41"/>
     </row>
@@ -21191,7 +21199,7 @@
         <v>858</v>
       </c>
       <c r="C285" s="41" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="D285" s="39"/>
       <c r="E285" s="39" t="s">
@@ -21204,7 +21212,7 @@
         <v>15</v>
       </c>
       <c r="H285" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I285" s="41"/>
     </row>
@@ -21216,7 +21224,7 @@
         <v>858</v>
       </c>
       <c r="C286" s="41" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="D286" s="39"/>
       <c r="E286" s="39" t="s">
@@ -21229,7 +21237,7 @@
         <v>15</v>
       </c>
       <c r="H286" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I286" s="41"/>
     </row>
@@ -21254,7 +21262,7 @@
         <v>15</v>
       </c>
       <c r="H287" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I287" s="41"/>
     </row>
@@ -21266,7 +21274,7 @@
         <v>858</v>
       </c>
       <c r="C288" s="41" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
       <c r="D288" s="39" t="s">
         <v>1884</v>
@@ -21281,7 +21289,7 @@
         <v>15</v>
       </c>
       <c r="H288" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I288" s="41"/>
     </row>
@@ -21293,7 +21301,7 @@
         <v>858</v>
       </c>
       <c r="C289" s="41" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
       <c r="D289" s="39" t="s">
         <v>1884</v>
@@ -21308,7 +21316,7 @@
         <v>15</v>
       </c>
       <c r="H289" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I289" s="41"/>
     </row>
@@ -21320,7 +21328,7 @@
         <v>858</v>
       </c>
       <c r="C290" s="41" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="D290" s="39"/>
       <c r="E290" s="39" t="s">
@@ -21333,7 +21341,7 @@
         <v>15</v>
       </c>
       <c r="H290" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I290" s="41"/>
     </row>
@@ -21345,7 +21353,7 @@
         <v>858</v>
       </c>
       <c r="C291" s="41" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
       <c r="D291" s="39"/>
       <c r="E291" s="39" t="s">
@@ -21358,7 +21366,7 @@
         <v>15</v>
       </c>
       <c r="H291" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I291" s="41"/>
     </row>
@@ -21370,7 +21378,7 @@
         <v>858</v>
       </c>
       <c r="C292" s="41" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="D292" s="48"/>
       <c r="E292" s="48" t="s">
@@ -21408,23 +21416,23 @@
         <v>15</v>
       </c>
       <c r="H293" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I293" s="49"/>
     </row>
     <row r="294" spans="1:9" s="37" customFormat="1">
       <c r="A294" s="39" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="B294" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C294" s="41" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D294" s="39" t="s">
         <v>2589</v>
       </c>
-      <c r="D294" s="39" t="s">
-        <v>2593</v>
-      </c>
       <c r="E294" s="48" t="s">
         <v>19</v>
       </c>
@@ -21435,22 +21443,22 @@
         <v>15</v>
       </c>
       <c r="H294" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I294" s="41"/>
     </row>
     <row r="295" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A295" s="39" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="B295" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C295" s="41" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="D295" s="39" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="E295" s="48" t="s">
         <v>19</v>
@@ -21462,7 +21470,7 @@
         <v>15</v>
       </c>
       <c r="H295" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I295" s="41"/>
     </row>
@@ -21474,7 +21482,7 @@
         <v>858</v>
       </c>
       <c r="C296" s="41" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="D296" s="39"/>
       <c r="E296" s="39" t="s">
@@ -21487,7 +21495,7 @@
         <v>15</v>
       </c>
       <c r="H296" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I296" s="41"/>
     </row>
@@ -21499,7 +21507,7 @@
         <v>858</v>
       </c>
       <c r="C297" s="41" t="s">
-        <v>2672</v>
+        <v>2668</v>
       </c>
       <c r="D297" s="39"/>
       <c r="E297" s="39" t="s">
@@ -21512,7 +21520,7 @@
         <v>15</v>
       </c>
       <c r="H297" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I297" s="41"/>
     </row>
@@ -22814,7 +22822,7 @@
         <v>17</v>
       </c>
       <c r="I348" s="41" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="30">
@@ -23487,13 +23495,13 @@
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="39" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
       <c r="B375" s="40" t="s">
         <v>862</v>
       </c>
       <c r="C375" s="41" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
       <c r="D375" s="39"/>
       <c r="E375" s="39" t="s">
@@ -23506,7 +23514,7 @@
         <v>15</v>
       </c>
       <c r="H375" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I375" s="41"/>
     </row>
@@ -24419,7 +24427,7 @@
         <v>17</v>
       </c>
       <c r="I411" s="41" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -25004,7 +25012,7 @@
         <v>20</v>
       </c>
       <c r="I434" s="41" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="30">
@@ -29767,7 +29775,7 @@
         <v>873</v>
       </c>
       <c r="C623" s="41" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="D623" s="39"/>
       <c r="E623" s="39" t="s">
@@ -29780,7 +29788,7 @@
         <v>15</v>
       </c>
       <c r="H623" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I623" s="41"/>
     </row>
@@ -29858,7 +29866,7 @@
         <v>17</v>
       </c>
       <c r="I626" s="41" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="627" spans="1:9" s="37" customFormat="1" ht="120">
@@ -29869,7 +29877,7 @@
         <v>874</v>
       </c>
       <c r="C627" s="41" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="D627" s="39"/>
       <c r="E627" s="39" t="s">
@@ -29882,7 +29890,7 @@
         <v>15</v>
       </c>
       <c r="H627" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I627" s="41"/>
     </row>
@@ -29919,7 +29927,7 @@
         <v>874</v>
       </c>
       <c r="C629" s="41" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="D629" s="39"/>
       <c r="E629" s="39" t="s">
@@ -29932,7 +29940,7 @@
         <v>15</v>
       </c>
       <c r="H629" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I629" s="41"/>
     </row>
@@ -29944,7 +29952,7 @@
         <v>874</v>
       </c>
       <c r="C630" s="41" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="D630" s="39"/>
       <c r="E630" s="39" t="s">
@@ -29957,7 +29965,7 @@
         <v>15</v>
       </c>
       <c r="H630" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I630" s="41"/>
     </row>
@@ -29969,7 +29977,7 @@
         <v>874</v>
       </c>
       <c r="C631" s="41" t="s">
-        <v>2597</v>
+        <v>2593</v>
       </c>
       <c r="D631" s="39"/>
       <c r="E631" s="39" t="s">
@@ -29982,7 +29990,7 @@
         <v>15</v>
       </c>
       <c r="H631" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I631" s="41"/>
     </row>
@@ -29994,7 +30002,7 @@
         <v>874</v>
       </c>
       <c r="C632" s="41" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
       <c r="D632" s="39"/>
       <c r="E632" s="39" t="s">
@@ -30007,7 +30015,7 @@
         <v>15</v>
       </c>
       <c r="H632" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I632" s="41"/>
     </row>
@@ -30035,7 +30043,7 @@
         <v>17</v>
       </c>
       <c r="I633" s="41" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="634" spans="1:9" s="37" customFormat="1" ht="135">
@@ -30046,7 +30054,7 @@
         <v>875</v>
       </c>
       <c r="C634" s="41" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
       <c r="D634" s="39"/>
       <c r="E634" s="39" t="s">
@@ -30059,7 +30067,7 @@
         <v>15</v>
       </c>
       <c r="H634" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I634" s="41"/>
     </row>
@@ -30121,7 +30129,7 @@
         <v>875</v>
       </c>
       <c r="C637" s="41" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
       <c r="D637" s="39"/>
       <c r="E637" s="39" t="s">
@@ -30134,7 +30142,7 @@
         <v>15</v>
       </c>
       <c r="H637" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I637" s="41"/>
     </row>
@@ -30159,7 +30167,7 @@
         <v>15</v>
       </c>
       <c r="H638" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I638" s="41"/>
     </row>
@@ -30621,7 +30629,7 @@
         <v>877</v>
       </c>
       <c r="C657" s="41" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="D657" s="39"/>
       <c r="E657" s="39" t="s">
@@ -30637,7 +30645,7 @@
         <v>17</v>
       </c>
       <c r="I657" s="41" t="s">
-        <v>2676</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="658" spans="1:9" ht="150">
@@ -30814,7 +30822,7 @@
         <v>17</v>
       </c>
       <c r="I664" s="41" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="665" spans="1:9" s="37" customFormat="1" ht="30">
@@ -30891,7 +30899,7 @@
         <v>17</v>
       </c>
       <c r="I667" s="41" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="668" spans="1:9" s="38" customFormat="1">
@@ -32108,7 +32116,7 @@
         <v>885</v>
       </c>
       <c r="C716" s="41" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="D716" s="39"/>
       <c r="E716" s="39" t="s">
@@ -32125,7 +32133,7 @@
       </c>
       <c r="I716" s="41"/>
       <c r="N716" s="37" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="717" spans="1:14" ht="30">
@@ -32815,7 +32823,7 @@
         <v>886</v>
       </c>
       <c r="C744" s="41" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="D744" s="39"/>
       <c r="E744" s="39" t="s">
@@ -32856,7 +32864,7 @@
         <v>17</v>
       </c>
       <c r="I745" s="41" t="s">
-        <v>2616</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="746" spans="1:9" ht="30">
@@ -33334,7 +33342,7 @@
         <v>15</v>
       </c>
       <c r="H764" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I764" s="41"/>
     </row>
@@ -33879,7 +33887,7 @@
         <v>890</v>
       </c>
       <c r="C786" s="41" t="s">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="D786" s="39"/>
       <c r="E786" s="39" t="s">
@@ -33892,7 +33900,7 @@
         <v>15</v>
       </c>
       <c r="H786" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I786" s="41"/>
     </row>
@@ -33904,7 +33912,7 @@
         <v>890</v>
       </c>
       <c r="C787" s="41" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="D787" s="39"/>
       <c r="E787" s="39" t="s">
@@ -33917,7 +33925,7 @@
         <v>15</v>
       </c>
       <c r="H787" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I787" s="41"/>
     </row>
@@ -33995,7 +34003,7 @@
         <v>17</v>
       </c>
       <c r="I790" s="41" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="791" spans="1:9" s="37" customFormat="1" ht="90">
@@ -34006,7 +34014,7 @@
         <v>891</v>
       </c>
       <c r="C791" s="41" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
       <c r="D791" s="48"/>
       <c r="E791" s="48" t="s">
@@ -34031,7 +34039,7 @@
         <v>891</v>
       </c>
       <c r="C792" s="41" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
       <c r="D792" s="48"/>
       <c r="E792" s="48" t="s">
@@ -34081,20 +34089,20 @@
         <v>892</v>
       </c>
       <c r="C794" s="41" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
       <c r="D794" s="48"/>
       <c r="E794" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F794" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G794" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H794" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I794" s="49"/>
     </row>
@@ -34106,7 +34114,7 @@
         <v>892</v>
       </c>
       <c r="C795" s="41" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
       <c r="D795" s="39"/>
       <c r="E795" s="39" t="s">
@@ -34119,7 +34127,7 @@
         <v>15</v>
       </c>
       <c r="H795" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I795" s="41"/>
     </row>
@@ -34138,7 +34146,7 @@
         <v>19</v>
       </c>
       <c r="F796" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G796" s="48" t="s">
         <v>15</v>
@@ -34163,13 +34171,13 @@
         <v>19</v>
       </c>
       <c r="F797" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G797" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H797" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I797" s="49"/>
     </row>
@@ -34188,7 +34196,7 @@
         <v>19</v>
       </c>
       <c r="F798" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G798" s="48" t="s">
         <v>15</v>
@@ -34238,13 +34246,13 @@
         <v>19</v>
       </c>
       <c r="F800" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G800" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H800" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I800" s="49"/>
     </row>
@@ -34263,7 +34271,7 @@
         <v>19</v>
       </c>
       <c r="F801" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G801" s="48" t="s">
         <v>15</v>
@@ -34288,13 +34296,13 @@
         <v>19</v>
       </c>
       <c r="F802" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G802" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H802" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I802" s="49"/>
     </row>
@@ -34313,7 +34321,7 @@
         <v>19</v>
       </c>
       <c r="F803" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G803" s="48" t="s">
         <v>15</v>
@@ -34341,7 +34349,7 @@
         <v>3</v>
       </c>
       <c r="G804" s="39" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="H804" s="48" t="s">
         <v>18</v>
@@ -34356,7 +34364,7 @@
         <v>2129</v>
       </c>
       <c r="C805" s="41" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="D805" s="48"/>
       <c r="E805" s="48" t="s">
@@ -34391,7 +34399,7 @@
         <v>3</v>
       </c>
       <c r="G806" s="39" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="H806" s="48" t="s">
         <v>18</v>
@@ -34431,7 +34439,7 @@
         <v>2129</v>
       </c>
       <c r="C808" s="41" t="s">
-        <v>2626</v>
+        <v>2622</v>
       </c>
       <c r="D808" s="48"/>
       <c r="E808" s="48" t="s">
@@ -34456,7 +34464,7 @@
         <v>2129</v>
       </c>
       <c r="C809" s="41" t="s">
-        <v>2627</v>
+        <v>2623</v>
       </c>
       <c r="D809" s="48"/>
       <c r="E809" s="48" t="s">
@@ -34469,7 +34477,7 @@
         <v>15</v>
       </c>
       <c r="H809" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I809" s="49"/>
     </row>
@@ -34481,7 +34489,7 @@
         <v>2129</v>
       </c>
       <c r="C810" s="41" t="s">
-        <v>2628</v>
+        <v>2624</v>
       </c>
       <c r="D810" s="48"/>
       <c r="E810" s="48" t="s">
@@ -34506,7 +34514,7 @@
         <v>2129</v>
       </c>
       <c r="C811" s="41" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
       <c r="D811" s="48"/>
       <c r="E811" s="48" t="s">
@@ -34519,7 +34527,7 @@
         <v>15</v>
       </c>
       <c r="H811" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I811" s="49"/>
     </row>
@@ -34531,7 +34539,7 @@
         <v>2129</v>
       </c>
       <c r="C812" s="41" t="s">
-        <v>2652</v>
+        <v>2648</v>
       </c>
       <c r="D812" s="48"/>
       <c r="E812" s="48" t="s">
@@ -34556,7 +34564,7 @@
         <v>2129</v>
       </c>
       <c r="C813" s="41" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
       <c r="D813" s="48"/>
       <c r="E813" s="48" t="s">
@@ -34594,7 +34602,7 @@
         <v>15</v>
       </c>
       <c r="H814" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I814" s="49"/>
     </row>
@@ -34619,7 +34627,7 @@
         <v>15</v>
       </c>
       <c r="H815" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I815" s="49"/>
     </row>
@@ -34656,20 +34664,20 @@
         <v>2153</v>
       </c>
       <c r="C817" s="41" t="s">
-        <v>2651</v>
+        <v>2647</v>
       </c>
       <c r="D817" s="48"/>
       <c r="E817" s="48" t="s">
         <v>19</v>
       </c>
       <c r="F817" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G817" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H817" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I817" s="49"/>
     </row>
@@ -34681,7 +34689,7 @@
         <v>2153</v>
       </c>
       <c r="C818" s="41" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
       <c r="D818" s="48"/>
       <c r="E818" s="48" t="s">
@@ -34691,7 +34699,7 @@
         <v>3</v>
       </c>
       <c r="G818" s="39" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="H818" s="48" t="s">
         <v>18</v>
@@ -34713,7 +34721,7 @@
         <v>19</v>
       </c>
       <c r="F819" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G819" s="48" t="s">
         <v>15</v>
@@ -34738,13 +34746,13 @@
         <v>19</v>
       </c>
       <c r="F820" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G820" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H820" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I820" s="49"/>
     </row>
@@ -34756,7 +34764,7 @@
         <v>2158</v>
       </c>
       <c r="C821" s="41" t="s">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="D821" s="48"/>
       <c r="E821" s="48" t="s">
@@ -34766,10 +34774,10 @@
         <v>3</v>
       </c>
       <c r="G821" s="39" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="H821" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I821" s="49"/>
     </row>
@@ -34781,7 +34789,7 @@
         <v>2158</v>
       </c>
       <c r="C822" s="41" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
       <c r="D822" s="48"/>
       <c r="E822" s="48" t="s">
@@ -34831,7 +34839,7 @@
         <v>2159</v>
       </c>
       <c r="C824" s="41" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
       <c r="D824" s="48"/>
       <c r="E824" s="48" t="s">
@@ -34844,7 +34852,7 @@
         <v>15</v>
       </c>
       <c r="H824" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I824" s="49"/>
     </row>
@@ -34866,7 +34874,7 @@
         <v>3</v>
       </c>
       <c r="G825" s="39" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="H825" s="48" t="s">
         <v>18</v>
@@ -34888,7 +34896,7 @@
         <v>19</v>
       </c>
       <c r="F826" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G826" s="48" t="s">
         <v>15</v>
@@ -34913,7 +34921,7 @@
         <v>19</v>
       </c>
       <c r="F827" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G827" s="48" t="s">
         <v>15</v>
@@ -34931,7 +34939,7 @@
         <v>2188</v>
       </c>
       <c r="C828" s="41" t="s">
-        <v>2635</v>
+        <v>2631</v>
       </c>
       <c r="D828" s="48"/>
       <c r="E828" s="48" t="s">
@@ -34944,7 +34952,7 @@
         <v>15</v>
       </c>
       <c r="H828" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I828" s="49"/>
     </row>
@@ -34956,7 +34964,7 @@
         <v>2188</v>
       </c>
       <c r="C829" s="41" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
       <c r="D829" s="48"/>
       <c r="E829" s="48" t="s">
@@ -34969,7 +34977,7 @@
         <v>15</v>
       </c>
       <c r="H829" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I829" s="49"/>
     </row>
@@ -34981,7 +34989,7 @@
         <v>2188</v>
       </c>
       <c r="C830" s="41" t="s">
-        <v>2625</v>
+        <v>2621</v>
       </c>
       <c r="D830" s="48"/>
       <c r="E830" s="48" t="s">
@@ -35031,7 +35039,7 @@
         <v>2188</v>
       </c>
       <c r="C832" s="41" t="s">
-        <v>2636</v>
+        <v>2632</v>
       </c>
       <c r="D832" s="48"/>
       <c r="E832" s="48" t="s">
@@ -35056,7 +35064,7 @@
         <v>2188</v>
       </c>
       <c r="C833" s="41" t="s">
-        <v>2668</v>
+        <v>2664</v>
       </c>
       <c r="D833" s="48"/>
       <c r="E833" s="48" t="s">
@@ -35069,7 +35077,7 @@
         <v>15</v>
       </c>
       <c r="H833" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I833" s="49"/>
     </row>
@@ -35088,7 +35096,7 @@
         <v>19</v>
       </c>
       <c r="F834" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G834" s="48" t="s">
         <v>15</v>
@@ -35113,7 +35121,7 @@
         <v>19</v>
       </c>
       <c r="F835" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G835" s="48" t="s">
         <v>15</v>
@@ -35138,13 +35146,13 @@
         <v>19</v>
       </c>
       <c r="F836" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G836" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H836" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I836" s="49"/>
     </row>
@@ -35188,13 +35196,13 @@
         <v>19</v>
       </c>
       <c r="F838" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G838" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H838" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I838" s="49"/>
     </row>
@@ -35213,7 +35221,7 @@
         <v>19</v>
       </c>
       <c r="F839" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G839" s="48" t="s">
         <v>15</v>
@@ -35238,13 +35246,13 @@
         <v>19</v>
       </c>
       <c r="F840" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G840" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H840" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I840" s="49"/>
     </row>
@@ -35263,7 +35271,7 @@
         <v>19</v>
       </c>
       <c r="F841" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G841" s="48" t="s">
         <v>15</v>
@@ -35288,13 +35296,13 @@
         <v>19</v>
       </c>
       <c r="F842" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G842" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H842" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I842" s="49"/>
     </row>
@@ -35313,7 +35321,7 @@
         <v>19</v>
       </c>
       <c r="F843" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G843" s="48" t="s">
         <v>15</v>
@@ -35338,13 +35346,13 @@
         <v>19</v>
       </c>
       <c r="F844" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G844" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H844" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I844" s="49"/>
     </row>
@@ -35363,7 +35371,7 @@
         <v>19</v>
       </c>
       <c r="F845" s="39" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="G845" s="48" t="s">
         <v>15</v>
@@ -35381,7 +35389,7 @@
         <v>2203</v>
       </c>
       <c r="C846" s="41" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="D846" s="48"/>
       <c r="E846" s="48" t="s">
@@ -35394,7 +35402,7 @@
         <v>15</v>
       </c>
       <c r="H846" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I846" s="49"/>
     </row>
@@ -35406,7 +35414,7 @@
         <v>2203</v>
       </c>
       <c r="C847" s="41" t="s">
-        <v>2637</v>
+        <v>2633</v>
       </c>
       <c r="D847" s="48"/>
       <c r="E847" s="48" t="s">
@@ -35456,7 +35464,7 @@
         <v>2203</v>
       </c>
       <c r="C849" s="41" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
       <c r="D849" s="48"/>
       <c r="E849" s="48" t="s">
@@ -35481,7 +35489,7 @@
         <v>2203</v>
       </c>
       <c r="C850" s="41" t="s">
-        <v>2669</v>
+        <v>2665</v>
       </c>
       <c r="D850" s="48"/>
       <c r="E850" s="48" t="s">
@@ -35494,7 +35502,7 @@
         <v>15</v>
       </c>
       <c r="H850" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I850" s="49"/>
     </row>
@@ -35516,7 +35524,7 @@
         <v>3</v>
       </c>
       <c r="G851" s="39" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="H851" s="48" t="s">
         <v>18</v>
@@ -35531,7 +35539,7 @@
         <v>2055</v>
       </c>
       <c r="C852" s="41" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
       <c r="D852" s="48"/>
       <c r="E852" s="48" t="s">
@@ -35581,7 +35589,7 @@
         <v>2055</v>
       </c>
       <c r="C854" s="41" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
       <c r="D854" s="48"/>
       <c r="E854" s="48" t="s">
@@ -35606,7 +35614,7 @@
         <v>2055</v>
       </c>
       <c r="C855" s="41" t="s">
-        <v>2655</v>
+        <v>2651</v>
       </c>
       <c r="D855" s="48"/>
       <c r="E855" s="48" t="s">
@@ -35619,7 +35627,7 @@
         <v>15</v>
       </c>
       <c r="H855" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I855" s="49"/>
     </row>
@@ -35631,7 +35639,7 @@
         <v>2055</v>
       </c>
       <c r="C856" s="41" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
       <c r="D856" s="48"/>
       <c r="E856" s="48" t="s">
@@ -35656,7 +35664,7 @@
         <v>2055</v>
       </c>
       <c r="C857" s="41" t="s">
-        <v>2654</v>
+        <v>2650</v>
       </c>
       <c r="D857" s="48"/>
       <c r="E857" s="48" t="s">
@@ -35669,7 +35677,7 @@
         <v>15</v>
       </c>
       <c r="H857" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I857" s="49"/>
     </row>
@@ -35681,7 +35689,7 @@
         <v>2055</v>
       </c>
       <c r="C858" s="41" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
       <c r="D858" s="48"/>
       <c r="E858" s="48" t="s">
@@ -35706,7 +35714,7 @@
         <v>2055</v>
       </c>
       <c r="C859" s="41" t="s">
-        <v>2662</v>
+        <v>2658</v>
       </c>
       <c r="D859" s="48"/>
       <c r="E859" s="48" t="s">
@@ -35719,7 +35727,7 @@
         <v>15</v>
       </c>
       <c r="H859" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I859" s="49"/>
     </row>
@@ -35731,7 +35739,7 @@
         <v>2055</v>
       </c>
       <c r="C860" s="41" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
       <c r="D860" s="48"/>
       <c r="E860" s="48" t="s">
@@ -35756,7 +35764,7 @@
         <v>2055</v>
       </c>
       <c r="C861" s="41" t="s">
-        <v>2663</v>
+        <v>2659</v>
       </c>
       <c r="D861" s="48"/>
       <c r="E861" s="48" t="s">
@@ -35769,7 +35777,7 @@
         <v>15</v>
       </c>
       <c r="H861" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I861" s="49"/>
     </row>
@@ -35781,7 +35789,7 @@
         <v>2055</v>
       </c>
       <c r="C862" s="41" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
       <c r="D862" s="48"/>
       <c r="E862" s="48" t="s">
@@ -35806,7 +35814,7 @@
         <v>2055</v>
       </c>
       <c r="C863" s="41" t="s">
-        <v>2664</v>
+        <v>2660</v>
       </c>
       <c r="D863" s="48"/>
       <c r="E863" s="48" t="s">
@@ -35819,7 +35827,7 @@
         <v>15</v>
       </c>
       <c r="H863" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I863" s="49"/>
     </row>
@@ -35831,7 +35839,7 @@
         <v>2055</v>
       </c>
       <c r="C864" s="41" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
       <c r="D864" s="48"/>
       <c r="E864" s="48" t="s">
@@ -35856,7 +35864,7 @@
         <v>2055</v>
       </c>
       <c r="C865" s="41" t="s">
-        <v>2665</v>
+        <v>2661</v>
       </c>
       <c r="D865" s="48"/>
       <c r="E865" s="48" t="s">
@@ -35869,7 +35877,7 @@
         <v>15</v>
       </c>
       <c r="H865" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I865" s="49"/>
     </row>
@@ -35881,7 +35889,7 @@
         <v>2055</v>
       </c>
       <c r="C866" s="41" t="s">
-        <v>2647</v>
+        <v>2643</v>
       </c>
       <c r="D866" s="48"/>
       <c r="E866" s="48" t="s">
@@ -35919,7 +35927,7 @@
         <v>15</v>
       </c>
       <c r="H867" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I867" s="49"/>
     </row>
@@ -35931,7 +35939,7 @@
         <v>2055</v>
       </c>
       <c r="C868" s="41" t="s">
-        <v>2648</v>
+        <v>2644</v>
       </c>
       <c r="D868" s="48"/>
       <c r="E868" s="48" t="s">
@@ -35950,7 +35958,7 @@
     </row>
     <row r="869" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A869" s="39" t="s">
-        <v>2657</v>
+        <v>2653</v>
       </c>
       <c r="B869" s="50" t="s">
         <v>2055</v>
@@ -35969,22 +35977,22 @@
         <v>15</v>
       </c>
       <c r="H869" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I869" s="41"/>
     </row>
     <row r="870" spans="1:9" s="37" customFormat="1">
       <c r="A870" s="39" t="s">
-        <v>2658</v>
+        <v>2654</v>
       </c>
       <c r="B870" s="50" t="s">
         <v>2055</v>
       </c>
       <c r="C870" s="41" t="s">
-        <v>2660</v>
+        <v>2656</v>
       </c>
       <c r="D870" s="39" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
       <c r="E870" s="48" t="s">
         <v>19</v>
@@ -35996,22 +36004,22 @@
         <v>15</v>
       </c>
       <c r="H870" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I870" s="41"/>
     </row>
     <row r="871" spans="1:9" s="37" customFormat="1">
       <c r="A871" s="39" t="s">
-        <v>2659</v>
+        <v>2655</v>
       </c>
       <c r="B871" s="50" t="s">
         <v>2055</v>
       </c>
       <c r="C871" s="41" t="s">
-        <v>2661</v>
+        <v>2657</v>
       </c>
       <c r="D871" s="39" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
       <c r="E871" s="48" t="s">
         <v>19</v>
@@ -36023,7 +36031,7 @@
         <v>15</v>
       </c>
       <c r="H871" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I871" s="49"/>
     </row>
@@ -36035,7 +36043,7 @@
         <v>2055</v>
       </c>
       <c r="C872" s="41" t="s">
-        <v>2649</v>
+        <v>2645</v>
       </c>
       <c r="D872" s="48"/>
       <c r="E872" s="48" t="s">
@@ -36060,7 +36068,7 @@
         <v>2055</v>
       </c>
       <c r="C873" s="41" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="D873" s="48"/>
       <c r="E873" s="48" t="s">
@@ -36073,7 +36081,7 @@
         <v>15</v>
       </c>
       <c r="H873" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I873" s="49"/>
     </row>
@@ -36120,7 +36128,7 @@
         <v>3</v>
       </c>
       <c r="G875" s="39" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="H875" s="39" t="s">
         <v>18</v>
@@ -36145,7 +36153,7 @@
         <v>3</v>
       </c>
       <c r="G876" s="39" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="H876" s="39" t="s">
         <v>18</v>
@@ -36160,7 +36168,7 @@
         <v>2243</v>
       </c>
       <c r="C877" s="41" t="s">
-        <v>2650</v>
+        <v>2646</v>
       </c>
       <c r="D877" s="39"/>
       <c r="E877" s="39" t="s">
@@ -36210,7 +36218,7 @@
         <v>2243</v>
       </c>
       <c r="C879" s="41" t="s">
-        <v>2666</v>
+        <v>2662</v>
       </c>
       <c r="D879" s="39"/>
       <c r="E879" s="39" t="s">
@@ -36223,7 +36231,7 @@
         <v>15</v>
       </c>
       <c r="H879" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I879" s="41"/>
     </row>
@@ -36235,7 +36243,7 @@
         <v>2243</v>
       </c>
       <c r="C880" s="41" t="s">
-        <v>2670</v>
+        <v>2666</v>
       </c>
       <c r="D880" s="39"/>
       <c r="E880" s="39" t="s">
@@ -36248,7 +36256,7 @@
         <v>15</v>
       </c>
       <c r="H880" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I880" s="41"/>
     </row>
@@ -36729,7 +36737,7 @@
         <v>15</v>
       </c>
       <c r="H899" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I899" s="41"/>
     </row>
@@ -36782,7 +36790,7 @@
         <v>17</v>
       </c>
       <c r="I901" s="41" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="902" spans="1:9" ht="90">
@@ -39141,7 +39149,7 @@
     </row>
     <row r="996" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A996" s="39" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="B996" s="40" t="s">
         <v>2248</v>
@@ -39160,7 +39168,7 @@
         <v>15</v>
       </c>
       <c r="H996" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I996" s="49"/>
     </row>
@@ -39650,7 +39658,7 @@
         <v>15</v>
       </c>
       <c r="H1014" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I1014" s="41"/>
     </row>
@@ -39662,7 +39670,7 @@
         <v>8</v>
       </c>
       <c r="C1015" s="41" t="s">
-        <v>2617</v>
+        <v>2613</v>
       </c>
       <c r="D1015" s="39" t="s">
         <v>1863</v>
@@ -39677,7 +39685,7 @@
         <v>15</v>
       </c>
       <c r="H1015" s="39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="I1015" s="41"/>
     </row>
@@ -39766,7 +39774,7 @@
     </row>
     <row r="1019" spans="1:9" ht="45">
       <c r="A1019" s="39" t="s">
-        <v>2674</v>
+        <v>2670</v>
       </c>
       <c r="B1019" s="43">
         <v>8</v>
@@ -39822,7 +39830,7 @@
     </row>
     <row r="1021" spans="1:9" ht="45">
       <c r="A1021" s="39" t="s">
-        <v>2675</v>
+        <v>2671</v>
       </c>
       <c r="B1021" s="43">
         <v>8</v>
@@ -39884,7 +39892,7 @@
         <v>893</v>
       </c>
       <c r="C1023" s="41" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
       <c r="D1023" s="39" t="s">
         <v>1926</v>
@@ -39913,10 +39921,10 @@
         <v>8</v>
       </c>
       <c r="C1024" s="41" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D1024" s="39" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E1024" s="48" t="s">
         <v>22</v>
@@ -39934,16 +39942,16 @@
     </row>
     <row r="1025" spans="1:9" ht="45">
       <c r="A1025" s="39" t="s">
-        <v>2426</v>
+        <v>2678</v>
       </c>
       <c r="B1025" s="43">
         <v>8</v>
       </c>
       <c r="C1025" s="41" t="s">
-        <v>2429</v>
+        <v>2677</v>
       </c>
       <c r="D1025" s="39" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E1025" s="48" t="s">
         <v>22</v>
@@ -39969,7 +39977,7 @@
         <v>893</v>
       </c>
       <c r="C1026" s="41" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D1026" s="39" t="s">
         <v>1529</v>
@@ -39998,7 +40006,7 @@
         <v>893</v>
       </c>
       <c r="C1027" s="41" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D1027" s="39" t="s">
         <v>1529</v>
@@ -40025,7 +40033,7 @@
         <v>893</v>
       </c>
       <c r="C1028" s="41" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D1028" s="39" t="s">
         <v>1530</v>
@@ -40081,7 +40089,7 @@
         <v>893</v>
       </c>
       <c r="C1030" s="41" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D1030" s="39" t="s">
         <v>1531</v>
@@ -40108,7 +40116,7 @@
         <v>893</v>
       </c>
       <c r="C1031" s="41" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D1031" s="39" t="s">
         <v>1531</v>
@@ -40131,16 +40139,16 @@
     </row>
     <row r="1032" spans="1:9" ht="45">
       <c r="A1032" s="39" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B1032" s="43">
         <v>8</v>
       </c>
       <c r="C1032" s="41" t="s">
-        <v>2474</v>
+        <v>2680</v>
       </c>
       <c r="D1032" s="39" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E1032" s="48" t="s">
         <v>22</v>
@@ -40160,16 +40168,16 @@
     </row>
     <row r="1033" spans="1:9" ht="30">
       <c r="A1033" s="39" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B1033" s="43">
         <v>8</v>
       </c>
       <c r="C1033" s="41" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D1033" s="39" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E1033" s="48" t="s">
         <v>22</v>
@@ -40187,16 +40195,16 @@
     </row>
     <row r="1034" spans="1:9" ht="30">
       <c r="A1034" s="39" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
       <c r="B1034" s="43">
         <v>8</v>
       </c>
       <c r="C1034" s="41" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="D1034" s="39" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="E1034" s="48" t="s">
         <v>22</v>
@@ -40214,16 +40222,16 @@
     </row>
     <row r="1035" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1035" s="39" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
       <c r="B1035" s="43">
         <v>8</v>
       </c>
       <c r="C1035" s="41" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
       <c r="D1035" s="39" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="E1035" s="48" t="s">
         <v>22</v>
@@ -40249,7 +40257,7 @@
         <v>893</v>
       </c>
       <c r="C1036" s="41" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D1036" s="39" t="s">
         <v>1532</v>
@@ -40276,7 +40284,7 @@
         <v>893</v>
       </c>
       <c r="C1037" s="41" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="D1037" s="39" t="s">
         <v>1532</v>
@@ -40305,7 +40313,7 @@
         <v>893</v>
       </c>
       <c r="C1038" s="41" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D1038" s="39" t="s">
         <v>1533</v>
@@ -40332,7 +40340,7 @@
         <v>893</v>
       </c>
       <c r="C1039" s="41" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="D1039" s="39" t="s">
         <v>1533</v>
@@ -40361,7 +40369,7 @@
         <v>893</v>
       </c>
       <c r="C1040" s="41" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D1040" s="39" t="s">
         <v>1534</v>
@@ -40388,7 +40396,7 @@
         <v>893</v>
       </c>
       <c r="C1041" s="41" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="D1041" s="39" t="s">
         <v>1534</v>
@@ -40417,7 +40425,7 @@
         <v>893</v>
       </c>
       <c r="C1042" s="41" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D1042" s="39" t="s">
         <v>1535</v>
@@ -40444,7 +40452,7 @@
         <v>893</v>
       </c>
       <c r="C1043" s="41" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="D1043" s="39" t="s">
         <v>1535</v>
@@ -40473,7 +40481,7 @@
         <v>893</v>
       </c>
       <c r="C1044" s="41" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D1044" s="39" t="s">
         <v>1536</v>
@@ -40500,7 +40508,7 @@
         <v>893</v>
       </c>
       <c r="C1045" s="41" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="D1045" s="39" t="s">
         <v>1536</v>
@@ -40529,7 +40537,7 @@
         <v>893</v>
       </c>
       <c r="C1046" s="41" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D1046" s="39" t="s">
         <v>1537</v>
@@ -40556,7 +40564,7 @@
         <v>893</v>
       </c>
       <c r="C1047" s="41" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="D1047" s="39" t="s">
         <v>1537</v>
@@ -40585,7 +40593,7 @@
         <v>893</v>
       </c>
       <c r="C1048" s="41" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D1048" s="39" t="s">
         <v>1538</v>
@@ -40612,7 +40620,7 @@
         <v>893</v>
       </c>
       <c r="C1049" s="41" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="D1049" s="42" t="s">
         <v>1538</v>
@@ -40639,7 +40647,7 @@
         <v>893</v>
       </c>
       <c r="C1050" s="41" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D1050" s="39" t="s">
         <v>1539</v>
@@ -40666,7 +40674,7 @@
         <v>893</v>
       </c>
       <c r="C1051" s="41" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="D1051" s="42" t="s">
         <v>1539</v>
@@ -40693,7 +40701,7 @@
         <v>893</v>
       </c>
       <c r="C1052" s="41" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D1052" s="39" t="s">
         <v>1540</v>
@@ -40720,7 +40728,7 @@
         <v>893</v>
       </c>
       <c r="C1053" s="41" t="s">
-        <v>2679</v>
+        <v>2675</v>
       </c>
       <c r="D1053" s="39" t="s">
         <v>1540</v>
@@ -40749,7 +40757,7 @@
         <v>893</v>
       </c>
       <c r="C1054" s="41" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D1054" s="39" t="s">
         <v>1541</v>
@@ -40805,7 +40813,7 @@
         <v>893</v>
       </c>
       <c r="C1056" s="41" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D1056" s="39" t="s">
         <v>1867</v>
@@ -40832,7 +40840,7 @@
         <v>893</v>
       </c>
       <c r="C1057" s="41" t="s">
-        <v>2610</v>
+        <v>2606</v>
       </c>
       <c r="D1057" s="39" t="s">
         <v>1867</v>
@@ -40859,7 +40867,7 @@
         <v>893</v>
       </c>
       <c r="C1058" s="41" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D1058" s="39" t="s">
         <v>1542</v>
@@ -40915,7 +40923,7 @@
         <v>893</v>
       </c>
       <c r="C1060" s="41" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D1060" s="39" t="s">
         <v>1543</v>
@@ -40971,7 +40979,7 @@
         <v>893</v>
       </c>
       <c r="C1062" s="41" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1062" s="39" t="s">
         <v>1544</v>
@@ -41027,7 +41035,7 @@
         <v>893</v>
       </c>
       <c r="C1064" s="41" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D1064" s="39" t="s">
         <v>1545</v>
@@ -41083,7 +41091,7 @@
         <v>893</v>
       </c>
       <c r="C1066" s="41" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1066" s="39" t="s">
         <v>1546</v>
@@ -41139,7 +41147,7 @@
         <v>893</v>
       </c>
       <c r="C1068" s="41" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D1068" s="39" t="s">
         <v>1868</v>
@@ -41195,7 +41203,7 @@
         <v>893</v>
       </c>
       <c r="C1070" s="41" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1070" s="39" t="s">
         <v>1547</v>
@@ -41251,7 +41259,7 @@
         <v>8</v>
       </c>
       <c r="C1072" s="41" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1072" s="39" t="s">
         <v>1869</v>
@@ -41301,13 +41309,13 @@
     </row>
     <row r="1074" spans="1:9" ht="45">
       <c r="A1074" s="39" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B1074" s="43">
         <v>8</v>
       </c>
       <c r="C1074" s="41" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1074" s="39" t="s">
         <v>1916</v>
@@ -41328,13 +41336,13 @@
     </row>
     <row r="1075" spans="1:9" ht="45">
       <c r="A1075" s="39" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B1075" s="43">
         <v>8</v>
       </c>
       <c r="C1075" s="41" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D1075" s="39" t="s">
         <v>1916</v>
@@ -41363,7 +41371,7 @@
         <v>893</v>
       </c>
       <c r="C1076" s="41" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="D1076" s="39" t="s">
         <v>1548</v>
@@ -41392,7 +41400,7 @@
         <v>893</v>
       </c>
       <c r="C1077" s="41" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="D1077" s="39" t="s">
         <v>1548</v>
@@ -41419,7 +41427,7 @@
         <v>893</v>
       </c>
       <c r="C1078" s="41" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1078" s="39" t="s">
         <v>1549</v>
@@ -41446,7 +41454,7 @@
         <v>893</v>
       </c>
       <c r="C1079" s="41" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="D1079" s="39" t="s">
         <v>1549</v>
@@ -41475,7 +41483,7 @@
         <v>893</v>
       </c>
       <c r="C1080" s="41" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1080" s="39" t="s">
         <v>1550</v>
@@ -41502,7 +41510,7 @@
         <v>893</v>
       </c>
       <c r="C1081" s="41" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="D1081" s="39" t="s">
         <v>1550</v>
@@ -41525,16 +41533,16 @@
     </row>
     <row r="1082" spans="1:9" ht="60">
       <c r="A1082" s="39" t="s">
-        <v>2466</v>
+        <v>2679</v>
       </c>
       <c r="B1082" s="43">
         <v>8</v>
       </c>
       <c r="C1082" s="41" t="s">
-        <v>2468</v>
+        <v>2681</v>
       </c>
       <c r="D1082" s="39" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="E1082" s="48" t="s">
         <v>22</v>
@@ -41554,7 +41562,7 @@
     </row>
     <row r="1083" spans="1:9" ht="30">
       <c r="A1083" s="39" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="B1083" s="43">
         <v>8</v>
@@ -41563,7 +41571,7 @@
         <v>1914</v>
       </c>
       <c r="D1083" s="39" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="E1083" s="48" t="s">
         <v>22</v>
@@ -41587,7 +41595,7 @@
         <v>893</v>
       </c>
       <c r="C1084" s="41" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="D1084" s="39" t="s">
         <v>1551</v>
@@ -41614,7 +41622,7 @@
         <v>893</v>
       </c>
       <c r="C1085" s="41" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="D1085" s="39" t="s">
         <v>1551</v>
@@ -41643,7 +41651,7 @@
         <v>893</v>
       </c>
       <c r="C1086" s="41" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="D1086" s="39" t="s">
         <v>1552</v>
@@ -41670,7 +41678,7 @@
         <v>893</v>
       </c>
       <c r="C1087" s="41" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="D1087" s="39" t="s">
         <v>1552</v>
@@ -41699,7 +41707,7 @@
         <v>893</v>
       </c>
       <c r="C1088" s="41" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D1088" s="39" t="s">
         <v>1553</v>
@@ -41726,7 +41734,7 @@
         <v>893</v>
       </c>
       <c r="C1089" s="41" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
       <c r="D1089" s="39" t="s">
         <v>1553</v>
@@ -41755,7 +41763,7 @@
         <v>893</v>
       </c>
       <c r="C1090" s="41" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="D1090" s="39" t="s">
         <v>1554</v>
@@ -41782,7 +41790,7 @@
         <v>893</v>
       </c>
       <c r="C1091" s="41" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="D1091" s="39" t="s">
         <v>1554</v>
@@ -41811,7 +41819,7 @@
         <v>893</v>
       </c>
       <c r="C1092" s="41" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="D1092" s="39" t="s">
         <v>1555</v>
@@ -41838,7 +41846,7 @@
         <v>893</v>
       </c>
       <c r="C1093" s="41" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="D1093" s="39" t="s">
         <v>1555</v>
@@ -41867,7 +41875,7 @@
         <v>893</v>
       </c>
       <c r="C1094" s="41" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
       <c r="D1094" s="39" t="s">
         <v>1556</v>
@@ -41923,7 +41931,7 @@
         <v>893</v>
       </c>
       <c r="C1096" s="41" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
       <c r="D1096" s="39" t="s">
         <v>1557</v>
@@ -41979,7 +41987,7 @@
         <v>893</v>
       </c>
       <c r="C1098" s="41" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
       <c r="D1098" s="39" t="s">
         <v>1558</v>
@@ -42035,7 +42043,7 @@
         <v>893</v>
       </c>
       <c r="C1100" s="41" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
       <c r="D1100" s="39" t="s">
         <v>1559</v>
@@ -42091,7 +42099,7 @@
         <v>893</v>
       </c>
       <c r="C1102" s="41" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="D1102" s="39" t="s">
         <v>1560</v>
@@ -42147,7 +42155,7 @@
         <v>893</v>
       </c>
       <c r="C1104" s="41" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="D1104" s="39" t="s">
         <v>1561</v>
@@ -42201,7 +42209,7 @@
         <v>893</v>
       </c>
       <c r="C1106" s="41" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="D1106" s="39" t="s">
         <v>1562</v>
@@ -42255,7 +42263,7 @@
         <v>893</v>
       </c>
       <c r="C1108" s="41" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="D1108" s="39" t="s">
         <v>1563</v>
@@ -42282,7 +42290,7 @@
         <v>893</v>
       </c>
       <c r="C1109" s="41" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="D1109" s="39" t="s">
         <v>1563</v>
@@ -42311,7 +42319,7 @@
         <v>893</v>
       </c>
       <c r="C1110" s="41" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="D1110" s="39" t="s">
         <v>1564</v>
@@ -42365,7 +42373,7 @@
         <v>893</v>
       </c>
       <c r="C1112" s="41" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="D1112" s="39" t="s">
         <v>1870</v>
@@ -42421,7 +42429,7 @@
         <v>893</v>
       </c>
       <c r="C1114" s="41" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="D1114" s="39" t="s">
         <v>1565</v>
@@ -42450,7 +42458,7 @@
         <v>893</v>
       </c>
       <c r="C1115" s="41" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="D1115" s="39" t="s">
         <v>1566</v>
@@ -42504,7 +42512,7 @@
         <v>893</v>
       </c>
       <c r="C1117" s="41" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="D1117" s="39" t="s">
         <v>1567</v>
@@ -42558,7 +42566,7 @@
         <v>893</v>
       </c>
       <c r="C1119" s="41" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="D1119" s="39" t="s">
         <v>1568</v>
@@ -42612,7 +42620,7 @@
         <v>893</v>
       </c>
       <c r="C1121" s="41" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="D1121" s="39" t="s">
         <v>1871</v>
@@ -42639,7 +42647,7 @@
         <v>893</v>
       </c>
       <c r="C1122" s="41" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="D1122" s="39" t="s">
         <v>1871</v>
@@ -42654,10 +42662,10 @@
         <v>15</v>
       </c>
       <c r="H1122" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I1122" s="41" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1123" spans="1:9" ht="45">
@@ -42668,7 +42676,7 @@
         <v>893</v>
       </c>
       <c r="C1123" s="41" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="D1123" s="39" t="s">
         <v>1872</v>
@@ -42695,7 +42703,7 @@
         <v>893</v>
       </c>
       <c r="C1124" s="41" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
       <c r="D1124" s="39" t="s">
         <v>1872</v>
@@ -42710,10 +42718,10 @@
         <v>15</v>
       </c>
       <c r="H1124" s="39" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="I1124" s="41" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1125" spans="1:9" ht="30">
@@ -42724,7 +42732,7 @@
         <v>893</v>
       </c>
       <c r="C1125" s="41" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="D1125" s="39" t="s">
         <v>1569</v>
@@ -42772,16 +42780,16 @@
     </row>
     <row r="1127" spans="1:9" ht="30">
       <c r="A1127" s="39" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="B1127" s="43">
         <v>8</v>
       </c>
       <c r="C1127" s="41" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="D1127" s="39" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
       <c r="E1127" s="48" t="s">
         <v>22</v>
@@ -42799,16 +42807,16 @@
     </row>
     <row r="1128" spans="1:9" ht="45">
       <c r="A1128" s="39" t="s">
-        <v>2677</v>
+        <v>2673</v>
       </c>
       <c r="B1128" s="43">
         <v>8</v>
       </c>
       <c r="C1128" s="41" t="s">
-        <v>2678</v>
+        <v>2674</v>
       </c>
       <c r="D1128" s="48" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
       <c r="E1128" s="48" t="s">
         <v>22</v>
@@ -42834,7 +42842,7 @@
         <v>893</v>
       </c>
       <c r="C1129" s="41" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
       <c r="D1129" s="39" t="s">
         <v>1570</v>
@@ -42888,7 +42896,7 @@
         <v>893</v>
       </c>
       <c r="C1131" s="41" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="D1131" s="39" t="s">
         <v>1571</v>
@@ -42942,7 +42950,7 @@
         <v>893</v>
       </c>
       <c r="C1133" s="41" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="D1133" s="39" t="s">
         <v>1572</v>
@@ -42990,16 +42998,16 @@
     </row>
     <row r="1135" spans="1:9" ht="60">
       <c r="A1135" s="39" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="B1135" s="43">
         <v>8</v>
       </c>
       <c r="C1135" s="41" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="D1135" s="39" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="E1135" s="48" t="s">
         <v>22</v>
@@ -43017,16 +43025,16 @@
     </row>
     <row r="1136" spans="1:9" ht="45">
       <c r="A1136" s="39" t="s">
-        <v>2615</v>
+        <v>2611</v>
       </c>
       <c r="B1136" s="43">
         <v>8</v>
       </c>
       <c r="C1136" s="41" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="D1136" s="39" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="E1136" s="48" t="s">
         <v>22</v>
@@ -43052,7 +43060,7 @@
         <v>893</v>
       </c>
       <c r="C1137" s="41" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="D1137" s="39" t="s">
         <v>1573</v>
@@ -43131,16 +43139,16 @@
     </row>
     <row r="1140" spans="1:9" ht="30">
       <c r="A1140" s="39" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="B1140" s="43">
         <v>8</v>
       </c>
       <c r="C1140" s="41" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="D1140" s="39" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="E1140" s="48" t="s">
         <v>22</v>
@@ -43158,16 +43166,16 @@
     </row>
     <row r="1141" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A1141" s="39" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="B1141" s="43">
         <v>8</v>
       </c>
       <c r="C1141" s="41" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
       <c r="D1141" s="39" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="E1141" s="48" t="s">
         <v>22</v>
@@ -43187,16 +43195,16 @@
     </row>
     <row r="1142" spans="1:9" ht="45">
       <c r="A1142" s="39" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="B1142" s="43">
         <v>8</v>
       </c>
       <c r="C1142" s="41" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D1142" s="39" t="s">
         <v>2533</v>
-      </c>
-      <c r="D1142" s="39" t="s">
-        <v>2537</v>
       </c>
       <c r="E1142" s="48" t="s">
         <v>22</v>
@@ -43214,16 +43222,16 @@
     </row>
     <row r="1143" spans="1:9" ht="45">
       <c r="A1143" s="39" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="B1143" s="43">
         <v>8</v>
       </c>
       <c r="C1143" s="41" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="D1143" s="39" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="E1143" s="48" t="s">
         <v>22</v>
@@ -43346,7 +43354,7 @@
         <v>802</v>
       </c>
       <c r="B1148" s="40" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="C1148" s="41" t="s">
         <v>1456</v>
@@ -43371,7 +43379,7 @@
         <v>803</v>
       </c>
       <c r="B1149" s="40" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="C1149" s="41" t="s">
         <v>1457</v>
@@ -43398,7 +43406,7 @@
         <v>804</v>
       </c>
       <c r="B1150" s="40" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="C1150" s="41" t="s">
         <v>1458</v>
@@ -43425,7 +43433,7 @@
         <v>805</v>
       </c>
       <c r="B1151" s="40" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="C1151" s="41" t="s">
         <v>1459</v>
@@ -43452,7 +43460,7 @@
         <v>806</v>
       </c>
       <c r="B1152" s="40" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="C1152" s="41" t="s">
         <v>1460</v>
@@ -43479,7 +43487,7 @@
         <v>807</v>
       </c>
       <c r="B1153" s="40" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="C1153" s="41" t="s">
         <v>1461</v>
@@ -43506,10 +43514,10 @@
         <v>808</v>
       </c>
       <c r="B1154" s="40" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="C1154" s="41" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="D1154" s="39"/>
       <c r="E1154" s="39" t="s">
@@ -43531,7 +43539,7 @@
         <v>809</v>
       </c>
       <c r="B1155" s="40" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="C1155" s="41" t="s">
         <v>1462</v>
@@ -43556,7 +43564,7 @@
         <v>810</v>
       </c>
       <c r="B1156" s="40" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
       <c r="C1156" s="41" t="s">
         <v>1463</v>
@@ -43581,7 +43589,7 @@
         <v>811</v>
       </c>
       <c r="B1157" s="40" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="C1157" s="41" t="s">
         <v>1464</v>
@@ -43608,7 +43616,7 @@
         <v>812</v>
       </c>
       <c r="B1158" s="40" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="C1158" s="41" t="s">
         <v>1465</v>
@@ -43633,7 +43641,7 @@
         <v>1917</v>
       </c>
       <c r="B1159" s="40" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="C1159" s="41" t="s">
         <v>1918</v>
@@ -43788,7 +43796,7 @@
         <v>864</v>
       </c>
       <c r="C1165" s="41" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
       <c r="D1165" s="39"/>
       <c r="E1165" s="39" t="s">
@@ -43935,7 +43943,7 @@
         <v>824</v>
       </c>
       <c r="B1171" s="40" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
       <c r="C1171" s="41" t="s">
         <v>1476</v>
@@ -43960,7 +43968,7 @@
         <v>825</v>
       </c>
       <c r="B1172" s="40" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="C1172" s="41" t="s">
         <v>1477</v>
@@ -43985,7 +43993,7 @@
         <v>826</v>
       </c>
       <c r="B1173" s="40" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="C1173" s="41" t="s">
         <v>1478</v>
@@ -44010,7 +44018,7 @@
         <v>827</v>
       </c>
       <c r="B1174" s="40" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="C1174" s="41" t="s">
         <v>1479</v>
@@ -44035,7 +44043,7 @@
         <v>828</v>
       </c>
       <c r="B1175" s="40" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
       <c r="C1175" s="41" t="s">
         <v>1480</v>
@@ -44060,7 +44068,7 @@
         <v>829</v>
       </c>
       <c r="B1176" s="40" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="C1176" s="41" t="s">
         <v>1481</v>
@@ -44085,7 +44093,7 @@
         <v>830</v>
       </c>
       <c r="B1177" s="40" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="C1177" s="41" t="s">
         <v>1482</v>
@@ -44110,7 +44118,7 @@
         <v>831</v>
       </c>
       <c r="B1178" s="40" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="C1178" s="41" t="s">
         <v>1483</v>
@@ -44135,7 +44143,7 @@
         <v>832</v>
       </c>
       <c r="B1179" s="40" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="C1179" s="41" t="s">
         <v>1484</v>
@@ -44160,7 +44168,7 @@
         <v>833</v>
       </c>
       <c r="B1180" s="40" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="C1180" s="41" t="s">
         <v>1485</v>
@@ -44210,7 +44218,7 @@
         <v>835</v>
       </c>
       <c r="B1182" s="40" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="C1182" s="41" t="s">
         <v>1487</v>
@@ -44288,7 +44296,7 @@
         <v>893</v>
       </c>
       <c r="C1185" s="41" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="D1185" s="39" t="s">
         <v>1574</v>
@@ -44315,7 +44323,7 @@
         <v>893</v>
       </c>
       <c r="C1186" s="41" t="s">
-        <v>2680</v>
+        <v>2676</v>
       </c>
       <c r="D1186" s="39" t="s">
         <v>1574</v>
@@ -44330,7 +44338,7 @@
         <v>15</v>
       </c>
       <c r="H1186" s="39" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="I1186" s="41" t="s">
         <v>1610</v>
@@ -44400,7 +44408,7 @@
         <v>893</v>
       </c>
       <c r="C1189" s="41" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
       <c r="D1189" s="39" t="s">
         <v>1575</v>
@@ -44456,17 +44464,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1050:I1050 A1117:I1117 A1119:I1119 A1125:I1125 A1129:I1129 A1131:I1131 A1133:I1133 A1137:I1143 E133:H133 E148:H148 E198:H198 E351:H351 E1030:I1030 E1036:I1048 E1080:I1080 E1092:I1092 E131:I132 E130:H130 E349:I350 E348:H348 E211:H212 E341:I347 E433:I460 E431:H432 E463:I469 E461:H462 E470:H470 E1154:H1154 E1144:I1153 E1029:H1029 E1031:H1035 E1079:H1079 E1081:H1083 E1091:H1091 E1093:H1093 E1101:H1101 C1049:E1049 C1051:E1051 C1116:E1116 C1118:E1118 C1120:E1120 C1126:E1128 C1130:E1130 C1132:E1132 E332:H334 E134:I147 A1026:D1048 E199:I208 E1028:I1028 E1026:H1027 E210:I210 E209:H209 E325:I331 E324:H324 E430:I430 E429:H429 E471:I484 E107:I129 E106:H106 I81 A278:I278 H279:I279 E336:H340 A81 A279 A335 E1078:I1078 A1076:I1077 A1144:D1190 E1071:H1071 E1072:I1075 A20:I80 A82:I86 E87:I105 E149:I197 A298:D334 E298:I323 A795:B795 D795:I795 A847:B847 D847:I847 A1022:B1025 D1022:I1025 A1052:D1075 E1052:I1070 E1084:I1090 E1094:I1100 E1102:I1109 A1078:D1109 A1110:I1110 I1112 C1111:E1111 H1111 A1112:H1114 A1115:I1115 H1120 A1121:A1124 C1121:H1124 C1134:H1136 A796:I846 A87:D277 E213:I277 A280:I297 A336:D484 E352:I428 A485:I794 A848:I869 A872:I1012 A870:C871 E870:I871 E1155:I1190">
@@ -46656,15 +46664,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -46713,6 +46712,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -46720,14 +46728,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46738,6 +46738,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
